--- a/Dataset_CAT.xlsx
+++ b/Dataset_CAT.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12538" uniqueCount="1864">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12467" uniqueCount="1827">
   <si>
     <t>source</t>
   </si>
@@ -3077,19 +3077,19 @@
     <t>visitTrentino</t>
   </si>
   <si>
-    <t>Tipologia ,Feste e Sagre</t>
+    <t>Feste e Sagre</t>
   </si>
   <si>
     <t>La Collezione Cavallini Sgarbi</t>
   </si>
   <si>
-    <t>Periodo ,06/06/2019 - 06/01/2020</t>
-  </si>
-  <si>
-    <t>ore 9.30-17.00</t>
-  </si>
-  <si>
-    <t>Località ,Caldes</t>
+    <t>06/06/2019-06/01/2020</t>
+  </si>
+  <si>
+    <t>9.30-17.00</t>
+  </si>
+  <si>
+    <t>Caldes</t>
   </si>
   <si>
     <t>Top Evento ,La Collezione Cavallini Sgarbi ,Da Niccolò dell'Arca a Francesco Hayez a cura di Vittorio Sgarbi ,1 altre immagini ,Periodo ,06/06/2019 - 06/01/2020 ,Località ,Caldes ,Tipologia ,Feste e Sagre ,DA NICCOLÒ DELL'ARCA A FRANCESCO HAYEZ ,80 CAPOLAVORI RIVELANO LA STORIA DI UNA INFINITA E APPASSIONANTE CACCIA AMOROSA ,Una collezione d'arte privata è la fondazione di un sistema simbolico, la creazione di una palestra per l’anima, un luogo dove si materializzano scelte intime, meditate e, talvolta, sofferte. Sovente si dimentica che la sua più alta vocazione sia quella di accogliere il pubblico, di offrirsi agli sguardi, di raccontare la propria storia. ,Per la Collezione Cavallini Sgarbi questo accadrà fino al 6 gennaio 2020 a Caldes, nel magnifico Castel Caldes, dentro un emozionante percorso lungo quattro secoli che, dalla seconda metà del Quattrocento, radunerà 80 opere della celebre collezione in una inedita selezione «Da Niccolò dell’Arca a Francesco Hayez». La mostra, realizzata in collaborazione con la Fondazione Cavallini Sgarbi, la Fondazione Elisabetta Sgarbi, e la direzione artistica di Contemplazioni, è organizzata dall'Azienda per il Turismo Val di Sole e promossa dalla Provincia Autonoma di Trento, dal Comune di Caldes, da Trentino Marketing e dalla Comunità della Val di Sole. ,All’interno della mostra si respirerà l’atmosfera intima propria di una collezione privata, frutto dell’appassionata caccia amorosa di Vittorio Sgarbi, svolta in tandem con la madre Rina Cavallini, la quale ha acquistato le opere in numerose aste in ogni angolo del mondo. Il suo «miglior uomo», ricordata dal critico con queste parole: «si fece prolungamento del mio pensiero e della mia vita. Io indicavo il nome di un artista, il luogo, la casa d'aste. E lei puntuale prendeva la mira e colpiva». ,ORARIO DI APERTURA ,Orario continuato da martedì a domenica 10.00-18.00 ,Tutti i venerdì di luglio e agosto 10.00-22.00 ,ENTRATA A PAGAMENTO ,€ 10,00 INGRESSO SINGOLO INTERO ,€ 8,00 INGRESSO SINGOLO RIDOTTO over 65, possessori Trentino Guest Card , gruppi di almeno 15 persone, soci o tesserati di soggetti pubblici o privati convenzionati con il Museo, biglietto cumulativo 5 sedi, guide turistiche munite di tesserino di abilitazione ,€ 6,00 INGRESSO SINGOLO RIDOTTO SPECIALE RAGAZZI ragazzi da 15 a 26 anni ,OMAGGIO insegnanti accompagnatori di scolaresche in visita al museo o accreditati presso il Museo (EDUCard), diversamente abili e loro accompagnatore, professionisti del settore Beni e attività culturali (Ministero e Soprintendenze) muniti di tessera di riconoscimento e altri soggetti, convenzionati; Guide turistiche nell'esercizio della loro professione, ragazzi fino a 14 anni di età</t>
@@ -3101,16 +3101,19 @@
     <t>Da Niccolò dell'Arca a Francesco Hayez a cura di Vittorio Sgarbi</t>
   </si>
   <si>
-    <t>https://www.visittrentino.info/it/guida/eventi/la-collezione-cavallini-sgarbi_e_9318561?destination=&amp;submitted=1&amp;startdate=29%2F11%2F2019&amp;category%5B0%5D=&amp;enddate=15%2F12%2F2019</t>
-  </si>
-  <si>
-    <t>Tipologia ,Eventi Culturali, Mostre</t>
-  </si>
-  <si>
-    <t>Periodo ,20/07/2019 - 14/06/2020</t>
-  </si>
-  <si>
-    <t>Località ,Trento</t>
+    <t>https://www.visittrentino.info/it/guida/eventi/la-collezione-cavallini-sgarbi_e_9318561?destination=&amp;submitted=1&amp;startdate=03%2F12%2F2019&amp;category%5B0%5D=&amp;enddate=15%2F12%2F2019</t>
+  </si>
+  <si>
+    <t>Cultural--Feste e Sagre</t>
+  </si>
+  <si>
+    <t>Eventi Culturali, Mostre</t>
+  </si>
+  <si>
+    <t>20/07/2019-14/06/2020</t>
+  </si>
+  <si>
+    <t>Trento</t>
   </si>
   <si>
     <t>Top Evento ,Cosmo cartoons ,L’esplorazione dell’Universo tra scienza e cultura pop ,Periodo ,20/07/2019 - 14/06/2020 ,Località ,Trento ,Tipologia ,Eventi Culturali, Mostre ,Romanzi, film, fumetti, videogiochi, da Giulio Verne a Interstellar: in quanti modi abbiamo raccontato l’esplorazione dell’universo? Per scoprirlo basta andare al Muse di Trento, il famoso museo di scienze naturali disegnato dall’architetto Renzo Piano nel quartiere Le Albere, a pochi minuti dal centro storico della città. ,Fino al 16 giugno 2020 il Muse ospita la mostra “Cosmo Cartoons” che, attraverso un percorso immersivo e interattivo, racconta il lato “pop” della corsa allo spazio, senza dimenticare scienza e tecnologia. ,Protagonista della mostra è la fantascienza, con illustrazioni che vanno dai romanzi di Verne alle riviste americane degli anni Cinquanta e alle famose copertine della collana di fantascienza Urania. C’è poi il cinema, che sin dagli albori ha tratto grande ispirazione dall’esplorazione dello spazio: dal celebre “Viaggio nella Luna” di Georges Méliès (1902) ai recenti blocksbuster come “Gravity” (2013) e “Interstellar” (2014). ,Grande spazio è dato anche allo sbarco dell’Apollo 11 bel 1969, a cui è dedicata un’intera sezione della mostra. Non mancano poi i giochi e i videogiochi ispirati alla fantascienza. ,Punto di forza della mostra è la sua capacità di coinvolgere il pubblico che viene invitato a interagire con installazioni interattive e multimediali, postazioni audio e angoli lettura tematici, fino ad arrivare in una vera e propria area giochi per tutte le età. ,Il biglietto per la mostra è compreso nel biglietto d'ingresso al museo</t>
@@ -3122,16 +3125,16 @@
     <t>L’esplorazione dell’Universo tra scienza e cultura pop</t>
   </si>
   <si>
-    <t>https://www.visittrentino.info/it/guida/eventi/cosmo-cartoons_e_10961816?destination=&amp;submitted=1&amp;startdate=29%2F11%2F2019&amp;category%5B0%5D=&amp;enddate=15%2F12%2F2019</t>
-  </si>
-  <si>
-    <t>Tipologia ,Feste e Sagre, Enogastronomia, Intrattenimento della Località, Festival, Mercati e mercatini</t>
-  </si>
-  <si>
-    <t>Periodo ,23/11/2019 - 22/12/2019</t>
-  </si>
-  <si>
-    <t>Località ,Ala</t>
+    <t>https://www.visittrentino.info/it/guida/eventi/cosmo-cartoons_e_10961816?destination=&amp;submitted=1&amp;startdate=03%2F12%2F2019&amp;category%5B0%5D=&amp;enddate=15%2F12%2F2019</t>
+  </si>
+  <si>
+    <t>Cultural--Eventi Culturali, Mostre</t>
+  </si>
+  <si>
+    <t>Feste e Sagre, Enogastronomia, Intrattenimento della Località, Festival, Mercati e mercatini</t>
+  </si>
+  <si>
+    <t>Ala</t>
   </si>
   <si>
     <t>Natale nei Palazzi Barocchi ,L'atmosfera del Natale nei palazzi barocchi della Città di Velluto ,2 altre immagini ,Periodo ,23/11/2019 - 22/12/2019 ,Località ,Ala ,Tipologia ,Feste e Sagre, Enogastronomia, Intrattenimento della Località, Festival, Mercati e mercatini ,Nei weekend che precedono il Natale ad Ala ti aspetta un mercatino esclusivo con tessuti, sete dipinte a mano e originali decorazioni natalizie. Nei palazzi musica e sapori e per i bambini tanti laboratori creativi. ,Mercatino di Natale ad Ala: un Natale speciale ,Ala, accogliente borgo trentino, Bandiera arancione del Touring Club Italiano, fu famosa nel Settecento per la produzione di velluti di seta. La città ha mantenuto ancora oggi l’atmosfera barocca dell’epoca. Fiori all’occhiello di Ala sono il centro storico, tra i più eleganti del Trentino, il Museo del Pianoforte Antico e il futuro Museo provinciale del tessuto. ,A caratterizzare il centro storico palazzi di pregio che si aprono ai visitatori per accogliere spettacoli d’arte, musica e poesia. Sono proprio le stanze e gli androni di queste preziose location ad ospitare il Mercatino e le manifestazioni a tema nei quattro weekend prima di Natale, con chiusura il 23 Dicembre. ,Una suggestiva scenografia di luci teatrali e luminarie di richiamo barocco accenderanno il percorso natalizio del centro storico, le facciate, i saloni e gli androni dei principali palazzi, per offrire una nuova esperienza del Natale. ,Ala, Città di Velluto, con il suo mercatino di Natale alternativo, tra suggestione, storia, bellezza e tradizione, racconta e fa rivivere un’atmosfera d’altri tempi. ,Il Mercatino di Natale a Ala: un Mercatino esclusivo ,Aperto il 24-25 novembre, 1-2 dicembre, 8-9 dicembre, 15-16 dicembre, 22-23 dicembre ,Gli androni e le sale di alcuni dei palazzi più belli del centro storico ospitano artigiani e artisti con i loro originali manufatti che richiamano la storia, la cultura e le tradizioni di questo magnifico borgo trentino: tessuti, sete, decorazioni natalizie particolari e creative. Un suggestivo ed originale percorso del centro storico che vedrà accolti, nei palazzi settecenteschi, artigiani ed artisti che metteranno in mostra i loro prodotti. Realtà e aziende che mostrano un chiaro legame con il fare, ricreando, all’interno dei palazzi, delle botteghe narranti capaci di raccontare e comunicare, attraverso laboratori e dimostrazioni, la propria storia e l’unicità della propria proposta. ,Guarda il video del Mercatino di Natale di Ala! ,Gli eventi: Musica e Tradizione nei palazzi e lungo le vie del centro storico ,La musica. Un elemento a cui la città di Ala ha sempre prestato particolare attenzione, caratterizzando i suoi palazzi e raccontando la sua storia. Tanti gli appuntamenti con le note ed i canti che i gruppi alensi e provenienti da fuori regione proporranno nei weekend di festa. Un programma ricco di suggestioni e di momenti da condividere. Da non perdere le coinvolgenti visite guidate in costume, a lume di candela, a cura dell’Associazione Culturale Vellutai (tutti i giorni della manifestazione alle ore 17) e la scenografica mostra dedicata al Presepio barocco napoletano: un inedito percorso scenografico tra storia, tradizione e la cultura presepiale, famosa in tutto il mondo. ,I bambini: i protagonisti del Natale ,Anche i bambini troveranno uno spazio a loro dedicato, dove verranno proposti laboratori a tema e piccole animazioni per far trascorrere momenti piacevoli… e al calduccio! ,I sapori: un viaggio nel gusto ,I sapori e i profumi della Vallagarina si incontrano ad Ala, per ricordare la ricchezza e l’autenticità dei prodotti che il territorio produce e lavora secondo tradizioni che si sono mantenute nel tempo. Vignaioli, viticoltori, agricoltori e ristoratori animano le location del centro storico della Città di Velluto per proporre e raccontare i loro prodotti e la loro storia, e regalare persistenti esperienze di gusto.</t>
@@ -3143,13 +3146,13 @@
     <t>L'atmosfera del Natale nei palazzi barocchi della Città di Velluto</t>
   </si>
   <si>
-    <t>https://www.visittrentino.info/it/guida/eventi/natale-nei-palazzi-barocchi_e_703006?destination=&amp;submitted=1&amp;startdate=29%2F11%2F2019&amp;category%5B0%5D=&amp;enddate=15%2F12%2F2019</t>
-  </si>
-  <si>
-    <t>Tipologia ,Intrattenimento della Località, Mercati e mercatini</t>
-  </si>
-  <si>
-    <t>Periodo ,23/11/2019 - 06/01/2020</t>
+    <t>https://www.visittrentino.info/it/guida/eventi/natale-nei-palazzi-barocchi_e_703006?destination=&amp;submitted=1&amp;startdate=03%2F12%2F2019&amp;category%5B0%5D=&amp;enddate=15%2F12%2F2019</t>
+  </si>
+  <si>
+    <t>Cultural--Feste e Sagre, Enogastronomia, Intrattenimento della Località, Festival, Mercati e mercatini</t>
+  </si>
+  <si>
+    <t>Intrattenimento della Località, Mercati e mercatini</t>
   </si>
   <si>
     <t>Mercatini di Natale a Trento ,Profumi, luci, atmosfera di festa ,2 altre immagini ,Periodo ,23/11/2019 - 06/01/2020 ,Località ,Trento ,Tipologia ,Intrattenimento della Località, Mercati e mercatini ,I Mercatini di Natale tornano nel centro storico di Trento dal 23 novembre 2019 al 6 gennaio 2020 ,Il Natale torna a Trento e porta luci, colori, suoni e profumi delle feste. Oltre alle casette con tanti prodotti artigianali loicali per i tuoi acquisti e regali di Natale, grande spazio è dedicato alla gastronomia con i prodotti del Trentino, dai vini ai distillati, dai salumi ai formaggi da portare a casa. E in piazza tante specialità culinarie da gustare in compagnia! ,Oltre alla storica sede di Piazza Fiera il mercatino è presente anche in Piazza Cesare Battisti. Con le sue 90 casette di legno, Il Mercatino di Natale è la manifestazione principale di Trento Città del Natale, ma molte altre sono le iniziative in città. ,Treni speciali ,E sempre nel periodo del Mercatino, Trento sarà raggiungibile a bordo di Treni storici speciali in partenza dalle stazioni di Milano Lambrate, Lecco, Bergamo e Brescia, domenica 24 novembre, domenica 1 e domenica 8 dicembre. ,Prenotazione obbligatoria - Info: www.ferrovieturistiche.it - Tel. 338 8577210. ,Aperture/Orari ,Il Mercatino è aperto dalla domenica al giovedì dalle 10.00 alle 19.30; venerdì e sabato dalle 10.00 alle 20.30; sabato 14 dicembre 2019 e sabato 4 gennaio 2020 aperto dalle ore 10.00 alle ore 23.00. Il 26 dicembre 2019, il 1° e il 6 gennaio 2020 aperto dalle 10.00 alle 19.30. ,Il giorno di Natale il Mercatino è chiuso. ,Per maggiori informazioni visita anche il sito www.mercatinodinatale.tn.it</t>
@@ -3161,19 +3164,22 @@
     <t>Profumi, luci, atmosfera di festa</t>
   </si>
   <si>
-    <t>https://www.visittrentino.info/it/guida/eventi/mercatini-di-natale-a-trento_e_310551?destination=&amp;submitted=1&amp;startdate=29%2F11%2F2019&amp;category%5B0%5D=&amp;enddate=15%2F12%2F2019</t>
-  </si>
-  <si>
-    <t>Tipologia ,Mercati e mercatini, Folklore</t>
+    <t>https://www.visittrentino.info/it/guida/eventi/mercatini-di-natale-a-trento_e_310551?destination=&amp;submitted=1&amp;startdate=03%2F12%2F2019&amp;category%5B0%5D=&amp;enddate=15%2F12%2F2019</t>
+  </si>
+  <si>
+    <t>Cultural--Intrattenimento della Località, Mercati e mercatini</t>
+  </si>
+  <si>
+    <t>Mercati e mercatini, Folklore</t>
   </si>
   <si>
     <t>El paès dei presepi</t>
   </si>
   <si>
-    <t>Periodo ,07/12/2019 - 06/01/2020</t>
-  </si>
-  <si>
-    <t>Località ,Baselga di Pine'</t>
+    <t>07/12/2019-06/01/2020</t>
+  </si>
+  <si>
+    <t>Baselga di Pine'</t>
   </si>
   <si>
     <t>El paès dei presepi ,Tradizioni e mercatini natalizi di Pinè ,1 altre immagini ,Periodo ,07/12/2019 - 06/01/2020 ,Località ,Baselga di Pine' ,Tipologia ,Mercati e mercatini, Folklore ,Sull’Altopiano di Piné e in Valle di Cembra l’inverno è più caldo...Dal 7 dicembre al 6 gennaio vi avvolgerà l’atmosfera natalizia de El Paés dei Presepi. Nel piccolo paese di Miola di Piné rivive da più di vent’anni la tradizione dei presepi: se ne incontrano a decine, sparsi negli avvolti, sulle finestrelle e negli antichi portici,alcuni artigianali ed altri di notevole pregio artistico. ,Il programma è ricchissimo: ,- Spettacoli natalizi ,- Animazione ,- Laboratori e letture per bambini ,- Il gioco dell’oggetto misterioso ,- Il presepe mobile ,- Un mercatino natalizio ,- Un punto ristoro ,- La piazza e la casa di Babbo Natale ,- Il presepe luminoso sul Dosso di Miola ,- Il calessino natalizio ,- Una rassegna gastronomica nei ristoranti locali ,... e tante altre sorprese con divertimento per tutta la famiglia! ,Scopri il programma giorno per giorno, scarica la brochure e vieni a trovarci! ,E se volete vivere intensamente lo spirito natalizio approfittate delle offerte dedicate.</t>
@@ -3185,94 +3191,241 @@
     <t>Tradizioni e mercatini natalizi di Pinè</t>
   </si>
   <si>
-    <t>https://www.visittrentino.info/it/guida/eventi/el-paes-dei-presepi_e_312697?destination=&amp;submitted=1&amp;startdate=29%2F11%2F2019&amp;category%5B0%5D=&amp;enddate=15%2F12%2F2019</t>
-  </si>
-  <si>
-    <t>Tipologia ,Cinema</t>
-  </si>
-  <si>
-    <t>FuCinema</t>
-  </si>
-  <si>
-    <t>Periodo ,08/11/2019 - 29/11/2019</t>
-  </si>
-  <si>
-    <t>Località ,Ossana</t>
-  </si>
-  <si>
-    <t>FuCinema ,4 serate nel segno del grande cinema ,Periodo ,08/11/2019 - 29/11/2019 ,Località ,Ossana ,Tipologia ,Cinema ,NOVEMBRE 2019 ,Come mi vuoi, come mi voglio ,VENERDÌ 8 NOVEMBRE ,Cinema Comunale Ossana - ore 20.45 ,CUORI PURI ,di Roberto De Paolis - ITALIA 2017 - 114' ,Introduce: Oscar Andreis (FuCinema) ,Presentato al festival di Cannes 2017. Agnese e Stefano, due mondi agli antipodi a pochi metri di distanza. Lei devota ad una madre intransigente e ai precetti della parrocchia. Lui sottoposto alla dura legge della strada. Mentre tutto, attorno, cade a pezzi, i due ragazzi corrono inevitabilmente verso un incontro/scontro. ,VENERDÌ 15 NOVEMBRE ,Cinema Comunale Ossana - ore 20.45 ,LA BICICLETTA VERDE ,di Haifaa Al-Mansour - ARABIA SAUDITA 2012 - 93' ,Introduce: Non Una di Meno (Trento) ,Presentato al festival di Venezia 2012. Haifaa Al Mansour è la prima regista dell'Arabia Saudita. Wadjda è una bambina molto intelligente e piena di vita. Sogna disperatamente di avere una bicicletta per poter battere l’amico Abdullah in una gara. Ma la società considera le biciclette un pericolo per la virtù delle ragazzine... ,VENERDÌ 22 NOVEMBRE ,Cinema Comunale Ossana - ore 20.45 ,MOONLIGHT ,di Barry Jenkins - USA 2016 - 111' ,Introduce: Arcigay del Trentino ,Vincitore di tre premi Oscar. Il giovanissimo Chiron vive nei sobborghi di Miami, accerchiato da gang intrise di machismo e criminalità. Impossibile per lui manifestare la propria omosessualità, che custodisce come un segreto. Sarà costretto a cambiare, diventare un altro, ma come nascondere per sempre quello che si è? ,VENERDÌ 29 NOVEMBRE ,Cinema Comunale Ossana - ore 20.45 ,AMERICAN LIFE ,di Sam Mendes - USA 2009 - 98' ,Introduce: Valeria Bigongiali (FuCinema) ,Dal premio Oscar Sam Mendes (con American Beauty), una commedia tenera e brillante. Burt e Verona, in attesa di una bambina, intraprendono un viaggio alla ricerca di un luogo dove crescere la loro famiglia e dove essere amanti e genitori a modo loro, lontano dai condizionamenti di chi li vorrebbe diversi. ,- INGRESSO LIBERO - ,FuCinema è un progetto ideato ed organizzato dal Comune di Ossana in collaborazione con la Gestione Associata Comuni Alta Val di Sole (Ossana, Pellizzano, Peio e Vermiglio) e Biblioteche Val di Sole.</t>
-  </si>
-  <si>
-    <t>[{"name": "+390463752013", "url": "tel:+390463752013"}, {"name": "Invia E-mail", "url": "https://www.visittrentino.info/it/guida/contatto?mailto=ossana@biblio.infotn.it&amp;originUrl=/it/guida/eventi/fucinema_e_12495197&amp;origin=FuCinema"}]</t>
-  </si>
-  <si>
-    <t>4 serate nel segno del grande cinema</t>
-  </si>
-  <si>
-    <t>https://www.visittrentino.info/it/guida/eventi/fucinema_e_12495197?destination=&amp;submitted=1&amp;startdate=29%2F11%2F2019&amp;category%5B0%5D=&amp;enddate=15%2F12%2F2019</t>
-  </si>
-  <si>
-    <t>Tipologia ,Altro</t>
-  </si>
-  <si>
-    <t>Concerto dei cori per Aido</t>
-  </si>
-  <si>
-    <t>Periodo ,29/11/2019</t>
-  </si>
-  <si>
-    <t>h 20.30 &gt; 22.30</t>
-  </si>
-  <si>
-    <t>Località ,Arco</t>
-  </si>
-  <si>
-    <t>Concerto dei cori per Aido ,Serata informativa sulla donazione di organi e concerto del coro Castèl SAT Arco e Coro Martinella di Serrada ,2 altre immagini ,Periodo ,29/11/2019 ,Località ,Arco ,Tipologia ,Altro ,Per sostenere la ricerca, Aido Associazione Italiana per la Donazione di Organi, il 29 novembre terrà il prezioso e suggestivo concerto con il Coro Castel della Sat di Arco diretto dalla Maestra Alice Andreasi e il famoso Coro Martinella di Serrada diretto dal Maestro Gianni Caracristi. ,L’appuntamento è al Salone delle Feste del Casinò di Arco al quale farà da contorno un momento di informazione sulla donazione e il trapianto di organi, tessuti e cellule. La serata è organizzata da Aido Vallagarina e interverranno la dottoressa Lucia Pilati, coordinatrice provinciale dei trapianti Apss Trento, il dottor Bruno Giacon nefrologo e già coordinatore provinciale dei trapianti per la Provincia di Bolzano e alcune persone rinate grazie al trapianto. ,L’ingresso è libero. Inizio ore 20.30</t>
-  </si>
-  <si>
-    <t>[{"name": "Invia E-mail", "url": "https://www.visittrentino.info/it/guida/contatto?mailto=aido.vallagarina@gmail.com&amp;originUrl=/it/guida/eventi/concerto-dei-cori-per-aido_e_13132580&amp;origin=Concerto%20dei%20cori%20per%20Aido"}]</t>
-  </si>
-  <si>
-    <t>Serata informativa sulla donazione di organi e concerto del coro Castèl SAT Arco e Coro Martinella di Serrada</t>
-  </si>
-  <si>
-    <t>https://www.visittrentino.info/it/guida/eventi/concerto-dei-cori-per-aido_e_13132580?destination=&amp;submitted=1&amp;startdate=29%2F11%2F2019&amp;category%5B0%5D=&amp;enddate=15%2F12%2F2019</t>
-  </si>
-  <si>
-    <t>Tipologia ,Teatro/Danza</t>
-  </si>
-  <si>
-    <t>Su e zo dal palco</t>
-  </si>
-  <si>
-    <t>Periodo ,09/11/2019 - 30/11/2019</t>
-  </si>
-  <si>
-    <t>h. 21.00 &gt; 23.00</t>
-  </si>
-  <si>
-    <t>Su e zo dal palco ,4 sabati con la rassegna di teatro dialettale ,Periodo ,09/11/2019 - 30/11/2019 ,Località ,Arco ,Tipologia ,Teatro/Danza ,L'associazione “Noi Oratorio Arco” ha organizzato la rassegna “Su e zo dal palco. 4 sabi en dialet”, che porterà sul palco quattro compagnie del teatro amatoriale trentino. ,PROGRAMMA: ,9 Novembre 2019 ,"Do pei'nte na scarpa" di Antonia Dalpiaz ,Gruppo Filodrammatico Coredano ,16 Novembre 2019 ,"La badante del nono" di Fabio Svaldi ,Filodrammatica "El lumac" &gt; Piazze di Bedollo ,23 Novembre 2019 ,"Tre zeri de masa" sceneggiatura e adattamento teatrale di Paolo Scottini ,"Compagnia Bela" &gt; Rovereto ,30 Novembre 2019 ,"El convento del santo spirito" ideata e scritta dalla Filodrammatica Telve ,Tutti gli appuntamenti avranno inizio alle ore 21.00 ,Il costo del biglietto è di 7€ (in prevendita alla biglietteria durante le proiezioni del cinema e il mercoledì dalle 16.30 alle 18.30) ,Abbonamento 4 serate con posto prenotato euro 24,00</t>
-  </si>
-  <si>
-    <t>[{"name": "+393803491721", "url": "tel:+393803491721"}, {"name": "Invia E-mail", "url": "https://www.visittrentino.info/it/guida/contatto?mailto=auditorium@parrocchiadiarco.it&amp;originUrl=/it/guida/eventi/su-e-zo-dal-palco_e_314800&amp;origin=Su%20e%20zo%20dal%20palco"}]</t>
-  </si>
-  <si>
-    <t>4 sabati con la rassegna di teatro dialettale</t>
-  </si>
-  <si>
-    <t>https://www.visittrentino.info/it/guida/eventi/su-e-zo-dal-palco_e_314800?destination=&amp;submitted=1&amp;startdate=29%2F11%2F2019&amp;category%5B0%5D=&amp;enddate=15%2F12%2F2019</t>
-  </si>
-  <si>
-    <t>Tipologia ,Mercati e mercatini</t>
+    <t>https://www.visittrentino.info/it/guida/eventi/el-paes-dei-presepi_e_312697?destination=&amp;submitted=1&amp;startdate=03%2F12%2F2019&amp;category%5B0%5D=&amp;enddate=15%2F12%2F2019</t>
+  </si>
+  <si>
+    <t>Cultural--Mercati e mercatini, Folklore</t>
+  </si>
+  <si>
+    <t>Folklore, Enogastronomia, Intrattenimento della Località, Mercati e mercatini</t>
+  </si>
+  <si>
+    <t>26° Mercatino di Natale di Siror - Christkindlmarkt</t>
+  </si>
+  <si>
+    <t>Primiero - Siror</t>
+  </si>
+  <si>
+    <t>26° Mercatino di Natale di Siror - Christkindlmarkt ,Un’atmosfera unica fatta di colori, luci e sapori! ,Periodo ,Attenzione! ,L'evento ha già avuto luogo! ,Località ,Primiero - Siror ,Tipologia ,Folklore, Enogastronomia, Intrattenimento della Località, Mercati e mercatini ,Il Mercatino di Natale di Siror, il più antico mercatino di Natale del Trentino, come da tradizione si prepara a trasformare l’antico borgo di Primiero in un romantico Christkindlmarkt. ,Le caratteristiche casette in legno, gli antichi fienili e le stalle del centro storico si trasformeranno in pittoresche botteghe dove trovare originalissimi regali natalizi: decorazioni, presepi, produzioni artigianali e numerose proposte golose, dolci e salate, come il tipico brazedel di Siror, lo zelten trentino, i salumi, il miele, le frittelle e tante altre delizie. ,Consigliatissimi un tour del paese a bordo della troika, tradizionale slitta trainata dai cavalli, e una tappa alla mostra concorso “Il mio albero di Natale”, dove trovare spunti e idee per un abete diverso dal solito e votare l’alberò più originale. ,Durante il Mercatino di Natale scultori da tutta Italia parteciperanno al tradizionale Simposio di Scultura “Arte Natale” e daranno vita, sotto gli occhi curiosi del pubblico, a piccoli capolavori in legno. Vista la vicinanza alla piste di San Martino di Castrozza-Passo Rolle, che si trovano a solo 13 chilometri, la visita al Mercatino di Natale di Siror diventerà un’ottima occasione per concludere in bellezza le prime sciate della stagione. ,Tra le proposte dedicate ai bambini non perdetevi Il Bosco del Mazarol, in luovo percorso a tema tra le "canisele" di Siror, per scoprire dove vive il Mazarol, personaggio leggendario amato e temuto da tutti i bambini del Primiero. Quest'anno il percorso è agibile anche con carrozzine e passeggini. Il Bosco del Mazarol sarà visitabile anche le festività natalizie. ,Inoltre a grande richiesta ritornano i Laboratori Creativi Natalizi a cura dei ragazzi del gruppo "Coreghe Drio" presso la sede ex Cassa Rurale, dove verrà allestito anche il Punto Bimbo, uno spazio caldo ed accogliente con fasciatoio e divanetti dove allattare con tranquillità. ,Quando: 24 novembre – 1 – 7 – 8 – 15 – 22 dicembre dalle 10.30 alle 18.30 nel centro storico di Siror (Primiero San Martino di Castrozza)</t>
+  </si>
+  <si>
+    <t>[{"name": "043962407", "url": "tel:043962407"}, {"name": "Invia E-mail", "url": "https://www.visittrentino.info/it/guida/contatto?mailto=infoprimiero@sanmartino.com&amp;originUrl=/it/guida/eventi/26deg-mercatino-di-natale-di-siror-christkindlmarkt_e_455984&amp;origin=26%C2%B0%20Mercatino%20di%20Natale%20di%20Siror%20-%20Christkindlmarkt"}]</t>
+  </si>
+  <si>
+    <t>Un’atmosfera unica fatta di colori, luci e sapori!</t>
+  </si>
+  <si>
+    <t>https://www.visittrentino.info/it/guida/eventi/26deg-mercatino-di-natale-di-siror-christkindlmarkt_e_455984?destination=&amp;submitted=1&amp;startdate=03%2F12%2F2019&amp;category%5B0%5D=&amp;enddate=15%2F12%2F2019</t>
+  </si>
+  <si>
+    <t>Cultural--Folklore, Enogastronomia, Intrattenimento della Località, Mercati e mercatini</t>
+  </si>
+  <si>
+    <t>Altro</t>
+  </si>
+  <si>
+    <t>Arriva San Nicolò</t>
+  </si>
+  <si>
+    <t>05/12/2019</t>
+  </si>
+  <si>
+    <t>Moena</t>
+  </si>
+  <si>
+    <t>Arriva San Nicolò ,Al calare della sera arriva San Nicolò accompagnato dagli angeli per distribuire ai bambini doni e dolcetti ,Periodo ,05/12/2019 ,Località ,Moena ,Tipologia ,Altro ,Il 5 dicembre, come tradizione vuole, tutti i bambini del paese dopo le ore 16 escono di casa con i "campanacci" per avvisare la popolazione dell’arrivo di San Nicolò. A gruppi si fermano davanti ai negozi che provvedono a riempire di dolcetti e caramelle i loro sacchetti. Alle ore 18.00, nella suggestiva frazione di Sorte, piccolo borgo di Moena raggiungibile a piedi o in macchina, arriva San Nicolò con i suoi amati angioletti e la gerla carica di doni che saranno distribuiti ai bambini. Iscrizione obbligatoria presso l’Hotel Piedibosco.</t>
+  </si>
+  <si>
+    <t>[{"name": "+390462573389", "url": "tel:+390462573389"}, {"name": "Invia E-mail", "url": "https://www.visittrentino.info/it/guida/contatto?mailto=infomoena@fassa.com&amp;originUrl=/it/guida/eventi/arriva-san-nicolo_e_821794&amp;origin=Arriva%20San%20Nicol%C3%B2"}]</t>
+  </si>
+  <si>
+    <t>Al calare della sera arriva San Nicolò accompagnato dagli angeli per distribuire ai bambini doni e dolcetti</t>
+  </si>
+  <si>
+    <t>https://www.visittrentino.info/it/guida/eventi/arriva-san-nicolo_e_821794?destination=&amp;submitted=1&amp;startdate=03%2F12%2F2019&amp;category%5B0%5D=&amp;enddate=15%2F12%2F2019</t>
+  </si>
+  <si>
+    <t>Cultural--Altro</t>
+  </si>
+  <si>
+    <t>Sport</t>
+  </si>
+  <si>
+    <t>Hockey su ghiaccio: Fassa Falcons vs. HC Gherdëina</t>
+  </si>
+  <si>
+    <t>Canazei</t>
+  </si>
+  <si>
+    <t>Hockey su ghiaccio: Fassa Falcons vs. HC Gherdëina ,Campionato di hockey su ghiaccio dell’Alps Hockey League ,Periodo ,05/12/2019 ,Località ,Canazei ,Tipologia ,Sport ,Segui le partite in casa dei Fassa Falcons, la squadra di hockey su ghiaccio dell’Alps Hockey League. I campioni della Val di Fassa giocano contro l’HC Gherdëina. Ingresso: adulti € 12; ragazzi 6-12 anni € 8; gratuito per i bambini fino a 5 anni. Inizio partita alle ore 20.30.</t>
+  </si>
+  <si>
+    <t>[{"name": "+390462602499", "url": "tel:+390462602499"}, {"name": "Invia E-mail", "url": "https://www.visittrentino.info/it/guida/contatto?mailto=info@fassafalcons.com&amp;originUrl=/it/guida/eventi/hockey-su-ghiaccio-fassa-falcons-vs.hc-gherdeina_e_3638983&amp;origin=Hockey%20su%20ghiaccio:%20Fassa%20Falcons%20vs.%20HC%20Gherd%C3%ABina"}]</t>
+  </si>
+  <si>
+    <t>Campionato di hockey su ghiaccio dell’Alps Hockey League</t>
+  </si>
+  <si>
+    <t>https://www.visittrentino.info/it/guida/eventi/hockey-su-ghiaccio-fassa-falcons-vs.hc-gherdeina_e_3638983?destination=&amp;submitted=1&amp;startdate=03%2F12%2F2019&amp;category%5B0%5D=&amp;enddate=15%2F12%2F2019</t>
+  </si>
+  <si>
+    <t>Cultural--Sport</t>
+  </si>
+  <si>
+    <t>Arriva San Nicolò a Vigo di Fassa</t>
+  </si>
+  <si>
+    <t>16.00</t>
+  </si>
+  <si>
+    <t>Vigo di Fassa</t>
+  </si>
+  <si>
+    <t>Arriva San Nicolò a Vigo di Fassa ,Al calare della notte appare San Nicolò accompagnato da alcuni angeli per distribuire loro doni e dolcetti ,Periodo ,05/12/2019 ,Località ,Vigo di Fassa ,Tipologia ,Altro ,Nel solco della tradizione della nostra Valle, nella sera di venerdì 5 dicembre (dalle ore 16.00), arriva San Nicolò, vestito da vescovo, accompagnato da due angeli, che lo aiutano a portare la gerla con i doni, e dai krampus, temuti da tutti i bambini. Durante la visita nelle case, i diavoli rimangono fuori dalla porta, a meno che non vi siano bambini particolarmente discoli.</t>
+  </si>
+  <si>
+    <t>[{"name": "+390462609700", "url": "tel:+390462609700"}, {"name": "Invia E-mail", "url": "https://www.visittrentino.info/it/guida/contatto?mailto=infovigo@fassa.com&amp;originUrl=/it/guida/eventi/arriva-san-nicolo-a-vigo-di-fassa_e_12289024&amp;origin=Arriva%20San%20Nicol%C3%B2%20a%20Vigo%20di%20Fassa"}]</t>
+  </si>
+  <si>
+    <t>Al calare della notte appare San Nicolò accompagnato da alcuni angeli per distribuire loro doni e dolcetti</t>
+  </si>
+  <si>
+    <t>https://www.visittrentino.info/it/guida/eventi/arriva-san-nicolo-a-vigo-di-fassa_e_12289024?destination=&amp;submitted=1&amp;startdate=03%2F12%2F2019&amp;category%5B0%5D=&amp;enddate=15%2F12%2F2019</t>
+  </si>
+  <si>
+    <t>Eventi Culturali</t>
+  </si>
+  <si>
+    <t>Depero Incontri</t>
+  </si>
+  <si>
+    <t>Rovereto</t>
+  </si>
+  <si>
+    <t>Depero Incontri ,Alfredo Casella: musica pittura poesia ,Periodo ,05/12/2019 ,Località ,Rovereto ,Tipologia ,Eventi Culturali ,L’autrice Marina Degl’Innocenti presenta il libro che ripercorre la vicenda biografica e compositiva di Alfredo Casella (1883-1947), musicista italiano di formazione francese, la cui attività suggerisce molti punti di contatto con il mondo letterario e artistico. ,Il volume ricostruisce la particolare atmosfera culturale, in riferimento al periodo delle avanguardie – con l’esperienza dei Balli plastici di Fortunato Depero – fino al successivo 'ritorno all'ordine' negli anni fra le due guerre.</t>
+  </si>
+  <si>
+    <t>[{"name": "Invia E-mail", "url": "https://www.visittrentino.info/it/guida/contatto?mailto=eventi@mart.tn.it&amp;originUrl=/it/guida/eventi/depero-incontri_e_13323318&amp;origin=Depero%20Incontri"}]</t>
+  </si>
+  <si>
+    <t>Alfredo Casella: musica pittura poesia</t>
+  </si>
+  <si>
+    <t>https://www.visittrentino.info/it/guida/eventi/depero-incontri_e_13323318?destination=&amp;submitted=1&amp;startdate=03%2F12%2F2019&amp;category%5B0%5D=&amp;enddate=15%2F12%2F2019</t>
+  </si>
+  <si>
+    <t>Cultural--Eventi Culturali</t>
+  </si>
+  <si>
+    <t>Intrattenimento della Località</t>
+  </si>
+  <si>
+    <t>Auguri in Musica</t>
+  </si>
+  <si>
+    <t>06/12/2019</t>
+  </si>
+  <si>
+    <t>20.30-22.00</t>
+  </si>
+  <si>
+    <t>Riva del Garda</t>
+  </si>
+  <si>
+    <t>Auguri in Musica ,Tradizionale concerto corale con gli allievi e i docenti della Scuola Musicale Alto Garda ,Periodo ,06/12/2019 ,Località ,Riva del Garda ,Tipologia ,Intrattenimento della Località ,Venerdì 6 dicembre alle ore 20.30 l’Auditorium del Conservatorio “F.A. Bonporti” di Riva del Garda ospita il concerto “Auguri in musica”con gli allievi e i docenti della Scuola Musicale Alto Garda, che promuove la raccolta di fondi in sostegno di Caritas di Riva del Garda quale segno di solidarietà. ,Ingresso libero.</t>
+  </si>
+  <si>
+    <t>[{"name": "+390464516681", "url": "tel:+390464516681"}, {"name": "Invia E-mail", "url": "https://www.visittrentino.info/it/guida/contatto?mailto=didattica@scuolamusicalealtogarda.it&amp;originUrl=/it/guida/eventi/auguri-in-musica_e_318121&amp;origin=Auguri%20in%20Musica"}]</t>
+  </si>
+  <si>
+    <t>Tradizionale concerto corale con gli allievi e i docenti della Scuola Musicale Alto Garda</t>
+  </si>
+  <si>
+    <t>https://www.visittrentino.info/it/guida/eventi/auguri-in-musica_e_318121?destination=&amp;submitted=1&amp;startdate=03%2F12%2F2019&amp;category%5B0%5D=&amp;enddate=15%2F12%2F2019</t>
+  </si>
+  <si>
+    <t>Cultural--Intrattenimento della Località</t>
+  </si>
+  <si>
+    <t>Sagra di San Nicolò</t>
+  </si>
+  <si>
+    <t>Sagra di San Nicolò ,A Pozza si festeggia San Nicolò, santo patrono del paese, presso il tendone manifestazioni ,Periodo ,06/12/2019 ,Località ,Vigo di Fassa ,Tipologia ,Feste e Sagre ,Il 6 dicembre il paese di Pozza è in festa per il patrono San Nicolò. ,Programma: ,ore 10.30 - sfilata con partenza dalla chiesetta di San Nicolò fino alla chiesa parrocchiale di Pozza insieme a San Nicolò e la banda musicale Musega da Poza; ,ore 11.00 - celebrazione religiosa nella chiesa di Santa Maria Ausiliatrice; ,ore 12.30 - pranzo tipico presso il tendone manifestazioni ,ore 15.30 - merenda per tutti i bambini con l’associazione Bambi; ,ore 16.30 - premiazione dei vincitori del concorso "Cianton rencurà"; ,ore 17.00 - arriva San Nicolò con i doni per i bimbi; ,ore 18.00 - concerto della banda "Musega da Poza"; ,ore 19.15 - estrazione biglietti lotteria di San Nicolò; ,ore 19.30 - cena e a seguire musica e balli con il gruppo Alpenboys.</t>
+  </si>
+  <si>
+    <t>[{"name": "+390462609670", "url": "tel:+390462609670"}, {"name": "Invia E-mail", "url": "https://www.visittrentino.info/it/guida/contatto?mailto=comitatomanifestazionipozza@gmail.com&amp;originUrl=/it/guida/eventi/sagra-di-san-nicolo_e_318141&amp;origin=Sagra%20di%20San%20Nicol%C3%B2"}]</t>
+  </si>
+  <si>
+    <t>A Pozza si festeggia San Nicolò, santo patrono del paese, presso il tendone manifestazioni</t>
+  </si>
+  <si>
+    <t>https://www.visittrentino.info/it/guida/eventi/sagra-di-san-nicolo_e_318141?destination=&amp;submitted=1&amp;startdate=03%2F12%2F2019&amp;category%5B0%5D=&amp;enddate=15%2F12%2F2019</t>
+  </si>
+  <si>
+    <t>Musica</t>
+  </si>
+  <si>
+    <t>Festa dei giovani</t>
+  </si>
+  <si>
+    <t>18.00-01.00</t>
+  </si>
+  <si>
+    <t>Festa dei giovani ,Ritorna la festa dei giovani, evento musicale che propone alcuni dei cantanti più noti in Albania ,Periodo ,06/12/2019 ,Località ,Riva del Garda ,Tipologia ,Musica ,La Festa dei Giovani è un evento che si ripete tutti gli anni non solo per i giovani ma per tutte le età. ,Ci saranno cantanti esperti, professionisti e molto conosciuti di ogni genere come Noizy (Rap), Altin Sulku (Folk) e Xhensila Myrtezaj (Pop). ,Il programma durerà oltre 4 ore e ci saranno anche molte sorprese. ,Biglietto Adulto : 25 € ,Biglietto Bambino dai 7 ai 14 anni : 15 € ,Venerdì 6 dicembre 2019 dalle ore 18:00 alle 01:00 ,Informazioni ,340 848 8811 (Landi) ,339 504 4856 (Erio) ,Prevendita ,Rinia onlus, via Scaligero 2, Riva del Garda</t>
+  </si>
+  <si>
+    <t>[{"name": "+393395044856", "url": "tel:+393395044856"}, {"name": "Invia E-mail", "url": "https://www.visittrentino.info/it/guida/contatto?mailto=riniarivadelgarda@gmail.com&amp;originUrl=/it/guida/eventi/festa-dei-giovani_e_2388793&amp;origin=Festa%20dei%20giovani"}]</t>
+  </si>
+  <si>
+    <t>Ritorna la festa dei giovani, evento musicale che propone alcuni dei cantanti più noti in Albania</t>
+  </si>
+  <si>
+    <t>https://www.visittrentino.info/it/guida/eventi/festa-dei-giovani_e_2388793?destination=&amp;submitted=1&amp;startdate=03%2F12%2F2019&amp;category%5B0%5D=&amp;enddate=15%2F12%2F2019</t>
+  </si>
+  <si>
+    <t>Cultural--Musica</t>
+  </si>
+  <si>
+    <t>Dentro Leonardo</t>
+  </si>
+  <si>
+    <t>23/11/2019-06/12/2019</t>
+  </si>
+  <si>
+    <t>Dentro Leonardo ,Mostra collettiva ,Periodo ,23/11/2019 - 06/12/2019 ,Località ,Riva del Garda ,Tipologia ,Mostre ,L’Associazione Amici dell’Arte, nel cinquecentesimo anniversario della morte del genio universale, Leonardo Da Vinci, ha voluto celebrare con una collettiva le varie sfaccettature del maestro, con una mostra collettiva dal titolo “DENTRO LEONARDO”. ,Maestro indiscusso in tutti i campi, dall'arte all'ingegneria, dalla botanica alla medicina, Leonardo da Vinci verrà celebrato con una mostra che rappresenterà, attraverso varie tecniche pittoriche, sculture, incisioni e mosaici, un'esplorazione profonda di un uomo che ancora oggi ha molto da raccontare. ,L’esposizione - dal 23 novembre al 5 dicembre 2019 – verrà inaugurata sabato 23 novembre alle ore 18.00 presso la galleria Craffonara di Riva del Garda, giardini di Porta Orientale. ,La presentazione sarà a cura della dott.ssa Nicoletta Tamanini. ,La Galleria rimarrà aperta tutti i giorni dalle 09.00 alle 12.30 e dalle 13.30 alle 18.30 con ingresso gratuito.</t>
+  </si>
+  <si>
+    <t>[{"name": "+390464573917", "url": "tel:+390464573917"}, {"name": "Invia E-mail", "url": "https://www.visittrentino.info/it/guida/contatto?mailto=amicidellarteriva@libero.it&amp;originUrl=/it/guida/eventi/dentro-leonardo_e_11080383&amp;origin=Dentro%20Leonardo"}]</t>
+  </si>
+  <si>
+    <t>Mostra collettiva</t>
+  </si>
+  <si>
+    <t>https://www.visittrentino.info/it/guida/eventi/dentro-leonardo_e_11080383?destination=&amp;submitted=1&amp;startdate=03%2F12%2F2019&amp;category%5B0%5D=&amp;enddate=15%2F12%2F2019</t>
+  </si>
+  <si>
+    <t>Trofeo San Nicolò</t>
+  </si>
+  <si>
+    <t>Trofeo San Nicolò ,Gara di sci alpinismo in notturna organizzata dall’associazione sportiva "Bogn da Nia". Partenza da Canazei con arrivo al Passo Pordoi ,Periodo ,07/12/2019 ,Località ,Canazei ,Tipologia ,Sport ,Percorso: da loc. Lupo Bianco (1.715 m) a Hotel Savoia (2.239 m); dislivello 530 m. Cronometraggio con chip. E’ previsto il trasporto degli indumenti a monte. E’ facoltativo l’uso dello zaino. E’ obbligatorio quanto previsto dal "Regolamento materiali" di "Dolomiti sotto le stelle". ,Partenza: in linea alle ore 20.00 da loc. Lupo Bianco, sopra Canazei. ,Rientro: con pulmini messi a disposizione dall’organizzazione fino a mezzanotte o propria autovettura. ,Ritiro pettorali: alla partenza dalle ore 18.00. ,Iscrizioni on-line: dal sito oppure contattando Valerio Lorenz - Cell. 335 7099644 oppure Costa Walter - Cell. 329 0522217. ,Premiazioni: cena e premiazioni c/o Hotel Savoia. ,Assistenza medica e soccorso: Croce Bianca di Canazei - Soccorso Alpino Alta Val di Fassa.</t>
+  </si>
+  <si>
+    <t>[{"name": "+393357099644", "url": "tel:+393357099644"}, {"name": "Invia E-mail", "url": "https://www.visittrentino.info/it/guida/contatto?mailto=team@bogndania.com&amp;originUrl=/it/guida/eventi/trofeo-san-nicolo_e_314764&amp;origin=Trofeo%20San%20Nicol%C3%B2"}]</t>
+  </si>
+  <si>
+    <t>Gara di sci alpinismo in notturna organizzata dall’associazione sportiva "Bogn da Nia". Partenza da Canazei con arrivo al Passo Pordoi</t>
+  </si>
+  <si>
+    <t>https://www.visittrentino.info/it/guida/eventi/trofeo-san-nicolo_e_314764?destination=&amp;submitted=1&amp;startdate=03%2F12%2F2019&amp;category%5B0%5D=&amp;enddate=15%2F12%2F2019</t>
+  </si>
+  <si>
+    <t>Mercati e mercatini</t>
   </si>
   <si>
     <t>Vite di Luce</t>
   </si>
   <si>
-    <t>Periodo ,30/11/2019 - 22/12/2019</t>
-  </si>
-  <si>
-    <t>Località ,Vezzano</t>
+    <t>Vezzano</t>
   </si>
   <si>
     <t>Vite di Luce ,Appuntamenti e laboratori creativi per bambini ,Periodo ,30/11/2019 - 22/12/2019 ,Località ,Vezzano ,Tipologia ,Mercati e mercatini ,Nel piccolo borgo di Santa Massenza, situato a poca distanza dalla città di Trento nel comune di Vallelaghi, nasce Vite di Luce, dallo spirito artigiano del luogo e dalla volontà delle persone che lo vivono. La kermesse offre un ricco programma di appuntamenti e laboratori creativi per bambini accompagnato da un caratteristico mercatino di Natale artigianale dove il “fatto a mano” è d'obbligo. ,I visitatori con i loro bambini potranno assistere e partecipare ai laboratori a loro dedicati ed essere parte integrante dell'ambiente natalizio di Santa Massenza. Come di consueto si terranno “la Notte degli Alambicchi accesi", la mattinata sportiva "Rincorri Babbo Natale", oltre a piacevoli esibizioni musicali immerse fra pittoreschi punti ristoro che offrono succulente pietanze tipiche.</t>
@@ -3284,730 +3437,505 @@
     <t>Appuntamenti e laboratori creativi per bambini</t>
   </si>
   <si>
-    <t>https://www.visittrentino.info/it/guida/eventi/vite-di-luce_e_360549?destination=&amp;submitted=1&amp;startdate=29%2F11%2F2019&amp;category%5B0%5D=&amp;enddate=15%2F12%2F2019</t>
-  </si>
-  <si>
-    <t>Tipologia ,Sport</t>
-  </si>
-  <si>
-    <t>Hockey su ghiaccio: Fassa Falcons vs. HDD Jesenice</t>
-  </si>
-  <si>
-    <t>Periodo ,30/11/2019</t>
-  </si>
-  <si>
-    <t>Località ,Canazei</t>
-  </si>
-  <si>
-    <t>Hockey su ghiaccio: Fassa Falcons vs. HDD Jesenice ,Campionato di hockey su ghiaccio dell’Alps Hockey League ,Periodo ,30/11/2019 ,Località ,Canazei ,Tipologia ,Sport ,Segui le partite in casa dei Fassa Falcons, la squadra di hockey su ghiaccio dell’Alps Hockey League. I campioni della Val di Fassa giocano contro l’HDD Sij Acroni Jesenice. Ingresso: adulti € 10; gratuito per i bambini. Inizio partita alle ore 20.30.</t>
-  </si>
-  <si>
-    <t>[{"name": "+390462602499", "url": "tel:+390462602499"}, {"name": "Invia E-mail", "url": "https://www.visittrentino.info/it/guida/contatto?mailto=info@fassafalcons.com&amp;originUrl=/it/guida/eventi/hockey-su-ghiaccio-fassa-falcons-vs.hdd-jesenice_e_672764&amp;origin=Hockey%20su%20ghiaccio:%20Fassa%20Falcons%20vs.%20HDD%20Jesenice"}]</t>
-  </si>
-  <si>
-    <t>Campionato di hockey su ghiaccio dell’Alps Hockey League</t>
-  </si>
-  <si>
-    <t>https://www.visittrentino.info/it/guida/eventi/hockey-su-ghiaccio-fassa-falcons-vs.hdd-jesenice_e_672764?destination=&amp;submitted=1&amp;startdate=29%2F11%2F2019&amp;category%5B0%5D=&amp;enddate=15%2F12%2F2019</t>
-  </si>
-  <si>
-    <t>Tipologia ,Intrattenimento della Località, Mercati e mercatini, Altro</t>
+    <t>https://www.visittrentino.info/it/guida/eventi/vite-di-luce_e_360549?destination=&amp;submitted=1&amp;startdate=03%2F12%2F2019&amp;category%5B0%5D=&amp;enddate=15%2F12%2F2019</t>
+  </si>
+  <si>
+    <t>Cultural--Mercati e mercatini</t>
+  </si>
+  <si>
+    <t>Carols!</t>
+  </si>
+  <si>
+    <t>17.00-18.30</t>
+  </si>
+  <si>
+    <t>Arco</t>
+  </si>
+  <si>
+    <t>Carols! ,Musiche natalizie con il quartetto vocale di Arco Antiqua. Si terrà al Casinò Municipale ,2 altre immagini ,Periodo ,07/12/2019 ,Località ,Arco ,Tipologia ,Musica ,A grande richiesta torna il concerto natalizio dell'ensemble vocale Arco Antiqua. ,Vivi la magica atmosfera dei giorni di festa con melodie intramontabili come Stille Nacht, Let it snow!, Rudolpf the red nosed reindeer, Santa Claus is coming to town interpretate dal nostro quartetto vocale d'eccellenza composto dal soprano Giuseppina Perna, dal controtenore Aurelio Schiavoni, dal tenore Guido Trebo e dal basso Gennaro di Filippo. Ospite d'onore di quest'anno la percussionista Stefania Fava. ,Al termine dell'evento: squisitezze natalizie offerte dal Rooms and Breakfast da Gianni di Chiarano ,INGRESSO LIBERO</t>
+  </si>
+  <si>
+    <t>[{"name": "+393333020695", "url": "tel:+393333020695"}, {"name": "Invia E-mail", "url": "https://www.visittrentino.info/it/guida/contatto?mailto=info@arcoantiqua.it&amp;originUrl=/it/guida/eventi/carols_e_791416&amp;origin=Carols!"}]</t>
+  </si>
+  <si>
+    <t>Musiche natalizie con il quartetto vocale di Arco Antiqua. Si terrà al Casinò Municipale</t>
+  </si>
+  <si>
+    <t>https://www.visittrentino.info/it/guida/eventi/carols_e_791416?destination=&amp;submitted=1&amp;startdate=03%2F12%2F2019&amp;category%5B0%5D=&amp;enddate=15%2F12%2F2019&amp;device=desktop&amp;mode=grid&amp;page=2&amp;ajax=1</t>
+  </si>
+  <si>
+    <t>Fuochi d'artificio tra castello e olivaia</t>
+  </si>
+  <si>
+    <t>21.15-22.00</t>
+  </si>
+  <si>
+    <t>Fuochi d'artificio tra castello e olivaia ,Folgori nel cielo per serata dal naso all'insù che vi farà battere il cuore ,Periodo ,07/12/2019 ,Località ,Arco ,Tipologia ,Intrattenimento della Località ,Sabato 7 dicembre 2019 Arco offre un’occasione unica per vivere l’atmosfera del natale in una nuova dimensione: le casette del mercatino rimangono aperte fino alle 22.00, nell’attesa del grande spettacolo pirotecnico che chiude questa giornata speciale. Durante la giornata diversi appuntamenti animano il centro storico, la musica dei pastori di Natale riempie le vie e gli animali delal fattoria rallegrano i bambini. Dalle 19.00 il Mercatino entra nel clima di festa: gli espositori intrattengono il pubblico con dimostrazioni di artigianato, degustazioni di prodotti gastronomici e offerte speciali pensate per questa serata unica. ,Alle 21.15 l’atteso spettacolo pirotecnico illumina il Castello di Arco con fuochi d’artificio di ogni grandezza e colore.</t>
+  </si>
+  <si>
+    <t>[{"name": "+393277162265", "url": "tel:+393277162265"}, {"name": "Invia E-mail", "url": "https://www.visittrentino.info/it/guida/contatto?mailto=info@assocentro.net&amp;originUrl=/it/guida/eventi/fuochi-d-artificio-tra-castello-e-olivaia_e_811089&amp;origin=Fuochi%20d%27artificio%20tra%20castello%20e%20olivaia"}]</t>
+  </si>
+  <si>
+    <t>Folgori nel cielo per serata dal naso all'insù che vi farà battere il cuore</t>
+  </si>
+  <si>
+    <t>https://www.visittrentino.info/it/guida/eventi/fuochi-d-artificio-tra-castello-e-olivaia_e_811089?destination=&amp;submitted=1&amp;startdate=03%2F12%2F2019&amp;category%5B0%5D=&amp;enddate=15%2F12%2F2019&amp;device=desktop&amp;mode=grid&amp;page=2&amp;ajax=1</t>
+  </si>
+  <si>
+    <t>Festival, Musica</t>
+  </si>
+  <si>
+    <t>Primiero Dolomiti Festival</t>
+  </si>
+  <si>
+    <t>Fiera di Primiero, Primiero - Siror, Primiero - Imer ...</t>
+  </si>
+  <si>
+    <t>Primiero Dolomiti Festival ,XIV Edizione ,Periodo ,07/12/2019 ,Località ,Fiera di Primiero, Primiero - Siror, Primiero - Imer ... ,Tipologia ,Festival, Musica ,È con grande piacere che anche quest’anno l’Associazione Scuola Musicale di Primiero organizza alcuni appuntamenti musicali diversificati nel loro genere, inseriti nella XIV edizione del Primiero Dolomiti Festival. ,Anche in questa edizione il Festival ha voluto dare spazio a molti giovani strumentisti, dando loro la possibilità di suonare con importanti solisti di livello nazionale ed internazionale, in modo da arricchire il proprio bagaglio formativo. ,Calendario ,Sabato 19 ottobre 2019 ,DA MOZART A GERSHWIN - QUINTETTO DI FIATI DELL'ORCHESTRA HEYDN DI BOLZANO E TRENTO ,Francesco Dainese - flauto ,Gianni Olivieri - oboe ,Stefano Ricci - clarinetto ,Alexander Perathoner - corno ,Flavio Baruzzi - fagotto ,Programma ,W.A. Mozart, "Serenata in B-Dur K 370a Gran Partita" ,G. Rossini, "Ouverture L'italiana in Algeri" ,P.I. TSchaikowsky, "Lo Schiaccianoci op. 71" ,G. Gershwin, "Un Americano a Parigi" ,Ingresso: €12,00 intero | €7,00 ridotto ,Fiera di Primiero, Auditorium, ore 20.30 ,Sabato 2 novembre 2019 ,REQUIEM DI A. LOTTI (1667-1740) IN FA MAGGIORE PER CORO, SOLI, ORGANO E ORCHESTRA ,Labirinti Armonici - Complesso Corelli | Andrea Ferroni, violino concertatore ,Cantoria Sine Nomine | Carlo Andriollo direttore ,Programma ,G.F. Händel (1685-1759) ,Concerto Grosso op.3 n.2 in si bemolle maggiore ,Vivace | Largo | Allegro | Moderato | Allegro ,A. Lotti (1667-1740) ,Requiem in Fa Maggiore ,Per coro, soli, organo e orchestra ,Labirinti Armonici ,Andrea Ferroni, Stefano Roveda, Andrea Marmolejo, Marta Peroni, Stefno Favretto - violini ,Andrea Albertani, Jennifer Gomez Vilar - viole ,Ivo Brigadoi, Gioele Gusberti - Violoncelli ,Mauro Tomedi - Contrabbasso ,Arrigo Pietrobon, Gregorio Carraro - oboi ,Giacomo Bezzi - tromba ,Pietro Prosser - liuto ,Ingresso: ad offerta libera ,Mezzano, Chiesa Parrocchiale, ore 20.30 ,Sabato 23 novembre 2019 ,TUTTI ALL'OPERA - SOLISTI ED ENSEMBLE CORO FEMMINILE DELLA SCUOLA MUSICALE DI PRIMIERO ,Direttore: Paola Crema | Pianista: Matteo Andri ,Programma ,W.A. Mozart: "Ricevete Padroncina", da Le nozze di Figaro ,W.A. Mozart: "Non più andrai farfallone amoroso", da Le nozze di Figarò ,W.A. Mozart: "Voi che sapete", da Le nozze di Figaro ,W.A. Mozart: "Canzonetta sull'aria", da Le nozze di Figaro ,W.A. Mozart: "Vedrai carino, se sei buonino", da Don Giovanni ,W.A. Mozart: "In uomini in soldati", da Così fan tutte ,W.A. Mozart: "Una donna a 15 anni", da Così fan tutte ,C.W. Gluck: "Che farò senza Euridice", da Orfeo e Euridice ,G.F. Haendel: "Lascia ch'io pianga mia cruda sorte", da Rinaldo ,G.F. Haendel: "Priva son d'ogni conforto", da Giulio Cesare ,G.F. Haendel: "Verdi Prati", da Alcina ,G.B. Pergolesi: "Stizzoso, mio stizzoso" da La serva padrona ,C. Monteverdi: "Pur ti miro, pur ti godo", da L'incoronazione di Poppea ,P.I. Tchaikovsky: "E sera, più color non han le nubi in ciel" da La dama di picche ,J. Hoffenbach: "Barcarola" da Les contes d'Hoffman ,L. Delibes: "Duetto dei fiori", da Lakmè ,G. Rossini: "Duetto buffo dei Gatti" ,E. Humperdinck: "Quando è buio io lo so che da solo non resterò" da Hansel e Gretel ,G. Puccini: "Coro a bocca chiusa" da Madama Butterfly ,Ingresso: ad offerta libera ,Imèr, Ex Sieghe, ore 20.30 ,Sabato 7 dicembre 2019 ,CINEMA SERENADE - CORALE MOOD QUARTET ,Direttore e narratore: Roberto Tomada ,Programma ,Ennio Morricone (1928) ,Per un pugno di dollari ,Sergio Leone, 1964 ,Ennio Morricone (1928) ,Il buono, il brutto, il cattivo - L'estasi dell'oro ,Sergio Leone, 1966 ,Ennio Morricone (1928) ,Giù la testa ,Sergio Leone, 1971 ,Ennio Morricone (1928) ,Nuovo Cinema Paradiso ,Giuseppe Tornatore, 1988 ,Ennio Morricone (1928) ,La leggenda del pianista sull'Oceano ,Giuseppe Tornatore, 1998 ,Nino Rota (1911-1979) ,Amarcord ,Federico Fellini, 1973 ,Nino Rota (1911-1979) ,Il Gattopardo ,Luchino Visconti, 1963 ,Duke Ellington (1899-1974) e Juan Tizol (1900-1984) ,Caravan, 1936 ,Whisplash, Damien Chazelle, 2014 ,Leonard Cohen (1934-2016) ,Hallelujah, 1984 ,Shrek, A.Adamson e V. Jenson, 2001 ,Howard Shore (1946) ,Hugo Cabret ,Martin Scorsese, 2011 ,John Williams (1932) ,E.T. L'extraterrestre ,Steven Spielberg, 1982 ,Klaus Badelt (1967) ,I pirati dei Caraibi - La maledizione della prima luna ,Gore Verbinski, 2003 ,Ramin Djawari (1974) ,Game of Thrones - Trono di Spade ,Vari, 2011 ,Queen (1970) ,Bohemian Rhapsody (1975) ,Bohemian Rhapsody, Bryan Singer, 2018 ,Violino: Roberto Tomada ,Violino: Alice Tomada ,Viola: Margherita Pigozzo ,Contrabbasso: Nicolò Tomada ,Ingresso: ad offerta libera ,Canal San Bovo, Teatro Parrocchiale, ore 20.30 ,Sabato 21 dicembre 2019 ,CAROLS NATALIZI - DOLOMITI BRASS QUINTET E CORALE BARBISANO (Rinaldo Padoin direttore) ,Programma ,Dolomiti Brass Quintet ,J. Stanlet, "Trumpet Voluntary" ,J.S. Bach, "Contrapunctus I (da Arte della Fuga) ,Anonimo, "Sonata" from "Die Baenkelsangerlieder" ,Arr. J. Iverson, "Three Christmas Crackers" ,B. Dick, "Variation on Jingle Bells ,Corale Barbisano ,B. De Marzi, "Notte Santa" ,R. Padoin, "Gesù bambin è nato" ,R. Padoin, "Le campane de Cison" ,B. De Marzi, "Mentre il silenzio" ,V. Miskinis, "O salutaris hostia" ,E. Whitacre, "Lux aurumque" ,B. De Marzi, "Pavana" ,Corale Barbisano e Dolomiti Brass Quintet ,R. Padoin, "Tu es sacerdos" ,Anonimo (XVI sec), "Gaudete" ,G.R. Woodward, "Unto us is born a son" ,Simone Lonardi - tromba ,Renato Pante - tromba ,Stefano Rossi - Corno ,Mauro Piazzi - trombone ,Roberto Ronchetti - tuba ,Ingresso: ad offerta libera ,Siror, Chiesa Parrocchiale, ore 20.30 ,Giovedì 2 gennaio 2020 ,CONCERTO DI CAPODANNO - DOLOMITI WIND ORCHESTRA ,Saxsofono: Luis Lanzarini | Direttore: Ivan Villanova ,Programma ,Giacchino Rossini ,Il barbiere di Siviglia - Sinfonia ,Gioacchino Rossini ,Una voce poco fa ,Giuseppe Verdi ,I vespri siciliani - Ouverture ,Antonin Dvorak ,Danza slava op. 46 n. 1 ,Pedro Iturralde ,Pequena Czarda ,Johan de Meij ,Klezmer Classics ,Johann Strauss II ,Die Fledermaus - Ouverture ,Ingresso: Intero €7,00 | Ridotto €5,00 ,Fiera di Primiero, Auditorium, ore 21.00</t>
+  </si>
+  <si>
+    <t>[{"name": "0439 62407", "url": "tel:0439%2062407"}, {"name": "Invia E-mail", "url": "https://www.visittrentino.info/it/guida/contatto?mailto=infoprimiero@sanmartino.com&amp;originUrl=/it/guida/eventi/primiero-dolomiti-festival_e_910570&amp;origin=Primiero%20Dolomiti%20Festival"}]</t>
+  </si>
+  <si>
+    <t>XIV Edizione</t>
+  </si>
+  <si>
+    <t>https://www.visittrentino.info/it/guida/eventi/primiero-dolomiti-festival_e_910570?destination=&amp;submitted=1&amp;startdate=03%2F12%2F2019&amp;category%5B0%5D=&amp;enddate=15%2F12%2F2019&amp;device=desktop&amp;mode=grid&amp;page=2&amp;ajax=1</t>
+  </si>
+  <si>
+    <t>Cultural--Festival, Musica</t>
+  </si>
+  <si>
+    <t>Krampus</t>
+  </si>
+  <si>
+    <t>Levico Terme</t>
+  </si>
+  <si>
+    <t>Krampus ,Levico, centro storico e parco Asburgico 7 dicembre ore 16.00. ,Periodo ,07/12/2019 ,Località ,Levico Terme ,Tipologia ,Altro ,Sabato 07 dicembre 2019, alle ore 16.00 presso le vie del centro storico di Levico e nel Parco Asburgico, si terrà la sfilata dei: ,KRAMPUS ,Shhhhhhhhh... ieri nel bosco si è udito uno strano rumore e una figura si è dileguata nell'ombra. Sarà un krampus? ,Il giorno 7 dicembre dalle ore 16.00, lo vedremo aggirarsi per le vie del centro del paese sulle orme di chi, durante l'anno, non si è comportato bene. ,Per ulteriori informazioni: ,Consorzio Levico Terme in Centro | www.visitlevicoterme.it | info@levicotermeincontra.com ,Azienda per il Turismo Valsugana | +39 0461 727700 | info@visitvalsugana.it</t>
+  </si>
+  <si>
+    <t>[{"name": "+390461727700", "url": "tel:+390461727700"}, {"name": "+390461727799", "url": ""}, {"name": "Invia E-mail", "url": "https://www.visittrentino.info/it/guida/contatto?mailto=info@visitvalsugana.it&amp;originUrl=/it/guida/eventi/krampus_e_2211832&amp;origin=Krampus"}]</t>
+  </si>
+  <si>
+    <t>Levico, centro storico e parco Asburgico 7 dicembre ore 16.00.</t>
+  </si>
+  <si>
+    <t>https://www.visittrentino.info/it/guida/eventi/krampus_e_2211832?destination=&amp;submitted=1&amp;startdate=03%2F12%2F2019&amp;category%5B0%5D=&amp;enddate=15%2F12%2F2019&amp;device=desktop&amp;mode=grid&amp;page=2&amp;ajax=1</t>
+  </si>
+  <si>
+    <t>Feste e Sagre, Mercati e mercatini, Enogastronomia, Folklore</t>
+  </si>
+  <si>
+    <t>Il Villaggio di Natale del Gigante</t>
+  </si>
+  <si>
+    <t>Il Villaggio di Natale del Gigante ,Un Mercatino tra storia e gusto ,1 altre immagini ,Periodo ,07/12/2019 - 05/01/2020 ,Tipologia ,Feste e Sagre, Mercati e mercatini, Enogastronomia, Folklore ,L’unico mercatino in Trentino che vi farà entrare in una favola: la storia affascinante e misteriosa del Gigante Gilli. In suo onore, gli avvolti e le contrade del paese di Bezzecca si animano durante il periodo natalizio per creare la magica atmosfera del Villaggio di Natale del Gigante, un mercatino che propone ai visitatori prelibatezze gastronomiche, prodotti locali, oggetti d’arte ed artigianato, e che di anno in anno regala sempre nuove ed interessanti iniziative. Il museo, le serate animate da caratteristici spettacoli e concerti: tutto nel periodo natalizio a Bezzecca concorre a trasportarvi in un luogo senza tempo, dove realtà e fantasia si fondono.</t>
+  </si>
+  <si>
+    <t>[{"name": "0464 591222", "url": "tel:0464%20591222"}, {"name": "Invia E-mail", "url": "https://www.visittrentino.info/it/guida/contatto?mailto=info@vallediledro.com&amp;originUrl=/it/guida/eventi/il-villaggio-di-natale-del-gigante_e_3444178&amp;origin=Il%20Villaggio%20di%20Natale%20del%20Gigante"}]</t>
+  </si>
+  <si>
+    <t>Un Mercatino tra storia e gusto</t>
+  </si>
+  <si>
+    <t>https://www.visittrentino.info/it/guida/eventi/il-villaggio-di-natale-del-gigante_e_3444178?destination=&amp;submitted=1&amp;startdate=03%2F12%2F2019&amp;category%5B0%5D=&amp;enddate=15%2F12%2F2019&amp;device=desktop&amp;mode=grid&amp;page=2&amp;ajax=1</t>
+  </si>
+  <si>
+    <t>Cultural--Feste e Sagre, Mercati e mercatini, Enogastronomia, Folklore</t>
+  </si>
+  <si>
+    <t>Intrattenimento della Località, Musica</t>
+  </si>
+  <si>
+    <t>Bolkhent</t>
+  </si>
+  <si>
+    <t>Folgaria</t>
+  </si>
+  <si>
+    <t>Bolkhent ,Bolkhent, in cimbro "benvenuti", è il rito con cui diamo il via alla stagione invernale. ,1 altre immagini ,Periodo ,07/12/2019 ,Località ,Folgaria ,Tipologia ,Intrattenimento della Località, Musica ,L’inverno è ormai arrivato e sull’Alpe Cimbra si respira già un aria natalizia. Il vento freddo che si intrufola fra le case va a scontrarsi con il calore del centro di Folgaria, con i suoi colori, i suoi profumi, con la sua accoglienza. ,E’ il preludio di una stagione speciale che con le sue ali gelate vuole abbracciare sia gli appassionati dell’outdoor che gli amanti del relax e delle tradizioni locali. ,Bolkhent, in cimbro “benvenuti”, è il rito con cui accogliamo questo magico periodo dell’anno e tutti coloro che lo vorranno vivere sulla propria pelle. ,Sabato 7 dicembre una grande sfilata partirà dalla Piazzetta Villa alle ore 18:00 e attraverserà il paese di Folgaria lanciando così un forte messaggio di entusiasmo ed accoglienza. ,La manifestazione sarà accompagnata dalle note della Banda Folkloristica di Folgaria che, brano dopo brano, condurrà la manifestazione in Piazza S. Lorenzo per assistere all’accensione del grande albero di Natale. Non mancheranno certamente i Maestri delle Scuole di Sci dell’Alpe Cimbra, pronti a farvi vivere forti emozioni sugli oltre 100Km di piste dell’altopiano. ,A dare un ulteriore tocco di bellezza a questa singolare sfilata saranno gli elegantissimi Bovari del Bernese del gruppo amatoriale Grabber. ,Il freddo si farà sentire sicuramente ma Folgaria ha pensato anche a questo: al termine della sfilata degustazione di vin brulè e biscotti a cura dell’associazione Promocosta e pozione di Bertold per tutti! ,Vi aspettiamo numerosi per degustare assieme uno dei nostri migliori prodotti locali: l’Inverno.</t>
+  </si>
+  <si>
+    <t>[{"name": "+39 0464724100", "url": "tel:+39%200464724100"}, {"name": "Invia E-mail", "url": "https://www.visittrentino.info/it/guida/contatto?mailto=info@alpecimbra.it&amp;originUrl=/it/guida/eventi/bolkhent_e_3512293&amp;origin=Bolkhent"}]</t>
+  </si>
+  <si>
+    <t>Bolkhent, in cimbro "benvenuti", è il rito con cui diamo il via alla stagione invernale.</t>
+  </si>
+  <si>
+    <t>https://www.visittrentino.info/it/guida/eventi/bolkhent_e_3512293?destination=&amp;submitted=1&amp;startdate=03%2F12%2F2019&amp;category%5B0%5D=&amp;enddate=15%2F12%2F2019&amp;device=desktop&amp;mode=grid&amp;page=2&amp;ajax=1</t>
+  </si>
+  <si>
+    <t>Cultural--Intrattenimento della Località, Musica</t>
+  </si>
+  <si>
+    <t>Cherryl Porter &amp; Hallelujah Gospel Singers</t>
+  </si>
+  <si>
+    <t>21.00-23.00</t>
+  </si>
+  <si>
+    <t>Cherryl Porter &amp; Hallelujah Gospel Singers ,La gioia e la potenza dei canti afro-americani interpretati da Cheryl Porter e dal coro degli Hallelujah Gospel Singers ,Periodo ,07/12/2019 ,Località ,Riva del Garda ,Tipologia ,Intrattenimento della Località ,Un concerto gospel con Cheryl Porter assieme a grandi voci “di colore” della musica Gospel. Voci dalla sonorità “black” davvero indimenticabile, interpretano le canzoni della tradizione religiosa afro-americana che più toccano il cuore, per un’esperienza autentica e da non perdere: ascoltare e “vivere” il vero Gospel dei neri d’America. ,Feel the Spirit! Lasciatevi trascinare dal messaggio di questa musica! ,BIGLIETTI: ,25 Euro nella prima metà della sala (ridotto a 20 fino ai 26 anni e oltre i 65 anni) e 20 Euro nella seconda parte della sala, senza riduzione. I bambini fino a 8 anni sono gratis. ,Biglietteria presso gli uffici Musicarivafestival in viale della Liberazione 7 dalle ore 10 alle 13 e dalle 15 alle 17 e online su www.midaticket.it</t>
+  </si>
+  <si>
+    <t>[{"name": "+390464554073", "url": "tel:+390464554073"}, {"name": "Invia E-mail", "url": "https://www.visittrentino.info/it/guida/contatto?mailto=info@musicarivafestival.com&amp;originUrl=/it/guida/eventi/cherryl-porter-hallelujah-gospel-singers_e_12913631&amp;origin=Cherryl%20Porter%20&amp;%20Hallelujah%20Gospel%20Singers"}]</t>
+  </si>
+  <si>
+    <t>La gioia e la potenza dei canti afro-americani interpretati da Cheryl Porter e dal coro degli Hallelujah Gospel Singers</t>
+  </si>
+  <si>
+    <t>https://www.visittrentino.info/it/guida/eventi/cherryl-porter-hallelujah-gospel-singers_e_12913631?destination=&amp;submitted=1&amp;startdate=03%2F12%2F2019&amp;category%5B0%5D=&amp;enddate=15%2F12%2F2019&amp;device=desktop&amp;mode=grid&amp;page=2&amp;ajax=1</t>
+  </si>
+  <si>
+    <t>Mercatino di Natale di Arco: Moonlight</t>
+  </si>
+  <si>
+    <t>18.00-18.40</t>
+  </si>
+  <si>
+    <t>Mercatino di Natale di Arco: Moonlight ,Parata di trampolieri e animazione di luci per il centro di Arco ,Periodo ,07/12/2019 ,Località ,Arco ,Tipologia ,Intrattenimento della Località ,Tornano e si affezionano al Mercatino di Natale di Arco gli artisti di «Moonlight», lo spettacolo più affascinante ed emotivamente coinvolgente capace di attrarre grandi e piccini. ,«Moonlight» è una parata su trampoli con costumi luminosi e palloni giganti che da un'altezza di 4 metri, evocano la luna e la sua luminosa intensità emotiva. Nel corso della parata sono previste delle piccole magiche coreografie che daranno risalto ai costumi di grande impatto visivo)</t>
+  </si>
+  <si>
+    <t>[{"name": "+393277162265", "url": "tel:+393277162265"}, {"name": "Invia E-mail", "url": "https://www.visittrentino.info/it/guida/contatto?mailto=info@assocentro.net&amp;originUrl=/it/guida/eventi/mercatino-di-natale-di-arco-moonlight_e_13313630&amp;origin=Mercatino%20di%20Natale%20di%20Arco:%20Moonlight"}]</t>
+  </si>
+  <si>
+    <t>Parata di trampolieri e animazione di luci per il centro di Arco</t>
+  </si>
+  <si>
+    <t>https://www.visittrentino.info/it/guida/eventi/mercatino-di-natale-di-arco-moonlight_e_13313630?destination=&amp;submitted=1&amp;startdate=03%2F12%2F2019&amp;category%5B0%5D=&amp;enddate=15%2F12%2F2019&amp;device=desktop&amp;mode=grid&amp;page=2&amp;ajax=1</t>
+  </si>
+  <si>
+    <t>Concerto di Carmen Consoli</t>
+  </si>
+  <si>
+    <t>Concerto di Carmen Consoli ,Nella piazza del Mart di Rovereto ,Periodo ,07/12/2019 ,Località ,Rovereto ,Tipologia ,Musica ,Dopo Mario Biondi, Franco Battiato, Max Gazzé e Angelo Branduardi, spetterà quest’anno a CARMEN CONSOLI il compito di animare con la sua musica la piazza Umberto Savoia del Mart di Rovereto in occasione del tradizionale Concertone dell’Immacolata. La cantautrice nata a Catania si esibirà il prossimo 7 dicembre, alle ore 21.00. ,Il concerto è promosso da COMUNE DI ROVERETO e CENTRO SERVIZI CULTURALI SANTA CHIARA, grazie anche al sostegno del Gruppo Dolomiti Energia e Fondazione Cassa di Risparmio Trento e Rovereto. ,In questo concerto speciale “la cantantessa” porterà al pubblico la sua anima rock che l’ha accompagnata nel corso della sua ventennale carriera, e che insieme a quella acustica, l’ha resa una delle artiste più eclettiche del panorama musicale italiano, per la capacità di lasciare il segno tra le sensazioni più intimiste e quelle amplificate del rock graffiante. Carmen Consoli sarà accompagnata sul palco da Massimo Roccaforte alla chitarra, Luciana Luccini al basso e Antonio Marra alla batteria. ,L’evento (biglietto intero € 15,00 + 2,00, ridotto giovani e universitari under 26 € 10,00 + 2,00) non sarà solamente una grande occasione di festa per la città, ma avrà anche quest’anno un importante risvolto legato alla solidarietà. Parte dell’incasso, infatti, verrà devoluto in beneficenza ad un’associazione che sarà annunciata nei prossimi giorni.</t>
+  </si>
+  <si>
+    <t>[{"name": "800 013952", "url": "tel:%20800%20013952"}, {"name": "Invia E-mail", "url": "https://www.visittrentino.info/it/guida/contatto?mailto=pinfo@centrosantachiara.it%20&amp;originUrl=/it/guida/eventi/concerto-di-carmen-consoli_e_13323317&amp;origin=Concerto%20di%20Carmen%20Consoli"}]</t>
+  </si>
+  <si>
+    <t>Nella piazza del Mart di Rovereto</t>
+  </si>
+  <si>
+    <t>https://www.visittrentino.info/it/guida/eventi/concerto-di-carmen-consoli_e_13323317?destination=&amp;submitted=1&amp;startdate=03%2F12%2F2019&amp;category%5B0%5D=&amp;enddate=15%2F12%2F2019&amp;device=desktop&amp;mode=grid&amp;page=2&amp;ajax=1</t>
+  </si>
+  <si>
+    <t>SnowWeek 2019</t>
+  </si>
+  <si>
+    <t>05/12/2019-08/12/2019</t>
+  </si>
+  <si>
+    <t>Marilleva</t>
+  </si>
+  <si>
+    <t>SnowWeek 2019 ,Location e programmi nuovi per il più grande viaggio-evento italiano sulla neve ,12 altre immagini ,Periodo ,05/12/2019 - 08/12/2019 ,Località ,Marilleva ,Tipologia ,Musica ,4 GIORNI DI NEVE, 3 NOTTI DI PARTY! ,RIDE | PARTY | SLEEP | REPEAT ,Comincia l'inverno, arriva SnowWeek, una vacanza sulla neve, una festa, un'esperienza straordinaria da condividere con migliaia di giovani e studenti provenienti da tutta Europa. ,Non sai come trascorrere il ponte di Sant'Ambrogio e dell'Immacolata? ,DAL 5 ALL'8 DICEMBRE Marilleva 1400 ospita lo storico evento SnowWeek che porta in Val di Sole 4 giorni e 3 notti di party, sport e divertimento sulla neve direttamente sulle piste della SKIAREA CAMPIGLIO DOLOMITI DI BRENTA, con 150 km di piste! ,Tante le novità per l'evento di quest'anno ,nuova location: un unico ampio residence alla partenza degli impianti con 1 km di corridoi dove incontrasi e godere di spa, piscina, ristorante e 5 dance-floor con musica non-stop; ,nuovo programma, che comprende pool party, apres ski in terrazza panoramica, 2 dance floor interni al residence, cena in baita con viaggio in gatto delle nevi e il party ufficiale di inaugurazione della stagione invernale della skiarea; ,immancabili convenzioni con sconti fino al 25% su skipass, noleggio, scuola sci o snowboard, pranzi e cene, drink. ,Fermati, godi di giornate di puro relax immerso nella cornice della Val di Sole, a ridosso delle Dolomiti del Brenta, riconosciute dall'Unesco come Patrimonio dell’Umanità. Lasciati andare a NOTTI DI FESTA per una indimenticabile pausa dalla quotidianità e nuove esperienze, amicizie e forse nuovi amori si fonderanno in un gustoso MIX TRA NATURA E FOLLIA.</t>
+  </si>
+  <si>
+    <t>[{"name": "+390239521184", "url": "tel:+390239521184"}, {"name": "Invia E-mail", "url": "https://www.visittrentino.info/it/guida/contatto?mailto=info@snowweek.it&amp;originUrl=/it/guida/eventi/snowweek-2019_e_315604&amp;origin=SnowWeek%202019"}]</t>
+  </si>
+  <si>
+    <t>Location e programmi nuovi per il più grande viaggio-evento italiano sulla neve</t>
+  </si>
+  <si>
+    <t>https://www.visittrentino.info/it/guida/eventi/snowweek-2019_e_315604?destination=&amp;submitted=1&amp;startdate=03%2F12%2F2019&amp;category%5B0%5D=&amp;enddate=15%2F12%2F2019&amp;device=desktop&amp;mode=grid&amp;page=2&amp;ajax=1</t>
+  </si>
+  <si>
+    <t>Enogastronomia, Intrattenimento della Località</t>
+  </si>
+  <si>
+    <t>06/12/2019-08/12/2019</t>
+  </si>
+  <si>
+    <t>La notte degli alambicchi accesi ,Spettacolo itinerante dedicato alla grappa del Trentino ,Periodo ,06/12/2019 - 08/12/2019 ,Località ,Vezzano ,Tipologia ,Enogastronomia, Intrattenimento della Località ,Spettacolo teatrale itinerante che intende raccontare gli aspetti fisici, storici e antropologici dell'arte della distillazione della grappa. Un evento in cui si rivive il passato, si celebra la finezza della grappa di oggi e si brinda al suo futuro. Lo spettacolo è itinerante e lo spettatore, dotato di una radio con cuffie, viene guidato lungo le vie del paese attraverso performance video sulla fisica dell'alambicco, canti lirici in cui si distilla la poesia, e sobri brindisi in un’atmosfera raffinata e gioviale.</t>
+  </si>
+  <si>
+    <t>[{"name": "+390461216000", "url": "tel:+390461216000"}, {"name": "Invia E-mail", "url": "https://www.visittrentino.info/it/guida/contatto?mailto=info@discovervalledeilaghi.it%20&amp;originUrl=/it/guida/eventi/la-notte-degli-alambicchi-accesi_e_958123&amp;origin=La%20notte%20degli%20alambicchi%20accesi"}]</t>
+  </si>
+  <si>
+    <t>Spettacolo itinerante dedicato alla grappa del Trentino</t>
+  </si>
+  <si>
+    <t>https://www.visittrentino.info/it/guida/eventi/la-notte-degli-alambicchi-accesi_e_958123?destination=&amp;submitted=1&amp;startdate=03%2F12%2F2019&amp;category%5B0%5D=&amp;enddate=15%2F12%2F2019&amp;device=desktop&amp;mode=grid&amp;page=2&amp;ajax=1</t>
+  </si>
+  <si>
+    <t>Cultural--Enogastronomia, Intrattenimento della Località</t>
+  </si>
+  <si>
+    <t>Enogastronomia</t>
+  </si>
+  <si>
+    <t>Happy Trentodoc</t>
+  </si>
+  <si>
+    <t>Happy Trentodoc ,L'aperitivo 100% trentino ,2 altre immagini ,Periodo ,21/11/2019 - 08/12/2019 ,Località ,Trento ,Tipologia ,Enogastronomia ,Trento, dal 21 novembre all'8 dicembre 2019 ,Con Happy Trentodoc le bollicine di montagna incontrano i prodotti gastronomici della Strada del Vino e dei Sapori del Trentino: stuzzicanti abbinamenti che renderanno più “sparkling” il momento dell’aperitivo! ,Agriturismo Maso Mirì* (via dei pomari 41 – Romagnano di Trento) ,Il Trentodoc di Azienda Agricola Mittesteiner (Trento) incontra i prodotti di Salumificio Val Rendena (Porte di Rendena) ,Antica Trattoria Due Mori* (via San Marco 11 – Trento) ,Il Trentodoc di Borgo dei Posseri (Ala) incontra i prodotti di Carni e Salumi Troier (Lavis) ,Bar Pasi (piazza Pasi 1 - Trento) ,Il Trentodoc di Fondazione E. Mach (San Michele all’Adige) incontra i prodotti di Panificio Sosi (Trento) ,Dolcemente Marzari (c/o Complesso Le Albere, viale della Costituzione 28 - Trento) ,Il Trentodoc di Cantina d’Isera (Isera) incontra i prodotti di Pasticceria Marzari (Altopiano della Vigolana) ,Locanda Le Due Travi - Bar (via del Suffragio 20 - Trento) ,Il Trentodoc di Revì Trentodoc (Aldeno) incontra l’olio extravergine di oliva di Agraria Riva del Garda (Riva del Garda) ,Locanda Le Due Travi - Ristorante (via del Suffragio 20 - Trento) ,Il Trentodoc di Maso Martis Azienda Agricola Biologica (Trento) incontra i formaggi di Latte Trento (Trento) ,Locanda Margon * (via Margone 15 – Ravina di Trento) ,Il Trentodoc di Cantine Ferrari (Trento) incontra i formaggi di Caseificio degli Altipiani e del Vezzena (Lavarone) ,Osteria a “Le Due Spade” * (via Don A. Rizzi 11 – Trento) ,Il Trentodoc di Vivallis (Nogaredo) incontra i formaggi di Caseificio Sociale di Sabbionara (Avio) ,Panificio Moderno (piazza Lodron 21 - Trento) ,Il Trentodoc di Mas dei Chini (Trento) incontra i prodotti di Panificio Moderno (Isera) ,Ristorante al Vò* (vicolo del Vò 11 – Trento) ,Il Trentodoc di Cembra cantina di montagna (Cembra Lisignago) incontra i prodotti ittici di Trota Oro (Borgo Lares) ,Ristorante Enologico Il Libertino (piazza Piedicastello 4 - Trento) ,Il Trentodoc di Cantina Sociale di Trento (Trento) incontra i formaggi di Azienda Agricola Le Mandre (Bedollo) ,Ristorante Pizzeria Duomo* (via Verdi 77 – Trento) ,Il Trentodoc di Azienda Agricola Francesco Moser (Trento) incontra i prodotti di Salumeria Belli (Trento) ,Scrigno del Duomo (piazza Duomo 29 - Trento) ,Il Trentodoc di Altemasi (Trento) incontra i prodotti di Crucolo (Scurelle) ,Clicca qui per scaricare il programma (link) ,#happytrentodoc #trentinowinefest #stradavinotrentino ,Per maggiori info: ,Strada del Vino e dei Sapori del Trentino ,tel. 0461-921863 - info@stradavinotrentino.com ,Info: tastetrentino.it/happytrentodoc</t>
+  </si>
+  <si>
+    <t>[{"name": "+390461921863", "url": "tel:+390461921863"}, {"name": "Invia E-mail", "url": "https://www.visittrentino.info/it/guida/contatto?mailto=info@stradavinotrentino.com&amp;originUrl=/it/guida/eventi/happy-trentodoc_e_959260&amp;origin=Happy%20Trentodoc"}]</t>
+  </si>
+  <si>
+    <t>L'aperitivo 100% trentino</t>
+  </si>
+  <si>
+    <t>https://www.visittrentino.info/it/guida/eventi/happy-trentodoc_e_959260?destination=&amp;submitted=1&amp;startdate=03%2F12%2F2019&amp;category%5B0%5D=&amp;enddate=15%2F12%2F2019&amp;device=desktop&amp;mode=grid&amp;page=2&amp;ajax=1</t>
+  </si>
+  <si>
+    <t>Cultural--Enogastronomia</t>
+  </si>
+  <si>
+    <t>Trentodoc Bollicine sulla città</t>
+  </si>
+  <si>
+    <t>Trentodoc Bollicine sulla città ,Degustazioni, incontri e approfondimenti dedicati al Trentodoc ,Periodo ,21/11/2019 - 08/12/2019 ,Località ,Trento ,Tipologia ,Enogastronomia, Intrattenimento della Località ,Trento, dal 21 novembre all'8 dicembre 2019 ,Incontri con l'eccellenza del metodo classico di montagna ,"Trentodoc: bollicine sulla città" è la manifestazione che ogni anno Palazzo Roccabruna e l'Istituto Trentodoc organizzano per rendere omaggio al mondo degli spumanti trentini metodo classico. ,La manifestazione ha inizio, come di tradizione, a fine novembre e dura tre fine settimana accompagnando il periodo prenatalizio fino alla festa dell'Immacolata. Degustazioni, abbinamenti, menù a tema, ma soprattutto tante bollicine trentine. Potrete degustare una grande varietà di bollicine, che si differenziano per proprietà organolettiche, ma soprattutto per i loro profumi ed aromi. ,L'evento, che si tiene in concomitanza con i mercatini di Natale, richiama ogni anno nel centro storico di Trento folle di appassionati. ,Dal 21 novembre all'8 dicembre da giovedì a domenica in occasione della quindicesima edizione di "Trentodoc: bollicine sulla città" Palazzo Roccabruna propone in degustazione la collezione 2019 delle bollicine di montagna, espressione dell'impegno e della passione di oltre 50 cantine trentine. ,La manifestazione si articola in tre sezioni: ,Le degustazioni in Enoteca della collezione delle bollicine trentine abbinate a taglieri di salumi e formaggi trentini (dal 21 novembre all'8 dicembre, da giovedì a domenica; per gli orari vedi sotto). Il giovedì e il sabato la manifestazione si arricchisce dell'evento "Il piatto dello chef" con menù dedicati alle bollicine. Vedi gli appuntamenti del "Piatto dello chef" &gt;&gt;&gt; ,Gli eventi di "Trentodoc in cantina" organizzati presso le cantine di produzione per scoprire le bollicine là dove nascono. Scopri il programma sul sito di Trentodoc &gt;&gt;&gt; ,"Happy Trentodoc": l'iniziativa della Strada del Vino e dei Sapori del Trentino che celebra il matrimonio fra le bollicine e i prodotti gastronomici del Trentino: stuzzicanti abbinamenti che renderanno più “sparkling” il momento dell’aperitivo nei bar e ristoranti di Trento! Scopri il programma sul sito della Strada &gt;&gt;&gt; ,TRENTODOC: BOLLICINE SULLA CITTA' ,Degustazioni in Enoteca - dal 21 novembre all'8 dicembre 2019 - da giovedì a domenica ,Orari di apertura: ,17.00 - 22.00 giovedì e venerdì ,11.00 - 22.00 sabato ,11.00 - 19.00 domenica ,Scarica il PROGRAMMA ,Info: www.palazzoroccabruna.it</t>
+  </si>
+  <si>
+    <t>[{"name": "Invia E-mail", "url": "https://www.visittrentino.info/it/guida/contatto?mailto=istituto@trentodoc.com%20&amp;originUrl=/it/guida/eventi/trentodoc-bollicine-sulla-citta_e_967437&amp;origin=Trentodoc%20Bollicine%20sulla%20citt%C3%A0"}]</t>
+  </si>
+  <si>
+    <t>Degustazioni, incontri e approfondimenti dedicati al Trentodoc</t>
+  </si>
+  <si>
+    <t>https://www.visittrentino.info/it/guida/eventi/trentodoc-bollicine-sulla-citta_e_967437?destination=&amp;submitted=1&amp;startdate=03%2F12%2F2019&amp;category%5B0%5D=&amp;enddate=15%2F12%2F2019&amp;device=desktop&amp;mode=grid&amp;page=2&amp;ajax=1</t>
+  </si>
+  <si>
+    <t>Mostre, Folklore, Intrattenimento della Località</t>
+  </si>
+  <si>
+    <t>L'Angolo Artigianale Natalizio di Imèr</t>
+  </si>
+  <si>
+    <t>07/12/2019-08/12/2019</t>
+  </si>
+  <si>
+    <t>Primiero - Imer</t>
+  </si>
+  <si>
+    <t>L'Angolo Artigianale Natalizio di Imèr ,Per chi vuole scoprire le meraviglie del Natale ,Periodo ,07/12/2019 - 08/12/2019 ,Località ,Primiero - Imer ,Tipologia ,Mostre, Folklore, Intrattenimento della Località ,Artigiani in Piazza presentano "L'Angolo Artigianale Natalizio di Imèr". ,Una location unica, riscaldata, all'interno di un'antica segheria ristrutturata. ,Colori, passione, fantasia e genialità: tanti espositori vi accolgono per mostrarvi le loro creazioni. ,Laboratorio di traforo tutti i weekend. ,Durante i Mercatin festeggeremo l'arrivo di Babbo Natale. ,Eccone le date e gli orari: ,7–8–14–15–21-22-28-29 dicembre 2019 e 4-6 gennaio 2020; ,A breve il programma al dettaglio.. ,Orario di apertura: dalle ore 14.00 alle ore 20.00; ,www.imereventi.it</t>
+  </si>
+  <si>
+    <t>[{"name": "043962407", "url": "tel:043962407"}, {"name": "Invia E-mail", "url": "https://www.visittrentino.info/it/guida/contatto?mailto=infoprimiero@sanmartino.com&amp;originUrl=/it/guida/eventi/l-angolo-artigianale-natalizio-di-imer_e_2304875&amp;origin=L%27Angolo%20Artigianale%20Natalizio%20di%20Im%C3%A8r"}]</t>
+  </si>
+  <si>
+    <t>Per chi vuole scoprire le meraviglie del Natale</t>
+  </si>
+  <si>
+    <t>https://www.visittrentino.info/it/guida/eventi/l-angolo-artigianale-natalizio-di-imer_e_2304875?destination=&amp;submitted=1&amp;startdate=03%2F12%2F2019&amp;category%5B0%5D=&amp;enddate=15%2F12%2F2019&amp;device=desktop&amp;mode=grid&amp;page=2&amp;ajax=1</t>
+  </si>
+  <si>
+    <t>Cultural--Mostre, Folklore, Intrattenimento della Località</t>
+  </si>
+  <si>
+    <t>Vin brulè degli Alpini</t>
+  </si>
+  <si>
+    <t>16.00-20.00</t>
+  </si>
+  <si>
+    <t>Vin brulè degli Alpini ,Vin brulè e te caldo in piazza a Moena per l’accensione dell’albero ,Periodo ,08/12/2019 ,Località ,Moena ,Tipologia ,Altro ,Un buon bicchiere di caldo e profumato vin brulè, distribuito dal gruppo ANA (Associazione Nazionale Alpini) di Moena, accompagna l’inizio ufficiale delle Feste, con la tradizionale accensione del grande albero in Piaz de Sotegrava e delle luminarie che addobbano le vie del paese.</t>
+  </si>
+  <si>
+    <t>[{"name": "+390462565038", "url": "tel:+390462565038"}, {"name": "Invia E-mail", "url": "https://www.visittrentino.info/it/guida/contatto?mailto=eventi@visitmoena.it&amp;originUrl=/it/guida/eventi/vin-brule-degli-alpini_e_4402112&amp;origin=Vin%20brul%C3%A8%20degli%20Alpini"}]</t>
+  </si>
+  <si>
+    <t>Vin brulè e te caldo in piazza a Moena per l’accensione dell’albero</t>
+  </si>
+  <si>
+    <t>https://www.visittrentino.info/it/guida/eventi/vin-brule-degli-alpini_e_4402112?destination=&amp;submitted=1&amp;startdate=03%2F12%2F2019&amp;category%5B0%5D=&amp;enddate=15%2F12%2F2019&amp;device=desktop&amp;mode=grid&amp;page=2&amp;ajax=1</t>
+  </si>
+  <si>
+    <t>Mercato contadino Arco</t>
+  </si>
+  <si>
+    <t>26/03/2019-10/12/2019</t>
+  </si>
+  <si>
+    <t>7.30-13.00</t>
+  </si>
+  <si>
+    <t>Mercato contadino Arco ,Mercato settimanale dei produttori locali: non solo frutta e verdura fresca, ma anche marmellate, succhi e miele ,Periodo ,26/03/2019 - 10/12/2019 ,Località ,Arco ,Tipologia ,Mercati e mercatini ,Questo mercato è nato per favorire il contatto diretto tra produttore e consumatore, incentivare il consumo dei prodotti di stagione e per far conoscere le aziende agricole del territorio.</t>
+  </si>
+  <si>
+    <t>[{"name": "+390464583649", "url": "tel:+390464583649"}, {"name": "Invia E-mail", "url": "https://www.visittrentino.info/it/guida/contatto?mailto=commercio@comune.arco.tn.it&amp;originUrl=/it/guida/eventi/mercato-contadino-arco_e_465208&amp;origin=Mercato%20contadino%20Arco"}]</t>
+  </si>
+  <si>
+    <t>Mercato settimanale dei produttori locali: non solo frutta e verdura fresca, ma anche marmellate, succhi e miele</t>
+  </si>
+  <si>
+    <t>https://www.visittrentino.info/it/guida/eventi/mercato-contadino-arco_e_465208?destination=&amp;submitted=1&amp;startdate=03%2F12%2F2019&amp;category%5B0%5D=&amp;enddate=15%2F12%2F2019&amp;device=desktop&amp;mode=grid&amp;page=2&amp;ajax=1</t>
+  </si>
+  <si>
+    <t>Mercato settimanale Riva del Garda</t>
+  </si>
+  <si>
+    <t>09/01/2019-11/12/2019</t>
+  </si>
+  <si>
+    <t>8.00-14.00</t>
+  </si>
+  <si>
+    <t>Mercato settimanale Riva del Garda ,I mercati offrono merce di ogni genere e la possibilità di incontrare la gente del luogo ,Periodo ,09/01/2019 - 11/12/2019 ,Località ,Riva del Garda ,Tipologia ,Mercati e mercatini ,In centro storico a Riva del Garda si svolge il mercato settimanale il 2° e il 4° mercoledì del mese; sono presenti stands con capi di abbigliamento, scarpe, profumi, suppellettili, etc. ,Il 27 novembre 2019 non si terrà il mercato, in concomitanza con la fiera di S.Andrea la stessa settimana.</t>
+  </si>
+  <si>
+    <t>[{"name": "+390464573888", "url": "tel:+390464573888"}, {"name": "Invia E-mail", "url": "https://www.visittrentino.info/it/guida/contatto?mailto=info@gardatrentino.it&amp;originUrl=/it/guida/eventi/mercato-settimanale-riva-del-garda_e_309845&amp;origin=Mercato%20settimanale%20Riva%20del%20Garda"}]</t>
+  </si>
+  <si>
+    <t>I mercati offrono merce di ogni genere e la possibilità di incontrare la gente del luogo</t>
+  </si>
+  <si>
+    <t>https://www.visittrentino.info/it/guida/eventi/mercato-settimanale-riva-del-garda_e_309845?destination=&amp;submitted=1&amp;startdate=03%2F12%2F2019&amp;category%5B0%5D=&amp;enddate=15%2F12%2F2019&amp;device=desktop&amp;mode=grid&amp;page=3&amp;ajax=1</t>
+  </si>
+  <si>
+    <t>Spettacolo di Natale</t>
+  </si>
+  <si>
+    <t>11/12/2019</t>
+  </si>
+  <si>
+    <t>Spettacolo di Natale ,Spettacolo per bambini con letture animate dai disegni in sabbia ,Periodo ,11/12/2019 ,Località ,Arco ,Tipologia ,Altro ,Mercoledì 11 dicembre alle ore 17:00 presso la Biblioteca civica "B. Emmert" si terrà lo spettacolo di Natale con letture animate dai disegni in sabbia di Nadia Ischia e Laura Lutti. ,L'evento è rivolto principalmente a bambini di età compresa tra i 5 e i 10 anni, ma aperto a tutti!</t>
+  </si>
+  <si>
+    <t>[{"name": "+390464516115", "url": "tel:+390464516115"}, {"name": "Invia E-mail", "url": "https://www.visittrentino.info/it/guida/contatto?mailto=arco@biblio.infotn.it&amp;originUrl=/it/guida/eventi/spettacolo-di-natale_e_13313626&amp;origin=Spettacolo%20di%20Natale"}]</t>
+  </si>
+  <si>
+    <t>Spettacolo per bambini con letture animate dai disegni in sabbia</t>
+  </si>
+  <si>
+    <t>https://www.visittrentino.info/it/guida/eventi/spettacolo-di-natale_e_13313626?destination=&amp;submitted=1&amp;startdate=03%2F12%2F2019&amp;category%5B0%5D=&amp;enddate=15%2F12%2F2019&amp;device=desktop&amp;mode=grid&amp;page=3&amp;ajax=1</t>
+  </si>
+  <si>
+    <t>Concerto Sinfonico</t>
+  </si>
+  <si>
+    <t>12/12/2019</t>
+  </si>
+  <si>
+    <t>20.45-22.30</t>
+  </si>
+  <si>
+    <t>Concerto Sinfonico ,Concerto di Natale diretto da Marco Pierobon - Orchestra Haydn di Bolzano e Trento ,Periodo ,12/12/2019 ,Località ,Arco ,Tipologia ,Musica ,Orchestra Haydn di Bolzano e Trento ,Marco Pierobon, direttore d'orchestra ,Musiche di ,Duke Ellington: The Nutcracker Suite, per orchestra (Cajkovskij/Elllington/Pierobon) ,Franz Xaver Gruber: Stille Nacht, heilige Nacht ,Irving Berlin: White Christmas ,Alfonso M. De Liguori: Tu scendi dalle stelle ,James Lord Pierpont: Jingle Bells, or The One Horse Open Sleigh ,Anonymus: O Tannenbaum ,Hugh Martin, Ralph Blane: Have Yourself A Merry Little Christmas ,Nat K. Cole: The Christmas Song ,John Lennon: Happy Xmas ,Mariah Carey: All I Want For Christmas Is You ,Al Jarreau: Christmas ,Jule Styne: Let It Snow ,Fred Coots: Santa Claus Is Coming To Town ,Anonymus: Oh Happy Day ,Peter Wilhousky: Carol Of The Bells ,Georg Friedrich Händel: Joy To The World ,Leroy Anderson: Sleigh Ride ,Walter E. Rollins, Steve Nelson: Frosty The Snowman ,José Feliciano: Felice Navidad ,BIGLIETTI ,I biglietti si possono acquistare presso la biglietteria serale un’ora prima del concerto. ,INTERO €15,00 ,RIDOTTO OVER 65 €10,00</t>
+  </si>
+  <si>
+    <t>[{"name": "+390471975031", "url": "tel:+390471975031"}, {"name": "Invia E-mail", "url": "https://www.visittrentino.info/it/guida/contatto?mailto=info@haydn.it&amp;originUrl=/it/guida/eventi/concerto-sinfonico_e_721365&amp;origin=Concerto%20Sinfonico"}]</t>
+  </si>
+  <si>
+    <t>Concerto di Natale diretto da Marco Pierobon - Orchestra Haydn di Bolzano e Trento</t>
+  </si>
+  <si>
+    <t>https://www.visittrentino.info/it/guida/eventi/concerto-sinfonico_e_721365?destination=&amp;submitted=1&amp;startdate=03%2F12%2F2019&amp;category%5B0%5D=&amp;enddate=15%2F12%2F2019&amp;device=desktop&amp;mode=grid&amp;page=3&amp;ajax=1</t>
+  </si>
+  <si>
+    <t>Arriva Santa Lucia</t>
+  </si>
+  <si>
+    <t>17.00-19.00</t>
+  </si>
+  <si>
+    <t>Arco, Drena, Dro ...</t>
+  </si>
+  <si>
+    <t>Arriva Santa Lucia ,Santa Lucia con il suo asinello distribuisce doni nelle varie località del Garda Trentino ,Periodo ,12/12/2019 ,Località ,Arco, Drena, Dro ... ,Tipologia ,Intrattenimento della Località ,Rione Degasperi (Riva del Garda), Chiesa S. Giuseppe h. 17.00 ,Partenza strozegada con arrivo in piazzale Mimosa e distribuzione cioccolata calda e dolcetti. ,Torbole, piazza Lietzmann h. 17.00 ,Tradizionale arrivo di Santa Lucia dal lago di Garda in barca e distribuzione di dolcetti e caldarroste per grandi e piccini. ,Nago, località Piazzola h. 17.00 ,La Santa Lucia arriverà con il suo asinello accompagnata dalle strozeghe e distribuirà doni e dolci ai bambini. Per i più grandi vim brulè e cioccolata calda. ,Arco, Piazza 3 Novembre h. 18.00 ,Arriva Santa Lucia e distribuzione doni per i bambini ,Bolognano (Arco), centro storico h. 17.00 ,Arriva Santa Lucia e distribuzione doni per i bambini ,Romarzollo (Arco), centro storico h. 17.00 ,Arriva Santa Lucia e distribuzione doni per i bambini ,Cologna, Oratorio h. 17.00 ,Partenza corteo di S.Lucia e l'asinello per le vie di Cologna e Gavazzo e arrivo in Piazza S.Rocco con distribuzione di doni a tutti i bambini. Vi aspettiamo con strozeghe e campanelli!</t>
+  </si>
+  <si>
+    <t>[{"name": "+390464554444", "url": "tel:+390464554444"}, {"name": "Invia E-mail", "url": "https://www.visittrentino.info/it/guida/contatto?mailto=info@gardatrentino.it&amp;originUrl=/it/guida/eventi/arriva-santa-lucia_e_829604&amp;origin=Arriva%20Santa%20Lucia"}]</t>
+  </si>
+  <si>
+    <t>Santa Lucia con il suo asinello distribuisce doni nelle varie località del Garda Trentino</t>
+  </si>
+  <si>
+    <t>https://www.visittrentino.info/it/guida/eventi/arriva-santa-lucia_e_829604?destination=&amp;submitted=1&amp;startdate=03%2F12%2F2019&amp;category%5B0%5D=&amp;enddate=15%2F12%2F2019&amp;device=desktop&amp;mode=grid&amp;page=3&amp;ajax=1</t>
+  </si>
+  <si>
+    <t>Intrattenimento della Località, Mercati e mercatini, Altro</t>
+  </si>
+  <si>
+    <t>La Strozegada di Santa Lucia</t>
+  </si>
+  <si>
+    <t>La Strozegada di Santa Lucia ,Centro Storico di Levico Terme, alle 17.30 ,Periodo ,12/12/2019 ,Località ,Levico Terme ,Tipologia ,Intrattenimento della Località, Mercati e mercatini, Altro ,Giovedì 12 dicembre 2019, alle ore 17.30, si terrà presso le vie del centro storico di Levico Terme: ,STROZEGADA DI SANTA LUCIA ,Lungo le vie del centro, ore 17.30 ,La Strozegada di Santa Lucia coinvolge centinaia di allegri bambini che sfilano lungo i vicoli e le strade di Levico mentre trascinano le rumorose strozeghe per richiamare l'attenzione di Santa Lucia. ,La serata è resa ancora più magica dall'arrivo della Santa con il suo asinello, pronta a distribuire piccoli regali a tutti i bambini. La sera del 12 dicembre vigilia di Santa Lucia, ci si ritrova in centro a Levico per percorrere vie e piazza trascinando le "strozeghe", in attesa che Santa Lucia richiamata dal frastuono porti i doni ai bambini. ,Come si fa una "strozega"? ,Barattoli di latta e lattine vengono legati tra loro con filo di ferro o spago per essere trascinati dai bambini lungo le strade del paese. ,Munitevi anche voi di una "strozega" e scendete per le vie del centro dietro il carro di Santa Lucia. ,All'arrivo le letterine di richiesta dei doni verranno legate a centinaia di palloncini colorati e lasciate volare in cielo. ,Per ulteriori informazioni: ,Consorzio Levico Terme in Centro | www.visitlevicoterme.it | info@levicotermeincontra.com ,Azienda per il Turismo Valsugana | +39 0461 727700 |</t>
+  </si>
+  <si>
+    <t>[{"name": "+390461727700", "url": "tel:+390461727700"}, {"name": "+390461727799", "url": ""}, {"name": "Invia E-mail", "url": "https://www.visittrentino.info/it/guida/contatto?mailto=info@visitvalsugana.it&amp;originUrl=/it/guida/eventi/la-strozegada-di-santa-lucia_e_2211834&amp;origin=La%20Strozegada%20di%20Santa%20Lucia"}]</t>
+  </si>
+  <si>
+    <t>Centro Storico di Levico Terme, alle 17.30</t>
+  </si>
+  <si>
+    <t>https://www.visittrentino.info/it/guida/eventi/la-strozegada-di-santa-lucia_e_2211834?destination=&amp;submitted=1&amp;startdate=03%2F12%2F2019&amp;category%5B0%5D=&amp;enddate=15%2F12%2F2019&amp;device=desktop&amp;mode=grid&amp;page=3&amp;ajax=1</t>
+  </si>
+  <si>
+    <t>Cultural--Intrattenimento della Località, Mercati e mercatini, Altro</t>
+  </si>
+  <si>
+    <t>Arrivo di Santa Lucia in barca</t>
+  </si>
+  <si>
+    <t>17:00</t>
+  </si>
+  <si>
+    <t>Torbole sul Garda - Nago</t>
+  </si>
+  <si>
+    <t>Arrivo di Santa Lucia in barca ,Tradizionale arrivo di Santa Lucia in barca dal lago di Garda con distribuzione di dolcetti e caldarroste ,2 altre immagini ,Periodo ,12/12/2019 ,Località ,Torbole sul Garda - Nago ,Tipologia ,Intrattenimento della Località ,In piazza Lietzmann a Torbole il tradizionale arrivo di Santa Lucia dal lago di Garda in barca, un evento must per Torbole. ,Distribuzione di dolcetti e caldarroste per tutti gli ospiti grandi e piccini. ,PROGRAMMA XMAS TORBOLE</t>
+  </si>
+  <si>
+    <t>[{"name": "+393388735427", "url": "tel:+393388735427"}, {"name": "Invia E-mail", "url": "https://www.visittrentino.info/it/guida/contatto?mailto=xmastorbole@gmail.com&amp;originUrl=/it/guida/eventi/arrivo-di-santa-lucia-in-barca_e_12647628&amp;origin=Arrivo%20di%20Santa%20Lucia%20in%20barca"}]</t>
+  </si>
+  <si>
+    <t>Tradizionale arrivo di Santa Lucia in barca dal lago di Garda con distribuzione di dolcetti e caldarroste</t>
+  </si>
+  <si>
+    <t>https://www.visittrentino.info/it/guida/eventi/arrivo-di-santa-lucia-in-barca_e_12647628?destination=&amp;submitted=1&amp;startdate=03%2F12%2F2019&amp;category%5B0%5D=&amp;enddate=15%2F12%2F2019&amp;device=desktop&amp;mode=grid&amp;page=3&amp;ajax=1</t>
+  </si>
+  <si>
+    <t>La Montagna chiama ( The mountain calling )</t>
+  </si>
+  <si>
+    <t>30/11/2019-13/12/2019</t>
+  </si>
+  <si>
+    <t>15.00-19.00</t>
+  </si>
+  <si>
+    <t>La Montagna chiama ( The mountain calling ) ,Mostra personale di Mauro Berlanda ,Periodo ,30/11/2019 - 13/12/2019 ,Località ,Arco ,Tipologia ,Mostre ,Inaugurazione sabato 30 novembre alle ore 17.00 presso la Galleria "Il Transito" di Arco ( via segantini 81). ,Presenta Roberta Bonazza</t>
+  </si>
+  <si>
+    <t>[{"name": "Invia E-mail", "url": "https://www.visittrentino.info/it/guida/contatto?mailto=info@gruppoartivisivearco.it&amp;originUrl=/it/guida/eventi/la-montagna-chiama-the-mountain-calling_e_13132578&amp;origin=La%20Montagna%20chiama%20(%20The%20mountain%20calling%20)"}]</t>
+  </si>
+  <si>
+    <t>Mostra personale di Mauro Berlanda</t>
+  </si>
+  <si>
+    <t>https://www.visittrentino.info/it/guida/eventi/la-montagna-chiama-the-mountain-calling_e_13132578?destination=&amp;submitted=1&amp;startdate=03%2F12%2F2019&amp;category%5B0%5D=&amp;enddate=15%2F12%2F2019&amp;device=desktop&amp;mode=grid&amp;page=3&amp;ajax=1</t>
+  </si>
+  <si>
+    <t>Mercati e mercatini, Intrattenimento della Località, Altro</t>
   </si>
   <si>
     <t>Spettacolo di fuochi d'artificio</t>
   </si>
   <si>
-    <t>Località ,Levico Terme</t>
-  </si>
-  <si>
-    <t>Spettacolo di fuochi d'artificio ,Parco Asburgico di Levico - ore 21.30 ,Periodo ,30/11/2019 ,Località ,Levico Terme ,Tipologia ,Intrattenimento della Località, Mercati e mercatini, Altro ,Sabato 30 novembre 2019, alle 21.30 si terranno nel secolare Parco Asburgico di Levico Terme: ,SPETTACOLI DI FUOCHI D'ARTIFICIO ,Parco delle Terme di Levico, ore 21.30 ,Il Mercatino di Natale di Levico Terme ha il sapore di una favola antica che prende vita nel Parco secolare degli Asburgo, un luogo incantato dove si può ancora godere dell’autentico spirito del Natale. ,Un’oasi naturale che nel periodo natalizio abbraccia con calore le tradizionali casette di legno nascoste tra gli alberi secolari tinti di bianco dai fiocchi di neve. Le luci soffuse che ricoprono come un mantello gli alberi del parco vi faranno da guida lungo i vialetti che vi condurranno a scoprire questo luogo incantato. ,Per ulteriori informazioni: ,Consorzio Levico Terme in Centro | www.visitlevicoterme.it | info@levicotermeincontra.com ,Azienda per il Turismo Valsugana | +39 0461 727700 |</t>
-  </si>
-  <si>
-    <t>[{"name": "+390461727700", "url": "tel:+390461727700"}, {"name": "+390461727799", "url": ""}, {"name": "Invia E-mail", "url": "https://www.visittrentino.info/it/guida/contatto?mailto=info@visitvalsugana.it&amp;originUrl=/it/guida/eventi/spettacolo-di-fuochi-d-artificio_e_768650&amp;origin=Spettacolo%20di%20fuochi%20d%27artificio"}]</t>
+    <t>14/12/2019</t>
+  </si>
+  <si>
+    <t>Spettacolo di fuochi d'artificio ,Parco Asburgico di Levico - ore 21.30 ,Periodo ,14/12/2019 ,Località ,Levico Terme ,Tipologia ,Mercati e mercatini, Intrattenimento della Località, Altro ,Sabato 14 dicembre 2018, alle 21.30 si terranno nel secolare Parco Asburgico di Levico Terme: ,SPETTACOLI DI FUOCHI D'ARTIFICIO ,Parco delle Terme di Levico, ore 21.30 ,Il Mercatino di Natale di Levico Terme ha il sapore di una favola antica che prende vita nel Parco secolare degli Asburgo, un luogo incantato dove si può ancora godere dell’autentico spirito del Natale. ,Un’oasi naturale che nel periodo natalizio abbraccia con calore le tradizionali casette di legno nascoste tra gli alberi secolari tinti di bianco dai fiocchi di neve. Le luci soffuse che ricoprono come un mantello gli alberi del parco vi faranno da guida lungo i vialetti che vi condurranno a scoprire questo luogo incantato. ,Per ulteriori informazioni: ,Consorzio Levico Terme in Centro | www.visitlevicoterme.it | info@levicotermeincontra.com ,Azienda per il Turismo Valsugana | +39 0461 727700 |</t>
+  </si>
+  <si>
+    <t>[{"name": "+390461727700", "url": "tel:+390461727700"}, {"name": "+390461727799", "url": ""}, {"name": "Invia E-mail", "url": "https://www.visittrentino.info/it/guida/contatto?mailto=info@visitvalsugana.it&amp;originUrl=/it/guida/eventi/spettacolo-di-fuochi-d-artificio_e_768638&amp;origin=Spettacolo%20di%20fuochi%20d%27artificio"}]</t>
   </si>
   <si>
     <t>Parco Asburgico di Levico - ore 21.30</t>
   </si>
   <si>
-    <t>https://www.visittrentino.info/it/guida/eventi/spettacolo-di-fuochi-d-artificio_e_768650?destination=&amp;submitted=1&amp;startdate=29%2F11%2F2019&amp;category%5B0%5D=&amp;enddate=15%2F12%2F2019</t>
-  </si>
-  <si>
-    <t>Tipologia ,Festival</t>
-  </si>
-  <si>
-    <t>Note d’Autunno alle QC Terme Dolomiti</t>
-  </si>
-  <si>
-    <t>Periodo ,05/10/2019 - 30/11/2019</t>
-  </si>
-  <si>
-    <t>dalle 18.30 alle 20.30</t>
-  </si>
-  <si>
-    <t>Località ,Vigo di Fassa</t>
-  </si>
-  <si>
-    <t>Note d’Autunno alle QC Terme Dolomiti ,Suoni e sapori animano l’Aperiterme di QC Terme Dolomiti con 9 appuntamenti autunnali ,Periodo ,05/10/2019 - 30/11/2019 ,Località ,Vigo di Fassa ,Tipologia ,Festival ,I sabati d’autunno alle QC Terme Dolomiti si colorano di musica e bollicine di benessere con nove appuntamenti speciali, compresi nel biglietto d’ingresso. Dal 5 ottobre al 30 novembre i brindisi dell’Aperiterme, nell’esclusivo resort di Pozza, saranno accompagnati da eccellenze gastronomiche locali e da note di musica dal vivo.</t>
-  </si>
-  <si>
-    <t>[{"name": "+390462091117", "url": "tel:+390462091117"}, {"name": "Invia E-mail", "url": "https://www.visittrentino.info/it/guida/contatto?mailto=info@qctermedolomiti.it&amp;originUrl=/it/guida/eventi/note-d-autunno-alle-qc-terme-dolomiti_e_3814424&amp;origin=Note%20d%E2%80%99Autunno%20alle%20QC%20Terme%20Dolomiti"}]</t>
-  </si>
-  <si>
-    <t>Suoni e sapori animano l’Aperiterme di QC Terme Dolomiti con 9 appuntamenti autunnali</t>
-  </si>
-  <si>
-    <t>https://www.visittrentino.info/it/guida/eventi/note-d-autunno-alle-qc-terme-dolomiti_e_3814424?destination=&amp;submitted=1&amp;startdate=29%2F11%2F2019&amp;category%5B0%5D=&amp;enddate=15%2F12%2F2019</t>
-  </si>
-  <si>
-    <t>Sfilata della Corte Asburgica</t>
-  </si>
-  <si>
-    <t>Sfilata della Corte Asburgica ,Parco secolare degli Asburgo, Levico Terme - ore 15.00. ,Periodo ,30/11/2019 ,Località ,Levico Terme ,Tipologia ,Altro ,SFILATA DELLA CORTE ASBURGICA ,Parco secolare degli Asburgo, dalle ore 15.00 alle 17.00 ,Sfilata della Corte Asburgica per tornare indietro nel tempo e ammirare la famiglia asburgica nella splendida cornice del parco. ,Per ulteriori informazioni: ,Consorzio Levico Terme in Centro | www.visitlevicoterme.it | info@levicotermeincontra.com ,Azienda per il Turismo Valsugana | +39 0461 727700 |</t>
-  </si>
-  <si>
-    <t>[{"name": "+390461727700", "url": "tel:+390461727700"}, {"name": "+390461727799", "url": ""}, {"name": "Invia E-mail", "url": "https://www.visittrentino.info/it/guida/contatto?mailto=info@visitvalsugana.it&amp;originUrl=/it/guida/eventi/sfilata-della-corte-asburgica_e_13031588&amp;origin=Sfilata%20della%20Corte%20Asburgica"}]</t>
-  </si>
-  <si>
-    <t>Parco secolare degli Asburgo, Levico Terme - ore 15.00.</t>
-  </si>
-  <si>
-    <t>https://www.visittrentino.info/it/guida/eventi/sfilata-della-corte-asburgica_e_13031588?destination=&amp;submitted=1&amp;startdate=29%2F11%2F2019&amp;category%5B0%5D=&amp;enddate=15%2F12%2F2019</t>
-  </si>
-  <si>
-    <t>Tipologia ,Musica</t>
-  </si>
-  <si>
-    <t>La banda di Primiero</t>
-  </si>
-  <si>
-    <t>Località ,Fiera di Primiero</t>
-  </si>
-  <si>
-    <t>La banda di Primiero ,Spettacolo di presentazione del libro sulla storia della Banda per il 70° ,Periodo ,30/11/2019 ,Località ,Fiera di Primiero ,Tipologia ,Musica ,Durante la serata sarà presentato al pubblico il libro "La Banda di Primiero. Una storia di musica e passione". ,Una pubblicazione edita in occasione dei 70 anni dalla rifondazione e di attività ininterrotta del Corpo Musicale Folkloristico di Primiero. ,Seguendo lo sviluppo del libro viaggeremo attraverso gli occhi della Banda tra i ricordi e le emozioni della nostra comunità. ,Presentatori: Valentina De Cecco e Gianni Boccabella ,Direttore musicale: Fabio Turra ,Montaggio foto e video: Paolo Kaltenhauser ,Luci e Proiezioni: Gest ,Costumi: Sara Depaoli ,Coordinamento e regia: Daiana Lucian e Celestino Tavernaro ,Ingresso libero. ,Fiera di Primiero, Auditorium Intecomunale, ore 20.45</t>
-  </si>
-  <si>
-    <t>[{"name": "0439.62407", "url": "tel:0439.62407"}, {"name": "Invia E-mail", "url": "https://www.visittrentino.info/it/guida/contatto?mailto=infoprimiero@sanmartino.com&amp;originUrl=/it/guida/eventi/la-banda-di-primiero_e_13156378&amp;origin=La%20banda%20di%20Primiero"}]</t>
-  </si>
-  <si>
-    <t>Spettacolo di presentazione del libro sulla storia della Banda per il 70°</t>
-  </si>
-  <si>
-    <t>https://www.visittrentino.info/it/guida/eventi/la-banda-di-primiero_e_13156378?destination=&amp;submitted=1&amp;startdate=29%2F11%2F2019&amp;category%5B0%5D=&amp;enddate=15%2F12%2F2019</t>
-  </si>
-  <si>
-    <t>Domeniche al Museo</t>
-  </si>
-  <si>
-    <t>Periodo ,05/05/2019 - 01/12/2019</t>
-  </si>
-  <si>
-    <t>h. 10.00 &gt; 18.00</t>
-  </si>
-  <si>
-    <t>Località ,Riva del Garda</t>
-  </si>
-  <si>
-    <t>Domeniche al Museo ,Entrata gratuita e visita guidata al MAG di Riva del Garda ogni prima domenica del mese ,2 altre immagini ,Periodo ,05/05/2019 - 01/12/2019 ,Località ,Riva del Garda ,Tipologia ,Altro ,Per il 2019, gli appuntamenti con le domeniche gratuite sono i seguenti: ,6 gennaio ,3 febbraio (solo al Museo di Riva del Garda; Galleria Civica G. Segantini chiusa) ,3 marzo (solo al Museo di Riva del Garda; Galleria Civica G. Segantini chiusa) ,7 aprile ,5 maggio ,2 giugno ,7 luglio ,4 agosto ,1 settembre ,6 ottobre (solo al Museo di Riva del Garda; Galleria Civica G. Segantini chiusa) ,3 novembre (solo al Museo di Riva del Garda; Galleria Civica G. Segantini chiusa) ,1 dicembre (solo al Museo di Riva del Garda; Galleria Civica G. Segantini chiusa) ,Orari di apertura Museo Riva del Garda: ,Dal 23 marzo al 3 novembre 2019 | 10.00 - 18.00 (lunedì chiuso) ,Giugno, luglio, agosto e settembre 2019 | aperto tutti i giorni 10.00 - 18.00 ,27-30 dicembre 2019 e 2-6 gennaio 2020 | 10.00 - 18.00 ,31 dicembre 2019 | 10.00-17.00 ,Orari di apertura Galleria Civica Segantini: ,Dal 5 aprile al 15 settembre 2019 (chiusura anticipata per manutenzione - riapertura primavera 2020</t>
-  </si>
-  <si>
-    <t>[{"name": "+390464573869", "url": "tel:+390464573869"}, {"name": "Invia E-mail", "url": "https://www.visittrentino.info/it/guida/contatto?mailto=info@museoaltogarda.it&amp;originUrl=/it/guida/eventi/domeniche-al-museo_e_309899&amp;origin=Domeniche%20al%20Museo"}]</t>
-  </si>
-  <si>
-    <t>Entrata gratuita e visita guidata al MAG di Riva del Garda ogni prima domenica del mese</t>
-  </si>
-  <si>
-    <t>https://www.visittrentino.info/it/guida/eventi/domeniche-al-museo_e_309899?destination=&amp;submitted=1&amp;startdate=29%2F11%2F2019&amp;category%5B0%5D=&amp;enddate=15%2F12%2F2019</t>
-  </si>
-  <si>
-    <t>Tipologia ,Folklore, Enogastronomia, Intrattenimento della Località, Mercati e mercatini</t>
-  </si>
-  <si>
-    <t>26° Mercatino di Natale di Siror - Christkindlmarkt</t>
-  </si>
-  <si>
-    <t>Periodo ,01/12/2019</t>
-  </si>
-  <si>
-    <t>Località ,Primiero - Siror</t>
-  </si>
-  <si>
-    <t>26° Mercatino di Natale di Siror - Christkindlmarkt ,Un’atmosfera unica fatta di colori, luci e sapori! ,Periodo ,01/12/2019 ,Località ,Primiero - Siror ,Tipologia ,Folklore, Enogastronomia, Intrattenimento della Località, Mercati e mercatini ,Il Mercatino di Natale di Siror, il più antico mercatino di Natale del Trentino, come da tradizione si prepara a trasformare l’antico borgo di Primiero in un romantico Christkindlmarkt. ,Le caratteristiche casette in legno, gli antichi fienili e le stalle del centro storico si trasformeranno in pittoresche botteghe dove trovare originalissimi regali natalizi: decorazioni, presepi, produzioni artigianali e numerose proposte golose, dolci e salate, come il tipico brazedel di Siror, lo zelten trentino, i salumi, il miele, le frittelle e tante altre delizie. ,Consigliatissimi un tour del paese a bordo della troika, tradizionale slitta trainata dai cavalli, e una tappa alla mostra concorso “Il mio albero di Natale”, dove trovare spunti e idee per un abete diverso dal solito e votare l’alberò più originale. ,Durante il Mercatino di Natale scultori da tutta Italia parteciperanno al tradizionale Simposio di Scultura “Arte Natale” e daranno vita, sotto gli occhi curiosi del pubblico, a piccoli capolavori in legno. Vista la vicinanza alla piste di San Martino di Castrozza-Passo Rolle, che si trovano a solo 13 chilometri, la visita al Mercatino di Natale di Siror diventerà un’ottima occasione per concludere in bellezza le prime sciate della stagione. ,Tra le proposte dedicate ai bambini non perdetevi Il Bosco del Mazarol, in luovo percorso a tema tra le "canisele" di Siror, per scoprire dove vive il Mazarol, personaggio leggendario amato e temuto da tutti i bambini del Primiero. Quest'anno il percorso è agibile anche con carrozzine e passeggini. Il Bosco del Mazarol sarà visitabile anche le festività natalizie. ,Inoltre a grande richiesta ritornano i Laboratori Creativi Natalizi a cura dei ragazzi del gruppo "Coreghe Drio" presso la sede ex Cassa Rurale, dove verrà allestito anche il Punto Bimbo, uno spazio caldo ed accogliente con fasciatoio e divanetti dove allattare con tranquillità. ,Quando: 24 novembre – 1 – 7 – 8 – 15 – 22 dicembre dalle 10.30 alle 18.30 nel centro storico di Siror (Primiero San Martino di Castrozza)</t>
-  </si>
-  <si>
-    <t>[{"name": "043962407", "url": "tel:043962407"}, {"name": "Invia E-mail", "url": "https://www.visittrentino.info/it/guida/contatto?mailto=infoprimiero@sanmartino.com&amp;originUrl=/it/guida/eventi/26deg-mercatino-di-natale-di-siror-christkindlmarkt_e_455984&amp;origin=26%C2%B0%20Mercatino%20di%20Natale%20di%20Siror%20-%20Christkindlmarkt"}]</t>
-  </si>
-  <si>
-    <t>Un’atmosfera unica fatta di colori, luci e sapori!</t>
-  </si>
-  <si>
-    <t>https://www.visittrentino.info/it/guida/eventi/26deg-mercatino-di-natale-di-siror-christkindlmarkt_e_455984?destination=&amp;submitted=1&amp;startdate=29%2F11%2F2019&amp;category%5B0%5D=&amp;enddate=15%2F12%2F2019</t>
-  </si>
-  <si>
-    <t>Teatro a Gonfie Vele - Le Dodici notti</t>
-  </si>
-  <si>
-    <t>h. 16.30 &gt; 18.00</t>
-  </si>
-  <si>
-    <t>Località ,Tenno</t>
-  </si>
-  <si>
-    <t>Teatro a Gonfie Vele - Le Dodici notti ,Spettacolo teatrale per bambini ,1 altre immagini ,Periodo ,01/12/2019 ,Località ,Tenno ,Tipologia ,Teatro/Danza ,Durante le Dodici notti si raccontano storie d’inverno, che profumano di zenzero e cannella e crepitano come la famma nel camino. Narrano del Solstizio d’inverno, del gelo, della neve, del riposo della Terra. ,Di doni e apparizioni, di vecchie ricurve e nodose e splendide Signore dell’Inverno. Di fgure misteriose nei boschi innevati, di anziani viandanti e forestieri dai mantelli di neve. Raccontano di fatti magici che possono accadere soltanto nelle Dodici Notti. Quelle notti speciali, in cui il tempo sembra sospeso, dal Natale all’Epifania... ,Età consigliata: dai 3 anni ,Prevendita dei biglietti presso gli sportelli delle Casse Rurali del Trentino o un'ora prima dell'inizio dello spettacolo. ,PROGRAMMA</t>
-  </si>
-  <si>
-    <t>[{"name": "+390464532612", "url": "tel:+390464532612"}, {"name": "Invia E-mail", "url": "https://www.visittrentino.info/it/guida/contatto?mailto=info@teatropercaso.it&amp;originUrl=/it/guida/eventi/teatro-a-gonfie-vele-le-dodici-notti_e_2112712&amp;origin=Teatro%20a%20Gonfie%20Vele%20-%20Le%20Dodici%20notti"}]</t>
-  </si>
-  <si>
-    <t>Spettacolo teatrale per bambini</t>
-  </si>
-  <si>
-    <t>https://www.visittrentino.info/it/guida/eventi/teatro-a-gonfie-vele-le-dodici-notti_e_2112712?destination=&amp;submitted=1&amp;startdate=29%2F11%2F2019&amp;category%5B0%5D=&amp;enddate=15%2F12%2F2019&amp;device=desktop&amp;mode=grid&amp;page=2&amp;ajax=1</t>
-  </si>
-  <si>
-    <t>Arriva San Nicolò</t>
-  </si>
-  <si>
-    <t>Periodo ,05/12/2019</t>
-  </si>
-  <si>
-    <t>Località ,Moena</t>
-  </si>
-  <si>
-    <t>Arriva San Nicolò ,Al calare della sera arriva San Nicolò accompagnato dagli angeli per distribuire ai bambini doni e dolcetti ,Periodo ,05/12/2019 ,Località ,Moena ,Tipologia ,Altro ,Il 5 dicembre, come tradizione vuole, tutti i bambini del paese dopo le ore 16 escono di casa con i "campanacci" per avvisare la popolazione dell’arrivo di San Nicolò. A gruppi si fermano davanti ai negozi che provvedono a riempire di dolcetti e caramelle i loro sacchetti. Alle ore 18.00, nella suggestiva frazione di Sorte, piccolo borgo di Moena raggiungibile a piedi o in macchina, arriva San Nicolò con i suoi amati angioletti e la gerla carica di doni che saranno distribuiti ai bambini. Iscrizione obbligatoria presso l’Hotel Piedibosco.</t>
-  </si>
-  <si>
-    <t>[{"name": "+390462573389", "url": "tel:+390462573389"}, {"name": "Invia E-mail", "url": "https://www.visittrentino.info/it/guida/contatto?mailto=infomoena@fassa.com&amp;originUrl=/it/guida/eventi/arriva-san-nicolo_e_821794&amp;origin=Arriva%20San%20Nicol%C3%B2"}]</t>
-  </si>
-  <si>
-    <t>Al calare della sera arriva San Nicolò accompagnato dagli angeli per distribuire ai bambini doni e dolcetti</t>
-  </si>
-  <si>
-    <t>https://www.visittrentino.info/it/guida/eventi/arriva-san-nicolo_e_821794?destination=&amp;submitted=1&amp;startdate=29%2F11%2F2019&amp;category%5B0%5D=&amp;enddate=15%2F12%2F2019&amp;device=desktop&amp;mode=grid&amp;page=2&amp;ajax=1</t>
-  </si>
-  <si>
-    <t>Hockey su ghiaccio: Fassa Falcons vs. HC Gherdëina</t>
-  </si>
-  <si>
-    <t>Hockey su ghiaccio: Fassa Falcons vs. HC Gherdëina ,Campionato di hockey su ghiaccio dell’Alps Hockey League ,Periodo ,05/12/2019 ,Località ,Canazei ,Tipologia ,Sport ,Segui le partite in casa dei Fassa Falcons, la squadra di hockey su ghiaccio dell’Alps Hockey League. I campioni della Val di Fassa giocano contro l’HC Gherdëina. Ingresso: adulti € 12; ragazzi 6-12 anni € 8; gratuito per i bambini fino a 5 anni. Inizio partita alle ore 20.30.</t>
-  </si>
-  <si>
-    <t>[{"name": "+390462602499", "url": "tel:+390462602499"}, {"name": "Invia E-mail", "url": "https://www.visittrentino.info/it/guida/contatto?mailto=info@fassafalcons.com&amp;originUrl=/it/guida/eventi/hockey-su-ghiaccio-fassa-falcons-vs.hc-gherdeina_e_3638983&amp;origin=Hockey%20su%20ghiaccio:%20Fassa%20Falcons%20vs.%20HC%20Gherd%C3%ABina"}]</t>
-  </si>
-  <si>
-    <t>https://www.visittrentino.info/it/guida/eventi/hockey-su-ghiaccio-fassa-falcons-vs.hc-gherdeina_e_3638983?destination=&amp;submitted=1&amp;startdate=29%2F11%2F2019&amp;category%5B0%5D=&amp;enddate=15%2F12%2F2019&amp;device=desktop&amp;mode=grid&amp;page=2&amp;ajax=1</t>
-  </si>
-  <si>
-    <t>Arriva San Nicolò a Vigo di Fassa</t>
-  </si>
-  <si>
-    <t>dalle ore 16.00</t>
-  </si>
-  <si>
-    <t>Arriva San Nicolò a Vigo di Fassa ,Al calare della notte appare San Nicolò accompagnato da alcuni angeli per distribuire loro doni e dolcetti ,Periodo ,05/12/2019 ,Località ,Vigo di Fassa ,Tipologia ,Altro ,Nel solco della tradizione della nostra Valle, nella sera di venerdì 5 dicembre (dalle ore 16.00), arriva San Nicolò, vestito da vescovo, accompagnato da due angeli, che lo aiutano a portare la gerla con i doni, e dai krampus, temuti da tutti i bambini. Durante la visita nelle case, i diavoli rimangono fuori dalla porta, a meno che non vi siano bambini particolarmente discoli.</t>
-  </si>
-  <si>
-    <t>[{"name": "+390462609700", "url": "tel:+390462609700"}, {"name": "Invia E-mail", "url": "https://www.visittrentino.info/it/guida/contatto?mailto=infovigo@fassa.com&amp;originUrl=/it/guida/eventi/arriva-san-nicolo-a-vigo-di-fassa_e_12289024&amp;origin=Arriva%20San%20Nicol%C3%B2%20a%20Vigo%20di%20Fassa"}]</t>
-  </si>
-  <si>
-    <t>Al calare della notte appare San Nicolò accompagnato da alcuni angeli per distribuire loro doni e dolcetti</t>
-  </si>
-  <si>
-    <t>https://www.visittrentino.info/it/guida/eventi/arriva-san-nicolo-a-vigo-di-fassa_e_12289024?destination=&amp;submitted=1&amp;startdate=29%2F11%2F2019&amp;category%5B0%5D=&amp;enddate=15%2F12%2F2019&amp;device=desktop&amp;mode=grid&amp;page=2&amp;ajax=1</t>
-  </si>
-  <si>
-    <t>Tipologia ,Intrattenimento della Località</t>
-  </si>
-  <si>
-    <t>Auguri in Musica</t>
-  </si>
-  <si>
-    <t>Periodo ,06/12/2019</t>
-  </si>
-  <si>
-    <t>h. 20.30 &gt; 22.00</t>
-  </si>
-  <si>
-    <t>Auguri in Musica ,Tradizionale concerto corale con gli allievi e i docenti della Scuola Musicale Alto Garda ,Periodo ,06/12/2019 ,Località ,Riva del Garda ,Tipologia ,Intrattenimento della Località ,Venerdì 6 dicembre alle ore 20.30 l’Auditorium del Conservatorio “F.A. Bonporti” di Riva del Garda ospita il concerto “Auguri in musica”con gli allievi e i docenti della Scuola Musicale Alto Garda, che promuove la raccolta di fondi in sostegno di Caritas di Riva del Garda quale segno di solidarietà. ,Ingresso libero.</t>
-  </si>
-  <si>
-    <t>[{"name": "+390464516681", "url": "tel:+390464516681"}, {"name": "Invia E-mail", "url": "https://www.visittrentino.info/it/guida/contatto?mailto=didattica@scuolamusicalealtogarda.it&amp;originUrl=/it/guida/eventi/auguri-in-musica_e_318121&amp;origin=Auguri%20in%20Musica"}]</t>
-  </si>
-  <si>
-    <t>Tradizionale concerto corale con gli allievi e i docenti della Scuola Musicale Alto Garda</t>
-  </si>
-  <si>
-    <t>https://www.visittrentino.info/it/guida/eventi/auguri-in-musica_e_318121?destination=&amp;submitted=1&amp;startdate=29%2F11%2F2019&amp;category%5B0%5D=&amp;enddate=15%2F12%2F2019&amp;device=desktop&amp;mode=grid&amp;page=2&amp;ajax=1</t>
-  </si>
-  <si>
-    <t>Sagra di San Nicolò</t>
-  </si>
-  <si>
-    <t>Sagra di San Nicolò ,A Pozza si festeggia San Nicolò, santo patrono del paese, presso il tendone manifestazioni ,Periodo ,06/12/2019 ,Località ,Vigo di Fassa ,Tipologia ,Feste e Sagre ,Il 6 dicembre il paese di Pozza è in festa per il patrono San Nicolò. ,Programma: ,ore 10.30 - sfilata con partenza dalla chiesetta di San Nicolò fino alla chiesa parrocchiale di Pozza insieme a San Nicolò e la banda musicale Musega da Poza; ,ore 11.00 - celebrazione religiosa nella chiesa di Santa Maria Ausiliatrice; ,ore 12.30 - pranzo tipico presso il tendone manifestazioni ,ore 15.30 - merenda per tutti i bambini con l’associazione Bambi; ,ore 16.30 - premiazione dei vincitori del concorso "Cianton rencurà"; ,ore 17.00 - arriva San Nicolò con i doni per i bimbi; ,ore 18.00 - concerto della banda "Musega da Poza"; ,ore 19.15 - estrazione biglietti lotteria di San Nicolò; ,ore 19.30 - cena e a seguire musica e balli con il gruppo Alpenboys.</t>
-  </si>
-  <si>
-    <t>[{"name": "+390462609670", "url": "tel:+390462609670"}, {"name": "Invia E-mail", "url": "https://www.visittrentino.info/it/guida/contatto?mailto=comitatomanifestazionipozza@gmail.com&amp;originUrl=/it/guida/eventi/sagra-di-san-nicolo_e_318141&amp;origin=Sagra%20di%20San%20Nicol%C3%B2"}]</t>
-  </si>
-  <si>
-    <t>A Pozza si festeggia San Nicolò, santo patrono del paese, presso il tendone manifestazioni</t>
-  </si>
-  <si>
-    <t>https://www.visittrentino.info/it/guida/eventi/sagra-di-san-nicolo_e_318141?destination=&amp;submitted=1&amp;startdate=29%2F11%2F2019&amp;category%5B0%5D=&amp;enddate=15%2F12%2F2019&amp;device=desktop&amp;mode=grid&amp;page=2&amp;ajax=1</t>
-  </si>
-  <si>
-    <t>Festa dei giovani</t>
-  </si>
-  <si>
-    <t>h. 18.00 &gt; 01.00</t>
-  </si>
-  <si>
-    <t>Festa dei giovani ,Ritorna la festa dei giovani, evento musicale che propone alcuni dei cantanti più noti in Albania ,Periodo ,06/12/2019 ,Località ,Riva del Garda ,Tipologia ,Musica ,La Festa dei Giovani è un evento che si ripete tutti gli anni non solo per i giovani ma per tutte le età. ,Ci saranno cantanti esperti, professionisti e molto conosciuti di ogni genere come Noizy (Rap), Altin Sulku (Folk) e Xhensila Myrtezaj (Pop). ,Il programma durerà oltre 4 ore e ci saranno anche molte sorprese. ,Biglietto Adulto : 25 € ,Biglietto Bambino dai 7 ai 14 anni : 15 € ,Venerdì 6 dicembre 2019 dalle ore 18:00 alle 01:00 ,Informazioni ,340 848 8811 (Landi) ,339 504 4856 (Erio) ,Prevendita ,Rinia onlus, via Scaligero 2, Riva del Garda</t>
-  </si>
-  <si>
-    <t>[{"name": "+393395044856", "url": "tel:+393395044856"}, {"name": "Invia E-mail", "url": "https://www.visittrentino.info/it/guida/contatto?mailto=riniarivadelgarda@gmail.com&amp;originUrl=/it/guida/eventi/festa-dei-giovani_e_2388793&amp;origin=Festa%20dei%20giovani"}]</t>
-  </si>
-  <si>
-    <t>Ritorna la festa dei giovani, evento musicale che propone alcuni dei cantanti più noti in Albania</t>
-  </si>
-  <si>
-    <t>https://www.visittrentino.info/it/guida/eventi/festa-dei-giovani_e_2388793?destination=&amp;submitted=1&amp;startdate=29%2F11%2F2019&amp;category%5B0%5D=&amp;enddate=15%2F12%2F2019&amp;device=desktop&amp;mode=grid&amp;page=2&amp;ajax=1</t>
-  </si>
-  <si>
-    <t>Tipologia ,Mostre</t>
-  </si>
-  <si>
-    <t>Dentro Leonardo</t>
-  </si>
-  <si>
-    <t>Periodo ,23/11/2019 - 06/12/2019</t>
-  </si>
-  <si>
-    <t>h. 10.00 &gt; 12.00 - 14.30 &gt; 18.00</t>
-  </si>
-  <si>
-    <t>Dentro Leonardo ,Mostra collettiva ,Periodo ,23/11/2019 - 06/12/2019 ,Località ,Riva del Garda ,Tipologia ,Mostre ,L’Associazione Amici dell’Arte, nel cinquecentesimo anniversario della morte del genio universale, Leonardo Da Vinci, ha voluto celebrare con una collettiva le varie sfaccettature del maestro, con una mostra collettiva dal titolo “DENTRO LEONARDO”. ,Maestro indiscusso in tutti i campi, dall'arte all'ingegneria, dalla botanica alla medicina, Leonardo da Vinci verrà celebrato con una mostra che rappresenterà, attraverso varie tecniche pittoriche, sculture, incisioni e mosaici, un'esplorazione profonda di un uomo che ancora oggi ha molto da raccontare. ,L’esposizione - dal 23 novembre al 5 dicembre 2019 – verrà inaugurata sabato 23 novembre alle ore 18.00 presso la galleria Craffonara di Riva del Garda, giardini di Porta Orientale. ,La presentazione sarà a cura della dott.ssa Nicoletta Tamanini. ,La Galleria rimarrà aperta tutti i giorni dalle 09.00 alle 12.30 e dalle 13.30 alle 18.30 con ingresso gratuito.</t>
-  </si>
-  <si>
-    <t>[{"name": "+390464573917", "url": "tel:+390464573917"}, {"name": "Invia E-mail", "url": "https://www.visittrentino.info/it/guida/contatto?mailto=amicidellarteriva@libero.it&amp;originUrl=/it/guida/eventi/dentro-leonardo_e_11080383&amp;origin=Dentro%20Leonardo"}]</t>
-  </si>
-  <si>
-    <t>Mostra collettiva</t>
-  </si>
-  <si>
-    <t>https://www.visittrentino.info/it/guida/eventi/dentro-leonardo_e_11080383?destination=&amp;submitted=1&amp;startdate=29%2F11%2F2019&amp;category%5B0%5D=&amp;enddate=15%2F12%2F2019&amp;device=desktop&amp;mode=grid&amp;page=2&amp;ajax=1</t>
-  </si>
-  <si>
-    <t>Trofeo San Nicolò</t>
-  </si>
-  <si>
-    <t>Periodo ,07/12/2019</t>
-  </si>
-  <si>
-    <t>Trofeo San Nicolò ,Gara di sci alpinismo in notturna organizzata dall’associazione sportiva "Bogn da Nia". Partenza da Canazei con arrivo al Passo Pordoi ,Periodo ,07/12/2019 ,Località ,Canazei ,Tipologia ,Sport ,Percorso: da loc. Lupo Bianco (1.715 m) a Hotel Savoia (2.239 m); dislivello 530 m. Cronometraggio con chip. E’ previsto il trasporto degli indumenti a monte. E’ facoltativo l’uso dello zaino. E’ obbligatorio quanto previsto dal "Regolamento materiali" di "Dolomiti sotto le stelle". ,Partenza: in linea alle ore 20.00 da loc. Lupo Bianco, sopra Canazei. ,Rientro: con pulmini messi a disposizione dall’organizzazione fino a mezzanotte o propria autovettura. ,Ritiro pettorali: alla partenza dalle ore 18.00. ,Iscrizioni on-line: dal sito oppure contattando Valerio Lorenz - Cell. 335 7099644 oppure Costa Walter - Cell. 329 0522217. ,Premiazioni: cena e premiazioni c/o Hotel Savoia. ,Assistenza medica e soccorso: Croce Bianca di Canazei - Soccorso Alpino Alta Val di Fassa.</t>
-  </si>
-  <si>
-    <t>[{"name": "+393357099644", "url": "tel:+393357099644"}, {"name": "Invia E-mail", "url": "https://www.visittrentino.info/it/guida/contatto?mailto=team@bogndania.com&amp;originUrl=/it/guida/eventi/trofeo-san-nicolo_e_314764&amp;origin=Trofeo%20San%20Nicol%C3%B2"}]</t>
-  </si>
-  <si>
-    <t>Gara di sci alpinismo in notturna organizzata dall’associazione sportiva "Bogn da Nia". Partenza da Canazei con arrivo al Passo Pordoi</t>
-  </si>
-  <si>
-    <t>https://www.visittrentino.info/it/guida/eventi/trofeo-san-nicolo_e_314764?destination=&amp;submitted=1&amp;startdate=29%2F11%2F2019&amp;category%5B0%5D=&amp;enddate=15%2F12%2F2019&amp;device=desktop&amp;mode=grid&amp;page=2&amp;ajax=1</t>
-  </si>
-  <si>
-    <t>Carols!</t>
-  </si>
-  <si>
-    <t>h. 17.00 &gt; 18.30</t>
-  </si>
-  <si>
-    <t>Carols! ,Musiche natalizie con il quartetto vocale di Arco Antiqua. Si terrà al Casinò Municipale ,2 altre immagini ,Periodo ,07/12/2019 ,Località ,Arco ,Tipologia ,Musica ,A grande richiesta torna il concerto natalizio dell'ensemble vocale Arco Antiqua. ,Vivi la magica atmosfera dei giorni di festa con melodie intramontabili come Stille Nacht, Let it snow!, Rudolpf the red nosed reindeer, Santa Claus is coming to town interpretate dal nostro quartetto vocale d'eccellenza composto dal soprano Giuseppina Perna, dal controtenore Aurelio Schiavoni, dal tenore Guido Trebo e dal basso Gennaro di Filippo. Ospite d'onore di quest'anno la percussionista Stefania Fava. ,Al termine dell'evento: squisitezze natalizie offerte dal Rooms and Breakfast da Gianni di Chiarano ,INGRESSO LIBERO</t>
-  </si>
-  <si>
-    <t>[{"name": "+393333020695", "url": "tel:+393333020695"}, {"name": "Invia E-mail", "url": "https://www.visittrentino.info/it/guida/contatto?mailto=info@arcoantiqua.it&amp;originUrl=/it/guida/eventi/carols_e_791416&amp;origin=Carols!"}]</t>
-  </si>
-  <si>
-    <t>Musiche natalizie con il quartetto vocale di Arco Antiqua. Si terrà al Casinò Municipale</t>
-  </si>
-  <si>
-    <t>https://www.visittrentino.info/it/guida/eventi/carols_e_791416?destination=&amp;submitted=1&amp;startdate=29%2F11%2F2019&amp;category%5B0%5D=&amp;enddate=15%2F12%2F2019&amp;device=desktop&amp;mode=grid&amp;page=2&amp;ajax=1</t>
-  </si>
-  <si>
-    <t>Fuochi d'artificio tra castello e olivaia</t>
-  </si>
-  <si>
-    <t>h. 21.15 &gt; 22.00</t>
-  </si>
-  <si>
-    <t>Fuochi d'artificio tra castello e olivaia ,Folgori nel cielo per serata dal naso all'insù che vi farà battere il cuore ,Periodo ,07/12/2019 ,Località ,Arco ,Tipologia ,Intrattenimento della Località ,Sabato 7 dicembre 2019 Arco offre un’occasione unica per vivere l’atmosfera del natale in una nuova dimensione: le casette del mercatino rimangono aperte fino alle 22.00, nell’attesa del grande spettacolo pirotecnico che chiude questa giornata speciale. Durante la giornata diversi appuntamenti animano il centro storico, la musica dei pastori di Natale riempie le vie e gli animali delal fattoria rallegrano i bambini. Dalle 19.00 il Mercatino entra nel clima di festa: gli espositori intrattengono il pubblico con dimostrazioni di artigianato, degustazioni di prodotti gastronomici e offerte speciali pensate per questa serata unica. ,Alle 21.15 l’atteso spettacolo pirotecnico illumina il Castello di Arco con fuochi d’artificio di ogni grandezza e colore.</t>
-  </si>
-  <si>
-    <t>[{"name": "+393277162265", "url": "tel:+393277162265"}, {"name": "Invia E-mail", "url": "https://www.visittrentino.info/it/guida/contatto?mailto=info@assocentro.net&amp;originUrl=/it/guida/eventi/fuochi-d-artificio-tra-castello-e-olivaia_e_811089&amp;origin=Fuochi%20d%27artificio%20tra%20castello%20e%20olivaia"}]</t>
-  </si>
-  <si>
-    <t>Folgori nel cielo per serata dal naso all'insù che vi farà battere il cuore</t>
-  </si>
-  <si>
-    <t>https://www.visittrentino.info/it/guida/eventi/fuochi-d-artificio-tra-castello-e-olivaia_e_811089?destination=&amp;submitted=1&amp;startdate=29%2F11%2F2019&amp;category%5B0%5D=&amp;enddate=15%2F12%2F2019&amp;device=desktop&amp;mode=grid&amp;page=2&amp;ajax=1</t>
-  </si>
-  <si>
-    <t>Tipologia ,Festival, Musica</t>
-  </si>
-  <si>
-    <t>Primiero Dolomiti Festival</t>
-  </si>
-  <si>
-    <t>Località ,Fiera di Primiero, Primiero - Siror, Primiero - Imer ...</t>
-  </si>
-  <si>
-    <t>Primiero Dolomiti Festival ,XIV Edizione ,Periodo ,07/12/2019 ,Località ,Fiera di Primiero, Primiero - Siror, Primiero - Imer ... ,Tipologia ,Festival, Musica ,È con grande piacere che anche quest’anno l’Associazione Scuola Musicale di Primiero organizza alcuni appuntamenti musicali diversificati nel loro genere, inseriti nella XIV edizione del Primiero Dolomiti Festival. ,Anche in questa edizione il Festival ha voluto dare spazio a molti giovani strumentisti, dando loro la possibilità di suonare con importanti solisti di livello nazionale ed internazionale, in modo da arricchire il proprio bagaglio formativo. ,Calendario ,Sabato 19 ottobre 2019 ,DA MOZART A GERSHWIN - QUINTETTO DI FIATI DELL'ORCHESTRA HEYDN DI BOLZANO E TRENTO ,Francesco Dainese - flauto ,Gianni Olivieri - oboe ,Stefano Ricci - clarinetto ,Alexander Perathoner - corno ,Flavio Baruzzi - fagotto ,Programma ,W.A. Mozart, "Serenata in B-Dur K 370a Gran Partita" ,G. Rossini, "Ouverture L'italiana in Algeri" ,P.I. TSchaikowsky, "Lo Schiaccianoci op. 71" ,G. Gershwin, "Un Americano a Parigi" ,Ingresso: €12,00 intero | €7,00 ridotto ,Fiera di Primiero, Auditorium, ore 20.30 ,Sabato 2 novembre 2019 ,REQUIEM DI A. LOTTI (1667-1740) IN FA MAGGIORE PER CORO, SOLI, ORGANO E ORCHESTRA ,Labirinti Armonici - Complesso Corelli | Andrea Ferroni, violino concertatore ,Cantoria Sine Nomine | Carlo Andriollo direttore ,Programma ,G.F. Händel (1685-1759) ,Concerto Grosso op.3 n.2 in si bemolle maggiore ,Vivace | Largo | Allegro | Moderato | Allegro ,A. Lotti (1667-1740) ,Requiem in Fa Maggiore ,Per coro, soli, organo e orchestra ,Labirinti Armonici ,Andrea Ferroni, Stefano Roveda, Andrea Marmolejo, Marta Peroni, Stefno Favretto - violini ,Andrea Albertani, Jennifer Gomez Vilar - viole ,Ivo Brigadoi, Gioele Gusberti - Violoncelli ,Mauro Tomedi - Contrabbasso ,Arrigo Pietrobon, Gregorio Carraro - oboi ,Giacomo Bezzi - tromba ,Pietro Prosser - liuto ,Ingresso: ad offerta libera ,Mezzano, Chiesa Parrocchiale, ore 20.30 ,Sabato 23 novembre 2019 ,TUTTI ALL'OPERA - SOLISTI ED ENSEMBLE CORO FEMMINILE DELLA SCUOLA MUSICALE DI PRIMIERO ,Direttore: Paola Crema | Pianista: Matteo Andri ,Programma ,W.A. Mozart: "Ricevete Padroncina", da Le nozze di Figaro ,W.A. Mozart: "Non più andrai farfallone amoroso", da Le nozze di Figarò ,W.A. Mozart: "Voi che sapete", da Le nozze di Figaro ,W.A. Mozart: "Canzonetta sull'aria", da Le nozze di Figaro ,W.A. Mozart: "Vedrai carino, se sei buonino", da Don Giovanni ,W.A. Mozart: "In uomini in soldati", da Così fan tutte ,W.A. Mozart: "Una donna a 15 anni", da Così fan tutte ,C.W. Gluck: "Che farò senza Euridice", da Orfeo e Euridice ,G.F. Haendel: "Lascia ch'io pianga mia cruda sorte", da Rinaldo ,G.F. Haendel: "Priva son d'ogni conforto", da Giulio Cesare ,G.F. Haendel: "Verdi Prati", da Alcina ,G.B. Pergolesi: "Stizzoso, mio stizzoso" da La serva padrona ,C. Monteverdi: "Pur ti miro, pur ti godo", da L'incoronazione di Poppea ,P.I. Tchaikovsky: "E sera, più color non han le nubi in ciel" da La dama di picche ,J. Hoffenbach: "Barcarola" da Les contes d'Hoffman ,L. Delibes: "Duetto dei fiori", da Lakmè ,G. Rossini: "Duetto buffo dei Gatti" ,E. Humperdinck: "Quando è buio io lo so che da solo non resterò" da Hansel e Gretel ,G. Puccini: "Coro a bocca chiusa" da Madama Butterfly ,Ingresso: ad offerta libera ,Imèr, Ex Sieghe, ore 20.30 ,Sabato 7 dicembre 2019 ,CINEMA SERENADE - CORALE MOOD QUARTET ,Direttore e narratore: Roberto Tomada ,Programma ,Ennio Morricone (1928) ,Per un pugno di dollari ,Sergio Leone, 1964 ,Ennio Morricone (1928) ,Il buono, il brutto, il cattivo - L'estasi dell'oro ,Sergio Leone, 1966 ,Ennio Morricone (1928) ,Giù la testa ,Sergio Leone, 1971 ,Ennio Morricone (1928) ,Nuovo Cinema Paradiso ,Giuseppe Tornatore, 1988 ,Ennio Morricone (1928) ,La leggenda del pianista sull'Oceano ,Giuseppe Tornatore, 1998 ,Nino Rota (1911-1979) ,Amarcord ,Federico Fellini, 1973 ,Nino Rota (1911-1979) ,Il Gattopardo ,Luchino Visconti, 1963 ,Duke Ellington (1899-1974) e Juan Tizol (1900-1984) ,Caravan, 1936 ,Whisplash, Damien Chazelle, 2014 ,Leonard Cohen (1934-2016) ,Hallelujah, 1984 ,Shrek, A.Adamson e V. Jenson, 2001 ,Howard Shore (1946) ,Hugo Cabret ,Martin Scorsese, 2011 ,John Williams (1932) ,E.T. L'extraterrestre ,Steven Spielberg, 1982 ,Klaus Badelt (1967) ,I pirati dei Caraibi - La maledizione della prima luna ,Gore Verbinski, 2003 ,Ramin Djawari (1974) ,Game of Thrones - Trono di Spade ,Vari, 2011 ,Queen (1970) ,Bohemian Rhapsody (1975) ,Bohemian Rhapsody, Bryan Singer, 2018 ,Violino: Roberto Tomada ,Violino: Alice Tomada ,Viola: Margherita Pigozzo ,Contrabbasso: Nicolò Tomada ,Ingresso: ad offerta libera ,Canal San Bovo, Teatro Parrocchiale, ore 20.30 ,Sabato 21 dicembre 2019 ,CAROLS NATALIZI - DOLOMITI BRASS QUINTET E CORALE BARBISANO (Rinaldo Padoin direttore) ,Programma ,Dolomiti Brass Quintet ,J. Stanlet, "Trumpet Voluntary" ,J.S. Bach, "Contrapunctus I (da Arte della Fuga) ,Anonimo, "Sonata" from "Die Baenkelsangerlieder" ,Arr. J. Iverson, "Three Christmas Crackers" ,B. Dick, "Variation on Jingle Bells ,Corale Barbisano ,B. De Marzi, "Notte Santa" ,R. Padoin, "Gesù bambin è nato" ,R. Padoin, "Le campane de Cison" ,B. De Marzi, "Mentre il silenzio" ,V. Miskinis, "O salutaris hostia" ,E. Whitacre, "Lux aurumque" ,B. De Marzi, "Pavana" ,Corale Barbisano e Dolomiti Brass Quintet ,R. Padoin, "Tu es sacerdos" ,Anonimo (XVI sec), "Gaudete" ,G.R. Woodward, "Unto us is born a son" ,Simone Lonardi - tromba ,Renato Pante - tromba ,Stefano Rossi - Corno ,Mauro Piazzi - trombone ,Roberto Ronchetti - tuba ,Ingresso: ad offerta libera ,Siror, Chiesa Parrocchiale, ore 20.30 ,Giovedì 2 gennaio 2020 ,CONCERTO DI CAPODANNO - DOLOMITI WIND ORCHESTRA ,Saxsofono: Luis Lanzarini | Direttore: Ivan Villanova ,Programma ,Giacchino Rossini ,Il barbiere di Siviglia - Sinfonia ,Gioacchino Rossini ,Una voce poco fa ,Giuseppe Verdi ,I vespri siciliani - Ouverture ,Antonin Dvorak ,Danza slava op. 46 n. 1 ,Pedro Iturralde ,Pequena Czarda ,Johan de Meij ,Klezmer Classics ,Johann Strauss II ,Die Fledermaus - Ouverture ,Ingresso: Intero €7,00 | Ridotto €5,00 ,Fiera di Primiero, Auditorium, ore 21.00</t>
-  </si>
-  <si>
-    <t>[{"name": "0439 62407", "url": "tel:0439%2062407"}, {"name": "Invia E-mail", "url": "https://www.visittrentino.info/it/guida/contatto?mailto=infoprimiero@sanmartino.com&amp;originUrl=/it/guida/eventi/primiero-dolomiti-festival_e_910570&amp;origin=Primiero%20Dolomiti%20Festival"}]</t>
-  </si>
-  <si>
-    <t>XIV Edizione</t>
-  </si>
-  <si>
-    <t>https://www.visittrentino.info/it/guida/eventi/primiero-dolomiti-festival_e_910570?destination=&amp;submitted=1&amp;startdate=29%2F11%2F2019&amp;category%5B0%5D=&amp;enddate=15%2F12%2F2019&amp;device=desktop&amp;mode=grid&amp;page=2&amp;ajax=1</t>
-  </si>
-  <si>
-    <t>Krampus</t>
-  </si>
-  <si>
-    <t>Krampus ,Levico, centro storico e parco Asburgico 7 dicembre ore 16.00. ,Periodo ,07/12/2019 ,Località ,Levico Terme ,Tipologia ,Altro ,Sabato 07 dicembre 2019, alle ore 16.00 presso le vie del centro storico di Levico e nel Parco Asburgico, si terrà la sfilata dei: ,KRAMPUS ,Shhhhhhhhh... ieri nel bosco si è udito uno strano rumore e una figura si è dileguata nell'ombra. Sarà un krampus? ,Il giorno 7 dicembre dalle ore 16.00, lo vedremo aggirarsi per le vie del centro del paese sulle orme di chi, durante l'anno, non si è comportato bene. ,Per ulteriori informazioni: ,Consorzio Levico Terme in Centro | www.visitlevicoterme.it | info@levicotermeincontra.com ,Azienda per il Turismo Valsugana | +39 0461 727700 | info@visitvalsugana.it</t>
-  </si>
-  <si>
-    <t>[{"name": "+390461727700", "url": "tel:+390461727700"}, {"name": "+390461727799", "url": ""}, {"name": "Invia E-mail", "url": "https://www.visittrentino.info/it/guida/contatto?mailto=info@visitvalsugana.it&amp;originUrl=/it/guida/eventi/krampus_e_2211832&amp;origin=Krampus"}]</t>
-  </si>
-  <si>
-    <t>Levico, centro storico e parco Asburgico 7 dicembre ore 16.00.</t>
-  </si>
-  <si>
-    <t>https://www.visittrentino.info/it/guida/eventi/krampus_e_2211832?destination=&amp;submitted=1&amp;startdate=29%2F11%2F2019&amp;category%5B0%5D=&amp;enddate=15%2F12%2F2019&amp;device=desktop&amp;mode=grid&amp;page=2&amp;ajax=1</t>
-  </si>
-  <si>
-    <t>Tipologia ,Feste e Sagre, Mercati e mercatini, Enogastronomia, Folklore</t>
-  </si>
-  <si>
-    <t>Il Villaggio di Natale del Gigante</t>
-  </si>
-  <si>
-    <t>Periodo ,07/12/2019 - 05/01/2020</t>
-  </si>
-  <si>
-    <t>Il Villaggio di Natale del Gigante ,Un Mercatino tra storia e gusto ,1 altre immagini ,Periodo ,07/12/2019 - 05/01/2020 ,Tipologia ,Feste e Sagre, Mercati e mercatini, Enogastronomia, Folklore ,L’unico mercatino in Trentino che vi farà entrare in una favola: la storia affascinante e misteriosa del Gigante Gilli. In suo onore, gli avvolti e le contrade del paese di Bezzecca si animano durante il periodo natalizio per creare la magica atmosfera del Villaggio di Natale del Gigante, un mercatino che propone ai visitatori prelibatezze gastronomiche, prodotti locali, oggetti d’arte ed artigianato, e che di anno in anno regala sempre nuove ed interessanti iniziative. Il museo, le serate animate da caratteristici spettacoli e concerti: tutto nel periodo natalizio a Bezzecca concorre a trasportarvi in un luogo senza tempo, dove realtà e fantasia si fondono.</t>
-  </si>
-  <si>
-    <t>[{"name": "0464 591222", "url": "tel:0464%20591222"}, {"name": "Invia E-mail", "url": "https://www.visittrentino.info/it/guida/contatto?mailto=info@vallediledro.com&amp;originUrl=/it/guida/eventi/il-villaggio-di-natale-del-gigante_e_3444178&amp;origin=Il%20Villaggio%20di%20Natale%20del%20Gigante"}]</t>
-  </si>
-  <si>
-    <t>Un Mercatino tra storia e gusto</t>
-  </si>
-  <si>
-    <t>https://www.visittrentino.info/it/guida/eventi/il-villaggio-di-natale-del-gigante_e_3444178?destination=&amp;submitted=1&amp;startdate=29%2F11%2F2019&amp;category%5B0%5D=&amp;enddate=15%2F12%2F2019&amp;device=desktop&amp;mode=grid&amp;page=2&amp;ajax=1</t>
-  </si>
-  <si>
-    <t>Tipologia ,Intrattenimento della Località, Musica</t>
-  </si>
-  <si>
-    <t>Bolkhent</t>
-  </si>
-  <si>
-    <t>Località ,Folgaria</t>
-  </si>
-  <si>
-    <t>Bolkhent ,Bolkhent, in cimbro "benvenuti", è il rito con cui diamo il via alla stagione invernale. ,1 altre immagini ,Periodo ,07/12/2019 ,Località ,Folgaria ,Tipologia ,Intrattenimento della Località, Musica ,L’inverno è ormai arrivato e sull’Alpe Cimbra si respira già un aria natalizia. Il vento freddo che si intrufola fra le case va a scontrarsi con il calore del centro di Folgaria, con i suoi colori, i suoi profumi, con la sua accoglienza. ,E’ il preludio di una stagione speciale che con le sue ali gelate vuole abbracciare sia gli appassionati dell’outdoor che gli amanti del relax e delle tradizioni locali. ,Bolkhent, in cimbro “benvenuti”, è il rito con cui accogliamo questo magico periodo dell’anno e tutti coloro che lo vorranno vivere sulla propria pelle. ,Sabato 7 dicembre una grande sfilata partirà dalla Piazzetta Villa alle ore 18:00 e attraverserà il paese di Folgaria lanciando così un forte messaggio di entusiasmo ed accoglienza. ,La manifestazione sarà accompagnata dalle note della Banda Folkloristica di Folgaria che, brano dopo brano, condurrà la manifestazione in Piazza S. Lorenzo per assistere all’accensione del grande albero di Natale. Non mancheranno certamente i Maestri delle Scuole di Sci dell’Alpe Cimbra, pronti a farvi vivere forti emozioni sugli oltre 100Km di piste dell’altopiano. ,A dare un ulteriore tocco di bellezza a questa singolare sfilata saranno gli elegantissimi Bovari del Bernese del gruppo amatoriale Grabber. ,Il freddo si farà sentire sicuramente ma Folgaria ha pensato anche a questo: al termine della sfilata degustazione di vin brulè e biscotti a cura dell’associazione Promocosta e pozione di Bertold per tutti! ,Vi aspettiamo numerosi per degustare assieme uno dei nostri migliori prodotti locali: l’Inverno.</t>
-  </si>
-  <si>
-    <t>[{"name": "+39 0464724100", "url": "tel:+39%200464724100"}, {"name": "Invia E-mail", "url": "https://www.visittrentino.info/it/guida/contatto?mailto=info@alpecimbra.it&amp;originUrl=/it/guida/eventi/bolkhent_e_3512293&amp;origin=Bolkhent"}]</t>
-  </si>
-  <si>
-    <t>Bolkhent, in cimbro "benvenuti", è il rito con cui diamo il via alla stagione invernale.</t>
-  </si>
-  <si>
-    <t>https://www.visittrentino.info/it/guida/eventi/bolkhent_e_3512293?destination=&amp;submitted=1&amp;startdate=29%2F11%2F2019&amp;category%5B0%5D=&amp;enddate=15%2F12%2F2019&amp;device=desktop&amp;mode=grid&amp;page=2&amp;ajax=1</t>
-  </si>
-  <si>
-    <t>Cherryl Porter &amp; Hallelujah Gospel Singers</t>
-  </si>
-  <si>
-    <t>Cherryl Porter &amp; Hallelujah Gospel Singers ,La gioia e la potenza dei canti afro-americani interpretati da Cheryl Porter e dal coro degli Hallelujah Gospel Singers ,Periodo ,07/12/2019 ,Località ,Riva del Garda ,Tipologia ,Intrattenimento della Località ,Un concerto gospel con Cheryl Porter assieme a grandi voci “di colore” della musica Gospel. Voci dalla sonorità “black” davvero indimenticabile, interpretano le canzoni della tradizione religiosa afro-americana che più toccano il cuore, per un’esperienza autentica e da non perdere: ascoltare e “vivere” il vero Gospel dei neri d’America. ,Feel the Spirit! Lasciatevi trascinare dal messaggio di questa musica! ,BIGLIETTI: ,25 Euro nella prima metà della sala (ridotto a 20 fino ai 26 anni e oltre i 65 anni) e 20 Euro nella seconda parte della sala, senza riduzione. I bambini fino a 8 anni sono gratis. ,Biglietteria presso gli uffici Musicarivafestival in viale della Liberazione 7 dalle ore 10 alle 13 e dalle 15 alle 17 e online su www.midaticket.it</t>
-  </si>
-  <si>
-    <t>[{"name": "+390464554073", "url": "tel:+390464554073"}, {"name": "Invia E-mail", "url": "https://www.visittrentino.info/it/guida/contatto?mailto=info@musicarivafestival.com&amp;originUrl=/it/guida/eventi/cherryl-porter-hallelujah-gospel-singers_e_12913631&amp;origin=Cherryl%20Porter%20&amp;%20Hallelujah%20Gospel%20Singers"}]</t>
-  </si>
-  <si>
-    <t>La gioia e la potenza dei canti afro-americani interpretati da Cheryl Porter e dal coro degli Hallelujah Gospel Singers</t>
-  </si>
-  <si>
-    <t>https://www.visittrentino.info/it/guida/eventi/cherryl-porter-hallelujah-gospel-singers_e_12913631?destination=&amp;submitted=1&amp;startdate=29%2F11%2F2019&amp;category%5B0%5D=&amp;enddate=15%2F12%2F2019&amp;device=desktop&amp;mode=grid&amp;page=2&amp;ajax=1</t>
-  </si>
-  <si>
-    <t>SnowWeek 2019</t>
-  </si>
-  <si>
-    <t>Periodo ,05/12/2019 - 08/12/2019</t>
-  </si>
-  <si>
-    <t>Località ,Marilleva</t>
-  </si>
-  <si>
-    <t>SnowWeek 2019 ,Location e programmi nuovi per il più grande viaggio-evento italiano sulla neve ,12 altre immagini ,Periodo ,05/12/2019 - 08/12/2019 ,Località ,Marilleva ,Tipologia ,Musica ,4 GIORNI DI NEVE, 3 NOTTI DI PARTY! ,RIDE | PARTY | SLEEP | REPEAT ,Comincia l'inverno, arriva SnowWeek, una vacanza sulla neve, una festa, un'esperienza straordinaria da condividere con migliaia di giovani e studenti provenienti da tutta Europa. ,Non sai come trascorrere il ponte di Sant'Ambrogio e dell'Immacolata? ,DAL 5 ALL'8 DICEMBRE Marilleva 1400 ospita lo storico evento SnowWeek che porta in Val di Sole 4 giorni e 3 notti di party, sport e divertimento sulla neve direttamente sulle piste della SKIAREA CAMPIGLIO DOLOMITI DI BRENTA, con 150 km di piste! ,Tante le novità per l'evento di quest'anno ,nuova location: un unico ampio residence alla partenza degli impianti con 1 km di corridoi dove incontrasi e godere di spa, piscina, ristorante e 5 dance-floor con musica non-stop; ,nuovo programma, che comprende pool party, apres ski in terrazza panoramica, 2 dance floor interni al residence, cena in baita con viaggio in gatto delle nevi e il party ufficiale di inaugurazione della stagione invernale della skiarea; ,immancabili convenzioni con sconti fino al 25% su skipass, noleggio, scuola sci o snowboard, pranzi e cene, drink. ,Fermati, godi di giornate di puro relax immerso nella cornice della Val di Sole, a ridosso delle Dolomiti del Brenta, riconosciute dall'Unesco come Patrimonio dell’Umanità. Lasciati andare a NOTTI DI FESTA per una indimenticabile pausa dalla quotidianità e nuove esperienze, amicizie e forse nuovi amori si fonderanno in un gustoso MIX TRA NATURA E FOLLIA.</t>
-  </si>
-  <si>
-    <t>[{"name": "+390239521184", "url": "tel:+390239521184"}, {"name": "Invia E-mail", "url": "https://www.visittrentino.info/it/guida/contatto?mailto=info@snowweek.it&amp;originUrl=/it/guida/eventi/snowweek-2019_e_315604&amp;origin=SnowWeek%202019"}]</t>
-  </si>
-  <si>
-    <t>Location e programmi nuovi per il più grande viaggio-evento italiano sulla neve</t>
-  </si>
-  <si>
-    <t>https://www.visittrentino.info/it/guida/eventi/snowweek-2019_e_315604?destination=&amp;submitted=1&amp;startdate=29%2F11%2F2019&amp;category%5B0%5D=&amp;enddate=15%2F12%2F2019&amp;device=desktop&amp;mode=grid&amp;page=3&amp;ajax=1</t>
-  </si>
-  <si>
-    <t>Tipologia ,Enogastronomia, Intrattenimento della Località</t>
-  </si>
-  <si>
-    <t>Periodo ,06/12/2019 - 08/12/2019</t>
-  </si>
-  <si>
-    <t>La notte degli alambicchi accesi ,Spettacolo itinerante dedicato alla grappa del Trentino ,Periodo ,06/12/2019 - 08/12/2019 ,Località ,Vezzano ,Tipologia ,Enogastronomia, Intrattenimento della Località ,Spettacolo teatrale itinerante che intende raccontare gli aspetti fisici, storici e antropologici dell'arte della distillazione della grappa. Un evento in cui si rivive il passato, si celebra la finezza della grappa di oggi e si brinda al suo futuro. Lo spettacolo è itinerante e lo spettatore, dotato di una radio con cuffie, viene guidato lungo le vie del paese attraverso performance video sulla fisica dell'alambicco, canti lirici in cui si distilla la poesia, e sobri brindisi in un’atmosfera raffinata e gioviale.</t>
-  </si>
-  <si>
-    <t>[{"name": "+390461216000", "url": "tel:+390461216000"}, {"name": "Invia E-mail", "url": "https://www.visittrentino.info/it/guida/contatto?mailto=info@discovervalledeilaghi.it%20&amp;originUrl=/it/guida/eventi/la-notte-degli-alambicchi-accesi_e_958123&amp;origin=La%20notte%20degli%20alambicchi%20accesi"}]</t>
-  </si>
-  <si>
-    <t>Spettacolo itinerante dedicato alla grappa del Trentino</t>
-  </si>
-  <si>
-    <t>https://www.visittrentino.info/it/guida/eventi/la-notte-degli-alambicchi-accesi_e_958123?destination=&amp;submitted=1&amp;startdate=29%2F11%2F2019&amp;category%5B0%5D=&amp;enddate=15%2F12%2F2019&amp;device=desktop&amp;mode=grid&amp;page=3&amp;ajax=1</t>
-  </si>
-  <si>
-    <t>Tipologia ,Enogastronomia</t>
-  </si>
-  <si>
-    <t>Happy Trentodoc</t>
-  </si>
-  <si>
-    <t>Periodo ,21/11/2019 - 08/12/2019</t>
-  </si>
-  <si>
-    <t>Happy Trentodoc ,L'aperitivo 100% trentino ,2 altre immagini ,Periodo ,21/11/2019 - 08/12/2019 ,Località ,Trento ,Tipologia ,Enogastronomia ,Trento, dal 21 novembre all'8 dicembre 2019 ,Con Happy Trentodoc le bollicine di montagna incontrano i prodotti gastronomici della Strada del Vino e dei Sapori del Trentino: stuzzicanti abbinamenti che renderanno più “sparkling” il momento dell’aperitivo! ,Agriturismo Maso Mirì* (via dei pomari 41 – Romagnano di Trento) ,Il Trentodoc di Azienda Agricola Mittesteiner (Trento) incontra i prodotti di Salumificio Val Rendena (Porte di Rendena) ,Antica Trattoria Due Mori* (via San Marco 11 – Trento) ,Il Trentodoc di Borgo dei Posseri (Ala) incontra i prodotti di Carni e Salumi Troier (Lavis) ,Bar Pasi (piazza Pasi 1 - Trento) ,Il Trentodoc di Fondazione E. Mach (San Michele all’Adige) incontra i prodotti di Panificio Sosi (Trento) ,Dolcemente Marzari (c/o Complesso Le Albere, viale della Costituzione 28 - Trento) ,Il Trentodoc di Cantina d’Isera (Isera) incontra i prodotti di Pasticceria Marzari (Altopiano della Vigolana) ,Locanda Le Due Travi - Bar (via del Suffragio 20 - Trento) ,Il Trentodoc di Revì Trentodoc (Aldeno) incontra l’olio extravergine di oliva di Agraria Riva del Garda (Riva del Garda) ,Locanda Le Due Travi - Ristorante (via del Suffragio 20 - Trento) ,Il Trentodoc di Maso Martis Azienda Agricola Biologica (Trento) incontra i formaggi di Latte Trento (Trento) ,Locanda Margon * (via Margone 15 – Ravina di Trento) ,Il Trentodoc di Cantine Ferrari (Trento) incontra i formaggi di Caseificio degli Altipiani e del Vezzena (Lavarone) ,Osteria a “Le Due Spade” * (via Don A. Rizzi 11 – Trento) ,Il Trentodoc di Vivallis (Nogaredo) incontra i formaggi di Caseificio Sociale di Sabbionara (Avio) ,Panificio Moderno (piazza Lodron 21 - Trento) ,Il Trentodoc di Mas dei Chini (Trento) incontra i prodotti di Panificio Moderno (Isera) ,Ristorante al Vò* (vicolo del Vò 11 – Trento) ,Il Trentodoc di Cembra cantina di montagna (Cembra Lisignago) incontra i prodotti ittici di Trota Oro (Borgo Lares) ,Ristorante Enologico Il Libertino (piazza Piedicastello 4 - Trento) ,Il Trentodoc di Cantina Sociale di Trento (Trento) incontra i formaggi di Azienda Agricola Le Mandre (Bedollo) ,Ristorante Pizzeria Duomo* (via Verdi 77 – Trento) ,Il Trentodoc di Azienda Agricola Francesco Moser (Trento) incontra i prodotti di Salumeria Belli (Trento) ,Scrigno del Duomo (piazza Duomo 29 - Trento) ,Il Trentodoc di Altemasi (Trento) incontra i prodotti di Crucolo (Scurelle) ,Clicca qui per scaricare il programma (link) ,#happytrentodoc #trentinowinefest #stradavinotrentino ,Per maggiori info: ,Strada del Vino e dei Sapori del Trentino ,tel. 0461-921863 - info@stradavinotrentino.com ,Info: tastetrentino.it/happytrentodoc</t>
-  </si>
-  <si>
-    <t>[{"name": "+390461921863", "url": "tel:+390461921863"}, {"name": "Invia E-mail", "url": "https://www.visittrentino.info/it/guida/contatto?mailto=info@stradavinotrentino.com&amp;originUrl=/it/guida/eventi/happy-trentodoc_e_959260&amp;origin=Happy%20Trentodoc"}]</t>
-  </si>
-  <si>
-    <t>L'aperitivo 100% trentino</t>
-  </si>
-  <si>
-    <t>https://www.visittrentino.info/it/guida/eventi/happy-trentodoc_e_959260?destination=&amp;submitted=1&amp;startdate=29%2F11%2F2019&amp;category%5B0%5D=&amp;enddate=15%2F12%2F2019&amp;device=desktop&amp;mode=grid&amp;page=3&amp;ajax=1</t>
-  </si>
-  <si>
-    <t>Trentodoc Bollicine sulla città</t>
-  </si>
-  <si>
-    <t>Trentodoc Bollicine sulla città ,Degustazioni, incontri e approfondimenti dedicati al Trentodoc ,Periodo ,21/11/2019 - 08/12/2019 ,Località ,Trento ,Tipologia ,Enogastronomia, Intrattenimento della Località ,Trento, dal 21 novembre all'8 dicembre 2019 ,Incontri con l'eccellenza del metodo classico di montagna ,"Trentodoc: bollicine sulla città" è la manifestazione che ogni anno Palazzo Roccabruna e l'Istituto Trentodoc organizzano per rendere omaggio al mondo degli spumanti trentini metodo classico. ,La manifestazione ha inizio, come di tradizione, a fine novembre e dura tre fine settimana accompagnando il periodo prenatalizio fino alla festa dell'Immacolata. Degustazioni, abbinamenti, menù a tema, ma soprattutto tante bollicine trentine. Potrete degustare una grande varietà di bollicine, che si differenziano per proprietà organolettiche, ma soprattutto per i loro profumi ed aromi. ,L'evento, che si tiene in concomitanza con i mercatini di Natale, richiama ogni anno nel centro storico di Trento folle di appassionati. ,Dal 21 novembre all'8 dicembre da giovedì a domenica in occasione della quindicesima edizione di "Trentodoc: bollicine sulla città" Palazzo Roccabruna propone in degustazione la collezione 2019 delle bollicine di montagna, espressione dell'impegno e della passione di oltre 50 cantine trentine. ,La manifestazione si articola in tre sezioni: ,Le degustazioni in Enoteca della collezione delle bollicine trentine abbinate a taglieri di salumi e formaggi trentini (dal 21 novembre all'8 dicembre, da giovedì a domenica; per gli orari vedi sotto). Il giovedì e il sabato la manifestazione si arricchisce dell'evento "Il piatto dello chef" con menù dedicati alle bollicine. Vedi gli appuntamenti del "Piatto dello chef" &gt;&gt;&gt; ,Gli eventi di "Trentodoc in cantina" organizzati presso le cantine di produzione per scoprire le bollicine là dove nascono. Scopri il programma sul sito di Trentodoc &gt;&gt;&gt; ,"Happy Trentodoc": l'iniziativa della Strada del Vino e dei Sapori del Trentino che celebra il matrimonio fra le bollicine e i prodotti gastronomici del Trentino: stuzzicanti abbinamenti che renderanno più “sparkling” il momento dell’aperitivo nei bar e ristoranti di Trento! Scopri il programma sul sito della Strada &gt;&gt;&gt; ,TRENTODOC: BOLLICINE SULLA CITTA' ,Degustazioni in Enoteca - dal 21 novembre all'8 dicembre 2019 - da giovedì a domenica ,Orari di apertura: ,17.00 - 22.00 giovedì e venerdì ,11.00 - 22.00 sabato ,11.00 - 19.00 domenica ,Scarica il PROGRAMMA ,Info: www.palazzoroccabruna.it</t>
-  </si>
-  <si>
-    <t>[{"name": "Invia E-mail", "url": "https://www.visittrentino.info/it/guida/contatto?mailto=istituto@trentodoc.com%20&amp;originUrl=/it/guida/eventi/trentodoc-bollicine-sulla-citta_e_967437&amp;origin=Trentodoc%20Bollicine%20sulla%20citt%C3%A0"}]</t>
-  </si>
-  <si>
-    <t>Degustazioni, incontri e approfondimenti dedicati al Trentodoc</t>
-  </si>
-  <si>
-    <t>https://www.visittrentino.info/it/guida/eventi/trentodoc-bollicine-sulla-citta_e_967437?destination=&amp;submitted=1&amp;startdate=29%2F11%2F2019&amp;category%5B0%5D=&amp;enddate=15%2F12%2F2019&amp;device=desktop&amp;mode=grid&amp;page=3&amp;ajax=1</t>
-  </si>
-  <si>
-    <t>Tipologia ,Mostre, Folklore, Intrattenimento della Località</t>
-  </si>
-  <si>
-    <t>L'Angolo Artigianale Natalizio di Imèr</t>
-  </si>
-  <si>
-    <t>Periodo ,07/12/2019 - 08/12/2019</t>
-  </si>
-  <si>
-    <t>Località ,Primiero - Imer</t>
-  </si>
-  <si>
-    <t>L'Angolo Artigianale Natalizio di Imèr ,Per chi vuole scoprire le meraviglie del Natale ,Periodo ,07/12/2019 - 08/12/2019 ,Località ,Primiero - Imer ,Tipologia ,Mostre, Folklore, Intrattenimento della Località ,Artigiani in Piazza presentano "L'Angolo Artigianale Natalizio di Imèr". ,Una location unica, riscaldata, all'interno di un'antica segheria ristrutturata. ,Colori, passione, fantasia e genialità: tanti espositori vi accolgono per mostrarvi le loro creazioni. ,Laboratorio di traforo tutti i weekend. ,Durante i Mercatin festeggeremo l'arrivo di Babbo Natale. ,Eccone le date e gli orari: ,7–8–14–15–21-22-28-29 dicembre 2019 e 4-6 gennaio 2020; ,A breve il programma al dettaglio.. ,Orario di apertura: dalle ore 14.00 alle ore 20.00; ,www.imereventi.it</t>
-  </si>
-  <si>
-    <t>[{"name": "043962407", "url": "tel:043962407"}, {"name": "Invia E-mail", "url": "https://www.visittrentino.info/it/guida/contatto?mailto=infoprimiero@sanmartino.com&amp;originUrl=/it/guida/eventi/l-angolo-artigianale-natalizio-di-imer_e_2304875&amp;origin=L%27Angolo%20Artigianale%20Natalizio%20di%20Im%C3%A8r"}]</t>
-  </si>
-  <si>
-    <t>Per chi vuole scoprire le meraviglie del Natale</t>
-  </si>
-  <si>
-    <t>https://www.visittrentino.info/it/guida/eventi/l-angolo-artigianale-natalizio-di-imer_e_2304875?destination=&amp;submitted=1&amp;startdate=29%2F11%2F2019&amp;category%5B0%5D=&amp;enddate=15%2F12%2F2019&amp;device=desktop&amp;mode=grid&amp;page=3&amp;ajax=1</t>
-  </si>
-  <si>
-    <t>Vin brulè degli Alpini</t>
-  </si>
-  <si>
-    <t>Periodo ,08/12/2019</t>
-  </si>
-  <si>
-    <t>dalle 16.00 alle 20.00</t>
-  </si>
-  <si>
-    <t>Vin brulè degli Alpini ,Vin brulè e te caldo in piazza a Moena per l’accensione dell’albero ,Periodo ,08/12/2019 ,Località ,Moena ,Tipologia ,Altro ,Un buon bicchiere di caldo e profumato vin brulè, distribuito dal gruppo ANA (Associazione Nazionale Alpini) di Moena, accompagna l’inizio ufficiale delle Feste, con la tradizionale accensione del grande albero in Piaz de Sotegrava e delle luminarie che addobbano le vie del paese.</t>
-  </si>
-  <si>
-    <t>[{"name": "+390462565038", "url": "tel:+390462565038"}, {"name": "Invia E-mail", "url": "https://www.visittrentino.info/it/guida/contatto?mailto=eventi@visitmoena.it&amp;originUrl=/it/guida/eventi/vin-brule-degli-alpini_e_4402112&amp;origin=Vin%20brul%C3%A8%20degli%20Alpini"}]</t>
-  </si>
-  <si>
-    <t>Vin brulè e te caldo in piazza a Moena per l’accensione dell’albero</t>
-  </si>
-  <si>
-    <t>https://www.visittrentino.info/it/guida/eventi/vin-brule-degli-alpini_e_4402112?destination=&amp;submitted=1&amp;startdate=29%2F11%2F2019&amp;category%5B0%5D=&amp;enddate=15%2F12%2F2019&amp;device=desktop&amp;mode=grid&amp;page=3&amp;ajax=1</t>
-  </si>
-  <si>
-    <t>Mercato contadino Arco</t>
-  </si>
-  <si>
-    <t>Periodo ,26/03/2019 - 10/12/2019</t>
-  </si>
-  <si>
-    <t>h. 7.30 &gt; 13.00</t>
-  </si>
-  <si>
-    <t>Mercato contadino Arco ,Mercato settimanale dei produttori locali: non solo frutta e verdura fresca, ma anche marmellate, succhi e miele ,Periodo ,26/03/2019 - 10/12/2019 ,Località ,Arco ,Tipologia ,Mercati e mercatini ,Questo mercato è nato per favorire il contatto diretto tra produttore e consumatore, incentivare il consumo dei prodotti di stagione e per far conoscere le aziende agricole del territorio.</t>
-  </si>
-  <si>
-    <t>[{"name": "+390464583649", "url": "tel:+390464583649"}, {"name": "Invia E-mail", "url": "https://www.visittrentino.info/it/guida/contatto?mailto=commercio@comune.arco.tn.it&amp;originUrl=/it/guida/eventi/mercato-contadino-arco_e_465208&amp;origin=Mercato%20contadino%20Arco"}]</t>
-  </si>
-  <si>
-    <t>Mercato settimanale dei produttori locali: non solo frutta e verdura fresca, ma anche marmellate, succhi e miele</t>
-  </si>
-  <si>
-    <t>https://www.visittrentino.info/it/guida/eventi/mercato-contadino-arco_e_465208?destination=&amp;submitted=1&amp;startdate=29%2F11%2F2019&amp;category%5B0%5D=&amp;enddate=15%2F12%2F2019&amp;device=desktop&amp;mode=grid&amp;page=3&amp;ajax=1</t>
-  </si>
-  <si>
-    <t>Mercato settimanale Riva del Garda</t>
-  </si>
-  <si>
-    <t>Periodo ,09/01/2019 - 11/12/2019</t>
-  </si>
-  <si>
-    <t>h. 8.00 &gt; 14.00</t>
-  </si>
-  <si>
-    <t>Mercato settimanale Riva del Garda ,I mercati offrono merce di ogni genere e la possibilità di incontrare la gente del luogo ,Periodo ,09/01/2019 - 11/12/2019 ,Località ,Riva del Garda ,Tipologia ,Mercati e mercatini ,In centro storico a Riva del Garda si svolge il mercato settimanale il 2° e il 4° mercoledì del mese; sono presenti stands con capi di abbigliamento, scarpe, profumi, suppellettili, etc. ,Il 27 novembre 2019 non si terrà il mercato, in concomitanza con la fiera di S.Andrea la stessa settimana.</t>
-  </si>
-  <si>
-    <t>[{"name": "+390464573888", "url": "tel:+390464573888"}, {"name": "Invia E-mail", "url": "https://www.visittrentino.info/it/guida/contatto?mailto=info@gardatrentino.it&amp;originUrl=/it/guida/eventi/mercato-settimanale-riva-del-garda_e_309845&amp;origin=Mercato%20settimanale%20Riva%20del%20Garda"}]</t>
-  </si>
-  <si>
-    <t>I mercati offrono merce di ogni genere e la possibilità di incontrare la gente del luogo</t>
-  </si>
-  <si>
-    <t>https://www.visittrentino.info/it/guida/eventi/mercato-settimanale-riva-del-garda_e_309845?destination=&amp;submitted=1&amp;startdate=29%2F11%2F2019&amp;category%5B0%5D=&amp;enddate=15%2F12%2F2019&amp;device=desktop&amp;mode=grid&amp;page=3&amp;ajax=1</t>
-  </si>
-  <si>
-    <t>Arriva Santa Lucia</t>
-  </si>
-  <si>
-    <t>Periodo ,12/12/2019</t>
-  </si>
-  <si>
-    <t>h. 17.00 &gt; 19.00</t>
-  </si>
-  <si>
-    <t>Località ,Arco, Drena, Dro ...</t>
-  </si>
-  <si>
-    <t>Arriva Santa Lucia ,Santa Lucia con il suo asinello distribuisce doni nelle varie località del Garda Trentino ,Periodo ,12/12/2019 ,Località ,Arco, Drena, Dro ... ,Tipologia ,Intrattenimento della Località ,Rione Degasperi (Riva del Garda), Chiesa S. Giuseppe h. 17.00 ,Partenza strozegada con arrivo in piazzale Mimosa e distribuzione cioccolata calda e dolcetti. ,Torbole, piazza Lietzmann h. 17.00 ,Tradizionale arrivo di Santa Lucia dal lago di Garda in barca e distribuzione di dolcetti e caldarroste per grandi e piccini. ,Nago, località Piazzola h. 17.00 ,La Santa Lucia arriverà con il suo asinello accompagnata dalle strozeghe e distribuirà doni e dolci ai bambini. Per i più grandi vim brulè e cioccolata calda. ,Arco, Piazza 3 Novembre h. 18.00 ,Arriva Santa Lucia e distribuzione doni per i bambini ,Bolognano (Arco), centro storico h. 17.00 ,Arriva Santa Lucia e distribuzione doni per i bambini ,Romarzollo (Arco), centro storico h. 17.00 ,Arriva Santa Lucia e distribuzione doni per i bambini ,Cologna, Oratorio h. 17.00 ,Partenza corteo di S.Lucia e l'asinello per le vie di Cologna e Gavazzo e arrivo in Piazza S.Rocco con distribuzione di doni a tutti i bambini. Vi aspettiamo con strozeghe e campanelli!</t>
-  </si>
-  <si>
-    <t>[{"name": "+390464554444", "url": "tel:+390464554444"}, {"name": "Invia E-mail", "url": "https://www.visittrentino.info/it/guida/contatto?mailto=info@gardatrentino.it&amp;originUrl=/it/guida/eventi/arriva-santa-lucia_e_829604&amp;origin=Arriva%20Santa%20Lucia"}]</t>
-  </si>
-  <si>
-    <t>Santa Lucia con il suo asinello distribuisce doni nelle varie località del Garda Trentino</t>
-  </si>
-  <si>
-    <t>https://www.visittrentino.info/it/guida/eventi/arriva-santa-lucia_e_829604?destination=&amp;submitted=1&amp;startdate=29%2F11%2F2019&amp;category%5B0%5D=&amp;enddate=15%2F12%2F2019&amp;device=desktop&amp;mode=grid&amp;page=3&amp;ajax=1</t>
-  </si>
-  <si>
-    <t>La Strozegada di Santa Lucia</t>
-  </si>
-  <si>
-    <t>La Strozegada di Santa Lucia ,Centro Storico di Levico Terme, alle 17.30 ,Periodo ,12/12/2019 ,Località ,Levico Terme ,Tipologia ,Intrattenimento della Località, Mercati e mercatini, Altro ,Giovedì 12 dicembre 2019, alle ore 17.30, si terrà presso le vie del centro storico di Levico Terme: ,STROZEGADA DI SANTA LUCIA ,Lungo le vie del centro, ore 17.30 ,La Strozegada di Santa Lucia coinvolge centinaia di allegri bambini che sfilano lungo i vicoli e le strade di Levico mentre trascinano le rumorose strozeghe per richiamare l'attenzione di Santa Lucia. ,La serata è resa ancora più magica dall'arrivo della Santa con il suo asinello, pronta a distribuire piccoli regali a tutti i bambini. La sera del 12 dicembre vigilia di Santa Lucia, ci si ritrova in centro a Levico per percorrere vie e piazza trascinando le "strozeghe", in attesa che Santa Lucia richiamata dal frastuono porti i doni ai bambini. ,Come si fa una "strozega"? ,Barattoli di latta e lattine vengono legati tra loro con filo di ferro o spago per essere trascinati dai bambini lungo le strade del paese. ,Munitevi anche voi di una "strozega" e scendete per le vie del centro dietro il carro di Santa Lucia. ,All'arrivo le letterine di richiesta dei doni verranno legate a centinaia di palloncini colorati e lasciate volare in cielo. ,Per ulteriori informazioni: ,Consorzio Levico Terme in Centro | www.visitlevicoterme.it | info@levicotermeincontra.com ,Azienda per il Turismo Valsugana | +39 0461 727700 |</t>
-  </si>
-  <si>
-    <t>[{"name": "+390461727700", "url": "tel:+390461727700"}, {"name": "+390461727799", "url": ""}, {"name": "Invia E-mail", "url": "https://www.visittrentino.info/it/guida/contatto?mailto=info@visitvalsugana.it&amp;originUrl=/it/guida/eventi/la-strozegada-di-santa-lucia_e_2211834&amp;origin=La%20Strozegada%20di%20Santa%20Lucia"}]</t>
-  </si>
-  <si>
-    <t>Centro Storico di Levico Terme, alle 17.30</t>
-  </si>
-  <si>
-    <t>https://www.visittrentino.info/it/guida/eventi/la-strozegada-di-santa-lucia_e_2211834?destination=&amp;submitted=1&amp;startdate=29%2F11%2F2019&amp;category%5B0%5D=&amp;enddate=15%2F12%2F2019&amp;device=desktop&amp;mode=grid&amp;page=3&amp;ajax=1</t>
-  </si>
-  <si>
-    <t>Arrivo di Santa Lucia in barca</t>
-  </si>
-  <si>
-    <t>17:00</t>
-  </si>
-  <si>
-    <t>Località ,Torbole sul Garda - Nago</t>
-  </si>
-  <si>
-    <t>Arrivo di Santa Lucia in barca ,Tradizionale arrivo di Santa Lucia in barca dal lago di Garda con distribuzione di dolcetti e caldarroste ,2 altre immagini ,Periodo ,12/12/2019 ,Località ,Torbole sul Garda - Nago ,Tipologia ,Intrattenimento della Località ,In piazza Lietzmann a Torbole il tradizionale arrivo di Santa Lucia dal lago di Garda in barca, un evento must per Torbole. ,Distribuzione di dolcetti e caldarroste per tutti gli ospiti grandi e piccini. ,PROGRAMMA XMAS TORBOLE</t>
-  </si>
-  <si>
-    <t>[{"name": "+393388735427", "url": "tel:+393388735427"}, {"name": "Invia E-mail", "url": "https://www.visittrentino.info/it/guida/contatto?mailto=xmastorbole@gmail.com&amp;originUrl=/it/guida/eventi/arrivo-di-santa-lucia-in-barca_e_12647628&amp;origin=Arrivo%20di%20Santa%20Lucia%20in%20barca"}]</t>
-  </si>
-  <si>
-    <t>Tradizionale arrivo di Santa Lucia in barca dal lago di Garda con distribuzione di dolcetti e caldarroste</t>
-  </si>
-  <si>
-    <t>https://www.visittrentino.info/it/guida/eventi/arrivo-di-santa-lucia-in-barca_e_12647628?destination=&amp;submitted=1&amp;startdate=29%2F11%2F2019&amp;category%5B0%5D=&amp;enddate=15%2F12%2F2019&amp;device=desktop&amp;mode=grid&amp;page=3&amp;ajax=1</t>
-  </si>
-  <si>
-    <t>La Montagna chiama ( The mountain calling )</t>
-  </si>
-  <si>
-    <t>Periodo ,30/11/2019 - 13/12/2019</t>
-  </si>
-  <si>
-    <t>h. 15.00 &gt; 19.00</t>
-  </si>
-  <si>
-    <t>La Montagna chiama ( The mountain calling ) ,Mostra personale di Mauro Berlanda ,Periodo ,30/11/2019 - 13/12/2019 ,Località ,Arco ,Tipologia ,Mostre ,Inaugurazione sabato 30 novembre alle ore 17.00 presso la Galleria "Il Transito" di Arco ( via segantini 81). ,Presenta Roberta Bonazza</t>
-  </si>
-  <si>
-    <t>[{"name": "Invia E-mail", "url": "https://www.visittrentino.info/it/guida/contatto?mailto=info@gruppoartivisivearco.it&amp;originUrl=/it/guida/eventi/la-montagna-chiama-the-mountain-calling_e_13132578&amp;origin=La%20Montagna%20chiama%20(%20The%20mountain%20calling%20)"}]</t>
-  </si>
-  <si>
-    <t>Mostra personale di Mauro Berlanda</t>
-  </si>
-  <si>
-    <t>https://www.visittrentino.info/it/guida/eventi/la-montagna-chiama-the-mountain-calling_e_13132578?destination=&amp;submitted=1&amp;startdate=29%2F11%2F2019&amp;category%5B0%5D=&amp;enddate=15%2F12%2F2019&amp;device=desktop&amp;mode=grid&amp;page=3&amp;ajax=1</t>
-  </si>
-  <si>
-    <t>Tipologia ,Mercati e mercatini, Intrattenimento della Località, Altro</t>
-  </si>
-  <si>
-    <t>Periodo ,14/12/2019</t>
-  </si>
-  <si>
-    <t>Spettacolo di fuochi d'artificio ,Parco Asburgico di Levico - ore 21.30 ,Periodo ,14/12/2019 ,Località ,Levico Terme ,Tipologia ,Mercati e mercatini, Intrattenimento della Località, Altro ,Sabato 14 dicembre 2018, alle 21.30 si terranno nel secolare Parco Asburgico di Levico Terme: ,SPETTACOLI DI FUOCHI D'ARTIFICIO ,Parco delle Terme di Levico, ore 21.30 ,Il Mercatino di Natale di Levico Terme ha il sapore di una favola antica che prende vita nel Parco secolare degli Asburgo, un luogo incantato dove si può ancora godere dell’autentico spirito del Natale. ,Un’oasi naturale che nel periodo natalizio abbraccia con calore le tradizionali casette di legno nascoste tra gli alberi secolari tinti di bianco dai fiocchi di neve. Le luci soffuse che ricoprono come un mantello gli alberi del parco vi faranno da guida lungo i vialetti che vi condurranno a scoprire questo luogo incantato. ,Per ulteriori informazioni: ,Consorzio Levico Terme in Centro | www.visitlevicoterme.it | info@levicotermeincontra.com ,Azienda per il Turismo Valsugana | +39 0461 727700 |</t>
-  </si>
-  <si>
-    <t>[{"name": "+390461727700", "url": "tel:+390461727700"}, {"name": "+390461727799", "url": ""}, {"name": "Invia E-mail", "url": "https://www.visittrentino.info/it/guida/contatto?mailto=info@visitvalsugana.it&amp;originUrl=/it/guida/eventi/spettacolo-di-fuochi-d-artificio_e_768638&amp;origin=Spettacolo%20di%20fuochi%20d%27artificio"}]</t>
-  </si>
-  <si>
-    <t>https://www.visittrentino.info/it/guida/eventi/spettacolo-di-fuochi-d-artificio_e_768638?destination=&amp;submitted=1&amp;startdate=29%2F11%2F2019&amp;category%5B0%5D=&amp;enddate=15%2F12%2F2019&amp;device=desktop&amp;mode=grid&amp;page=3&amp;ajax=1</t>
+    <t>https://www.visittrentino.info/it/guida/eventi/spettacolo-di-fuochi-d-artificio_e_768638?destination=&amp;submitted=1&amp;startdate=03%2F12%2F2019&amp;category%5B0%5D=&amp;enddate=15%2F12%2F2019&amp;device=desktop&amp;mode=grid&amp;page=3&amp;ajax=1</t>
+  </si>
+  <si>
+    <t>Cultural--Mercati e mercatini, Intrattenimento della Località, Altro</t>
   </si>
   <si>
     <t>Free Ski Day - In Trentino si impara a sciare gratis!</t>
   </si>
   <si>
-    <t>tutta la giornata</t>
-  </si>
-  <si>
-    <t>Località ,Campitello di Fassa, Canazei, Moena ...</t>
+    <t>Campitello di Fassa, Canazei, Moena ...</t>
   </si>
   <si>
     <t>Free Ski Day - In Trentino si impara a sciare gratis! ,Sabato 14 dicembre lezioni collettive gratuite per imparare a sciare in compagnia dei maestri della Val di Fassa. Corso, skipass e noleggio gratis per i partecipanti ,Periodo ,14/12/2019 ,Località ,Campitello di Fassa, Canazei, Moena ... ,Tipologia ,Sport ,Sabato 14 dicembre è il Free Ski Day, una giornata in cui i maestri delle Scuole Sci del Trentino sono a disposizione per lezioni collettive gratuite di 2 ore aperte a tutti: famiglie, bambini dai 4 anni in su, adulti, principianti e progrediti. Un’occasione unica per acquisire le prime nozioni sciistiche o per perfezionare la propria tecnica, avvicinandosi al mondo della neve in modo sicuro e divertente. ,Le cinque scuole della Val di Fassa aderiscono all’iniziativa. E’ possibile prenotare lezioni di sci alpino, sci di fondo e snowboard. La partecipazione è aperta a tutti, residenti e non. Per gli iscritti, skipass e noleggio attrezzatura sono gratuiti per l’intera durata della lezione. ,Come iscriversi: ,contattare una delle Scuole di Sci della Val di Fassa; ,comunicare l’adesione al Free Ski Day per prenotare 2 ore di lezione collettiva (fino ad esaurimento posti); ,ritirare il voucher per l’attrezzatura e lo skipass. ,Prenota ora</t>
@@ -4019,13 +3947,13 @@
     <t>Sabato 14 dicembre lezioni collettive gratuite per imparare a sciare in compagnia dei maestri della Val di Fassa. Corso, skipass e noleggio gratis per i partecipanti</t>
   </si>
   <si>
-    <t>https://www.visittrentino.info/it/guida/eventi/free-ski-day-in-trentino-si-impara-a-sciare-gratis_e_814282?destination=&amp;submitted=1&amp;startdate=29%2F11%2F2019&amp;category%5B0%5D=&amp;enddate=15%2F12%2F2019&amp;device=desktop&amp;mode=grid&amp;page=3&amp;ajax=1</t>
+    <t>https://www.visittrentino.info/it/guida/eventi/free-ski-day-in-trentino-si-impara-a-sciare-gratis_e_814282?destination=&amp;submitted=1&amp;startdate=03%2F12%2F2019&amp;category%5B0%5D=&amp;enddate=15%2F12%2F2019&amp;device=desktop&amp;mode=grid&amp;page=3&amp;ajax=1</t>
   </si>
   <si>
     <t>Free Ski Day</t>
   </si>
   <si>
-    <t>Località ,Polsa, San Valentino</t>
+    <t>Polsa, San Valentino</t>
   </si>
   <si>
     <t>Free Ski Day ,Lezioni gratuite per tutti sulle piste di Polsa e San Valentino ,1 altre immagini ,Periodo ,14/12/2019 ,Località ,Polsa, San Valentino ,Tipologia ,Sport ,Sei pronto a sciare sulle bianche piste del Trentino? 2 ore di sci da discesa, fondo o snowboard gratis con gli esperti maestri di sci del Trentino. ,A dicembre approfitta dello Free Ski Day, un’opportunità per imparare a sciare gratuitamente! A Polsa e San Valentino, sulle montagne dell’altopiano di Brentonico, potrai disporre di 2 ore di lezione collettiva di sci da discesa, fondo o snowboard gratis, per bambini a partire dai 4 anni e adulti, con gli esperti maestri di sci del Trentino. Avrai un’occasione unica per goderti una bellissima giornata sulle piste innevate, imparando le tecniche base dello sci o migliorando il tuo stile. Riceverai inoltre un voucher per ricevere lo skipass e il noleggio attrezzatura gratis! Cosa aspetti? Prenota ora la tua giornata di sci direttamente alla Scuola Italiana Sci Monte Baldo. Scopri le proposte delle strutture ricettive per Free Ski Day: ,R.T.A Bellavista ,B&amp;B Mas dei Girardei</t>
@@ -4037,10 +3965,10 @@
     <t>Lezioni gratuite per tutti sulle piste di Polsa e San Valentino</t>
   </si>
   <si>
-    <t>https://www.visittrentino.info/it/guida/eventi/free-ski-day_e_838695?destination=&amp;submitted=1&amp;startdate=29%2F11%2F2019&amp;category%5B0%5D=&amp;enddate=15%2F12%2F2019&amp;device=desktop&amp;mode=grid&amp;page=3&amp;ajax=1</t>
-  </si>
-  <si>
-    <t>Località ,San Martino di Castrozza</t>
+    <t>https://www.visittrentino.info/it/guida/eventi/free-ski-day_e_838695?destination=&amp;submitted=1&amp;startdate=03%2F12%2F2019&amp;category%5B0%5D=&amp;enddate=15%2F12%2F2019&amp;device=desktop&amp;mode=grid&amp;page=3&amp;ajax=1</t>
+  </si>
+  <si>
+    <t>San Martino di Castrozza</t>
   </si>
   <si>
     <t>Free Ski Day ,Il 14 dicembre in Trentino si impara a sciare gratis! ,Periodo ,14/12/2019 ,Località ,San Martino di Castrozza ,Tipologia ,Sport ,Impara a sciare gratis sulle piste del Trentino! ,Se sei principiante o sciatore evoluto, segna una data nella tua agenda: 14 dicembre 2019, il Free Ski Day. ,In questa giornata i Maestri delle Scuole di Sci del Trentino aderenti saranno a disposizione per lezioni collettive gratuite di 2 ore a bambini a partire dai 4 anni ed adulti nelle discipline di sci, fondo e snowboard. ,Per tutti i partecipanti, skipass e noleggio attrezzatura saranno gratuiti per la durata della lezione. ,Mamma, papà e figli avranno un'occasione unica nelle splendide piste di San Martino di Castrozza per acquisire le prime nozioni sciistiche e per provare come con i nostri maestri, sciare è facile, sicuro e divertente. ,Anche gli sciatori più performanti potranno chiedere consigli per migliorare la propria sciata. ,Promo Weekend ,Se partecipi al Free Ski Day e prenoti il weekend in una delle località del Trentino, oltre alle 2 ore di lezione gratuita del sabato e al noleggio dell'attrezzatura per la lezione, potrai avere uno skipass di 2 giorni al prezzo del giornaliero! ,Come Partecipare ,Contatta una delle nostre Scuole Sci: ,Scuola Italiana Sci SAN MARTINO DI CASTROZZA ,Tel. 0439 68182 ,email: info@scuolascisanmartino.it ,sito: scuolascisanmartino.it ,Scuola Italiana Sci DOLOMITI ,Tel. 0439 769251 ,email: scuolascidolomiti@gmail.com ,sito: scuolasci-dolomiti.it ,Comunica l'adesione al Free Ski Day per prenotare 2 ore di lezione collettiva GRATIS (fino ad esaurimento posti). ,Ritira il voucher per ricevere anche attrezzatura e skipass gratuiti per tutta la durata della lezione.</t>
@@ -4052,15 +3980,12 @@
     <t>Il 14 dicembre in Trentino si impara a sciare gratis!</t>
   </si>
   <si>
-    <t>https://www.visittrentino.info/it/guida/eventi/free-ski-day_e_838930?destination=&amp;submitted=1&amp;startdate=29%2F11%2F2019&amp;category%5B0%5D=&amp;enddate=15%2F12%2F2019&amp;device=desktop&amp;mode=grid&amp;page=3&amp;ajax=1</t>
+    <t>https://www.visittrentino.info/it/guida/eventi/free-ski-day_e_838930?destination=&amp;submitted=1&amp;startdate=03%2F12%2F2019&amp;category%5B0%5D=&amp;enddate=15%2F12%2F2019&amp;device=desktop&amp;mode=grid&amp;page=3&amp;ajax=1</t>
   </si>
   <si>
     <t>Garda Trentino Xmas Trail</t>
   </si>
   <si>
-    <t>h. 9.00 &gt; 18.00</t>
-  </si>
-  <si>
     <t>Garda Trentino Xmas Trail ,Gara di trail running che si snoda sul percorso del Garda Trek ,2 altre immagini ,Periodo ,14/12/2019 ,Località ,Torbole sul Garda - Nago ,Tipologia ,Sport ,Nel Garda Trentino le attività outdoor sono possibili tutto l’anno e questo adrenalinico evento, organizzato dall’Associazione Garda Trentino Trail ne è la riprova. ,La corsa con partenza dalla spiaggia di Torbole (Circolo Surf Torbole) si snoderà lungo l’itinerario del Garda Trek-Corona Bassa. ,E' un percorso sulla distanza di 30 chilometri che punta a cingere in un metaforico abbraccio tutto l’Alto Garda, un Trail a bassa quota adatto alla stagione invernale, disegnato su un percorso molto panoramico e che potrà godere di due ristori (circa ogni 10km). ,ISCRIZIONI-PERCORSO-INFO UTILI</t>
   </si>
   <si>
@@ -4070,13 +3995,13 @@
     <t>Gara di trail running che si snoda sul percorso del Garda Trek</t>
   </si>
   <si>
-    <t>https://www.visittrentino.info/it/guida/eventi/garda-trentino-xmas-trail_e_2025525?destination=&amp;submitted=1&amp;startdate=29%2F11%2F2019&amp;category%5B0%5D=&amp;enddate=15%2F12%2F2019&amp;device=desktop&amp;mode=grid&amp;page=4&amp;ajax=1</t>
+    <t>https://www.visittrentino.info/it/guida/eventi/garda-trentino-xmas-trail_e_2025525?destination=&amp;submitted=1&amp;startdate=03%2F12%2F2019&amp;category%5B0%5D=&amp;enddate=15%2F12%2F2019&amp;device=desktop&amp;mode=grid&amp;page=3&amp;ajax=1</t>
   </si>
   <si>
     <t>Concerto di Natale</t>
   </si>
   <si>
-    <t>h. 15.00 &gt; 16.30</t>
+    <t>15.00-16.30</t>
   </si>
   <si>
     <t>Concerto di Natale ,Concerto di musica natalizia con gli allievi della Scuola Musicale ,Periodo ,14/12/2019 ,Località ,Riva del Garda ,Tipologia ,Intrattenimento della Località ,Concerto di musica natalizia con gli allievi della Scuola Musicale</t>
@@ -4088,16 +4013,16 @@
     <t>Concerto di musica natalizia con gli allievi della Scuola Musicale</t>
   </si>
   <si>
-    <t>https://www.visittrentino.info/it/guida/eventi/concerto-di-natale_e_2434948?destination=&amp;submitted=1&amp;startdate=29%2F11%2F2019&amp;category%5B0%5D=&amp;enddate=15%2F12%2F2019&amp;device=desktop&amp;mode=grid&amp;page=4&amp;ajax=1</t>
+    <t>https://www.visittrentino.info/it/guida/eventi/concerto-di-natale_e_2434948?destination=&amp;submitted=1&amp;startdate=03%2F12%2F2019&amp;category%5B0%5D=&amp;enddate=15%2F12%2F2019&amp;device=desktop&amp;mode=grid&amp;page=3&amp;ajax=1</t>
   </si>
   <si>
     <t>Free Ski Day 2019</t>
   </si>
   <si>
-    <t>dalle 8.30</t>
-  </si>
-  <si>
-    <t>Località ,Folgarida, Marilleva, Passo del Tonale ...</t>
+    <t>8.30</t>
+  </si>
+  <si>
+    <t>Folgarida, Marilleva, Passo del Tonale ...</t>
   </si>
   <si>
     <t>Free Ski Day 2019 ,In Trentino si impara a sciare gratis! ,Periodo ,14/12/2019 ,Località ,Folgarida, Marilleva, Passo del Tonale ... ,Tipologia ,Sport ,UNA GIORNATA SPECIALE SULLA NEVE ,I MAESTRI DI SCI DEL TRENTINO TI ASPETTANO! ,Sabato 14 dicembre 2019 sarà una giornata speciale per gli amanti della neve! Le scuole di sci del Trentino spalancheranno le loro porte e metteranno a disposizione di tutti, grandi e bambini, 2 ORE DI LEZIONI COLLETTIVE GRATUITE nelle discipline di SCI ALPINO, FONDO e SNOWBOARD. I gruppi saranno formati da un massimo di 10 persone, raggruppate in base al livello. Le lezioni sono rivolte a tutti, non solo principianti, ma anche esperti. Ciascun partecipante verrà assegnato al gruppo in base ad una valutazione iniziale del livello da parte dei maestri. ,E per tutti i partecipanti SKIPASS E NOLEGGIO GRATUITI per tutta la durata della lezione! ,Un'opportunità per provare come, con i nostri maestri, sciare è facile, sicuro e divertente. ,PROPOSTA WEEKEND 14-15 DICEMBRE 2019 ,Se partecipi al Free Ski Day e pernotti in Trentino, oltre alle 2h di lezione gratuita del sabato e al noleggio dell'attrezzatura per la lezione, avrai uno skipass di 2 giorni al prezzo del giornaliero! ,COME PARTECIPARE ,contatta una SCUOLA SCI aderente all'iniziativa ,comunica l'adesione al FREE SKI DAY per prenotare 2 ore di lezione collettiva GRATIS (fino ad esaurimento posti) ,ritira il voucher per ricevere attrezzatura e skipass gratuiti per tutta la durata della lezione ,AFFRETTATI A PRENOTARE!</t>
@@ -4109,7 +4034,7 @@
     <t>In Trentino si impara a sciare gratis!</t>
   </si>
   <si>
-    <t>https://www.visittrentino.info/it/guida/eventi/free-ski-day-2019_e_2466208?destination=&amp;submitted=1&amp;startdate=29%2F11%2F2019&amp;category%5B0%5D=&amp;enddate=15%2F12%2F2019&amp;device=desktop&amp;mode=grid&amp;page=4&amp;ajax=1</t>
+    <t>https://www.visittrentino.info/it/guida/eventi/free-ski-day-2019_e_2466208?destination=&amp;submitted=1&amp;startdate=03%2F12%2F2019&amp;category%5B0%5D=&amp;enddate=15%2F12%2F2019&amp;device=desktop&amp;mode=grid&amp;page=3&amp;ajax=1</t>
   </si>
   <si>
     <t>FREE SKI DAY</t>
@@ -4118,7 +4043,7 @@
     <t>8:30</t>
   </si>
   <si>
-    <t>Località ,Lavarone, Folgaria, Luserna</t>
+    <t>Lavarone, Folgaria, Luserna</t>
   </si>
   <si>
     <t>FREE SKI DAY ,Se sei principiante o sciatore evoluto segna una data nella tua agenda: 14 dicembre 2019, il Fee Ski Day. ,2 altre immagini ,Periodo ,14/12/2019 ,Località ,Lavarone, Folgaria, Luserna ,Tipologia ,Sport ,In questa giornata i maestri delle scuole di sci del trentino aderenti saranno a disposizione per lezioni collettive gratuite di 2 ore a bambini a partire dai 4 anni ed adulti nelle discipline di sci, fondo e snowboard. Per tutti i partecipanti skipass e noleggio attrezzatura saranno gratuiti per la durata della lezione. Mamma, papà e figli avranno un’occasione unica per acquisire le prime nozioni sciistiche e per provare come con i nostri maestri, sciare è facile, sicuro e divertente. Anche gli sciatori più performanti potranno chiedere consigli per migliorare la propria sciata. E al termine della lezione, goditi il pranzo al rifugio e l’aprés ski sulle piste. ,PROMO WEEKEND ,Se partecipi al free ski day prenoti il weekend in una delle località del trentino, oltre alle 2 ore di lezione gratuita del sabato e il noleggio dell’attrezzatura per la lezione, potrai avere uno skipass di 2 giorni al prezzo del giornaliero. ,L’iniziativa prevede: ,- 2 ore gratuite di lezione collettiva il sabato mattina con Maestri di sci/snowboard qualificati ,- skipass gratuito per la durata della lezione ,- noleggio attrezzatura gratuito per la durata della lezione ,Scegli la tua disciplina tra Sci Alpino, Sci di Fondo e Snowboard prenota e DIVERTITI IN TUTTA SICUREZZA! ,Promozione valida fino ad esaurimento posti. ,COME PARTECIPARE ,Contatta una delle nostre Scuole Sci aderenti: ,SCUOLA ITALIANA SCI E SNOWBOARD FOLGARIA ,Tel. Segreteria: +39 0464 721926 ,info@scuoladiscifolgaria.it ,www.scuoladiscifolgaria.it ,SCUOLA ITALIANA SCI E SNOWBOARD ALPE CIMBRA ,Cel. +39 389 7943902 ,maestridiscifolgaria@gmail.com ,www.scuolaitalianascialpecimbra.it ,SCUOLA ITALIANA SCI E SNOWBOARD LAVARONE ,Tel. +39 0464 783086 ,info@scuolascilavarone.it ,www.scuolascilavarone.it ,Comunica l'adesione al Free Ski Day per prenotare 2 ore di lezione collettiva GRATIS (fino ad esaurimento posti) ,Ritira il voucher per ricevere anche attrezzatura e skipass gratuiti per tutta la durata della lezione!</t>
@@ -4130,13 +4055,13 @@
     <t>Se sei principiante o sciatore evoluto segna una data nella tua agenda: 14 dicembre 2019, il Fee Ski Day.</t>
   </si>
   <si>
-    <t>https://www.visittrentino.info/it/guida/eventi/free-ski-day_e_3440415?destination=&amp;submitted=1&amp;startdate=29%2F11%2F2019&amp;category%5B0%5D=&amp;enddate=15%2F12%2F2019&amp;device=desktop&amp;mode=grid&amp;page=4&amp;ajax=1</t>
-  </si>
-  <si>
-    <t>h. 20.00 &gt; 23.00</t>
-  </si>
-  <si>
-    <t>Località ,Dro</t>
+    <t>https://www.visittrentino.info/it/guida/eventi/free-ski-day_e_3440415?destination=&amp;submitted=1&amp;startdate=03%2F12%2F2019&amp;category%5B0%5D=&amp;enddate=15%2F12%2F2019&amp;device=desktop&amp;mode=grid&amp;page=3&amp;ajax=1</t>
+  </si>
+  <si>
+    <t>20.00-23.00</t>
+  </si>
+  <si>
+    <t>Dro</t>
   </si>
   <si>
     <t>Concerto di Natale ,Concerto con la Banda Sociale di Pietramurata e la Banda Sociale di Dro-Ceniga ,Periodo ,14/12/2019 ,Località ,Dro ,Tipologia ,Musica ,Concerto con la Banda Sociale di Pietramurata e la Banda Sociale di Dro-Ceniga</t>
@@ -4148,7 +4073,10 @@
     <t>Concerto con la Banda Sociale di Pietramurata e la Banda Sociale di Dro-Ceniga</t>
   </si>
   <si>
-    <t>https://www.visittrentino.info/it/guida/eventi/concerto-di-natale_e_3860487?destination=&amp;submitted=1&amp;startdate=29%2F11%2F2019&amp;category%5B0%5D=&amp;enddate=15%2F12%2F2019&amp;device=desktop&amp;mode=grid&amp;page=4&amp;ajax=1</t>
+    <t>https://www.visittrentino.info/it/guida/eventi/concerto-di-natale_e_3860487?destination=&amp;submitted=1&amp;startdate=03%2F12%2F2019&amp;category%5B0%5D=&amp;enddate=15%2F12%2F2019&amp;device=desktop&amp;mode=grid&amp;page=3&amp;ajax=1</t>
+  </si>
+  <si>
+    <t>Teatro/Danza</t>
   </si>
   <si>
     <t>BluOff</t>
@@ -4163,16 +4091,22 @@
     <t>Gatto Nero</t>
   </si>
   <si>
-    <t>https://www.visittrentino.info/it/guida/eventi/bluoff_e_12076059?destination=&amp;submitted=1&amp;startdate=29%2F11%2F2019&amp;category%5B0%5D=&amp;enddate=15%2F12%2F2019&amp;device=desktop&amp;mode=grid&amp;page=4&amp;ajax=1</t>
+    <t>https://www.visittrentino.info/it/guida/eventi/bluoff_e_12076059?destination=&amp;submitted=1&amp;startdate=03%2F12%2F2019&amp;category%5B0%5D=&amp;enddate=15%2F12%2F2019&amp;device=desktop&amp;mode=grid&amp;page=4&amp;ajax=1</t>
+  </si>
+  <si>
+    <t>Cultural--Teatro/Danza</t>
   </si>
   <si>
     <t>Mercatino di Natale di Canale di Tenno</t>
   </si>
   <si>
-    <t>Periodo ,23/11/2019 - 15/12/2019</t>
-  </si>
-  <si>
-    <t>h. 9.30 &gt; 18.30</t>
+    <t>23/11/2019-15/12/2019</t>
+  </si>
+  <si>
+    <t>9.30-18.30</t>
+  </si>
+  <si>
+    <t>Tenno</t>
   </si>
   <si>
     <t>Mercatino di Natale di Canale di Tenno ,Il Mercatino del borgo medievale di Canale di Tenno offre la possibilità di vivere l’incanto genuino del Natale ,1 altre immagini ,Periodo ,23/11/2019 - 15/12/2019 ,Località ,Tenno ,Tipologia ,Intrattenimento della Località ,L’antico borgo medioevale di Canale di Tenno, tra le sue massicce case in pietra che s’inerpicano sul fianco della montagna, i vòlti, i vicoli e i cortili, ospita un Mercatino di Natale unico nel suo genere. ,Nelle cantine si trovano le bancarelle colorate, colme di prodotti tipici locali e di oggetti confezionati con passione da abili artigiani e hobbisti. ,La tradizione trova spazio anche in cucina, dove vengono riproposti i sapori genuini di quest’angolo di Trentino come la “carne salada e fasoi”, piatto tipico nato nel 1500. ,Date Natale 2019 ,23 - 24 &amp; 30 novembre / 1 - 7 - 8 - 14 - 15 dicembre ,24 dicembre: Corteo Pastori / 26 dicembre: Presepe Vivente ,Orario: 9.30 - 18.30 ,COME RAGGIUNGERE I MERCATINI DI NATALE DI TENNO: ,SERVIZIO DI BUS NAVETTA - Attivo solo nei giorni e orari del mercatino di Natale ,tratta: parcheggio loc. lago di Tenno - Canale ,A pagamento ,PARCHEGGIO BUS - Loc. Lago di Tenno ,MUOVITI CON XMAS BUS ,PROGRAMMA CANALE DI TENNO</t>
@@ -4184,16 +4118,16 @@
     <t>Il Mercatino del borgo medievale di Canale di Tenno offre la possibilità di vivere l’incanto genuino del Natale</t>
   </si>
   <si>
-    <t>https://www.visittrentino.info/it/guida/eventi/mercatino-di-natale-di-canale-di-tenno_e_309809?destination=&amp;submitted=1&amp;startdate=29%2F11%2F2019&amp;category%5B0%5D=&amp;enddate=15%2F12%2F2019&amp;device=desktop&amp;mode=grid&amp;page=4&amp;ajax=1</t>
+    <t>https://www.visittrentino.info/it/guida/eventi/mercatino-di-natale-di-canale-di-tenno_e_309809?destination=&amp;submitted=1&amp;startdate=03%2F12%2F2019&amp;category%5B0%5D=&amp;enddate=15%2F12%2F2019&amp;device=desktop&amp;mode=grid&amp;page=4&amp;ajax=1</t>
   </si>
   <si>
     <t>Ski Opening: la prima neve in musica</t>
   </si>
   <si>
-    <t>Periodo ,08/12/2019 - 15/12/2019</t>
-  </si>
-  <si>
-    <t>Località ,Cavalese, Alpe Cermis, Pampeago-Predazzo-Obereggen ...</t>
+    <t>08/12/2019-15/12/2019</t>
+  </si>
+  <si>
+    <t>Cavalese, Alpe Cermis, Pampeago-Predazzo-Obereggen ...</t>
   </si>
   <si>
     <t>Ski Opening: la prima neve in musica ,Inizio stagione di musica e neve dal respiro europeo ,1 altre immagini ,Periodo ,08/12/2019 - 15/12/2019 ,Località ,Cavalese, Alpe Cermis, Pampeago-Predazzo-Obereggen ... ,Tipologia ,Musica ,Ski Opening saluta la nuova stagione sciistica della Val di Fiemme, con una settimana di musica e neve dal respiro europeo. ,Dai rifugi e dai locali notturni si affacciano deejay, attori e campioni di diverse nazionalità. ,Performance deejay, aperitivi e feste goliardiche scatenano gli sciatori di ogni nazionalità nei rifugi del Comprensorio Fiemme-Obereggen e nei disco pub di Cavalese e Pampeago. Culture diverse scendono in pista parlando due lingue comuni: quella della musica e quella dello sport.</t>
@@ -4205,22 +4139,16 @@
     <t>Inizio stagione di musica e neve dal respiro europeo</t>
   </si>
   <si>
-    <t>https://www.visittrentino.info/it/guida/eventi/ski-opening-la-prima-neve-in-musica_e_676127?destination=&amp;submitted=1&amp;startdate=29%2F11%2F2019&amp;category%5B0%5D=&amp;enddate=15%2F12%2F2019&amp;device=desktop&amp;mode=grid&amp;page=4&amp;ajax=1</t>
-  </si>
-  <si>
-    <t>Tipologia ,Feste e Sagre, Mercati e mercatini</t>
+    <t>https://www.visittrentino.info/it/guida/eventi/ski-opening-la-prima-neve-in-musica_e_676127?destination=&amp;submitted=1&amp;startdate=03%2F12%2F2019&amp;category%5B0%5D=&amp;enddate=15%2F12%2F2019&amp;device=desktop&amp;mode=grid&amp;page=4&amp;ajax=1</t>
+  </si>
+  <si>
+    <t>Feste e Sagre, Mercati e mercatini</t>
   </si>
   <si>
     <t>Il Natale dei Ricordi - El nos Nadal</t>
   </si>
   <si>
-    <t>Periodo ,07/12/2019 - 15/12/2019</t>
-  </si>
-  <si>
-    <t>sabato 7 dicembre dalle 14.00 alle 22.00 ,domenica 8 dicembre dalle 10.30 alle 20.30 ,sabato 14 dicembre dalle 14.00 alle 22.00 ,domenica 15 dicembre dalle 10.30 alle 20.30</t>
-  </si>
-  <si>
-    <t>Località ,Villa Lagarina - Lago di Cei</t>
+    <t>Villa Lagarina - Lago di Cei</t>
   </si>
   <si>
     <t>Il Natale dei Ricordi - El nos Nadal ,Il Natale a Castellano ,2 altre immagini ,Periodo ,07/12/2019 - 15/12/2019 ,Località ,Villa Lagarina - Lago di Cei ,Tipologia ,Feste e Sagre, Mercati e mercatini ,Un caleidoscopio di sapori, di storie, di saperi nelle corti, nel castello e lungo le vie di Castellano. Ospiti nelle nostre case per vivere insieme la magia del Natale. ,7 e 8, 14 e 15 dicembre El nos Nadal in dialetto trentino è il nostro Natale. Un Natale speciale, un Natale della tradizione, un Natale che racconta le storie di un tempo. La magia del passato rivive nelle corti, nelle piazzette, e nelle cantine del paese, che ospitano i piatti della tradizione e i mercatini della terra e dell'artigianato. Ma non solo. Il Castello del Duecento, da cui il nome Castellano, diventa cornice suggestiva per un viaggio nei ricordi e le vie del paese si illuminano di proiezioni ed immagini. Le ricette e le musiche della tradizione Gli abitanti del piccolo paese, di poco più di 700 anime, aprono le loro abitazioni e ci guidano alla scoperta delle unicità storiche e culturali del luogo. Unicità raccontate attraverso i piatti tradizionali ultracentenari serviti nelle corti come l’orzet, il minestrom, il brobrusà, la beca de pam, il baccalà con polenta, accompagnati dai vini del territorio, ma anche attraverso concerti musicali realizzati in collaborazione con l’Associazione Mozart Italia, canti corali della montagna, melodie e note natalizie. Mostre, installazioni e animazioni Se il Natale è tradizione, è anche un momento speciale per i più piccoli, che a Castellano troveranno disegni, strumenti musicali, giochi, animali nella stalla, passeggiate con i pony per passare insieme dei bei momenti in compagnia. In programma anche mostre ed esposizioni a cura degli artisti locali, allestite nei luoghi più significativi del paese, e installazioni fotografiche lungo le strade, a raccontare la storia di un passato fatto di persone, di incontri e di memorie. Tanti gli eventi in programma, dalle rappresentazioni teatrali, che raccontano leggende che si tramandano da secoli, alle musiche lungo le vie del paese con fiati, cornamuse, fisarmoniche e cori, dalle visite guidate al castello alle merende per i più piccoli. Nei giorni della manifestazione sarà attivo un bus navetta da Rovereto per Castellano. Partenza da Largo Posta a Rovereto, con fermate intermedie presso lo Stadio Quercia di Rovereto, Villa Lagarina e Pedersano.</t>
@@ -4232,16 +4160,13 @@
     <t>Il Natale a Castellano</t>
   </si>
   <si>
-    <t>https://www.visittrentino.info/it/guida/eventi/il-natale-dei-ricordi-el-nos-nadal_e_2207293?destination=&amp;submitted=1&amp;startdate=29%2F11%2F2019&amp;category%5B0%5D=&amp;enddate=15%2F12%2F2019&amp;device=desktop&amp;mode=grid&amp;page=4&amp;ajax=1</t>
-  </si>
-  <si>
-    <t>Periodo ,30/11/2019 - 15/12/2019</t>
-  </si>
-  <si>
-    <t>sabato 30 novembre dalle ore 10.00 alle ore 19.00 ,domenica 1 dicembre dalle ore 10.00 alle ore 18.00 ,sabato 7 dicembre dalle ore 10.00 alle ore 19.00 ,domenica 8 dicembre dalle ore 10.00 alle ore 18.00 ,sabato 14 dicembre dalle ore 10.00 alle ore 19.00 ,domenica 15 dicembre dalle ore 10.00 alle ore 18.00</t>
-  </si>
-  <si>
-    <t>Località ,Avio</t>
+    <t>https://www.visittrentino.info/it/guida/eventi/il-natale-dei-ricordi-el-nos-nadal_e_2207293?destination=&amp;submitted=1&amp;startdate=03%2F12%2F2019&amp;category%5B0%5D=&amp;enddate=15%2F12%2F2019&amp;device=desktop&amp;mode=grid&amp;page=4&amp;ajax=1</t>
+  </si>
+  <si>
+    <t>Cultural--Feste e Sagre, Mercati e mercatini</t>
+  </si>
+  <si>
+    <t>Avio</t>
   </si>
   <si>
     <t>Natale al Castello di Avio ,Un incanto di storia, musiche e sapori ,1 altre immagini ,Periodo ,30/11/2019 - 15/12/2019 ,Località ,Avio ,Tipologia ,Mercati e mercatini ,Tre weekend in un luogo davvero magico, illuminati dal fuoco, riscaldati dal cibo e dal vino, accompagnati dal ritmo delle parole e della musica. Castellum Ava ha sentieri nascosti, enigmi da risolvere, storie e leggende da raccontare, un’atmosfera da scoprire. ,Talvolta ci sono luoghi magici che sfilano davanti ai nostri occhi, mentre guardiamo dal finestrino di una macchina o di un treno. Tra Trento e Verona colpisce, sospeso tra le trame dei vigneti della Vallagarina e il Monte Baldo, il castello di Avio. Castellum Ava ha sentieri nascosti, enigmi da risolvere sulle pareti delle sue stanze. In cima al mastio e alle sue torri si intrecciano storie e leggende, poesie d'amore per gli innamorati, storie di viaggio per sedentari e viaggiatori, storie di coraggio per pavidi ed eroi. Questi incanti saranno svelati al ritmo delle parole, della musica, dei giochi. Ma dentro il castello sono arrivati anche i mercanti, con le loro stoffe pregiate, gli oggetti intagliati nel legno, nella pietra, nella cera, i deliziosi prodotti dei loro orti preparati con mani sapienti; pozioni dal sapore di-vino. Programma giorno per giorno Sabato 30 novembre dalle 10.00 alle 19.00 ,Ore 10.00 Apertura del Castello ,Mercatino degli hobbisti, agricoltori e artigiani ,Visite guidate alla scoperta del Castello alle ore 11.00 | 13.00 | 15.00 | 17.00 ,Zampognari itineranti ,Le leggende del Castello: racconti, fiabe e laboratori per i più piccoli ,Domenica 1 dicembre dalle 10.00 alle 18.00 ,Ore 10.00 Apertura del Castello ,Mercatino degli hobbisti, agricoltori e artigiani ,Visite guidate alla scoperta del Castello alle ore 11.00 | 13.00 | 15.00 | 17.00 ,Le leggende del Castello: racconti, fiabe e laboratori per i più piccoli ,Spettacoli itineranti e concerti ,Sabato 7 dicembre dalle 10.00 alle 19.00 ,Ore 10.00 Apertura del Castello ,Mercatino degli hobbisti, agricoltori e artigiani ,Visite guidate alla scoperta del Castello alle ore 11.00 | 13.00 | 15.00 | 17.00 ,Zampognari itineranti ,Le leggende del Castello: racconti, fiabe e laboratori per i più piccoli ,Domenica 8 dicembre dalle 10.00 alle 18.00 ,Ore 10.00 Apertura del Castello ,Mercatino degli hobbisti, agricoltori e artigiani ,Visite guidate alla scoperta del Castello alle ore 11.00 | 13.00 | 15.00 | 17.00 ,Le leggende del Castello: racconti, fiabe e laboratori per i più piccoli ,Spettacoli itineranti e concerti ,Sabato 14 dicembre dalle 10.00 alle 19.00 ,Ore 10.00 Apertura del Castello ,Mercatino degli hobbisti, agricoltori e artigiani ,Visite guidate alla scoperta del Castello alle ore 11.00 | 13.00 | 15.00 | 17.00 ,Zampognari itineranti ,Le leggende del Castello: racconti, fiabe e laboratori per i più piccoli ,Domenica 15 dicembre dalle 10.00 alle 18.00 ,Ore 10.00 Apertura del Castello ,Mercatino degli hobbisti, agricoltori e artigiani ,Visite guidate alla scoperta del Castello alle ore 11.00 | 13.00 | 15.00 | 17.00 ,Le leggende del Castello: racconti, fiabe e laboratori per i più piccoli ,Spettacoli itineranti e concerti</t>
@@ -4253,22 +4178,19 @@
     <t>Un incanto di storia, musiche e sapori</t>
   </si>
   <si>
-    <t>https://www.visittrentino.info/it/guida/eventi/natale-al-castello-di-avio_e_2304699?destination=&amp;submitted=1&amp;startdate=29%2F11%2F2019&amp;category%5B0%5D=&amp;enddate=15%2F12%2F2019&amp;device=desktop&amp;mode=grid&amp;page=4&amp;ajax=1</t>
-  </si>
-  <si>
-    <t>Tipologia ,Intrattenimento della Località, Folklore, Mercati e mercatini</t>
+    <t>https://www.visittrentino.info/it/guida/eventi/natale-al-castello-di-avio_e_2304699?destination=&amp;submitted=1&amp;startdate=03%2F12%2F2019&amp;category%5B0%5D=&amp;enddate=15%2F12%2F2019&amp;device=desktop&amp;mode=grid&amp;page=4&amp;ajax=1</t>
+  </si>
+  <si>
+    <t>Intrattenimento della Località, Folklore, Mercati e mercatini</t>
   </si>
   <si>
     <t>Passeggiata tra i Presepi</t>
   </si>
   <si>
-    <t>Periodo ,15/12/2019</t>
-  </si>
-  <si>
-    <t>Partenza dalla frazione di Zoreri alle 16</t>
-  </si>
-  <si>
-    <t>Località ,Rovereto, Terragnolo</t>
+    <t>15/12/2019</t>
+  </si>
+  <si>
+    <t>Rovereto, Terragnolo</t>
   </si>
   <si>
     <t>Passeggiata tra i Presepi ,Alla scoperta delle frazioni di Terragnolo ,1 altre immagini ,Periodo ,15/12/2019 ,Località ,Rovereto, Terragnolo ,Tipologia ,Intrattenimento della Località, Folklore, Mercati e mercatini ,5 frazioni, 25 presepi, 1 territorio. L’incanto di un paesaggio da riscoprire. ,Un magico percorso tra le contrade di Terragnolo: Baisi, Zoreri, Soldati, Incapo e Campi. Qui gli abitanti hanno realizzato i propri presepi liberando creatività e fantasia tra stili classici e originali. Negli scorci più caratteristici dei paesi, si può ammirare la splendida esposizione di oltre 25 opere, lasciandosi accompagnare da caldi ristori lungo il percorso. Una serata ricca di emozioni e sentimenti, di serenità e condivisione da vivere insieme. Ritrovo alle 16 presso la frazione Zoreri. I presepi resteranno in mostra per le vie delle contrade dall’8 dicembre 2019 al 6 gennaio 2020.</t>
@@ -4280,16 +4202,16 @@
     <t>Alla scoperta delle frazioni di Terragnolo</t>
   </si>
   <si>
-    <t>https://www.visittrentino.info/it/guida/eventi/passeggiata-tra-i-presepi_e_2436503?destination=&amp;submitted=1&amp;startdate=29%2F11%2F2019&amp;category%5B0%5D=&amp;enddate=15%2F12%2F2019&amp;device=desktop&amp;mode=grid&amp;page=4&amp;ajax=1</t>
+    <t>https://www.visittrentino.info/it/guida/eventi/passeggiata-tra-i-presepi_e_2436503?destination=&amp;submitted=1&amp;startdate=03%2F12%2F2019&amp;category%5B0%5D=&amp;enddate=15%2F12%2F2019&amp;device=desktop&amp;mode=grid&amp;page=4&amp;ajax=1</t>
+  </si>
+  <si>
+    <t>Cultural--Intrattenimento della Località, Folklore, Mercati e mercatini</t>
   </si>
   <si>
     <t>Matinées in Casa Mozart</t>
   </si>
   <si>
-    <t>Periodo ,20/10/2019 - 15/12/2019</t>
-  </si>
-  <si>
-    <t>Località ,Rovereto</t>
+    <t>20/10/2019-15/12/2019</t>
   </si>
   <si>
     <t>Matinées in Casa Mozart ,Lasciati incantare dalle note di Mozart la domenica mattina ,2 altre immagini ,Periodo ,20/10/2019 - 15/12/2019 ,Località ,Rovereto ,Tipologia ,Musica ,Da ottobre a dicembre Casa Mozart aprirà le sue porte per accoglierti con tre appuntamenti dedicati alla musica classica. ,Programma Domenica 20 ottobre ,ore 11.00 esibizione del vincitore del Concorso “Melini 2019”, Vitaly Starikov, presso Casa Mozart ,Domenica 17 novembre ,ore 11.00 esibizione integrale presso Casa Mozart dal titolo “Mozart e il pianoforte” prima parte di otto parti con Maddalena Piccirillo al pianoforte ,Domenica 15 dicembre ,ore 11.00 esibizione integrale presso Casa Mozart dal titolo “Mozart e il pianoforte” seconda parte di otto parti con Nicola Ormando al pianoforte ,Scopri il programma completo!</t>
@@ -4301,13 +4223,13 @@
     <t>Lasciati incantare dalle note di Mozart la domenica mattina</t>
   </si>
   <si>
-    <t>https://www.visittrentino.info/it/guida/eventi/matin-eacute-es-in-casa-mozart_e_9318567?destination=&amp;submitted=1&amp;startdate=29%2F11%2F2019&amp;category%5B0%5D=&amp;enddate=15%2F12%2F2019&amp;device=desktop&amp;mode=grid&amp;page=4&amp;ajax=1</t>
+    <t>https://www.visittrentino.info/it/guida/eventi/matin-eacute-es-in-casa-mozart_e_9318567?destination=&amp;submitted=1&amp;startdate=03%2F12%2F2019&amp;category%5B0%5D=&amp;enddate=15%2F12%2F2019&amp;device=desktop&amp;mode=grid&amp;page=4&amp;ajax=1</t>
   </si>
   <si>
     <t>Due passi tra i Presepi - Poesie Natalizie</t>
   </si>
   <si>
-    <t>h. 15.00 &gt; 17.00</t>
+    <t>15.00-17.00</t>
   </si>
   <si>
     <t>Due passi tra i Presepi - Poesie Natalizie ,Poesie a cura del Gruppo Pooesia 83 ,Periodo ,15/12/2019 ,Località ,Arco ,Tipologia ,Intrattenimento della Località ,“POESIE NATALIZIE” ,a cura del Gruppo Poesia 83 di Trentino Alto Adige e Veneto ,Ingresso libero.</t>
@@ -4319,13 +4241,13 @@
     <t>Poesie a cura del Gruppo Pooesia 83</t>
   </si>
   <si>
-    <t>https://www.visittrentino.info/it/guida/eventi/due-passi-tra-i-presepi-poesie-natalizie_e_12221621?destination=&amp;submitted=1&amp;startdate=29%2F11%2F2019&amp;category%5B0%5D=&amp;enddate=15%2F12%2F2019&amp;device=desktop&amp;mode=grid&amp;page=4&amp;ajax=1</t>
+    <t>https://www.visittrentino.info/it/guida/eventi/due-passi-tra-i-presepi-poesie-natalizie_e_12221621?destination=&amp;submitted=1&amp;startdate=03%2F12%2F2019&amp;category%5B0%5D=&amp;enddate=15%2F12%2F2019&amp;device=desktop&amp;mode=grid&amp;page=4&amp;ajax=1</t>
   </si>
   <si>
     <t>Storie a merenda</t>
   </si>
   <si>
-    <t>Periodo ,20/11/2019 - 18/12/2019</t>
+    <t>20/11/2019-18/12/2019</t>
   </si>
   <si>
     <t>Storie a merenda ,Letture per i più piccoli con i "Bandus" ,Periodo ,20/11/2019 - 18/12/2019 ,Località ,Arco ,Tipologia ,Altro ,Letture per i più piccoli con i "Bandus"</t>
@@ -4337,13 +4259,13 @@
     <t>Letture per i più piccoli con i "Bandus"</t>
   </si>
   <si>
-    <t>https://www.visittrentino.info/it/guida/eventi/storie-a-merenda_e_316375?destination=&amp;submitted=1&amp;startdate=29%2F11%2F2019&amp;category%5B0%5D=&amp;enddate=15%2F12%2F2019&amp;device=desktop&amp;mode=grid&amp;page=4&amp;ajax=1</t>
+    <t>https://www.visittrentino.info/it/guida/eventi/storie-a-merenda_e_316375?destination=&amp;submitted=1&amp;startdate=03%2F12%2F2019&amp;category%5B0%5D=&amp;enddate=15%2F12%2F2019&amp;device=desktop&amp;mode=grid&amp;page=4&amp;ajax=1</t>
   </si>
   <si>
     <t>Espressionismo in pittura e scultura</t>
   </si>
   <si>
-    <t>Periodo ,08/12/2019 - 19/12/2019</t>
+    <t>08/12/2019-19/12/2019</t>
   </si>
   <si>
     <t>Espressionismo in pittura e scultura ,Mostra bi-personale di Lisetta Cesani Foletti e Caterina Rigo ,Periodo ,08/12/2019 - 19/12/2019 ,Località ,Riva del Garda ,Tipologia ,Mostre ,Il Gruppo Amici dell’Arte presenta una mostra tutta al femminile di due socie storiche del gruppo. Dalle macchie di colore che diventano paesaggio, conferendogli una nuova natura, diversa da quella reale, di Caterina Rigo, agli arditi grovigli e manipolazioni di legni di Lisetta Cesani Foletti, che suggeriscono somiglianze di volti e figure nello spazio. Opere esposte: pittura e scultura. ,Inaugurazione 08.12, ore 11.00</t>
@@ -4355,19 +4277,94 @@
     <t>Mostra bi-personale di Lisetta Cesani Foletti e Caterina Rigo</t>
   </si>
   <si>
-    <t>https://www.visittrentino.info/it/guida/eventi/espressionismo-in-pittura-e-scultura_e_11080393?destination=&amp;submitted=1&amp;startdate=29%2F11%2F2019&amp;category%5B0%5D=&amp;enddate=15%2F12%2F2019&amp;device=desktop&amp;mode=grid&amp;page=4&amp;ajax=1</t>
+    <t>https://www.visittrentino.info/it/guida/eventi/espressionismo-in-pittura-e-scultura_e_11080393?destination=&amp;submitted=1&amp;startdate=03%2F12%2F2019&amp;category%5B0%5D=&amp;enddate=15%2F12%2F2019&amp;device=desktop&amp;mode=grid&amp;page=4&amp;ajax=1</t>
+  </si>
+  <si>
+    <t>Magie natalizie al Lago di Carezza</t>
+  </si>
+  <si>
+    <t>10.00-20.00</t>
+  </si>
+  <si>
+    <t>Magie natalizie al Lago di Carezza ,Piccolo mercatino di Natale all’insegna di un avvento mistico avvolto da un’atmosfera magica e con vista panoramica su Catinaccio e Latemar ,Periodo ,30/11/2019 - 22/12/2019 ,Località ,Vigo di Fassa ,Tipologia ,Mercati e mercatini ,Casette di legno che sembrano delle grandi lanterne, prodotti tipici e artigianali altoatesini, sculture di ghiaccio e neve che rievocano le leggende dolomitiche, un presepe a grandezza d’uomo e varie stufe a legna per riscaldarsi faranno del percorso intorno al lago un’esperienza natalizia unica! Un programma natalizio con musica, canti e racconti di leggende completerà l’offerta. ,Il piccolo mercatino si svolgerà in quattro fine settimana di dicembre dalle ore 10.00 alle ore 20.00.</t>
+  </si>
+  <si>
+    <t>[{"name": "+390471619520", "url": "tel:+390471619520"}, {"name": "+390471619599", "url": ""}, {"name": "Invia E-mail", "url": "https://www.visittrentino.info/it/guida/contatto?mailto=info@magienatalizie.it&amp;originUrl=/it/guida/eventi/magie-natalizie-al-lago-di-carezza_e_555648&amp;origin=Magie%20natalizie%20al%20Lago%20di%20Carezza"}]</t>
+  </si>
+  <si>
+    <t>Piccolo mercatino di Natale all’insegna di un avvento mistico avvolto da un’atmosfera magica e con vista panoramica su Catinaccio e Latemar</t>
+  </si>
+  <si>
+    <t>https://www.visittrentino.info/it/guida/eventi/magie-natalizie-al-lago-di-carezza_e_555648?destination=&amp;submitted=1&amp;startdate=03%2F12%2F2019&amp;category%5B0%5D=&amp;enddate=15%2F12%2F2019&amp;device=desktop&amp;mode=grid&amp;page=4&amp;ajax=1</t>
+  </si>
+  <si>
+    <t>Il Natale dell'Albero</t>
+  </si>
+  <si>
+    <t>06/12/2019-22/12/2019</t>
+  </si>
+  <si>
+    <t>Brentonico</t>
+  </si>
+  <si>
+    <t>Il Natale dell'Albero ,Il profumo del legno, la manualità degli artisti, la magia del Natale ,2 altre immagini ,Periodo ,06/12/2019 - 22/12/2019 ,Località ,Brentonico ,Tipologia ,Mercati e mercatini ,Nel cuore del centro storico di Brentonico l’attesa del Natale da vivere tra le cime delle montagne innevate, il profumo del legno e i prodotti tipici. ,Vicino alle piste di Polsa e San Valentino, Brentonico, il fiore del Baldo, aspetta le feste natalizie con il Natale dell'Albero dal 6 al 8 e dal 20 al 22 dicembre 2019. Un omaggio alla Terra raccontato in un simposio di scultura: 6 gli scultori in “competizione” che a colpi di scalpello creeranno opere attinenti al tema “Essenze”. Lungo Via Roma gli artisti si cimenteranno nella realizzazione di sculture lignee, che verranno votate dalla giuria popolare: potrai esprimere anche tu la tua preferenza, tramite un’apposita urna. Altri capolavori in legno degli scultori della scorsa edizione orneranno le vie del centro. Ad accompagnare la festa, tanti appuntamenti per grandi e piccini, con laboratori creativi, musiche della tradizione, piatti trentini e la voglia di stare insieme tra cime innevate e magiche atmosfere natalizie. Programma Scarica il programma Venerdì 6 dicembre ,Dalle 13.30 alle 18.30 | “Simposio di scultura-Essenze“ ,Dalle 16.00 alle 18.00 | Apertura di Palazzo Eccheli Baisi e della Casa del Parco con visite guidate gratuite dalle 16.00 alle 17.00 ,Ore 17.30 in Via Roma | Lo Zampognaro Lagaro musica popolare della tradizione con zampogne ,Dalle 18.30 al Bar "Dal Ghingo" | “#Aperò del Ghingo” aperitivo bavarese con bretzel fatti in casa, wurstel bianchi e senape ,Ore 20.30 presso il Centro Culturale | “Vaia” una serata informativa sul fenomeno meteorologico a cura del Parco del Baldo. ,Sabato 7 dicembre ,Dalle 10.00 alle 18.30 | “Simposio di scultura-Essenze“ ,Dalle 10.00 alle 12.00 e dalle 16.00 alle 18.00| Apertura di Palazzo Eccheli Baisi e della Casa del Parco ,Ore 11.00 in Via Roma n.41 | “I pipistrelli” un laboratorio per bambini a partire dai 6 anni in compagnia degli esperti della Fondazione Museo Civico di Rovereto e a cura del Parco del Baldo ,Dalle 14 alle 18.30 | “Aspettando il Natale con l'Ass. il Melograno” Il progetto della falegnameria in Burundi, deliziose omlette e scoppiettante bombardino. ,Dalle 15.00 alle 18.30 presso la Ferramenta Togni in Via Roma |”Essenze e profumi di Natale” un’attività per grandi e piccini ,Ore 16.00 in Via Roma | “Fantasia di Marionette” spettacolo per i più piccoli. ,Ore 17.15 in Via Roma | Coretto dei bambini concerto diretto dal maestro Andrea Schelfi ,Domenica 8 dicembre ,Dalle 10.00 alle 18.30 | “Simposio di scultura-Essenze“ ,Dalle 10.00 alle 12.00 e dalle 16.00 alle 18.00| Apertura di Palazzo Eccheli Baisi e della Casa del Parco ,Dalle 10.00 alle 12.30 | “L'inverno con Brentonico Ski Team” presentazione dei corsi promozionali di sci ,Dalle 10.30 alle 12.30 in Via Roma n.41 | “I pipistrelli” un laboratorio dove imparare a costruire una casetta per pipistrelli con gli esperti dell'Associazione Nexus e a cura del Parco del Baldo ,Dalle 15.00 alle 18.30 | “Giochi di magia e fantasiosi palloncini“. ,ore 17.30 – Via Roma | Musica con Fantafisa – musica della tradizione con le fisarmoniche dei Fantafisa ,Venerdì 20 dicembre ,Dalle 10.00 alle 12.00 e dalle 16.00 alle 18.00| Apertura di Palazzo Eccheli Baisi e della Casa del Parco con visite guidate alle ore 10.00, 11.00, 16.00 e 17.00 ,Dalle 13.30 alle 18.30 | “Simposio di scultura-Essenze“ ,Dalle 13.30 alle 18.30 | “Giochi e attività per bambini” a cura del Gruppo sciatori di Brentonico ,Dalle 16.30 alle 18.30 | “Il Mago Alesgar” show con bolle di sapone giganti ,ore 17-19 Via Roma accanto alla Ferramenta Togni | Infusi – Degustazione di infusi caldi Baldensis ,Dalle 18.30 al Bar "Dal Ghingo" | “#Aperò del Ghingo” aperitivo bavarese con bretzel fatti in casa, wurstel bianchi e senape. ,Sabato 21 dicembre ,Dalle 10.00 alle 18.30 | “Simposio di scultura-Essenze“ ,Dalle 10.00 alle 12.00 e dalle 16.00 alle 18.00| Apertura di Palazzo Eccheli Baisi e della Casa del Parco con visite guidate alle ore 10.00, 11.00, 16.00 e 17.00 ,Dalle 10.30 alle 18.30 in Via Roma | “A tu per tu con la Sat di Brentonico” presentazione dei progetti per l’anno 2020 ,Dalle 16.00 alle 18.30 presso il Circolo Anziani in Piazza Dalla Chiesa n.3 | “La Casa di Babbo Natale” Babbo Natale ed il suo aiutante Elfo ti aspettano per imbucare la tua letterina, mangiare gustosi dolcetti e scattare una fotografia. A cura dei nonni del Circolo Anziani di Brentonico ,Dalle 17.00 alle 19.00 in Via Roma accanto alla Ferramenta Togni | “Aperitivo col botto” giochi pirotecnici ,Dalle 19.00 presso la Terrazza del Bar Bianco | “Polenta conza e festa“. ,Domenica 22 dicembre ,Dalle 10.00 alle 18.00 | “Simposio di scultura-Essenze” seguito dalla premiazione alle ore 18.00 ,Dalle 10.00 alle 12.00 e dalle 16.00 alle 18.00| Apertura di Palazzo Eccheli Baisi e della Casa del Parco con visite guidate alle ore 10.00, 11.00, 16.00 e 17.00 ,Dalle 10.00 alle 12.00 in Via Roma | “Laboratorio "Occhio a Pinocchio” ogni bambino potrà poi costruire il proprio Pinocchio con braccia e gambe snodate utilizzando colla e carta da collage. ,Dalle 14.00 alle 18.30 in Via Roma | “La Casa degli elfi e il presepe vivente” lavoretti, dolcetti e cioccolata calda per tutti i bambini a cura dell'Associazione La Colonnina ,Ore 17.30 in Via Roma | “Dance of fire” spettacolo con i Mangiafuoco.</t>
+  </si>
+  <si>
+    <t>[{"name": "0464430363", "url": "tel:0464430363"}, {"name": "0464435528", "url": ""}, {"name": "Invia E-mail", "url": "https://www.visittrentino.info/it/guida/contatto?mailto=info@visitrovereto.it&amp;originUrl=/it/guida/eventi/il-natale-dell-039-albero_e_2304702&amp;origin=Il%20Natale%20dell%27Albero"}]</t>
+  </si>
+  <si>
+    <t>Il profumo del legno, la manualità degli artisti, la magia del Natale</t>
+  </si>
+  <si>
+    <t>https://www.visittrentino.info/it/guida/eventi/il-natale-dell-039-albero_e_2304702?destination=&amp;submitted=1&amp;startdate=03%2F12%2F2019&amp;category%5B0%5D=&amp;enddate=15%2F12%2F2019&amp;device=desktop&amp;mode=grid&amp;page=4&amp;ajax=1</t>
+  </si>
+  <si>
+    <t>RDS - Play the winter - Val di Fassa</t>
+  </si>
+  <si>
+    <t>07/12/2019-22/12/2019</t>
+  </si>
+  <si>
+    <t>Canazei, Moena, Vigo di Fassa</t>
+  </si>
+  <si>
+    <t>RDS - Play the winter - Val di Fassa ,Musica sulle piste da sci nei primi tre weekend di dicembre, ma anche tanti volti noti e i mercatini di Natale danno il via, in clima di festa, alla stagione invernale in Val di Fassa ,Periodo ,07/12/2019 - 22/12/2019 ,Località ,Canazei, Moena, Vigo di Fassa ,Tipologia ,Intrattenimento della Località ,Una sferzata d’energia arricchisce l’avvio della stagione invernale in Val di Fassa. RDS animerà, da tre diverse postazioni in quota, altrettanti fine settimana sulla neve con attività, giochi, gadget e musica in compagnia di dj e conduttori di uno dei più spumeggianti network italiani. Prima tappa il 7 e l’8 dicembre al Ciampac, suggestiva conca panoramica raggiungibile in cabinovia da Alba di Canazei. Per il secondo appuntamento del 14 e 15 dicembre, la diretta e l’animazione di RDS si ritrovano sulle piste della soleggiata skiarea Ciampedìe, accessibile con gli impianti da Vigo o Pera. Per il terzo e ultimo weekend, 21-22 dicembre, la colonna sonora della radio "100% grandi successi" sale al Col Margherita, a 2.508 m, una magnifica terrazza naturale verso il Passo San Pellegrino e le Pale di San Martino. Questa sarà l’occasione ideale per inauguare il nuovissimo Rifugio In Alto, meta obbligata prima di affrontare l’adrenalinica pista "La Volata". ,Per l’inizio stagione la valle si trasforma in una passerella di volti popolari che si ritrovano sulle nevi fassane: attori, sportivi, dj, comici e showgirl, impegnati in mattinate sulle piste, après ski nei rifugi e a fondovalle, giri sulla slitta trainata da cavalli, degustazioni gastronomiche, cene di gala e serate in discoteca.</t>
+  </si>
+  <si>
+    <t>[{"name": "+390462609500", "url": "tel:+390462609500"}, {"name": "+390462602278", "url": ""}, {"name": "Invia E-mail", "url": "https://www.visittrentino.info/it/guida/contatto?mailto=info@fassa.com&amp;originUrl=/it/guida/eventi/rds-play-the-winter-val-di-fassa_e_12221625&amp;origin=RDS%20-%20Play%20the%20winter%20-%20Val%20di%20Fassa"}]</t>
+  </si>
+  <si>
+    <t>Musica sulle piste da sci nei primi tre weekend di dicembre, ma anche tanti volti noti e i mercatini di Natale danno il via, in clima di festa, alla stagione invernale in Val di Fassa</t>
+  </si>
+  <si>
+    <t>https://www.visittrentino.info/it/guida/eventi/rds-play-the-winter-val-di-fassa_e_12221625?destination=&amp;submitted=1&amp;startdate=03%2F12%2F2019&amp;category%5B0%5D=&amp;enddate=15%2F12%2F2019&amp;device=desktop&amp;mode=grid&amp;page=4&amp;ajax=1</t>
+  </si>
+  <si>
+    <t>Artigiani a Bosentino, il Mercatino di Natale</t>
+  </si>
+  <si>
+    <t>Bosentino</t>
+  </si>
+  <si>
+    <t>Artigiani a Bosentino, il Mercatino di Natale ,Ogni pezzo esposto è unico: originale, artigianale e rigorosamente fatto a mano! ,Periodo ,07/12/2019 - 22/12/2019 ,Località ,Bosentino ,Tipologia ,Mercati e mercatini ,Nei weekend del 7-8, 14-15 e il 22 dicembre 2019 il palazzetto si veste a festa per accogliere espositori e pubblico trasformandosi in una piazzetta coperta gremita di bancarelle nella cornice del parco illuminato a festa. ,Il visitatore che arriva a Bosentino viene avvolto da un’atmosfera calda e accogliente e girando fra le bancarelle può ammirare una grande varietà di proposte: ceramiche, ricami, sculture in legno e bigiotteria per tutti i gusti ed inoltre conoscere i prodotti delle aziende agricole del nostro territorio. ,Ogni pezzo esposto negli espositori è originale, artigianale e rigorosamente fatto a mano, per questo è unico e permette di fare un regalo che ha una qualità non solo estetica ma un ulteriore valore in più dato dall’amore, cura e passione con cui è stato ideato e realizzato. ,Tanti i momenti di gusto e divertimento…laboratori rivolti soprattutto ai bambini, momenti musicali e di spettacolo, numerosi punti di ristoro dove degustare prodotti del territorio e tanto altro!!! ,Programma ,Sabato 7 dicembre dalle 14.00 alle 22.00 ,ore 16.00 ,Note di Natale - Laura e la sua Fisarmonica ,ore 17.00 ,Il Natale dei Bambini - Laboratorio* ,Gli hobby dei nostri nonni: uncinetto ,ore 20.00 ,Saluto agli Espositori con brindisi offerto dalla Pro Loco di Bosentino ,ore 20.30 ,Note di Natale - Corpo Musicale San Giorgio ,Domenica 8 dicembre dalle 10.00 alle 19.00 ,ore 10.00 ,Aperitivo con Spritz ai sapori vigolani ,ore 14.00 ,Workshop di Fotografia "Scatti di Natale"* ,Tutti i trucchi per fotografare persone e situazioni magiche ,Euro 40 - 4 ore ,ore 16.00 ,Note di Natale - Coro Canticorum Lubilo di Povo ,ore 17.00 ,Il Natale dei Bambini - Laboratorio* ,La scopa della befana ,Sabato 14 dicembre dalle 14.00 alle 19.00 ,ore 14.00 ,Il Natale dei Bambini - Laboratorio* ,Appendiamo l'inverno ,ore 16.00 ,Note di Natale - Gruppo Jazz CuiBono ,ore 17.00 ,Il Natale dei Bambini - Laboratorio* ,Il cerchiello Hand Made: fimo, dalla pasta al bijux ,ore 20.00 ,La cena dei Mercatini - Cucina lo chef Guerrino Maculan ,Domenica 15 dicembre dalle 10.00 alle 19.00 ,ore 10.00 ,Aperitivo con Spritz ai sapori vigolani ,ore 14.00 ,Il Natale dei Bambini - Laboratorio* ,Cuerda seca ,ore 16.00 ,Note di Natale - Coro Le Fontanelle di Lavarone ,ore 18.00 ,Estrazione della lotteria ,Domenica 22 dicembre dalle 10.00 alle 18.00 "Casette dei Sapori" ,ore 14.00 ,Il Natale dei Bambini - Laboratorio* ,Origami per bimbi ,ore 15.00 ,Note di Natale: Gruppo Zampognari "Le Pive da Trent" ,*Il Natale dei Bambini: i nostri artigiani incontrano i bambini per insegnare loro la magia del creare. ,I laboratori hanno un costo di 2 euro a bambino. ,Prenotazioni presso Consorzio Turistico Vigolana via S.Rocco 4 - Vattaro - Altopiano della Vigolana - Tel. 0461.848350 - info@vigolana.com ,oppure ,Al punto di ristoro della Pro Loco di Bosentino durante le ore di apertura ,I posti sono limitati ,Tutti i giorni il punto di ristoro dei Mercatini ,Colazione ai Mercatini con Strudel e brioches ,Aperitivo ai Mercatini con Spritz ai sapori vigolani ,Pranzo e cena ai Mercatini con canederli, strangolapreti, zuppa d'orzo o toast ,Merenda ai Mercatini con Strudel ,Orari di apertura del punto di ristoro: ,Sabato 7 | 13.00 - 22.00 ,Domenica 8 | 9.00 - 20.00 ,Sabato 14 | 13.00-20.00 ,Domenica 15 | 9.00 - 20.00 ,Domenica 22 | 9.00 - 18.00 ,Fuori programma ,Mercoledì 11 dicembre ,ore 20.30 ,Laboratorio di Origami per adulti a cura di Alessandra Lamio ,euro 5 - massimo 15 persone ,Giovedì 12 dicembre ,ore 20.30 ,Laboratorio di Cucina con lo chef Guerrino Maculan ,euro 5 ,Venerdì 13 dicembre ,ore 20.30 ,Laboratorio di Cake Design a cura di Marika Daldoss - Panettoncini Natalizi ,euro 20 ,Sabato 14 dicembre ,ore 20.00 ,La Cena dei Mercatini con prodotti del territorio ,Misticanza miele e caprino ,Risotto mele e radicchio ,Biscotto con pera al vino ,Cucina lo chef Guerrino Maculan ,euro 15 ,Prenotazioni presso Consorzio Turistico Vigolana ,Tel. 0461.848350 ,E-mail info@vigolana.com ,Altri Eventi a Bosentino ,Giovedì 12 dicembre ,Strozega di Santa Lucia ,Ritrovo in piazza S.Giuseppe dalle ore 18.00 ,Santa Lucia arriva a Bosentino dopo la tradizionale strozega per le vie del paese organizzata dal Circolo Culturale Sportivo Bosentino in collaborazione con Gruppo A.N.A. Bosentino, Circolo anziani e pensionati Bosentino e VVF Bosentino. ,Martedì 24 dicembre ,Brindisi di Natale dopo la S.Messa di mezzanotte ,Tutta la popolazione è invitata in piazza S.Giuseppe per uno scambio di auguri e un buon bicchiere offerto dalla Pro Loco di Bosentino. ,Giovedì 26 dicembre ,Para-zo ,Ritrovo in piazza S.Giuseppe dalle ore 19.30 ,Camminata per le vie e i sentieri di Bosentino dopo le abbuffate natalizie. ,Vi aspettiamo numerosi!!!</t>
+  </si>
+  <si>
+    <t>[{"name": "0461,848350", "url": "tel:0461,848350"}, {"name": "Invia E-mail", "url": "https://www.visittrentino.info/it/guida/contatto?mailto=info@vigolana.com&amp;originUrl=/it/guida/eventi/artigiani-a-bosentino-il-mercatino-di-natale_e_12740479&amp;origin=Artigiani%20a%20Bosentino,%20il%20Mercatino%20di%20Natale"}]</t>
+  </si>
+  <si>
+    <t>Ogni pezzo esposto è unico: originale, artigianale e rigorosamente fatto a mano!</t>
+  </si>
+  <si>
+    <t>https://www.visittrentino.info/it/guida/eventi/artigiani-a-bosentino-il-mercatino-di-natale_e_12740479?destination=&amp;submitted=1&amp;startdate=03%2F12%2F2019&amp;category%5B0%5D=&amp;enddate=15%2F12%2F2019&amp;device=desktop&amp;mode=grid&amp;page=4&amp;ajax=1</t>
   </si>
   <si>
     <t>La casa di zia Natalia</t>
   </si>
   <si>
-    <t>Periodo ,14/12/2019 - 21/12/2019</t>
-  </si>
-  <si>
-    <t>14,15 &amp; 21 dic h. 15.30&gt;18.30 / 20 dic h. 9.00&gt;18.30</t>
-  </si>
-  <si>
-    <t>La casa di zia Natalia ,Con i racconti di Zia Natalia in un caldo ambiente familiare ,Periodo ,14/12/2019 - 21/12/2019 ,Località ,Torbole sul Garda - Nago ,Tipologia ,Intrattenimento della Località ,Con i racconti di Zia Natalia in un caldo ambiente familiare</t>
+    <t>14/12/2019-22/12/2019</t>
+  </si>
+  <si>
+    <t>La casa di zia Natalia ,Con i racconti di Zia Natalia in un caldo ambiente familiare ,Periodo ,14/12/2019 - 22/12/2019 ,Località ,Torbole sul Garda - Nago ,Tipologia ,Intrattenimento della Località ,Con i racconti di Zia Natalia in un caldo ambiente familiare ,ORARI: ,sabato 14, domenica 15 e sabato 21 dicembre : dalle 15.00 alle 18.00 ,domenica 22 dicembre : dalle 10.00 alle 17.30 con il lancio dei palloncini</t>
   </si>
   <si>
     <t>[{"name": "+390464554444", "url": "tel:+390464554444"}, {"name": "Invia E-mail", "url": "https://www.visittrentino.info/it/guida/contatto?mailto=nagocrescendo@gmail.com%20&amp;originUrl=/it/guida/eventi/la-casa-di-zia-natalia_e_12913633&amp;origin=La%20casa%20di%20zia%20Natalia"}]</t>
@@ -4376,97 +4373,13 @@
     <t>Con i racconti di Zia Natalia in un caldo ambiente familiare</t>
   </si>
   <si>
-    <t>https://www.visittrentino.info/it/guida/eventi/la-casa-di-zia-natalia_e_12913633?destination=&amp;submitted=1&amp;startdate=29%2F11%2F2019&amp;category%5B0%5D=&amp;enddate=15%2F12%2F2019&amp;device=desktop&amp;mode=grid&amp;page=4&amp;ajax=1</t>
-  </si>
-  <si>
-    <t>Magie natalizie al Lago di Carezza</t>
-  </si>
-  <si>
-    <t>10.00 - 20.00</t>
-  </si>
-  <si>
-    <t>Magie natalizie al Lago di Carezza ,Piccolo mercatino di Natale all’insegna di un avvento mistico avvolto da un’atmosfera magica e con vista panoramica su Catinaccio e Latemar ,Periodo ,30/11/2019 - 22/12/2019 ,Località ,Vigo di Fassa ,Tipologia ,Mercati e mercatini ,Casette di legno che sembrano delle grandi lanterne, prodotti tipici e artigianali altoatesini, sculture di ghiaccio e neve che rievocano le leggende dolomitiche, un presepe a grandezza d’uomo e varie stufe a legna per riscaldarsi faranno del percorso intorno al lago un’esperienza natalizia unica! Un programma natalizio con musica, canti e racconti di leggende completerà l’offerta. ,Il piccolo mercatino si svolgerà in quattro fine settimana di dicembre dalle ore 10.00 alle ore 20.00.</t>
-  </si>
-  <si>
-    <t>[{"name": "+390471619520", "url": "tel:+390471619520"}, {"name": "+390471619599", "url": ""}, {"name": "Invia E-mail", "url": "https://www.visittrentino.info/it/guida/contatto?mailto=info@magienatalizie.it&amp;originUrl=/it/guida/eventi/magie-natalizie-al-lago-di-carezza_e_555648&amp;origin=Magie%20natalizie%20al%20Lago%20di%20Carezza"}]</t>
-  </si>
-  <si>
-    <t>Piccolo mercatino di Natale all’insegna di un avvento mistico avvolto da un’atmosfera magica e con vista panoramica su Catinaccio e Latemar</t>
-  </si>
-  <si>
-    <t>https://www.visittrentino.info/it/guida/eventi/magie-natalizie-al-lago-di-carezza_e_555648?destination=&amp;submitted=1&amp;startdate=29%2F11%2F2019&amp;category%5B0%5D=&amp;enddate=15%2F12%2F2019&amp;device=desktop&amp;mode=grid&amp;page=5&amp;ajax=1</t>
-  </si>
-  <si>
-    <t>Il Natale dell'Albero</t>
-  </si>
-  <si>
-    <t>Periodo ,06/12/2019 - 22/12/2019</t>
-  </si>
-  <si>
-    <t>Venerdì ore 13.00-18.30 ,Sabato e domenica 10.30-18.30</t>
-  </si>
-  <si>
-    <t>Località ,Brentonico</t>
-  </si>
-  <si>
-    <t>Il Natale dell'Albero ,Il profumo del legno, la manualità degli artisti, la magia del Natale ,2 altre immagini ,Periodo ,06/12/2019 - 22/12/2019 ,Località ,Brentonico ,Tipologia ,Mercati e mercatini ,Nel cuore del centro storico di Brentonico l’attesa del Natale da vivere tra le cime delle montagne innevate, il profumo del legno e i prodotti tipici. ,Vicino alle piste di Polsa e San Valentino, Brentonico, il fiore del Baldo, aspetta le feste natalizie con il Natale dell'Albero dal 6 al 8 e dal 20 al 22 dicembre 2019. Un omaggio alla Terra raccontato in un simposio di scultura: 6 gli scultori in “competizione” che a colpi di scalpello creeranno opere attinenti al tema “Essenze”. Lungo Via Roma gli artisti si cimenteranno nella realizzazione di sculture lignee, che verranno votate dalla giuria popolare: potrai esprimere anche tu la tua preferenza, tramite un’apposita urna. Altri capolavori in legno degli scultori della scorsa edizione orneranno le vie del centro. Ad accompagnare la festa, tanti appuntamenti per grandi e piccini, con laboratori creativi, musiche della tradizione, piatti trentini e la voglia di stare insieme tra cime innevate e magiche atmosfere natalizie. Programma Scarica il programma Venerdì 6 dicembre ,Dalle 13.30 alle 18.30 | “Simposio di scultura-Essenze“ ,Dalle 16.00 alle 18.00 | Apertura di Palazzo Eccheli Baisi e della Casa del Parco con visite guidate gratuite dalle 16.00 alle 17.00 ,Ore 17.30 in Via Roma | Lo Zampognaro Lagaro musica popolare della tradizione con zampogne ,Dalle 18.30 al Bar "Dal Ghingo" | “#Aperò del Ghingo” aperitivo bavarese con bretzel fatti in casa, wurstel bianchi e senape ,Ore 20.30 presso il Centro Culturale | “Vaia” una serata informativa sul fenomeno meteorologico a cura del Parco del Baldo. ,Sabato 7 dicembre ,Dalle 10.00 alle 18.30 | “Simposio di scultura-Essenze“ ,Dalle 10.00 alle 12.00 e dalle 16.00 alle 18.00| Apertura di Palazzo Eccheli Baisi e della Casa del Parco ,Ore 11.00 in Via Roma n.41 | “I pipistrelli” un laboratorio per bambini a partire dai 6 anni in compagnia degli esperti della Fondazione Museo Civico di Rovereto e a cura del Parco del Baldo ,Dalle 14 alle 18.30 | “Aspettando il Natale con l'Ass. il Melograno” Il progetto della falegnameria in Burundi, deliziose omlette e scoppiettante bombardino. ,Dalle 15.00 alle 18.30 presso la Ferramenta Togni in Via Roma |”Essenze e profumi di Natale” un’attività per grandi e piccini ,Ore 16.00 in Via Roma | “Fantasia di Marionette” spettacolo per i più piccoli. ,Ore 17.15 in Via Roma | Coretto dei bambini concerto diretto dal maestro Andrea Schelfi ,Domenica 8 dicembre ,Dalle 10.00 alle 18.30 | “Simposio di scultura-Essenze“ ,Dalle 10.00 alle 12.00 e dalle 16.00 alle 18.00| Apertura di Palazzo Eccheli Baisi e della Casa del Parco ,Dalle 10.00 alle 12.30 | “L'inverno con Brentonico Ski Team” presentazione dei corsi promozionali di sci ,Dalle 10.30 alle 12.30 in Via Roma n.41 | “I pipistrelli” un laboratorio dove imparare a costruire una casetta per pipistrelli con gli esperti dell'Associazione Nexus e a cura del Parco del Baldo ,Dalle 15.00 alle 18.30 | “Giochi di magia e fantasiosi palloncini“. ,ore 17.30 – Via Roma | Musica con Fantafisa – musica della tradizione con le fisarmoniche dei Fantafisa ,Venerdì 20 dicembre ,Dalle 10.00 alle 12.00 e dalle 16.00 alle 18.00| Apertura di Palazzo Eccheli Baisi e della Casa del Parco con visite guidate alle ore 10.00, 11.00, 16.00 e 17.00 ,Dalle 13.30 alle 18.30 | “Simposio di scultura-Essenze“ ,Dalle 13.30 alle 18.30 | “Giochi e attività per bambini” a cura del Gruppo sciatori di Brentonico ,Dalle 16.30 alle 18.30 | “Il Mago Alesgar” show con bolle di sapone giganti ,ore 17-19 Via Roma accanto alla Ferramenta Togni | Infusi – Degustazione di infusi caldi Baldensis ,Dalle 18.30 al Bar "Dal Ghingo" | “#Aperò del Ghingo” aperitivo bavarese con bretzel fatti in casa, wurstel bianchi e senape. ,Sabato 21 dicembre ,Dalle 10.00 alle 18.30 | “Simposio di scultura-Essenze“ ,Dalle 10.00 alle 12.00 e dalle 16.00 alle 18.00| Apertura di Palazzo Eccheli Baisi e della Casa del Parco con visite guidate alle ore 10.00, 11.00, 16.00 e 17.00 ,Dalle 10.30 alle 18.30 in Via Roma | “A tu per tu con la Sat di Brentonico” presentazione dei progetti per l’anno 2020 ,Dalle 16.00 alle 18.30 presso il Circolo Anziani in Piazza Dalla Chiesa n.3 | “La Casa di Babbo Natale” Babbo Natale ed il suo aiutante Elfo ti aspettano per imbucare la tua letterina, mangiare gustosi dolcetti e scattare una fotografia. A cura dei nonni del Circolo Anziani di Brentonico ,Dalle 17.00 alle 19.00 in Via Roma accanto alla Ferramenta Togni | “Aperitivo col botto” giochi pirotecnici ,Dalle 19.00 presso la Terrazza del Bar Bianco | “Polenta conza e festa“. ,Domenica 22 dicembre ,Dalle 10.00 alle 18.00 | “Simposio di scultura-Essenze” seguito dalla premiazione alle ore 18.00 ,Dalle 10.00 alle 12.00 e dalle 16.00 alle 18.00| Apertura di Palazzo Eccheli Baisi e della Casa del Parco con visite guidate alle ore 10.00, 11.00, 16.00 e 17.00 ,Dalle 10.00 alle 12.00 in Via Roma | “Laboratorio "Occhio a Pinocchio” ogni bambino potrà poi costruire il proprio Pinocchio con braccia e gambe snodate utilizzando colla e carta da collage. ,Dalle 14.00 alle 18.30 in Via Roma | “La Casa degli elfi e il presepe vivente” lavoretti, dolcetti e cioccolata calda per tutti i bambini a cura dell'Associazione La Colonnina ,Ore 17.30 in Via Roma | “Dance of fire” spettacolo con i Mangiafuoco.</t>
-  </si>
-  <si>
-    <t>[{"name": "0464430363", "url": "tel:0464430363"}, {"name": "0464435528", "url": ""}, {"name": "Invia E-mail", "url": "https://www.visittrentino.info/it/guida/contatto?mailto=info@visitrovereto.it&amp;originUrl=/it/guida/eventi/il-natale-dell-039-albero_e_2304702&amp;origin=Il%20Natale%20dell%27Albero"}]</t>
-  </si>
-  <si>
-    <t>Il profumo del legno, la manualità degli artisti, la magia del Natale</t>
-  </si>
-  <si>
-    <t>https://www.visittrentino.info/it/guida/eventi/il-natale-dell-039-albero_e_2304702?destination=&amp;submitted=1&amp;startdate=29%2F11%2F2019&amp;category%5B0%5D=&amp;enddate=15%2F12%2F2019&amp;device=desktop&amp;mode=grid&amp;page=5&amp;ajax=1</t>
-  </si>
-  <si>
-    <t>RDS - Play the winter - Val di Fassa</t>
-  </si>
-  <si>
-    <t>Periodo ,07/12/2019 - 22/12/2019</t>
-  </si>
-  <si>
-    <t>sabato ore 10.00-16.00; domenica ore 10.00-13.00</t>
-  </si>
-  <si>
-    <t>Località ,Canazei, Moena, Vigo di Fassa</t>
-  </si>
-  <si>
-    <t>RDS - Play the winter - Val di Fassa ,Musica sulle piste da sci nei primi tre weekend di dicembre, ma anche tanti volti noti e i mercatini di Natale danno il via, in clima di festa, alla stagione invernale in Val di Fassa ,Periodo ,07/12/2019 - 22/12/2019 ,Località ,Canazei, Moena, Vigo di Fassa ,Tipologia ,Intrattenimento della Località ,Una sferzata d’energia arricchisce l’avvio della stagione invernale in Val di Fassa. RDS animerà, da tre diverse postazioni in quota, altrettanti fine settimana sulla neve con attività, giochi, gadget e musica in compagnia di dj e conduttori di uno dei più spumeggianti network italiani. Prima tappa il 7 e l’8 dicembre al Ciampac, suggestiva conca panoramica raggiungibile in cabinovia da Alba di Canazei. Per il secondo appuntamento del 14 e 15 dicembre, la diretta e l’animazione di RDS si ritrovano sulle piste della soleggiata skiarea Ciampedìe, accessibile con gli impianti da Vigo o Pera. Per il terzo e ultimo weekend, 21-22 dicembre, la colonna sonora della radio "100% grandi successi" sale al Col Margherita, a 2.508 m, una magnifica terrazza naturale verso il Passo San Pellegrino e le Pale di San Martino. Questa sarà l’occasione ideale per inauguare il nuovissimo Rifugio In Alto, meta obbligata prima di affrontare l’adrenalinica pista "La Volata". ,Per l’inizio stagione la valle si trasforma in una passerella di volti popolari che si ritrovano sulle nevi fassane: attori, sportivi, dj, comici e showgirl, impegnati in mattinate sulle piste, après ski nei rifugi e a fondovalle, giri sulla slitta trainata da cavalli, degustazioni gastronomiche, cene di gala e serate in discoteca.</t>
-  </si>
-  <si>
-    <t>[{"name": "+390462609500", "url": "tel:+390462609500"}, {"name": "+390462602278", "url": ""}, {"name": "Invia E-mail", "url": "https://www.visittrentino.info/it/guida/contatto?mailto=info@fassa.com&amp;originUrl=/it/guida/eventi/rds-play-the-winter-val-di-fassa_e_12221625&amp;origin=RDS%20-%20Play%20the%20winter%20-%20Val%20di%20Fassa"}]</t>
-  </si>
-  <si>
-    <t>Musica sulle piste da sci nei primi tre weekend di dicembre, ma anche tanti volti noti e i mercatini di Natale danno il via, in clima di festa, alla stagione invernale in Val di Fassa</t>
-  </si>
-  <si>
-    <t>https://www.visittrentino.info/it/guida/eventi/rds-play-the-winter-val-di-fassa_e_12221625?destination=&amp;submitted=1&amp;startdate=29%2F11%2F2019&amp;category%5B0%5D=&amp;enddate=15%2F12%2F2019&amp;device=desktop&amp;mode=grid&amp;page=5&amp;ajax=1</t>
-  </si>
-  <si>
-    <t>Artigiani a Bosentino, il Mercatino di Natale</t>
-  </si>
-  <si>
-    <t>Località ,Bosentino</t>
-  </si>
-  <si>
-    <t>Artigiani a Bosentino, il Mercatino di Natale ,Ogni pezzo esposto è unico: originale, artigianale e rigorosamente fatto a mano! ,Periodo ,07/12/2019 - 22/12/2019 ,Località ,Bosentino ,Tipologia ,Mercati e mercatini ,Nei weekend del 7-8, 14-15 e il 22 dicembre 2019 il palazzetto si veste a festa per accogliere espositori e pubblico trasformandosi in una piazzetta coperta gremita di bancarelle nella cornice del parco illuminato a festa. ,Il visitatore che arriva a Bosentino viene avvolto da un’atmosfera calda e accogliente e girando fra le bancarelle può ammirare una grande varietà di proposte: ceramiche, ricami, sculture in legno e bigiotteria per tutti i gusti ed inoltre conoscere i prodotti delle aziende agricole del nostro territorio. ,Ogni pezzo esposto negli espositori è originale, artigianale e rigorosamente fatto a mano, per questo è unico e permette di fare un regalo che ha una qualità non solo estetica ma un ulteriore valore in più dato dall’amore, cura e passione con cui è stato ideato e realizzato. ,Tanti i momenti di gusto e divertimento…laboratori rivolti soprattutto ai bambini, momenti musicali e di spettacolo, numerosi punti di ristoro dove degustare prodotti del territorio e tanto altro!!! ,Programma ,Sabato 7 dicembre dalle 14.00 alle 22.00 ,ore 16.00 ,Note di Natale - Laura e la sua Fisarmonica ,ore 17.00 ,Il Natale dei Bambini - Laboratorio* ,Gli hobby dei nostri nonni: uncinetto ,ore 20.00 ,Saluto agli Espositori con brindisi offerto dalla Pro Loco di Bosentino ,ore 20.30 ,Note di Natale - Corpo Musicale San Giorgio ,Domenica 8 dicembre dalle 10.00 alle 19.00 ,ore 10.00 ,Aperitivo con Spritz ai sapori vigolani ,ore 14.00 ,Workshop di Fotografia "Scatti di Natale"* ,Tutti i trucchi per fotografare persone e situazioni magiche ,Euro 40 - 4 ore ,ore 16.00 ,Note di Natale - Coro Canticorum Lubilo di Povo ,ore 17.00 ,Il Natale dei Bambini - Laboratorio* ,La scopa della befana ,Sabato 14 dicembre dalle 14.00 alle 19.00 ,ore 14.00 ,Il Natale dei Bambini - Laboratorio* ,Appendiamo l'inverno ,ore 16.00 ,Note di Natale - Gruppo Jazz CuiBono ,ore 17.00 ,Il Natale dei Bambini - Laboratorio* ,Il cerchiello Hand Made: fimo, dalla pasta al bijux ,ore 20.00 ,La cena dei Mercatini - Cucina lo chef Guerrino Maculan ,Domenica 15 dicembre dalle 10.00 alle 19.00 ,ore 10.00 ,Aperitivo con Spritz ai sapori vigolani ,ore 14.00 ,Il Natale dei Bambini - Laboratorio* ,Cuerda seca ,ore 16.00 ,Note di Natale - Coro Le Fontanelle di Lavarone ,ore 18.00 ,Estrazione della lotteria ,Domenica 22 dicembre dalle 10.00 alle 18.00 "Casette dei Sapori" ,ore 14.00 ,Il Natale dei Bambini - Laboratorio* ,Origami per bimbi ,ore 15.00 ,Note di Natale: Gruppo Zampognari "Le Pive da Trent" ,*Il Natale dei Bambini: i nostri artigiani incontrano i bambini per insegnare loro la magia del creare. ,I laboratori hanno un costo di 2 euro a bambino. ,Prenotazioni presso Consorzio Turistico Vigolana via S.Rocco 4 - Vattaro - Altopiano della Vigolana - Tel. 0461.848350 - info@vigolana.com ,oppure ,Al punto di ristoro della Pro Loco di Bosentino durante le ore di apertura ,I posti sono limitati ,Tutti i giorni il punto di ristoro dei Mercatini ,Colazione ai Mercatini con Strudel e brioches ,Aperitivo ai Mercatini con Spritz ai sapori vigolani ,Pranzo e cena ai Mercatini con canederli, strangolapreti, zuppa d'orzo o toast ,Merenda ai Mercatini con Strudel ,Orari di apertura del punto di ristoro: ,Sabato 7 | 13.00 - 22.00 ,Domenica 8 | 9.00 - 20.00 ,Sabato 14 | 13.00-20.00 ,Domenica 15 | 9.00 - 20.00 ,Domenica 22 | 9.00 - 18.00 ,Fuori programma ,Mercoledì 11 dicembre ,ore 20.30 ,Laboratorio di Origami per adulti a cura di Alessandra Lamio ,euro 5 - massimo 15 persone ,Giovedì 12 dicembre ,ore 20.30 ,Laboratorio di Cucina con lo chef Guerrino Maculan ,euro 5 ,Venerdì 13 dicembre ,ore 20.30 ,Laboratorio di Cake Design a cura di Marika Daldoss - Panettoncini Natalizi ,euro 20 ,Sabato 14 dicembre ,ore 20.00 ,La Cena dei Mercatini con prodotti del territorio ,Misticanza miele e caprino ,Risotto mele e radicchio ,Biscotto con pera al vino ,Cucina lo chef Guerrino Maculan ,euro 15 ,Prenotazioni presso Consorzio Turistico Vigolana ,Tel. 0461.848350 ,E-mail info@vigolana.com ,Altri Eventi a Bosentino ,Giovedì 12 dicembre ,Strozega di Santa Lucia ,Ritrovo in piazza S.Giuseppe dalle ore 18.00 ,Santa Lucia arriva a Bosentino dopo la tradizionale strozega per le vie del paese organizzata dal Circolo Culturale Sportivo Bosentino in collaborazione con Gruppo A.N.A. Bosentino, Circolo anziani e pensionati Bosentino e VVF Bosentino. ,Martedì 24 dicembre ,Brindisi di Natale dopo la S.Messa di mezzanotte ,Tutta la popolazione è invitata in piazza S.Giuseppe per uno scambio di auguri e un buon bicchiere offerto dalla Pro Loco di Bosentino. ,Giovedì 26 dicembre ,Para-zo ,Ritrovo in piazza S.Giuseppe dalle ore 19.30 ,Camminata per le vie e i sentieri di Bosentino dopo le abbuffate natalizie. ,Vi aspettiamo numerosi!!!</t>
-  </si>
-  <si>
-    <t>[{"name": "0461,848350", "url": "tel:0461,848350"}, {"name": "Invia E-mail", "url": "https://www.visittrentino.info/it/guida/contatto?mailto=info@vigolana.com&amp;originUrl=/it/guida/eventi/artigiani-a-bosentino-il-mercatino-di-natale_e_12740479&amp;origin=Artigiani%20a%20Bosentino,%20il%20Mercatino%20di%20Natale"}]</t>
-  </si>
-  <si>
-    <t>Ogni pezzo esposto è unico: originale, artigianale e rigorosamente fatto a mano!</t>
-  </si>
-  <si>
-    <t>https://www.visittrentino.info/it/guida/eventi/artigiani-a-bosentino-il-mercatino-di-natale_e_12740479?destination=&amp;submitted=1&amp;startdate=29%2F11%2F2019&amp;category%5B0%5D=&amp;enddate=15%2F12%2F2019&amp;device=desktop&amp;mode=grid&amp;page=5&amp;ajax=1</t>
+    <t>https://www.visittrentino.info/it/guida/eventi/la-casa-di-zia-natalia_e_12913633?destination=&amp;submitted=1&amp;startdate=03%2F12%2F2019&amp;category%5B0%5D=&amp;enddate=15%2F12%2F2019&amp;device=desktop&amp;mode=grid&amp;page=4&amp;ajax=1</t>
   </si>
   <si>
     <t>Aspettando il Natale</t>
   </si>
   <si>
-    <t>Periodo ,01/12/2019 - 22/12/2019</t>
+    <t>01/12/2019-22/12/2019</t>
   </si>
   <si>
     <t>Aspettando il Natale ,Manifestazioni d’Avvento in Piaza de Comun con intrattenimenti musicali, tè e vin brulè ,Periodo ,01/12/2019 - 22/12/2019 ,Località ,Vigo di Fassa ,Tipologia ,Intrattenimento della Località ,Ogni domenica di Avvento sarà ancora più speciale in montagna. Assapora l’atmosfera del Natale Ladino a Pozza di Fassa. ,Programma: ,1 dicembre - Accensione delle luci natalizie e della prima candela della Corona d’Avvento. Intrattenimento musicale con il gruppo "Museganc da Zacan". ,8 dicembre - Accensione della seconda candela della Corona d’Avvento con la partecipazione dei "Krampus da Poza" e intrattenimento musicale. ,15 dicembre - Accensione della terza candela della Corona d’Avvento. Concerto "Cianton da marevea", spettacolo solidale di note e parole a cura di 15 ragazzi fassani. ,22 dicembre - Accensione della quarta candela della Corona d’Avvento in Piaza de Comun e apertura del Villaggio di Babbo Natale presso il parco giochi. Intrattenimento musicale con i zampognari.</t>
@@ -4478,19 +4391,16 @@
     <t>Manifestazioni d’Avvento in Piaza de Comun con intrattenimenti musicali, tè e vin brulè</t>
   </si>
   <si>
-    <t>https://www.visittrentino.info/it/guida/eventi/aspettando-il-natale_e_13046549?destination=&amp;submitted=1&amp;startdate=29%2F11%2F2019&amp;category%5B0%5D=&amp;enddate=15%2F12%2F2019&amp;device=desktop&amp;mode=grid&amp;page=5&amp;ajax=1</t>
+    <t>https://www.visittrentino.info/it/guida/eventi/aspettando-il-natale_e_13046549?destination=&amp;submitted=1&amp;startdate=03%2F12%2F2019&amp;category%5B0%5D=&amp;enddate=15%2F12%2F2019&amp;device=desktop&amp;mode=grid&amp;page=4&amp;ajax=1</t>
   </si>
   <si>
     <t>Settimane Vip in Alta Quota</t>
   </si>
   <si>
-    <t>Periodo ,06/12/2019 - 23/12/2019</t>
-  </si>
-  <si>
-    <t>programma a parte</t>
-  </si>
-  <si>
-    <t>Località ,Campitello di Fassa, Canazei</t>
+    <t>06/12/2019-23/12/2019</t>
+  </si>
+  <si>
+    <t>Campitello di Fassa, Canazei</t>
   </si>
   <si>
     <t>Settimane Vip in Alta Quota ,Divertimento sfrenato in alta quota con i grandi nomi dello sport, dello showbiz e dei social network ,Periodo ,06/12/2019 - 23/12/2019 ,Località ,Campitello di Fassa, Canazei ,Tipologia ,Intrattenimento della Località ,Happy hour e dinner show, cene di gala, serate a teatro e in discoteca, degustazioni e gare di cucina, mattinate sugli sci, passeggiate a cavallo, sfilate in slittino e una valanga bianca di… movida. Da un’idea del manager Alessandro Piva, tornano anche quest’anno nelle incantevoli località montane di Canazei e Campitello di Fassa le "Settimane vip in alta quota", giornate di divertimento sfrenato con i grandi nomi dello sport, del piccolo schermo, dello showbiz e dei social network. Un programma vario e divertente che porterà gli ospiti non solo sulle piste, ma anche in alta quota, per vivere appieno la ricca offerta turistica della Val di Fassa. ,Sulle passerelle della Val di Fassa sfileranno: "El Diablo" del ciclismo Claudio Chiappucci; la giornalista sportiva Claudia Peroni; l’ex portiere della Juventus e della nazionale italiana Stefano Tacconi; il plurimedagliato campione di karate Stefano Maniscalco; l’ex tronista di "Uomini e Donne" Samuele Mecucci; Elena Morali, direttamente da Zelig e Colorado; la famosa criminologa Flaminia Bolzan; i dj-vocalist Pippo Pelo e Adriana Petro di radio "Kiss Kiss"; l’attore di fiction Andrea Montovoli; i protagonisti del cinema italiano Antonio Catania, Andrea Montovoli, Andrea Roncato e Claudia Zanella; i registi Paolo Genovese e Christian Marazziti; il cantautore Roby Facchinetti; l’inviato delle Iene Daniele Ronchetti, alias Gabri Gabra; il conduttore radiofonico e personaggio televisivo Gigi Garretta; l’ex ballerino e opinionista di "Uomini e Donne" Gianni Sperti e molti altri ancora fra opinionisti, influencer, giornalisti, editori e show girl. ,Dal 12 al 16 dicembre, the Hottest Xmas 2019: in esclusiva sul canale 31 e online sul portale web di Real Time, tra sport, fashion e brand d’eccezione, i protagonisti del format, tra gli influencer più noti della rete e reduci dal grande successo delle ultime stagioni, si sfidano tra colpi di gossip, shooting fotografici e gare sulla neve.</t>
@@ -4502,13 +4412,7 @@
     <t>Divertimento sfrenato in alta quota con i grandi nomi dello sport, dello showbiz e dei social network</t>
   </si>
   <si>
-    <t>https://www.visittrentino.info/it/guida/eventi/settimane-vip-in-alta-quota_e_4004138?destination=&amp;submitted=1&amp;startdate=29%2F11%2F2019&amp;category%5B0%5D=&amp;enddate=15%2F12%2F2019&amp;device=desktop&amp;mode=grid&amp;page=5&amp;ajax=1</t>
-  </si>
-  <si>
-    <t>Periodo ,30/11/2019 - 25/12/2019</t>
-  </si>
-  <si>
-    <t>vedi orari</t>
+    <t>https://www.visittrentino.info/it/guida/eventi/settimane-vip-in-alta-quota_e_4004138?destination=&amp;submitted=1&amp;startdate=03%2F12%2F2019&amp;category%5B0%5D=&amp;enddate=15%2F12%2F2019&amp;device=desktop&amp;mode=grid&amp;page=5&amp;ajax=1</t>
   </si>
   <si>
     <t>Mercatini di Natale a Moena ,La "Fata delle Dolomiti" si trasforma in un magico villaggio natalizio con casette in legno, giostre, spettacoli e laboratori per bambini ,Periodo ,30/11/2019 - 25/12/2019 ,Località ,Moena ,Tipologia ,Mercati e mercatini ,Seguendo la tradizione del Nord Europa, la "Fata delle Dolomiti" si trasforma in un vero e proprio villaggio natalizio con tanto di mercatini allestiti in Piaz de Ramon, Piaz de Sotegrava e piazzetta Perla Alpina. Dal 30 novembre al 25 dicembre si passeggia, lungo le vie del centro illuminate a festa, tra piccoli focolari accesi e tradizionali casette in legno, dove acquistare oggetti artigianali e souvenir, a ricordo della vacanza a Moena. I bambini potranno giocare e salire sulla giostra insieme agli elfi del bosco oltre ad assistere, nella piazzetta Perla Alpina, a simpatici spettacoli. In Piaz de Ramon sarà possibile visitare la magica casa di Babbo Natale e partecipare a divertenti laboratori creativi con animazione. L’atmosferà in Piaz de Sotegrava sarà riscaldata da eventi musicali, mentre ai più piccoli sarà dedicata un’area indoor per attività e lavoretti. ,Orari mercatini: ,dal 30 novembre all’1 dicembre dalle 15.00 alle 18.30 ,dal 6 all’8 dicembre dalle 11.00 alle 13.00 e dalle 15.00 alle 18.30 ,dal 13 al 25 dicembre dalle 11.00 alle 13.00 e dalle 15.00 alle 18.30</t>
@@ -4520,19 +4424,19 @@
     <t>La "Fata delle Dolomiti" si trasforma in un magico villaggio natalizio con casette in legno, giostre, spettacoli e laboratori per bambini</t>
   </si>
   <si>
-    <t>https://www.visittrentino.info/it/guida/eventi/mercatini-di-natale-a-moena_e_11844281?destination=&amp;submitted=1&amp;startdate=29%2F11%2F2019&amp;category%5B0%5D=&amp;enddate=15%2F12%2F2019&amp;device=desktop&amp;mode=grid&amp;page=5&amp;ajax=1</t>
-  </si>
-  <si>
-    <t>Tipologia ,Mostre, Conferenze/Congressi, Musica, Feste e Sagre, Enogastronomia, Intrattenimento della Località, Visite Guidate</t>
+    <t>https://www.visittrentino.info/it/guida/eventi/mercatini-di-natale-a-moena_e_11844281?destination=&amp;submitted=1&amp;startdate=03%2F12%2F2019&amp;category%5B0%5D=&amp;enddate=15%2F12%2F2019&amp;device=desktop&amp;mode=grid&amp;page=5&amp;ajax=1</t>
+  </si>
+  <si>
+    <t>Mostre, Conferenze/Congressi, Musica, Feste e Sagre, Enogastronomia, Intrattenimento della Località, Visite Guidate</t>
   </si>
   <si>
     <t>Eventi in Vallarsa</t>
   </si>
   <si>
-    <t>Periodo ,06/05/2019 - 26/12/2019</t>
-  </si>
-  <si>
-    <t>Località ,Vallarsa</t>
+    <t>06/05/2019-26/12/2019</t>
+  </si>
+  <si>
+    <t>Vallarsa</t>
   </si>
   <si>
     <t>Eventi in Vallarsa ,Oltre 80 appuntamenti in Vallarsa ,3 altre immagini ,Periodo ,06/05/2019 - 26/12/2019 ,Località ,Vallarsa ,Tipologia ,Mostre, Conferenze/Congressi, Musica, Feste e Sagre, Enogastronomia, Intrattenimento della Località, Visite Guidate ,Occasioni di festa o riflessioni, momenti culturali o ricreativi che, come è ormai tradizione, il Comune di Vallarsa raccoglie nel calendario "Eventi in Vallarsa". ,Un anno ricco di attività per adulti e bambini ti aspetta nel Comune di Vallarsa! Alcuni degli innumerevoli appuntamenti che non vorrai farti scappare: spettacoli teatrali, passeggiate nella natura, l’apertura della pista di pattinaggio sul ghiaccio, l’arrivo di Santa Lucia e il Concerto di Natale. Gli eventi sono organizzati dal Comune di Vallarsa, dalla Biblioteca Comunale, dal Museo Etnografico della civiltà contadina, dalle associazioni e dal consorzio di operatori turistici della valle. Scopri il programma completo!</t>
@@ -4544,16 +4448,19 @@
     <t>Oltre 80 appuntamenti in Vallarsa</t>
   </si>
   <si>
-    <t>https://www.visittrentino.info/it/guida/eventi/eventi-in-vallarsa_e_9090514?destination=&amp;submitted=1&amp;startdate=29%2F11%2F2019&amp;category%5B0%5D=&amp;enddate=15%2F12%2F2019&amp;device=desktop&amp;mode=grid&amp;page=5&amp;ajax=1</t>
+    <t>https://www.visittrentino.info/it/guida/eventi/eventi-in-vallarsa_e_9090514?destination=&amp;submitted=1&amp;startdate=03%2F12%2F2019&amp;category%5B0%5D=&amp;enddate=15%2F12%2F2019&amp;device=desktop&amp;mode=grid&amp;page=5&amp;ajax=1</t>
+  </si>
+  <si>
+    <t>Cultural--Mostre, Conferenze/Congressi, Musica, Feste e Sagre, Enogastronomia, Intrattenimento della Località, Visite Guidate</t>
   </si>
   <si>
     <t>Mercato contadino Riva del Garda</t>
   </si>
   <si>
-    <t>Periodo ,11/01/2019 - 27/12/2019</t>
-  </si>
-  <si>
-    <t>h. 8.00 &gt; 13.30</t>
+    <t>11/01/2019-27/12/2019</t>
+  </si>
+  <si>
+    <t>8.00-13.30</t>
   </si>
   <si>
     <t>Mercato contadino Riva del Garda ,Mercato settimanale dei produttori locali: non solo frutta e verdura fresca, ma anche marmellate, succhi e miele ,Periodo ,11/01/2019 - 27/12/2019 ,Località ,Riva del Garda ,Tipologia ,Mercati e mercatini ,Questo mercato è nato per favorire il contatto diretto tra produttore e consumatore, incentivare il consumo dei prodotti di stagione e per far conoscere le aziende agricole del territorio.</t>
@@ -4562,16 +4469,10 @@
     <t>[{"name": "+390464573888", "url": "tel:+390464573888"}, {"name": "Invia E-mail", "url": "https://www.visittrentino.info/it/guida/contatto?mailto=info@gardatrentino.it&amp;originUrl=/it/guida/eventi/mercato-contadino-riva-del-garda_e_309863&amp;origin=Mercato%20contadino%20Riva%20del%20Garda"}]</t>
   </si>
   <si>
-    <t>https://www.visittrentino.info/it/guida/eventi/mercato-contadino-riva-del-garda_e_309863?destination=&amp;submitted=1&amp;startdate=29%2F11%2F2019&amp;category%5B0%5D=&amp;enddate=15%2F12%2F2019&amp;device=desktop&amp;mode=grid&amp;page=5&amp;ajax=1</t>
-  </si>
-  <si>
-    <t>Periodo ,24/11/2019 - 29/12/2019</t>
-  </si>
-  <si>
-    <t>Dalle 9.30 alle 18.30</t>
-  </si>
-  <si>
-    <t>Località ,Cimego</t>
+    <t>https://www.visittrentino.info/it/guida/eventi/mercato-contadino-riva-del-garda_e_309863?destination=&amp;submitted=1&amp;startdate=03%2F12%2F2019&amp;category%5B0%5D=&amp;enddate=15%2F12%2F2019&amp;device=desktop&amp;mode=grid&amp;page=5&amp;ajax=1</t>
+  </si>
+  <si>
+    <t>Cimego</t>
   </si>
   <si>
     <t>Mercatini di Natale di Cimego ,Festa di colori, musica, luci...un turbinio di emozioni è pronto ad accogliervi per scaldarvi il cuore ,4 altre immagini ,Periodo ,24/11/2019 - 29/12/2019 ,Località ,Cimego ,Tipologia ,Intrattenimento della Località, Mercati e mercatini ,A partire dal 24 novembre anche la Valle del Chiese, nella suggestiva atmosfera del piccolo Borgo di Cimego, si prepara per il periodo più bello e magico dell’anno.. ,Cortili, cantine, androni addobbati a festa, mantenendo la suggestiva atmosfera di questo borgo, costellato di piccoli angoli caratteristici, dalla presenza della Casa Museo Marascalchi e della Chiesetta di Sant’Antonio. Per i più golosi, in occasione del mercatino, sarà possibile degustare piatti tipici: ogni giorno a pranzo possibilità di gustare le Polente tipiche della Valle del Chiese. ,Ogni giorno a pranzo, viene servita ‘sua maestà’ la POLENTA, quella famosa tratta dalle pannocchie “rosse”, declinata per l’occasione in ben 3 diverse specialità: carbonera, macafana e di patate. E verso sera, a scaldare il freddo ma suggestivo freddo invernale, tra le contrade arrivano, appena sfornati, piatti caldi di minestre, zuppe e dolci natalizi. Tutti i fine settimana ci saranno eventi, laboratori, musiche e profumi per trasportarci al Natale il momento più magico dell’anno per grandi e piccini… ,Un evento unico e suggestivo, quello di Cimego, raccolto e suggestivo, che permette di immergersi in una calda atmosfera dove anche i più piccoli, in una struttura loro dedicata, vengono coinvolti e coccolati con laboratori, giochi e spettacoli studiati ad hoc, nella magica attesa di Santa Lucia e Babbo Natale. ,Il mercatino è aperto nelle seguenti giornate: ,Domenica 24 Novembre 2019 - dalle 9.30 alle 18.30 ,Sabato 30 Novembre e domenica 01 dicembre 2019 - dalle 9.30 alle 18.30 ,Sabato 7 e domenica 8 Dicembre 2019 - dalle 9.30 alle 18.30 ,Sabato 14 e domenica 15 Dicembre 2019 - dalle 9.30 alle 18.30 ,Sabato 21 e domenica 22 Dicembre 2019 - dalle 9.30 alle 18.30 ,Sabato 28 e domenica 29 Dicembre 2019 - dalle 9.30 alle 18.30 ,INGRESSO LIBERO ,EVENTI COLLATERALI ,BALLO DELLE STREGHE al crepuscolo: ,Domenica 24 novembre 2019 ,Domenica 29 dicembre 2019 ,DISTILLAZIONE DELLA GRAPPA nel pomeriggio: ,Domenica 8 dicembre 2019 ,Domenica 22 dicembre 2019 ,CASA DI BABBO NATALE aperta tutti i giorni del mercatino con animazione nel pomeriggio ,PER I PIU' PICCOLI - dalle 14.00 alle 17.30: ,Animazione per bambini con le STREGHE e l'Associazione La Fusina in Casa Museo Marascalchi</t>
@@ -4583,13 +4484,13 @@
     <t>Festa di colori, musica, luci...un turbinio di emozioni è pronto ad accogliervi per scaldarvi il cuore</t>
   </si>
   <si>
-    <t>https://www.visittrentino.info/it/guida/eventi/mercatini-di-natale-di-cimego_e_312696?destination=&amp;submitted=1&amp;startdate=29%2F11%2F2019&amp;category%5B0%5D=&amp;enddate=15%2F12%2F2019&amp;device=desktop&amp;mode=grid&amp;page=5&amp;ajax=1</t>
+    <t>https://www.visittrentino.info/it/guida/eventi/mercatini-di-natale-di-cimego_e_312696?destination=&amp;submitted=1&amp;startdate=03%2F12%2F2019&amp;category%5B0%5D=&amp;enddate=15%2F12%2F2019&amp;device=desktop&amp;mode=grid&amp;page=5&amp;ajax=1</t>
   </si>
   <si>
     <t>Dicembre al MAG insieme alla Casa di Babbo Natale</t>
   </si>
   <si>
-    <t>Periodo ,01/12/2019 - 29/12/2019</t>
+    <t>10.00-18.00</t>
   </si>
   <si>
     <t>Dicembre al MAG insieme alla Casa di Babbo Natale ,Un biglietto unico per ingressi, laboratori per bambini/e e visite guidate ogni fine settimana di dicembre ,Periodo ,01/12/2019 - 29/12/2019 ,Località ,Riva del Garda ,Tipologia ,Altro ,In collaborazione con la Casa di Babbo Natale che ogni anno si dispiega negli spazi della Rocca di Riva, sede del MAG, nei fine settimana di dicembre si potrà usufruire di un biglietto di ingresso di € 8 che offrirà la possibilità di: ,- visitare la Casa di Babbo Natale e partecipare ai laboratori didattici organizzati dalla Pro Loco Riva ,- visitare il MAG e partecipare a visite guidate e laboratori didattici all'interno del museo stesso ,Nelle giornate 1, 7, 8, 14, 15, 21, 22, 28, 29 si terranno in museo le seguenti attività, riservate a chi usufruisce del biglietto Casa di Babbo Natale + MAG: ,- Domenica h. 11.00 e 14.30 e Sabato h. 14.30: laboratorio didattico per famiglie “SteLe di Natale" ,Dall'età del rame all'albero di Natale! ,Creiamo assieme degli addobbi ispirandoci ai reperti archeologici conservati in museo. Modellando con la creta la nostra statua stele, realizziamo dei decori natalizi da appendere all'albero. ,h. 16.00: visita guidata alle collezioni e alle mostre del museo ,Orari di Apertura del MAG: ,- 6, 13, 20 dicembre | h. 14.00 - 18.00 ,- 7, 8, 14, 15, 21, 22, 27-30 dicembre e 2-6 gennaio | h. 10.00-18.00 ,- 31 dicembre | h. 10.00-17.00 ,Prezzi Biglietto Casa di Babbo Natale + MAG: ,-Biglietto ingresso adulto: 8.00 € ,-Biglietto ingresso bambino/a: 5,00 € ,- Biglietto Family (due adulti e due bambini/e): 21.00 €</t>
@@ -4601,16 +4502,16 @@
     <t>Un biglietto unico per ingressi, laboratori per bambini/e e visite guidate ogni fine settimana di dicembre</t>
   </si>
   <si>
-    <t>https://www.visittrentino.info/it/guida/eventi/dicembre-al-mag-insieme-alla-casa-di-babbo-natale_e_12913627?destination=&amp;submitted=1&amp;startdate=29%2F11%2F2019&amp;category%5B0%5D=&amp;enddate=15%2F12%2F2019&amp;device=desktop&amp;mode=grid&amp;page=5&amp;ajax=1</t>
+    <t>https://www.visittrentino.info/it/guida/eventi/dicembre-al-mag-insieme-alla-casa-di-babbo-natale_e_12913627?destination=&amp;submitted=1&amp;startdate=03%2F12%2F2019&amp;category%5B0%5D=&amp;enddate=15%2F12%2F2019&amp;device=desktop&amp;mode=grid&amp;page=5&amp;ajax=1</t>
   </si>
   <si>
     <t>Mercatino di Natale Arco - Asburgico 800</t>
   </si>
   <si>
-    <t>Periodo ,01/12/2019 - 30/12/2019</t>
-  </si>
-  <si>
-    <t>h 15:00 &gt; 17:30</t>
+    <t>01/12/2019-30/12/2019</t>
+  </si>
+  <si>
+    <t>15:00-17:30</t>
   </si>
   <si>
     <t>Mercatino di Natale Arco - Asburgico 800 ,La nobiltà asburgica al Mercatino di Natale di Arco ,Periodo ,01/12/2019 - 30/12/2019 ,Località ,Arco ,Tipologia ,Intrattenimento della Località ,DATE: ,Domenica 1 dicembre 2019 dalle 15.00 alle 17.30 - ASBURGICO '800-BALLO ,Domenica 8 dicembre 2019 dalle 15.00 alle 17.30 - ASBURGICO '800-PASSEGGIATA ,Domenica 14 dicembre 2019 dalle 15.00 alle 17.30 - ASBURGICO '800-BALLO ,Giovedì 26 dicembre 2019 dalle 15.00 alle 17.30 - ASBURGICO '800-BALLO ,Domenica 29 dicembre 2019 15.00 alle 17.30 - ASBURGICO '800-BALLO ,Lunedì 30 dicembre 2019 15.00 alle 17.30 - ASBURGICO '800-PASSEGGIATA ,Un evento reso possibile grazie all'impegno e ai costumi a tema del Comitato Usi e Costumi Arcensi e all'associazione danze ottocentesche Arco' 800. Nata nel 1993, Arco Asburgica, e nel 2013, Arco '800, passeggeranno per le natalizie casette del nostro mercatino, dandogli il tocco di magnificenza della corte imperiale. Gli abiti sontuosi e regali tipici di quegli Asburgo, tra cui sarà presente anche l’amata principessa Sissi che proprio in Arco aveva la sua residenza estiva.</t>
@@ -4622,16 +4523,13 @@
     <t>La nobiltà asburgica al Mercatino di Natale di Arco</t>
   </si>
   <si>
-    <t>https://www.visittrentino.info/it/guida/eventi/mercatino-di-natale-arco-asburgico-800_e_2336372?destination=&amp;submitted=1&amp;startdate=29%2F11%2F2019&amp;category%5B0%5D=&amp;enddate=15%2F12%2F2019&amp;device=desktop&amp;mode=grid&amp;page=5&amp;ajax=1</t>
+    <t>https://www.visittrentino.info/it/guida/eventi/mercatino-di-natale-arco-asburgico-800_e_2336372?destination=&amp;submitted=1&amp;startdate=03%2F12%2F2019&amp;category%5B0%5D=&amp;enddate=15%2F12%2F2019&amp;device=desktop&amp;mode=grid&amp;page=5&amp;ajax=1</t>
   </si>
   <si>
     <t>Casa di Babbo Natale - Riva del Garda - Lago di Garda</t>
   </si>
   <si>
-    <t>Periodo ,30/11/2019 - 31/12/2019</t>
-  </si>
-  <si>
-    <t>gio/ve/sa 14&gt;18.30- do 10&gt;18.30 / 23-24 dic h. 10&gt;18.30</t>
+    <t>30/11/2019-31/12/2019</t>
   </si>
   <si>
     <t>Casa di Babbo Natale - Riva del Garda - Lago di Garda ,Babbo Natale e Natalina aprono la loro casa a grandi e piccini per vivere un sogno unico in un luogo pieno di sorprese ,1 altre immagini ,Periodo ,30/11/2019 - 31/12/2019 ,Località ,Riva del Garda ,Tipologia ,Intrattenimento della Località ,Nel castello fatato vivi un’esperienza indimenticabile! ,30.11 e 1. – 6-7-8, 13-14-15, 20-21-22-23-24, 27-28-29-30-31 dicembre 2019 ,Babbo Natale e Natalina hanno deciso di trascorrere le vacanze nell’antica Rocca e di lasciar curiosare nelle stanze della loro Casa tutti i bambini che li vogliono conoscere. ,L’ Ufficio Postale, zeppo di buste, timbri e pacchetti, è il posto giusto dove scrivere ed imbucare la propria letterina. ,Dopo una sosta nella camera da letto e un salto nel guardaroba, i piccoli possono liberare la loro fantasia con i giochi e i lavoretti dell’Officina; e poi, ancora a bocca aperta, gustare una deliziosa merenda nella Corte delle cose buone e incontrare Babbo Natale che li allieta con i suoi racconti. ,Biglietto di entrata: € 7,00 ,Ridotto per bambini dai 3 ai 14 anni: € 4,00 ,Bambini fino a 2 anni: gratuito ,Speciale biglietto famiglia (due adulti e due bambini): € 18,00 ,PRENOTA QUI ,Gli ospiti delle strutture aderenti al Progetto Inverno hanno l'entrata gratuita alla Casa di Babbo Natale ,SCOPRI ORARI &amp; PROGRAMMA ,VIVI L'ESPERIENZA ESCLUSIVA ALL' ACCADEMIA DEGLI ELFI</t>
@@ -4643,19 +4541,19 @@
     <t>Babbo Natale e Natalina aprono la loro casa a grandi e piccini per vivere un sogno unico in un luogo pieno di sorprese</t>
   </si>
   <si>
-    <t>https://www.visittrentino.info/it/guida/eventi/casa-di-babbo-natale-riva-del-garda-lago-di-garda_e_309709?destination=&amp;submitted=1&amp;startdate=29%2F11%2F2019&amp;category%5B0%5D=&amp;enddate=15%2F12%2F2019&amp;device=desktop&amp;mode=grid&amp;page=5&amp;ajax=1</t>
-  </si>
-  <si>
-    <t>Tipologia ,Visite Guidate</t>
+    <t>https://www.visittrentino.info/it/guida/eventi/casa-di-babbo-natale-riva-del-garda-lago-di-garda_e_309709?destination=&amp;submitted=1&amp;startdate=03%2F12%2F2019&amp;category%5B0%5D=&amp;enddate=15%2F12%2F2019&amp;device=desktop&amp;mode=grid&amp;page=5&amp;ajax=1</t>
+  </si>
+  <si>
+    <t>Visite Guidate</t>
   </si>
   <si>
     <t>Visite guidate</t>
   </si>
   <si>
-    <t>Periodo ,30/03/2019 - 04/01/2020</t>
-  </si>
-  <si>
-    <t>Partenza alle ore 15.00 dal piazzale di fronte all’Apt Rovereto e Vallagarina.</t>
+    <t>30/03/2019-04/01/2020</t>
+  </si>
+  <si>
+    <t>15.00</t>
   </si>
   <si>
     <t>Visite guidate ,Itinerari deperiani e passeggiate a tema nel centro storico di Rovereto ,2 altre immagini ,Periodo ,30/03/2019 - 04/01/2020 ,Località ,Rovereto ,Tipologia ,Visite Guidate ,A spasso con gli artisti Percorri le vie del centro sulle orme di Mozart e Depero. Al termine della visita, degustazione di cioccolato da Exquisita ,26 ottobre – visita con cenni a Depero ,2, 9 e 16 novembre – visita con cenni a Mozart ,Itinerari Deperiani Alla scoperta del centro storico di Rovereto, sulle orme di uno dei personaggi più illustri della città. ,23 e 30 novembre ,7, 14, 21 e 28 dicembre ,4 gennaio 2020 ,Al termine della visita è possibile accedere con un biglietto ridotto (4 €) alla Casa d’Arte Futurista Depero. Dove, come, quanto ,Iscriviti all’Azienda per il Turismo Rovereto e Vallagarina. Se sei un possessore di Trentino Guest Card iscriviti tramite l’App per partecipare gratuitamente ,Appuntamento alle 15 nel piazzale di fronte all’Ufficio Turistico in Corso Rosmini, 21 ,Le visite guidate durano circa 2 ore ,I bimbi fino a 10 anni partecipano gratis, per gli adulti il costo è di 7 euro, 5 euro per i possessori di Museum Pass ,Ogni due partecipanti con biglietto d’ingresso di uno dei musei di Rovereto, per quello stesso giorno, una visita guidata è in omaggio</t>
@@ -4667,16 +4565,19 @@
     <t>Itinerari deperiani e passeggiate a tema nel centro storico di Rovereto</t>
   </si>
   <si>
-    <t>https://www.visittrentino.info/it/guida/eventi/visite-guidate_e_3687458?destination=&amp;submitted=1&amp;startdate=29%2F11%2F2019&amp;category%5B0%5D=&amp;enddate=15%2F12%2F2019&amp;device=desktop&amp;mode=grid&amp;page=5&amp;ajax=1</t>
+    <t>https://www.visittrentino.info/it/guida/eventi/visite-guidate_e_3687458?destination=&amp;submitted=1&amp;startdate=03%2F12%2F2019&amp;category%5B0%5D=&amp;enddate=15%2F12%2F2019&amp;device=desktop&amp;mode=grid&amp;page=5&amp;ajax=1</t>
+  </si>
+  <si>
+    <t>Cultural--Visite Guidate</t>
   </si>
   <si>
     <t>Torbole Sparkling Saturday</t>
   </si>
   <si>
-    <t>Periodo ,07/12/2019 - 04/01/2020</t>
-  </si>
-  <si>
-    <t>h. 15.00 &gt; 22.00</t>
+    <t>07/12/2019-04/01/2020</t>
+  </si>
+  <si>
+    <t>15.00-22.00</t>
   </si>
   <si>
     <t>Torbole Sparkling Saturday ,Negozi e locali aperti, musica dal vivo, aperitivo con Trentodoc ,1 altre immagini ,Periodo ,07/12/2019 - 04/01/2020 ,Località ,Torbole sul Garda - Nago ,Tipologia ,Intrattenimento della Località ,Tutti i sabati di dicembre ed il primo sabato di gennaio Torbole si accende con i Torbole Sparkling Saturday: negozi ed attivita’ aperte, musica dal vivo per le strade, bracieri ardenti che scalderanno l’atmosfera, il tutto accompagnato da un aperitivo con spumante Trentodoc. ,Sabato 21 dicembre format speciale: negozi e locali aperti fino alle 22, musica dal vivo per le strade, bracieri ardenti che scalderanno l’atmosfera, il tutto accompagnato da un ospite di eccezione: Chef Peter Brunel che alle 18 nel giardino d’inverno creerà appositamente per i nostri ospiti un aperitivo stellato. ,PROGRAMMA XMAS TORBOLE ,MUOVITI CON XMAS BUS</t>
@@ -4688,16 +4589,16 @@
     <t>Negozi e locali aperti, musica dal vivo, aperitivo con Trentodoc</t>
   </si>
   <si>
-    <t>https://www.visittrentino.info/it/guida/eventi/torbole-sparkling-saturday_e_12593326?destination=&amp;submitted=1&amp;startdate=29%2F11%2F2019&amp;category%5B0%5D=&amp;enddate=15%2F12%2F2019&amp;device=desktop&amp;mode=grid&amp;page=5&amp;ajax=1</t>
-  </si>
-  <si>
-    <t>Tipologia ,Folklore, Mercati e mercatini</t>
+    <t>https://www.visittrentino.info/it/guida/eventi/torbole-sparkling-saturday_e_12593326?destination=&amp;submitted=1&amp;startdate=03%2F12%2F2019&amp;category%5B0%5D=&amp;enddate=15%2F12%2F2019&amp;device=desktop&amp;mode=grid&amp;page=5&amp;ajax=1</t>
+  </si>
+  <si>
+    <t>Folklore, Mercati e mercatini</t>
   </si>
   <si>
     <t>Tesero e i suoi presepi</t>
   </si>
   <si>
-    <t>Località ,Tesero</t>
+    <t>Tesero</t>
   </si>
   <si>
     <t>Tesero e i suoi presepi ,Dai vicoli di Tesero e dalle corte si affacciano cento presepi artigianali, illuminati fino alle 23.00. ,1 altre immagini ,Periodo ,07/12/2019 - 05/01/2020 ,Località ,Tesero ,Tipologia ,Folklore, Mercati e mercatini ,Passeggiare nel centro storico di Tesero ed ammirare i cento volti di Gesù che si affacciano nei vicoli, nelle stalle e nelle cantine. L’evento “Tesero e i suoi Presepi” propone anche mostre, concerti itineranti, racconti teatralizzati e momenti di folclore. ,Nel frattempo Piazza C. Battisti, con lo storico grande presepio da sfondo e le casette in legno del mercatino natalizio, invita a tuffarsi nelle degustazioni di prodotti tipici. ,Tutti possono esplorare il percorso nelle “corte” per scoprire i presepi passeggiando fra viuzze, cortili, stalle, legnaie, finestrelle e cantine. ,www.presepiditesero.it ,www.teseroeventi.it ,Crediti fotografici: Alberto Campanile</t>
@@ -4709,16 +4610,16 @@
     <t>Dai vicoli di Tesero e dalle corte si affacciano cento presepi artigianali, illuminati fino alle 23.00.</t>
   </si>
   <si>
-    <t>https://www.visittrentino.info/it/guida/eventi/tesero-e-i-suoi-presepi_e_312698?destination=&amp;submitted=1&amp;startdate=29%2F11%2F2019&amp;category%5B0%5D=&amp;enddate=15%2F12%2F2019&amp;device=desktop&amp;mode=grid&amp;page=5&amp;ajax=1</t>
+    <t>https://www.visittrentino.info/it/guida/eventi/tesero-e-i-suoi-presepi_e_312698?destination=&amp;submitted=1&amp;startdate=03%2F12%2F2019&amp;category%5B0%5D=&amp;enddate=15%2F12%2F2019&amp;device=desktop&amp;mode=grid&amp;page=5&amp;ajax=1</t>
+  </si>
+  <si>
+    <t>Cultural--Folklore, Mercati e mercatini</t>
   </si>
   <si>
     <t>Mercatini di Natale a Campitello</t>
   </si>
   <si>
-    <t>dalle 15.00 alle 19.00</t>
-  </si>
-  <si>
-    <t>Località ,Campitello di Fassa</t>
+    <t>Campitello di Fassa</t>
   </si>
   <si>
     <t>Mercatini di Natale a Campitello ,Bancarelle con manufatti, prodotti artistici e gastronomici tipici delle Dolomiti nel paese più suggestivo della Val di Fassa ,Periodo ,07/12/2019 - 05/01/2020 ,Località ,Campitello di Fassa ,Tipologia ,Mercati e mercatini ,Uno dei paesi più caratteristici della valle attende, in un clima natalizio doc, gli appassionati di acquisti per le Feste. Sabato 7 dicembre, Campitello di Fassa (1.448 metri) inaugura un suggestivo Mercatino di Natale per veri intenditori d’atmosfere in equilibrio tra la poesia del presepe e l’incanto dei monti. Le caratteristiche casette lignee, che propongono manufatti, prelibatezze gastronomiche tipiche, prodotti artistici e artigianali delle Dolomiti, sono allestite con attenzione in un piacevole circuito che porta da Piaz de Ciampedel a Piaz Veie. Il mercatino è aperto nelle giornate 7-8 dicembre, 14-15 dicembre e dal 21 dicembre al 5 gennaio dalle 15.00 alle 19.00. ,Sabato 7 dicembre alle ore 16.30 apertura ufficiale del Mercatino di Natale con concerto della Banda Musega Auta Fascia.</t>
@@ -4730,19 +4631,19 @@
     <t>Bancarelle con manufatti, prodotti artistici e gastronomici tipici delle Dolomiti nel paese più suggestivo della Val di Fassa</t>
   </si>
   <si>
-    <t>https://www.visittrentino.info/it/guida/eventi/mercatini-di-natale-a-campitello_e_669383?destination=&amp;submitted=1&amp;startdate=29%2F11%2F2019&amp;category%5B0%5D=&amp;enddate=15%2F12%2F2019&amp;device=desktop&amp;mode=grid&amp;page=6&amp;ajax=1</t>
-  </si>
-  <si>
-    <t>Tipologia ,Intrattenimento della Località, Folklore</t>
+    <t>https://www.visittrentino.info/it/guida/eventi/mercatini-di-natale-a-campitello_e_669383?destination=&amp;submitted=1&amp;startdate=03%2F12%2F2019&amp;category%5B0%5D=&amp;enddate=15%2F12%2F2019&amp;device=desktop&amp;mode=grid&amp;page=5&amp;ajax=1</t>
+  </si>
+  <si>
+    <t>Intrattenimento della Località, Folklore</t>
   </si>
   <si>
     <t>Faedo, il paese del presepe</t>
   </si>
   <si>
-    <t>Periodo ,01/12/2019 - 05/01/2020</t>
-  </si>
-  <si>
-    <t>Località ,Faedo</t>
+    <t>01/12/2019-05/01/2020</t>
+  </si>
+  <si>
+    <t>Faedo</t>
   </si>
   <si>
     <t>Faedo, il paese del presepe ,Il grande presepe e la Canta della Stella ,Periodo ,01/12/2019 - 05/01/2020 ,Località ,Faedo ,Tipologia ,Intrattenimento della Località, Folklore ,Il più grande presepe del Trentino si trova in questo caratteristico borgo dove portici, stradine e avvolti sono animati da ottanta statue a grandezza naturale raffiguranti personaggi intenti a svolgere i lavori tipici di un tempo, oltre alle figure religiose legate al Natale. Non mancheranno inoltre il Mercatino della Stella, allestito nelle cantine e nelle stalle del paese, e la Casetta del Natale. ,La magia culmina domenica 5 gennaio, quando le luci si spengono ed il borgo viene illuminato dalle fiaccole che animano la Canta della Stella, una delle rievocazioni tradizionali più caratteristiche del Trentino. Il corteo dei Re Magi, preceduto da una grande stella lucente e con al seguito musicanti, figuranti e pastori, fa visita alle case del borgo, cantando le canzoni della tradizione a una o più voci, fino a raggiungere la capanna del Bambino Gesù.</t>
@@ -4754,7 +4655,10 @@
     <t>Il grande presepe e la Canta della Stella</t>
   </si>
   <si>
-    <t>https://www.visittrentino.info/it/guida/eventi/faedo-il-paese-del-presepe_e_4135606?destination=&amp;submitted=1&amp;startdate=29%2F11%2F2019&amp;category%5B0%5D=&amp;enddate=15%2F12%2F2019&amp;device=desktop&amp;mode=grid&amp;page=6&amp;ajax=1</t>
+    <t>https://www.visittrentino.info/it/guida/eventi/faedo-il-paese-del-presepe_e_4135606?destination=&amp;submitted=1&amp;startdate=03%2F12%2F2019&amp;category%5B0%5D=&amp;enddate=15%2F12%2F2019&amp;device=desktop&amp;mode=grid&amp;page=5&amp;ajax=1</t>
+  </si>
+  <si>
+    <t>Cultural--Intrattenimento della Località, Folklore</t>
   </si>
   <si>
     <t>Mercatino sotto le stelle</t>
@@ -4769,16 +4673,16 @@
     <t>Tesero non è solo Presepi!</t>
   </si>
   <si>
-    <t>https://www.visittrentino.info/it/guida/eventi/mercatino-sotto-le-stelle_e_4840870?destination=&amp;submitted=1&amp;startdate=29%2F11%2F2019&amp;category%5B0%5D=&amp;enddate=15%2F12%2F2019&amp;device=desktop&amp;mode=grid&amp;page=6&amp;ajax=1</t>
+    <t>https://www.visittrentino.info/it/guida/eventi/mercatino-sotto-le-stelle_e_4840870?destination=&amp;submitted=1&amp;startdate=03%2F12%2F2019&amp;category%5B0%5D=&amp;enddate=15%2F12%2F2019&amp;device=desktop&amp;mode=grid&amp;page=5&amp;ajax=1</t>
   </si>
   <si>
     <t>Alberi di Vita</t>
   </si>
   <si>
-    <t>Periodo ,06/12/2019 - 05/01/2020</t>
-  </si>
-  <si>
-    <t>ore 15.00-18.30</t>
+    <t>06/12/2019-05/01/2020</t>
+  </si>
+  <si>
+    <t>15.00-18.30</t>
   </si>
   <si>
     <t>Alberi di Vita ,Alberi di Vita… per Giada e a sostegno degli orfani dei boscaioli” ,Periodo ,06/12/2019 - 05/01/2020 ,Località ,Vigo di Fassa ,Tipologia ,Mercati e mercatini ,Mostra-mercatino di beneficenza di lavori eseguiti a mano da parte del gruppo "Mille Centrini", sezione di Vigo, con angolo dedicato al tema "alberi ricamati ad uncinetto e bricolage", presso la Ciasa Marmolada. La mostra-mercatino sarà aperta nei periodi 6-7 dicembre, 21-30 dicembre (escluso il giorno di Natale) e 2-5 gennaio con orario 15.00-18.30.</t>
@@ -4790,18 +4694,12 @@
     <t>Alberi di Vita… per Giada e a sostegno degli orfani dei boscaioli”</t>
   </si>
   <si>
-    <t>https://www.visittrentino.info/it/guida/eventi/alberi-di-vita_e_12651135?destination=&amp;submitted=1&amp;startdate=29%2F11%2F2019&amp;category%5B0%5D=&amp;enddate=15%2F12%2F2019&amp;device=desktop&amp;mode=grid&amp;page=6&amp;ajax=1</t>
+    <t>https://www.visittrentino.info/it/guida/eventi/alberi-di-vita_e_12651135?destination=&amp;submitted=1&amp;startdate=03%2F12%2F2019&amp;category%5B0%5D=&amp;enddate=15%2F12%2F2019&amp;device=desktop&amp;mode=grid&amp;page=5&amp;ajax=1</t>
   </si>
   <si>
     <t>Natale di Luce - Mercatino a Rovereto</t>
   </si>
   <si>
-    <t>Periodo ,22/11/2019 - 06/01/2020</t>
-  </si>
-  <si>
-    <t>Mercatino di Natale a Rovereto ,Dal 23 novembre 2019 al 06 gennaio 2020 dalle ore 10.00 alle ore 19.00. ,Inaugurazione venerdì 22 novembre alle 17.00. ,Giorni di chiusura: 25 dicembre tutto il giorno e 1 gennaio solo al mattino (apertura alle 14.30).</t>
-  </si>
-  <si>
     <t>Natale di Luce - Mercatino a Rovereto ,La magia del Natale illumina la Città della Pace ,3 altre immagini ,Periodo ,22/11/2019 - 06/01/2020 ,Località ,Rovereto ,Tipologia ,Mercati e mercatini ,Un percorso lungo le vie del centro storico, tra musiche, colori, luci, mostre, presepi e magiche atmosfere. ,Oltre sei settimane di eventi per avvicinarsi al Natale e per vivere le festività con tante proposte tra cui scegliere: per chi cerca lo svago e per chi vuole ritrovarsi per un momento di festa, per chi va alla ricerca di un'idea regalo o semplicemente di una situazione diversa nella quale apprezzare le bellezze del centro storico. Concerti e iniziative riempiono le piazze della città e incantano grandi e piccini. Filo conduttore degli eventi, La Luce, simbolo di fratellanza, solidarietà e umanità, e portatrice di un messaggio di Pace. Luce che illumina le facciate dei palazzi, colora le vie e le piazze e crea suggestivi scenari per Presepi, mostre dedicate alla storia di Rovereto ed eventi. Iniziative che vedono protagonisti i cori di montagna e le voci dei bambini, le musiche gospel e i passi delle scuole di danza, i suoni degli zampognari e le vivaci proiezioni luminose. Il Mercatino di Natale a Rovereto Inaugurazione | venerdì 22 novembre, ore 17 Tra gli eventi più magici del Natale roveretano il Mercatino che, con le sue caratteristiche casette in legno, offre il meglio delle delizie culinarie e dell'artigianato locale. Un percorso tra le proposte più diverse: dall'oggettistica all'abbigliamento, dai dolci ai prodotti tipici, in un itinerario che attraversa il centro storico, riempie le piazze più belle della città e permette così di scoprire palazzi sei-settecenteschi, bastioni medievali e musei dal sapore contemporaneo. L'inaugurazione dei Mercatini del Natale di Luce è prevista in Largo Foibe. Le casette saranno bianche, allestite in modo armonico ed elegante, illuminate e ricche di specialità enogastronomiche, prodotti regionali, idee regalo e deliziosi dolci. Ad apertura verrà proiettato il video promozionale dell'evento prodotto dalla Cooperativa 0464 e si terrà un concerto di due Cori che si esibiranno cantando "La Montanara" nella versione italiana e nella versione tedesca e "Signore delle Cime". Saranno attivati dei giochi di luce e dopo il taglio del nastro da parte del sindaco ed i brevi discorsi di rito da parte delle autorità si esibirà la Banda di Rovereto che attraverserà tutto il sito del Mercatino, portando gioia ed allegria. Il Villaggio di Babbo Natale Inaugurazione | sabato 23 novembre, ore 16 Un luogo magico attende i più piccini, dove percepire il calore del focolare, ammirare gli addobbi natalizi, lasciarsi cullare dal profumo di arancia e cannella. Un luogo in cui scrivere letterine da appendere all’Albero dei Desideri, partecipare a laboratori creativi con l’aiuto degli amici Elfi e ascoltare Miti e Leggende. Un luogo dove scoprire cose nuove, fare merenda insieme, salire sulla slitta di Natale e regalarsi una fotografia in compagnia di Santa Claus. Il Grande Albero Cerimonia di accensione | 30 novembre, ore 18 Lo spirito del Natale ed il territorio trentino si uniscono nel Grande Albero di Piazza Rosmini, un abete di oltre 18 metri donato dalla Magnifica Comunità di Folgaria, che si slancia verso il cielo a simboleggiare un ponte tra la città e la montagna, un rapporto nuovo tra l'uomo e l'ambiente, e l'unione fra i popoli per la Pace. Ti aspetta una coinvolgente cerimonia alla sua accensione in cui verrà proiettato un videomapping della campana della Pace e si udranno alcuni suoi rintocchi. Suonerà l'orchestra diretta dal maestro Simone Zuccatti, accompagnata da una suggestiva coreografia. Le pareti dei palazzi della piazza si illumineranno e scenderà la neve. La cerimonia sarà filmata e chi non potrà essere presente la potrà seguire in diretta facebook. Il concerto proseguirà nella Chiesa di San Marco con l'esecuzione di brani della tradizione natalizia. Le conferenze del Natale di Luce Un ciclo di conferenze per raccontare la luce e ciò che, da sempre, rappresenta nel mondo: la rinascita dello spirito, l'ansia di infinito, l'anelito all'eternità. Riflettere sul suo valore nella storia dell'uomo è riconoscere il cammino di un'umanità tesa alla ricerca di simboli per esprimere i suoi valori più alti: la luce che definisce le forme nella pittura, che costruisce lo spazio dei nostri orizzonti, che sale dalla danza e dai suoni armonici, la luce del Natale e della speranza. Altri appuntamenti ,Concerto della Vigilia sotto l'Albero | martedì 24 dicembre, ore 17 – Piazza Rosmini</t>
   </si>
   <si>
@@ -4811,16 +4709,13 @@
     <t>La magia del Natale illumina la Città della Pace</t>
   </si>
   <si>
-    <t>https://www.visittrentino.info/it/guida/eventi/natale-di-luce-mercatino-a-rovereto_e_15461?destination=&amp;submitted=1&amp;startdate=29%2F11%2F2019&amp;category%5B0%5D=&amp;enddate=15%2F12%2F2019&amp;device=desktop&amp;mode=grid&amp;page=6&amp;ajax=1</t>
+    <t>https://www.visittrentino.info/it/guida/eventi/natale-di-luce-mercatino-a-rovereto_e_15461?destination=&amp;submitted=1&amp;startdate=03%2F12%2F2019&amp;category%5B0%5D=&amp;enddate=15%2F12%2F2019&amp;device=desktop&amp;mode=grid&amp;page=6&amp;ajax=1</t>
   </si>
   <si>
     <t>Pinacoteca: Testimonianze figurative dal territorio tra XIV e XIX secolo</t>
   </si>
   <si>
-    <t>Periodo ,01/06/2019 - 06/01/2020</t>
-  </si>
-  <si>
-    <t>vedi dettagli orari</t>
+    <t>01/06/2019-06/01/2020</t>
   </si>
   <si>
     <t>Pinacoteca: Testimonianze figurative dal territorio tra XIV e XIX secolo ,Tre sezioni permanenti dedicate alla Pinacoteca, Storia e Archeologia, mostre temporanee e visita al Mastio ,1 altre immagini ,Periodo ,01/06/2019 - 06/01/2020 ,Località ,Riva del Garda ,Tipologia ,Mostre ,Come ogni anno, il MAG interrompe la sua pausa stagionale per riaprire i propri spazi espositivi nei mesi di dicembre e gennaio, offrendo a visitatori e visitatrici un biglietto di ingresso promozionale pari a € 2,50. ,A partire dall'1 dicembre il museo sarà aperto nei seguenti giorni e con i seguenti orari: ,- 6, 13, 20 dicembre | h. 14.00 - 18.00 ,- 7, 8, 14, 15, 21, 22, 27-30 dicembre e 2-6 gennaio | h. 10.00-18.00 ,- 31 dicembre | h. 10.00-17.00 ,Durante questo periodo sarà possibile vedere presso le sale della Rocca anche le opere di Giovanni Segantini solitamente esposte presso la Galleria Segantini ad Arco. ,Nei fine settimana di dicembre, in collaborazione con la Casa di Babbo Natale, si potrà inoltre usufruire di un biglietto comulativo per ingressi, laboratori per bambini/e e visite guidate nella Casa di Babbo Natale e al museo. ,SCOPRI DI PIÙ ,All'interno della Rocca di Riva del Garda, antico castello medievale a specchio sul lago, ha sede il Museo Alto Garda con le sue tre sezioni permanenti, dispiegate sui tre piani dedicati alla Pinacoteca, all'Archeologia e alla Storia, e gli spazi riservati alle mostre temporanee. ,Irrinunciabile, per chi visita il Museo, la salita al Mastio, ovvero la torre principale della Rocca da cui si apre una suggestiva immagine della città e del lago di Garda. ,Lo sguardo sul paesaggio storico e contemporaneo - indagato dalle diverse angolature che comprendono le discipline della fotografia, della pittura, del disegno e della ricerca storico-scientifica - è una delle impronte più marcate che contraddistinguono l'attività espositiva e di ricerca del MAG. ,Il percorso della Pinacoteca illustra secolo dopo secolo l’evolversi della cultura figurativa in area gardesana, documentandone la peculiarità, dovuta alle molteplici influenze derivanti dalla particolare collocazione geografica, quale terra di confine. ,INvento è invece uno spazio dedicato ai bambini e alle famiglie, concepito con l’ottica dell’imparare divertendosi. Consiste in un percorso-laboratorio permanente, attrezzato con isole didattiche e giochi creativi, a cui si aggiungono la possibilità di sperimentare materiali e tecniche pittoriche e una divertente caccia al tesoro tra le opere delle collezioni. ,Nei mesi di dicembre, gennaio e febbraio la Torre Apponale è chiusa.</t>
@@ -4832,16 +4727,16 @@
     <t>Tre sezioni permanenti dedicate alla Pinacoteca, Storia e Archeologia, mostre temporanee e visita al Mastio</t>
   </si>
   <si>
-    <t>https://www.visittrentino.info/it/guida/eventi/pinacoteca-testimonianze-figurative-dal-territorio-tra-xiv-e-xix-secolo_e_309613?destination=&amp;submitted=1&amp;startdate=29%2F11%2F2019&amp;category%5B0%5D=&amp;enddate=15%2F12%2F2019&amp;device=desktop&amp;mode=grid&amp;page=6&amp;ajax=1</t>
+    <t>https://www.visittrentino.info/it/guida/eventi/pinacoteca-testimonianze-figurative-dal-territorio-tra-xiv-e-xix-secolo_e_309613?destination=&amp;submitted=1&amp;startdate=03%2F12%2F2019&amp;category%5B0%5D=&amp;enddate=15%2F12%2F2019&amp;device=desktop&amp;mode=grid&amp;page=6&amp;ajax=1</t>
   </si>
   <si>
     <t>Il Magnifico Mercatino</t>
   </si>
   <si>
-    <t>Periodo ,01/12/2019 - 06/01/2020</t>
-  </si>
-  <si>
-    <t>Località ,Cavalese</t>
+    <t>01/12/2019-06/01/2020</t>
+  </si>
+  <si>
+    <t>Cavalese</t>
   </si>
   <si>
     <t>Il Magnifico Mercatino ,La prima neve permette di assaporare l’atmosfera prenatalizia creata da musica, zelten, vin brulé e spumante Trentodoc ,2 altre immagini ,Periodo ,01/12/2019 - 06/01/2020 ,Località ,Cavalese ,Tipologia ,Intrattenimento della Località, Mercati e mercatini ,MAGNIFICO MERCATINO DI NATALE ,Si chiama Magnifico, non solo per una ragione squisitamente estetica, ma anche perché incornicia l’antico Palazzo della Magnifica Comunità di Fiemme. Nel Magnifico Mercatino di Natale, a Cavalese, si passeggia in un giardino incantato, illuminato dalle candele e animato da spettacoli, laboratori d’arte e weekend tematici che riscoprono antiche tradizioni come le lavorazioni di lana, legno, erbe e miele, ma anche le danze popolari, i krampus e i costumi d’epoca. ,Le romantiche casette invitano a curiosare tra pantofole di lana cotta, cose di casa dal sapore antico, creazioni artistiche di legno, vetro e rame, vasi di ceramica con manici di legno, strudel, spiedini caramellati, waffel, succhi di mela e di mirtillo, e tentazioni della tradizione. ,GIORNI DI APERTURA ,30 novembre ore 17.00: inaugurazione ,29 novembre - 1 dicembre: 10.30-19.30 ,5-8 dicembre: 10.30-19.30 ,13-15 dicembre: 10.30-19.30 ,20 dicembre - 6 gennaio: 10.30-19.30. Chiuso il 25 dicembre, 1 gennaio apertura ad ore 15.00</t>
@@ -4853,16 +4748,13 @@
     <t>La prima neve permette di assaporare l’atmosfera prenatalizia creata da musica, zelten, vin brulé e spumante Trentodoc</t>
   </si>
   <si>
-    <t>https://www.visittrentino.info/it/guida/eventi/il-magnifico-mercatino_e_311716?destination=&amp;submitted=1&amp;startdate=29%2F11%2F2019&amp;category%5B0%5D=&amp;enddate=15%2F12%2F2019&amp;device=desktop&amp;mode=grid&amp;page=6&amp;ajax=1</t>
+    <t>https://www.visittrentino.info/it/guida/eventi/il-magnifico-mercatino_e_311716?destination=&amp;submitted=1&amp;startdate=03%2F12%2F2019&amp;category%5B0%5D=&amp;enddate=15%2F12%2F2019&amp;device=desktop&amp;mode=grid&amp;page=6&amp;ajax=1</t>
   </si>
   <si>
     <t>11ª Edizione - Mostra di Presepi Napoletani</t>
   </si>
   <si>
-    <t>Periodo ,08/12/2019 - 06/01/2020</t>
-  </si>
-  <si>
-    <t>h. 10.30&gt;12.00 / 15.30&gt;18.00</t>
+    <t>08/12/2019-06/01/2020</t>
   </si>
   <si>
     <t>11ª Edizione - Mostra di Presepi Napoletani ,Presepi realizzati secondo antica e collaudata tradizione, con materiali naturali come sughero, legno, terracotta e cere ,Periodo ,08/12/2019 - 06/01/2020 ,Località ,Riva del Garda ,Tipologia ,Intrattenimento della Località ,Si inaugura sabato 8 dicembre a partire dalle ore 16 l'11ª edizione della mostra di presepi napoletani organizzata dall'associazione Amici del Trentino. All'ex cinema Roma in viale Dante tutti i weekend e festivi dalle 10.30 alle 12 e dalle 15.30 alle 18 fino al 6 gennaio si potranno ammirare i celebri presepi realizzati secondo l'antica tradizione napoletana, con materiali naturali come sughero, legno, vetro, terracotta e cere. Ingresso libero. ,Il presepe napoletano si presenta come una fotografia della Napoli del Settecento: accanto ai pastori, i primi a ricevere l'Annuncio, ci sono una moltitudine di personaggi di tutte le classi sociali. Si tratta di una delle tradizioni natalizie più consolidate e seguite, rimasta inalterata per secoli. Il primo presepe a Napoli di cui si trovi notizia nei documenti è nella chiesa di Santa Maria del presepe, nel 1025. Il periodo d'oro è nel Settecento, quando nobili e ricchi borghesi fanno a gara nell'allestire impianti scenografici sempre più ricercati. Ma l'antica tradizione è ancora oggi viva e amata. ,Oltre alla valenza tipica delle esposizioni di presepi, la mostra -organizzata dall'associazione socioculturale e ricreativa Amici del Trentino- vuole aggiungere una finalità di sensibilizzazione sui temi della pace, dell'integrazione e della convivenza di culture diverse.</t>
@@ -4874,13 +4766,13 @@
     <t>Presepi realizzati secondo antica e collaudata tradizione, con materiali naturali come sughero, legno, terracotta e cere</t>
   </si>
   <si>
-    <t>https://www.visittrentino.info/it/guida/eventi/11a-edizione-mostra-di-presepi-napoletani_e_318168?destination=&amp;submitted=1&amp;startdate=29%2F11%2F2019&amp;category%5B0%5D=&amp;enddate=15%2F12%2F2019&amp;device=desktop&amp;mode=grid&amp;page=6&amp;ajax=1</t>
+    <t>https://www.visittrentino.info/it/guida/eventi/11a-edizione-mostra-di-presepi-napoletani_e_318168?destination=&amp;submitted=1&amp;startdate=03%2F12%2F2019&amp;category%5B0%5D=&amp;enddate=15%2F12%2F2019&amp;device=desktop&amp;mode=grid&amp;page=6&amp;ajax=1</t>
   </si>
   <si>
     <t>La Valle dei Presepi</t>
   </si>
   <si>
-    <t>Località ,Rabbi</t>
+    <t>Rabbi</t>
   </si>
   <si>
     <t>La Valle dei Presepi ,Suggestivo percorso di presepi con personaggi a grandezza naturale che interpretano i vecchi mestieri ,22 altre immagini ,Periodo ,08/12/2019 - 06/01/2020 ,Località ,Rabbi ,Tipologia ,Feste e Sagre ,VAL DI RABBI «LA VALLE DEI PRESEPI» ,Nel cuore del Parco Nazionale dello Stelvio un suggestivo percorso che conduce alla Natività, ambientata in un tipico «maso». Partendo da Pracorno, il primo paese della Val di Rabbi, segui la stella che ti conduce a visitare tutti i presepi fatti a mano dagli abitanti della valle, fino a Piazzola, dove ha luogo la Natività. Il presepe è animato da PERSONAGGI A GRANDEZZA NATURALE creati da artigiani e artisti locali, che interpretano i vecchi mestieri della realtà contadina: il taglio della legna, la raccolta dell’acqua, il calzolaio, il pascolo... La Val di Rabbi si tinge di magia e si trasforma nella VALLE DEI PRESEPI. Ricordati di ritirare presso l'Ufficio Turistico di San Bernardo la mappa dei presepi e se riesci a scoprirli tutti, riceverai un fantastico gadget. ,Particolarmente suggestiva è la visita durante le ore serali lungo i percorsi illuminati. ,L'appuntamento è quindi da DOMENICA 8 DICEMBRE A LUNEDÌ 6 GENNAIO. ,Ritira presso l'ufficio informazioni di Rabbi la mappa dei presepi, visita i presepi che preferisci e scatta almeno dieci foto di presepi (sparsi in tutta la valle), condividile sui social usando gli #valdirabbi, #lavalledeipresepi e passa in ufficio a ritirare il tuo gadget! ,ORGANIZZA ,Comune di Rabbi in collaborazione con Rabbi Vacanze</t>
@@ -4892,19 +4784,19 @@
     <t>Suggestivo percorso di presepi con personaggi a grandezza naturale che interpretano i vecchi mestieri</t>
   </si>
   <si>
-    <t>https://www.visittrentino.info/it/guida/eventi/la-valle-dei-presepi_e_390191?destination=&amp;submitted=1&amp;startdate=29%2F11%2F2019&amp;category%5B0%5D=&amp;enddate=15%2F12%2F2019&amp;device=desktop&amp;mode=grid&amp;page=6&amp;ajax=1</t>
-  </si>
-  <si>
-    <t>Tipologia ,Mercati e mercatini, Intrattenimento della Località</t>
+    <t>https://www.visittrentino.info/it/guida/eventi/la-valle-dei-presepi_e_390191?destination=&amp;submitted=1&amp;startdate=03%2F12%2F2019&amp;category%5B0%5D=&amp;enddate=15%2F12%2F2019&amp;device=desktop&amp;mode=grid&amp;page=6&amp;ajax=1</t>
+  </si>
+  <si>
+    <t>Mercati e mercatini, Intrattenimento della Località</t>
   </si>
   <si>
     <t>Villaggio sotto l'albero</t>
   </si>
   <si>
-    <t>Periodo ,06/12/2019 - 06/01/2020</t>
-  </si>
-  <si>
-    <t>Località ,Predazzo</t>
+    <t>06/12/2019-06/01/2020</t>
+  </si>
+  <si>
+    <t>Predazzo</t>
   </si>
   <si>
     <t>Villaggio sotto l'albero ,Predazzo accende il Villaggio sotto l’Albero con i suoi falò, le casette gastronomiche, le bevande calde, la musica, le fiaccolate… ,1 altre immagini ,Periodo ,06/12/2019 - 06/01/2020 ,Località ,Predazzo ,Tipologia ,Mercati e mercatini, Intrattenimento della Località ,A Predazzo l’atmosfera natalizia si vive e si respira nel Villaggio sotto l’Albero. ,Passeggiare in un piccolo villaggio di montagna costituito da tipiche casette in legno illuminate e decorate a festa, al limitare di un boschetto di abeti profumati, sotto il maestoso abete natalizio che ogni anno splende in piazza durante le festività: in questo accogliente mercatino potrete trovare simpatici oggetti della tradizione e prodotti tipici della gastronomia locale da portare a casa come ricordi di una piacevole vacanza sulla neve. ,Potrete riscaldarvi tra i falò che ogni pomeriggio vengono accesi in un'atmosfera unica ed accogliente, intrattenervi con gli amici sorseggiando un fumante vin brulé o una gustosa cioccolata calda. È un’occasione per incontrare vecchi amici, fare nuove conoscenze o, semplicemente, ritrovare il piacere di stare insieme. ,Le casette vi aspettano dalle 16 alle 19 nei giorni: ,da venerdì 6 a domenica 8 dicembre; ,da sabato 14 a domenica 15 dicembre; ,da sabato 21 a domenica 22 dicembre; ,da giovedì 26 dicembre a domenica 6 gennaio</t>
@@ -4916,18 +4808,15 @@
     <t>Predazzo accende il Villaggio sotto l’Albero con i suoi falò, le casette gastronomiche, le bevande calde, la musica, le fiaccolate…</t>
   </si>
   <si>
-    <t>https://www.visittrentino.info/it/guida/eventi/villaggio-sotto-l-albero_e_674557?destination=&amp;submitted=1&amp;startdate=29%2F11%2F2019&amp;category%5B0%5D=&amp;enddate=15%2F12%2F2019&amp;device=desktop&amp;mode=grid&amp;page=6&amp;ajax=1</t>
+    <t>https://www.visittrentino.info/it/guida/eventi/villaggio-sotto-l-albero_e_674557?destination=&amp;submitted=1&amp;startdate=03%2F12%2F2019&amp;category%5B0%5D=&amp;enddate=15%2F12%2F2019&amp;device=desktop&amp;mode=grid&amp;page=6&amp;ajax=1</t>
+  </si>
+  <si>
+    <t>Cultural--Mercati e mercatini, Intrattenimento della Località</t>
   </si>
   <si>
     <t>Di Gusto in Gusto</t>
   </si>
   <si>
-    <t>Periodo ,16/11/2019 - 06/01/2020</t>
-  </si>
-  <si>
-    <t>h. 10.00 &gt; 21.00 / 31 dicembre h. 10.00 &gt; 2.00</t>
-  </si>
-  <si>
     <t>Di Gusto in Gusto ,Scoprite e degustate le migliori eccellenze del territorio coccolati da una inconfondibile e magica atmosfera natalizia ,4 altre immagini ,Periodo ,16/11/2019 - 06/01/2020 ,Località ,Riva del Garda ,Tipologia ,Intrattenimento della Località ,Il Natale a Riva del Garda si colora di profumi e sapori tipicamente trentini con "Di Gusto in Gusto", un percorso dove si potranno scoprire, degustare ed acquistare le migliori eccellenze del territorio coccolati da una inconfondibile e magica atmosfera natalizia. ,Un ambiente incantato, che farà sognare all’unisono grandi e piccini, perfetto per celebrare le festività in famiglia. ,PROGRAMMA DI GUSTO IN GUSTO ,MUOVITI CON XMAS BUS</t>
   </si>
   <si>
@@ -4937,16 +4826,16 @@
     <t>Scoprite e degustate le migliori eccellenze del territorio coccolati da una inconfondibile e magica atmosfera natalizia</t>
   </si>
   <si>
-    <t>https://www.visittrentino.info/it/guida/eventi/di-gusto-in-gusto_e_731961?destination=&amp;submitted=1&amp;startdate=29%2F11%2F2019&amp;category%5B0%5D=&amp;enddate=15%2F12%2F2019&amp;device=desktop&amp;mode=grid&amp;page=6&amp;ajax=1</t>
+    <t>https://www.visittrentino.info/it/guida/eventi/di-gusto-in-gusto_e_731961?destination=&amp;submitted=1&amp;startdate=03%2F12%2F2019&amp;category%5B0%5D=&amp;enddate=15%2F12%2F2019&amp;device=desktop&amp;mode=grid&amp;page=6&amp;ajax=1</t>
   </si>
   <si>
     <t>Presepi ai piedi del Castello</t>
   </si>
   <si>
-    <t>Periodo ,15/11/2019 - 06/01/2020</t>
-  </si>
-  <si>
-    <t>h. 10.00 &gt; 21.00</t>
+    <t>15/11/2019-06/01/2020</t>
+  </si>
+  <si>
+    <t>10.00-21.00</t>
   </si>
   <si>
     <t>Presepi ai piedi del Castello ,I vicoli, le viuzze e gli avvolti del borgo medioevale di Stranfora ospitano numerosi presepi realizzati con stili e materiali diversi ,2 altre immagini ,Periodo ,15/11/2019 - 06/01/2020 ,Località ,Arco ,Tipologia ,Intrattenimento della Località ,Grazie alla collaborazione del Comitato San Bernardino i vicoli, le viuzze e gli avvolti del borgo medioevale di Stranfora ospitano numerosi presepi realizzati con stili e materiali diversi. ,Un percorso emozionante, creato dal Comitato e dagli abitanti del rione in cui si respira la classica atmosfera natalizia.</t>
@@ -4958,15 +4847,12 @@
     <t>I vicoli, le viuzze e gli avvolti del borgo medioevale di Stranfora ospitano numerosi presepi realizzati con stili e materiali diversi</t>
   </si>
   <si>
-    <t>https://www.visittrentino.info/it/guida/eventi/presepi-ai-piedi-del-castello_e_791395?destination=&amp;submitted=1&amp;startdate=29%2F11%2F2019&amp;category%5B0%5D=&amp;enddate=15%2F12%2F2019&amp;device=desktop&amp;mode=grid&amp;page=6&amp;ajax=1</t>
+    <t>https://www.visittrentino.info/it/guida/eventi/presepi-ai-piedi-del-castello_e_791395?destination=&amp;submitted=1&amp;startdate=03%2F12%2F2019&amp;category%5B0%5D=&amp;enddate=15%2F12%2F2019&amp;device=desktop&amp;mode=grid&amp;page=6&amp;ajax=1</t>
   </si>
   <si>
     <t>Fattoria degli Animali</t>
   </si>
   <si>
-    <t>h. 10.00 &gt; 19.00 (31 dicembre 10.00&gt;15.00)</t>
-  </si>
-  <si>
     <t>Fattoria degli Animali ,Tanti animali pronti a farsi coccolare! ,1 altre immagini ,Periodo ,16/11/2019 - 06/01/2020 ,Località ,Arco ,Tipologia ,Intrattenimento della Località ,Non sarebbe Natale se non ci fossero gli animali della fattoria. Protagonisti di ieri e protagonisti di oggi. All'interno del Mercatino di Natale di Arco verrà adibita una piccola ma fornita fattoria dove grandi e piccini potranno ammirare da vicino i diversi animali. Asini, cavalli, galline, pecore e caprette e molto altro ancora. Un luogo caldo, che riporta ai tempi andati, agli antichi fasti in cui la stalla era il centro del ritrovo, dove ci si incontrava verso sera per fare il filò, quattro chiacchiere in allegria. Nella stalla, sdraiati sul fieno ci si raccontavano le avventure delle proprie giornate lavorative. La stalla, uno dei simboli del Natale, sarà elemento centrale del Mercatino natalizio di Arco, un luogo dove tutti potranno trovarsi, giocare con gli animali e fare quattro chiacchiere in amicizia.</t>
   </si>
   <si>
@@ -4976,13 +4862,13 @@
     <t>Tanti animali pronti a farsi coccolare!</t>
   </si>
   <si>
-    <t>https://www.visittrentino.info/it/guida/eventi/fattoria-degli-animali_e_795094?destination=&amp;submitted=1&amp;startdate=29%2F11%2F2019&amp;category%5B0%5D=&amp;enddate=15%2F12%2F2019&amp;device=desktop&amp;mode=grid&amp;page=6&amp;ajax=1</t>
+    <t>https://www.visittrentino.info/it/guida/eventi/fattoria-degli-animali_e_795094?destination=&amp;submitted=1&amp;startdate=03%2F12%2F2019&amp;category%5B0%5D=&amp;enddate=15%2F12%2F2019&amp;device=desktop&amp;mode=grid&amp;page=6&amp;ajax=1</t>
   </si>
   <si>
     <t>Op-op Somarello</t>
   </si>
   <si>
-    <t>h. 11.00 &gt; 19.00</t>
+    <t>11.00-19.00</t>
   </si>
   <si>
     <t>Op-op Somarello ,Passeggiata con gli asinelli ,1 altre immagini ,Periodo ,16/11/2019 - 06/01/2020 ,Località ,Arco ,Tipologia ,Intrattenimento della Località ,Tornano gli asinelli al Mercatino di Natale di Arco che con tutte le loro cure e il loro amore verso i più piccoli sapranno regalare splendide emozioni. ,La Bibbia ci racconta dell’intelligenza, dolcezza e umiltà dell’asino. Fu proprio questo animale uno dei pochi testimoni della nascita di Gesù e da Gesù venne cavalcato in occasione del suo ingresso a Gerusalemme. Una passeggiata nei giardini di Arco e tra le bancarelle a stretto contatto con uno degli animali più intelligenti e sociali, che nell'uomo, grande o piccolo che sia, vede un amico fidato e inseparabile, un sostegno reciproco e una grande amico. Camminare in compagnia di un asino ci riporta ai sapori antichi, a paesaggi rurali e atmosfere d'altri tempi. Momenti intimi ed emozionanti dell’atmosfera natalizia, dove ci si riunisce con le proprie famiglie, dove ci si trova per stare insieme, per unirsi e stare vicini. L'asino è un’animale speciale che ha molto da insegnare alle nostre vite frenetiche. Il tutto contornato dalla magia del Natale e dai suoni, dalle luci e dai colori del nostro Mercatino di Natale.</t>
@@ -4994,22 +4880,43 @@
     <t>Passeggiata con gli asinelli</t>
   </si>
   <si>
-    <t>https://www.visittrentino.info/it/guida/eventi/op-op-somarello_e_811091?destination=&amp;submitted=1&amp;startdate=29%2F11%2F2019&amp;category%5B0%5D=&amp;enddate=15%2F12%2F2019&amp;device=desktop&amp;mode=grid&amp;page=6&amp;ajax=1</t>
-  </si>
-  <si>
-    <t>Tipologia ,Mercati e mercatini, Altro</t>
+    <t>https://www.visittrentino.info/it/guida/eventi/op-op-somarello_e_811091?destination=&amp;submitted=1&amp;startdate=03%2F12%2F2019&amp;category%5B0%5D=&amp;enddate=15%2F12%2F2019&amp;device=desktop&amp;mode=grid&amp;page=6&amp;ajax=1</t>
+  </si>
+  <si>
+    <t>Feste e Sagre, Folklore, Intrattenimento della Località, Mercati e mercatini</t>
+  </si>
+  <si>
+    <t>NATALE... IN TUTTI I SENSI</t>
+  </si>
+  <si>
+    <t>Fondo</t>
+  </si>
+  <si>
+    <t>NATALE... IN TUTTI I SENSI ,Un'alternativa ai classici mercatini di Natale dove il protagonista della festa sei tu! ,1 altre immagini ,Periodo ,07/12/2019 - 06/01/2020 ,Località ,Fondo ,Tipologia ,Feste e Sagre, Folklore, Intrattenimento della Località, Mercati e mercatini ,“Natale in tutti i sensi” è più di un mercatino. È una vera e propria immersione nella magia che questa festività sa regalarci. La borgata di Fondo, in Alta Val di Non, si trasformerà in un villaggio mercato dall’atmosfera intima e suggestiva, da godere con tutti e cinque i sensi. ,Ascolta le canzoni di Natale, tocca con mano le realizzazioni degli artigiani locali, annusa e gusta i sapori della tradizione e ammira il borgo vestito a festa. ,L’offerta è variegata e le attività sono molteplici: stand enogastronomici, prodotti da acquistare, presepe vivente, laboratori. Proposte ad hoc anche per i piccoli ospiti: fiabe, musica, giochi, racconti, giri sui pony o passeggiate in carrozza. ,Scopri tutti gli appuntamenti di Natale in tutti i Sensi su www.visitvaldinon.it</t>
+  </si>
+  <si>
+    <t>[{"name": "0463 830180", "url": "tel:0463%20830180"}, {"name": "Invia E-mail", "url": "https://www.visittrentino.info/it/guida/contatto?mailto=novella@ciaspolada.it&amp;originUrl=/it/guida/eventi/natale.in-tutti-i-sensi_e_838932&amp;origin=NATALE...%20IN%20TUTTI%20I%20SENSI"}]</t>
+  </si>
+  <si>
+    <t>Un'alternativa ai classici mercatini di Natale dove il protagonista della festa sei tu!</t>
+  </si>
+  <si>
+    <t>https://www.visittrentino.info/it/guida/eventi/natale.in-tutti-i-sensi_e_838932?destination=&amp;submitted=1&amp;startdate=03%2F12%2F2019&amp;category%5B0%5D=&amp;enddate=15%2F12%2F2019&amp;device=desktop&amp;mode=grid&amp;page=6&amp;ajax=1</t>
+  </si>
+  <si>
+    <t>Cultural--Feste e Sagre, Folklore, Intrattenimento della Località, Mercati e mercatini</t>
+  </si>
+  <si>
+    <t>Mercati e mercatini, Altro</t>
   </si>
   <si>
     <t>Mercatino di Natale dei Canopi</t>
   </si>
   <si>
-    <t>Periodo ,09/11/2019 - 06/01/2020</t>
-  </si>
-  <si>
-    <t>Località ,Pergine Valsugana</t>
-  </si>
-  <si>
-    <t>Mercatino di Natale dei Canopi ,Pergine Valsugana, dal 9 novembre 2019 al 6 gennaio 2020 ,Periodo ,09/11/2019 - 06/01/2020 ,Località ,Pergine Valsugana ,Tipologia ,Mercati e mercatini, Altro ,MERCATINO DI NATALE DEI CANOPI - 10° anniversario ,Pergine Valsugana dal 9 novembre 2019 al 6 gennaio 2020 ,Pergine Valsugana dal 9 novembre celebrerà la leggenda di minatori, gnomi e dame, che nel periodo dell’Avvento scendevano a Valle per offrire eventi unici e straordinari… ,La città verrà addobbata non solo con luci colori e forme “a tema”, ma tra le casette si potranno trovare prodotti tipici e spazi dedicati alla gastronomia locale, oltre a prodotti solidali. ,Il Mercatino di Natale dei Canopi è un mercatino unico, a tema minerario, e dove soprattutto quest’anno, nel suo decimo anniversario, i bambini saranno i protagonisti. ,Avranno spazi in cui liberare la propria fantasia tra miniere, gnomi e boschetti dove si potranno trovare dei personaggi magici… e se avranno fortuna si imbatteranno nei Canopi in carne ed ossa (i Minatori della zona), in tanti gnometti col cappello rosso tutti piccini piccini, nella Dama Bianca scesa appositamente dal Castello di Pergine, nei Perchten di Amstetten (i Krampus buoni, adatti ai bambini), in San Nicolò e l’Angelo suo aiutante, nella Befana Scalatrice che scenderà dall’alto del palazzo più importante della città… e così avranno la possibilità di avere esperienze uniche! ,Bambini, vi aspettiamo al Mercatino dei Canopi! ,CALENDARIO APERTURE: ,NOVEMBRE: 30 ,DICEMBRE: 1-6- 7-8-14-15-21-22-23-24-26-27-28-29-30-31 ,GENNAIO: 1-4-5-6 ,Orario Casette: dalle 10 alle 19 ,(giovedì 26 dicembre e mercoledì 1 gennaio dalle 14 alle 19, lunedì 6 gennaio dalle 10 alle 18) ,Orario Casette Ristorazione: dalle 10 alle 22 ,(tranne sabato 7 dicembre fino alle ore 23, martedì 31 dicembre fino alle ore 01 e lunedì 6 gennaio fino alle 18) ,PROGRAMMA COMPLETO ,30 novembre: ,Perzenland &amp; i Perchten di Amstetten (Krampus buoni dall’Austria) ,Mattino: banda degli ottoni di Amstetten ,Pomeriggio: spettacolo dei Krampus buoni assieme a St. Nikolaus e all’angelo ,Dalle 10.30 alle 14: laboratori a tema “Disegniamo i Krampus” presso la Stanza dei Canopi – a cura di Sara Arcobaleno ,Dalle 14.30 alle 17.30: laboratori per bambini a cura del Centro Famiglie Valsugana in Vicolo delle Garberie ,1 dicembre: ,Perzenland &amp; i Perchten di Amstetten (Krampus buoni dall’Austria) ,Mattino: banda degli ottoni di Amstetten ,Pomeriggio: spettacolo dei Krampus buoni assieme a St. Nikolaus e all’angelo ,Ore 19: momento musicale con le fisarmoniche in piazza Fruet (piazzetta del Gusto) ,Dalle 10.30 alle 14: laboratori a tema “L’angelo…” presso la Stanza dei Canopi – a cura di Sara Arcobaleno ,Dalle 14.30 alle 17.30: laboratori per bambini a cura del Centro Famiglie Valsugana in Vicolo delle Garberie ,6 Dicembre: ,Laboratori a tema presso la Stanza dei Canopi – a cura di Sara Arcobaleno ,7 Dicembre: ,Feuernacht – la notte dei fuochi. ,Ore 18: grande spettacolo col fuoco “Sparkle fire show” suggestivo spettacolo col fuoco dal forte impatto scenico, prodotto e messo in scena dal gruppo “Toi Ahi”, rappresentato pochissime volte in Italia. ,Dalle 15 alle 18: le tre cipolle. Musici e zampognari medievali itineranti ,Pomeriggio: Gino Lunz e accensione di una sua opera in legno ,Dalle 10.30 alle 14: laboratori a tema “Fantasie decorative” presso la Stanza dei Canopi – a cura di Sara Arcobaleno ,Dalle 14.30 alle 17.30: laboratori per bambini a cura del Centro Famiglie Valsugana in Vicolo delle Garberie ,8 Dicembre: ,Feuernacht – la notte dei fuochi. ,Pomeriggio. spettacolo di Mangiafuoco e giochi con il fuoco. ,Pomeriggio. Gino Lunz e accensione di una sua opera in legno. ,Ore 20 momento musicale Ostello California in piazza Fruet (piazzetta del gusto) ,Laboratori per bambini a cura del centro Famiglie Valsugana (vicolo delle Garberie) dalle 14.30 alle 17.30 ,Stanza dei canopi – laboratori a tema “Deco gnomi e mangiafuoco per panettone” – a cura di Sara Arcobaleno dalle 10.30 alle 14 ,14 Dicembre: ,Week End Pietra Viva ,Laboratori per bambini con i gemelli Pallaoro, alla ricerca di fossili e pietre preziose. In piazza Serra – sala Maier ,In piazza Municipio: esposizione di trenini a cura del Model Club Pergine ,Dalle 10.30 alle 14: laboratori a tema “I dinosauri” presso la Stanza dei Canopi – a cura di Sara Arcobaleno ,Dalle 14.30 alle 17.30: laboratori per bambini a cura del Centro Famiglie Valsugana in Vicolo delle Garberie ,15 Dicembre: ,Week End Pietra Viva ,Laboratori per bambini con i gemelli Pallaoro, alla ricerca di fossili e pietre preziose. In piazza Serra – sala Maier ,Arrivo della Carrozza Matta e momento musicale a cura della Bifolk Band ,Dalle 10.30 alle 14: laboratori a tema “La Carrozza Matta” presso la Stanza dei Canopi – a cura di Sara Arcobaleno ,Dalle 14.30 alle 17.30: laboratori per bambini a cura del Centro Famiglie Valsugana in Vicolo delle Garberie ,Ore 20: momento musicale con Lidia Piccoli in piazza Fruet (piazzetta del Gusto) ,21 Dicembre: ,Coro gospel in piazza Municipio “Greensleeves Gospel Choir”, magnifico coro gospel molto rinomato e con voci pazzesche, diretto da Fausto Caravati ,Babbo Natale sulla slitta con la renna Sven in piazza Municipio e consegna delle letterine ,Dalle 10.30 alle 14: laboratori a tema “La renna” presso la Stanza dei Canopi – a cura di Sara Arcobaleno ,Dalle 14.30 alle 17.30: laboratori per bambini a cura del Centro Famiglie Valsugana in Vicolo delle Garberie ,22 Dicembre: ,Una giornata con i Madonnari ed i loro gessetti ,Laboratori per bambini in piazza Municipio con disegni ad immagini sacre: trasformeranno una porzione di suolo in un piccolo capolavoro d’arte! ,Babbo Natale sulla slitta con la renna Sven in piazza Municipio e consegna delle letterine ,Dalle 10.30 alle 14: laboratori a tema “Omino di Pan di Zenzero” presso la Stanza dei Canopi – a cura di Sara Arcobaleno ,Dalle 14.30 alle 17.30: laboratori per bambini a cura del Centro Famiglie Valsugana in Vicolo delle Garberie ,Ore 20: Mauro Borgogno live in piazza Municipio ,23 Dicembre: ,Dog Comedy Show ,Dalle 16 alle 18: il clown Molletta vestito da elfo ed il suo fedele cane Freccia in piazza municipio ,Babbo Natale sulla slitta con la renna Sven in piazza Municipio e consegna delle letterine ,Dalle 10.30 alle 14: laboratori a tema presso la Stanza dei Canopi – a cura di Sara Arcobaleno ,24 Dicembre: ,Lanternata magica di Natale, con Sara Arcobaleno, accompagnata da musicisti itineranti ,Dalle 14.15 alle 16.15: realizzazione lanterne. ,Partenza da piazza Gavazzi con i bambini, ore 16.30, vie del centro storico con le lanterne, visita alla mostra dei minerali, visita alla mini miniera e arrivo in piazza Municipio da Babbo Natale e la renna Sven ,Babbo Natale sulla slitta con la renna Sven in piazza Municipio e consegna delle letterine ,Laboratori a tema "lanternata magica di natale e decorazione lanternine presso la Stanza dei Canopi – a cura di Sara Arcobaleno ,26 Dicembre: ,Dalle 10 alle 12: il corno delle Alpi ,Dalle 15 alle 18: Fantasy Fest. Siete pronti per entrare in un magico mondo? Troverete personaggi di un universo fantastico e fantasy ,Dalle 14 alle 17: laboratori a tema presso la Stanza dei Canopi – a cura di Sara Arcobaleno ,27 Dicembre: ,Dalle 15 alle 18: Fantasy Fest. Siete pronti per entrare in un magico mondo? Troverete personaggi di un universo fantastico e fantasy ,Dalle 14 alle 17: laboratori a tema presso la Stanza dei Canopi – a cura di Sara Arcobaleno ,28 DICEMBRE: ,Dalle 10 alle 12: il corno delle Alpi ,Pomeriggio: la sfilata dei Canopi (minatori ) e racconti della vita in miniera ,Dalle 14 alle 17: laboratori a tema "Disegna lo gnomo" presso la Stanza dei Canopi – a cura di Sara Arcobaleno ,29 Dicembre: ,Dalle 10 alle 12: il corno delle Alpi ,Pomeriggio: la sfilata dei Canopi (minatori ) e racconti della vita in miniera ,Dalle 14 alle 17: laboratori a tema "Gnomo su molletta" presso la Stanza dei Canopi – a cura di Sara Arcobaleno ,30 Dicembre: ,Animazione per bambini a cura di "Oltre la festa" nella mini miniera ,31 Dicembre: ,Dalle 21 alle 01: il capodanno dei minatori a Pergine – con Dj Chris ,Dalle ore 17 in poi in piazza municipio: capodanno per i bambini, “il palloncino dei desideri”. Con sara arcobaleno esprimi un desiderio e fallo volare in cielo. ,Dalle 14 alle 16.30: laboratori a tema "Biglietti di auguri" presso la Stanza dei Canopi – a cura di Sara Arcobaleno ,1 Gennaio: ,Ore 17: degustazione in piazza del Rumtopf dei Canopi ,Dalle 14 alle 17: laboratori a tema "Biglietti di auguri" presso la Stanza dei Canopi – a cura di Sara Arcobaleno ,4 Gennaio: ,Dalle 10 alle 11.30 e dalle 15.30 alle 16.30: caccia allo gnomo, a cura di Sara Arcobaleno con partenza dalla Stanza dei Canopi. Siete pronti bambini per questa caccia al tesoro particolare? Sara Arcobaleno vi darà alcuni indizi…ma poi sarete voi a dover trovare lo gnomo! ,5 Gennaio: ,Dalle 14 alle 17: laboratori a tema presso la Stanza dei Canopi – a cura di Sara Arcobaleno ,6 Gennaio: ,Dalle ore 17: arriva la Befana! Un arrivo magico per tutti i bambini, da dove arriverà?? E chi avrà con sè? Scopritelo insieme a noi ,Pomeriggio: la polenta e formaggio degli alpini ,Consegna delle chiavi di Perzenland all’associazione “NOI oratori” per il carnevale 2020 ,Dalle 14 alle 17: laboratori a tema "Arriva la Befana" presso la Stanza dei Canopi – a cura di Sara Arcobaleno ,#DiconoDiNoi ,Leggi l'esperienza di viaggiologi.it ai Mercatini di Natale di Pergine e i racconti degli altri blogger ,Tutte le prossime manifestazioni a Pergine Valsugana (in continuo aggiornamento)</t>
+    <t>Pergine Valsugana</t>
+  </si>
+  <si>
+    <t>Mercatino di Natale dei Canopi ,Pergine Valsugana, dal 9 novembre 2019 al 6 gennaio 2020 ,Periodo ,09/11/2019 - 06/01/2020 ,Località ,Pergine Valsugana ,Tipologia ,Mercati e mercatini, Altro ,MERCATINO DI NATALE DEI CANOPI - 10° anniversario ,Pergine Valsugana dal 9 novembre 2019 al 6 gennaio 2020 ,Pergine Valsugana dal 9 novembre celebrerà la leggenda di minatori, gnomi e dame, che nel periodo dell’Avvento scendevano a Valle per offrire eventi unici e straordinari… ,La città verrà addobbata non solo con luci colori e forme “a tema”, ma tra le casette si potranno trovare prodotti tipici e spazi dedicati alla gastronomia locale, oltre a prodotti solidali. ,Il Mercatino di Natale dei Canopi è un mercatino unico, a tema minerario, e dove soprattutto quest’anno, nel suo decimo anniversario, i bambini saranno i protagonisti. ,Avranno spazi in cui liberare la propria fantasia tra miniere, gnomi e boschetti dove si potranno trovare dei personaggi magici… e se avranno fortuna si imbatteranno nei Canopi in carne ed ossa (i Minatori della zona), in tanti gnometti col cappello rosso tutti piccini piccini, nella Dama Bianca scesa appositamente dal Castello di Pergine, nei Perchten di Amstetten (i Krampus buoni, adatti ai bambini), in San Nicolò e l’Angelo suo aiutante, nella Befana Scalatrice che scenderà dall’alto del palazzo più importante della città… e così avranno la possibilità di avere esperienze uniche! ,Bambini, vi aspettiamo al Mercatino dei Canopi! ,CALENDARIO APERTURE: ,DICEMBRE: 6- 7-8-14-15-21-22-23-24-26-27-28-29-30-31 ,GENNAIO: 1-4-5-6 ,Orario Casette: dalle 10 alle 19 ,(giovedì 26 dicembre e mercoledì 1 gennaio dalle 14 alle 19, lunedì 6 gennaio dalle 10 alle 18) ,Orario Casette Ristorazione: dalle 10 alle 22 ,(tranne sabato 7 dicembre fino alle ore 23, martedì 31 dicembre fino alle ore 01 e lunedì 6 gennaio fino alle 18) ,PROGRAMMA COMPLETO ,6 Dicembre: ,Laboratori a tema presso la Stanza dei Canopi – a cura di Sara Arcobaleno ,7 Dicembre: ,Feuernacht – la notte dei fuochi. ,Ore 18: grande spettacolo col fuoco “Sparkle fire show” suggestivo spettacolo col fuoco dal forte impatto scenico, prodotto e messo in scena dal gruppo “Toi Ahi”, rappresentato pochissime volte in Italia. ,Dalle 15 alle 18: le tre cipolle. Musici e zampognari medievali itineranti ,Pomeriggio: Gino Lunz e accensione di una sua opera in legno ,Dalle 10.30 alle 14: laboratori a tema “Fantasie decorative” presso la Stanza dei Canopi – a cura di Sara Arcobaleno ,Dalle 14.30 alle 17.30: laboratori per bambini a cura del Centro Famiglie Valsugana in Vicolo delle Garberie ,8 Dicembre: ,Feuernacht – la notte dei fuochi. ,Pomeriggio. spettacolo di Mangiafuoco e giochi con il fuoco. ,Pomeriggio. Gino Lunz e accensione di una sua opera in legno. ,Ore 20 momento musicale Ostello California in piazza Fruet (piazzetta del gusto) ,Laboratori per bambini a cura del centro Famiglie Valsugana (vicolo delle Garberie) dalle 14.30 alle 17.30 ,Stanza dei canopi – laboratori a tema “Deco gnomi e mangiafuoco per panettone” – a cura di Sara Arcobaleno dalle 10.30 alle 14 ,14 Dicembre: ,Week End Pietra Viva ,Laboratori per bambini con i gemelli Pallaoro, alla ricerca di fossili e pietre preziose. In piazza Serra – sala Maier ,In piazza Municipio: esposizione di trenini a cura del Model Club Pergine ,Dalle 10.30 alle 14: laboratori a tema “I dinosauri” presso la Stanza dei Canopi – a cura di Sara Arcobaleno ,Dalle 14.30 alle 17.30: laboratori per bambini a cura del Centro Famiglie Valsugana in Vicolo delle Garberie ,15 Dicembre: ,Week End Pietra Viva ,Laboratori per bambini con i gemelli Pallaoro, alla ricerca di fossili e pietre preziose. In piazza Serra – sala Maier ,Arrivo della Carrozza Matta e momento musicale a cura della Bifolk Band ,Dalle 10.30 alle 14: laboratori a tema “La Carrozza Matta” presso la Stanza dei Canopi – a cura di Sara Arcobaleno ,Dalle 14.30 alle 17.30: laboratori per bambini a cura del Centro Famiglie Valsugana in Vicolo delle Garberie ,Ore 20: momento musicale con Lidia Piccoli in piazza Fruet (piazzetta del Gusto) ,21 Dicembre: ,Coro gospel in piazza Municipio “Greensleeves Gospel Choir”, magnifico coro gospel molto rinomato e con voci pazzesche, diretto da Fausto Caravati ,Babbo Natale sulla slitta con la renna Sven in piazza Municipio e consegna delle letterine ,Dalle 10.30 alle 14: laboratori a tema “La renna” presso la Stanza dei Canopi – a cura di Sara Arcobaleno ,Dalle 14.30 alle 17.30: laboratori per bambini a cura del Centro Famiglie Valsugana in Vicolo delle Garberie ,22 Dicembre: ,Una giornata con i Madonnari ed i loro gessetti ,Laboratori per bambini in piazza Municipio con disegni ad immagini sacre: trasformeranno una porzione di suolo in un piccolo capolavoro d’arte! ,Babbo Natale sulla slitta con la renna Sven in piazza Municipio e consegna delle letterine ,Dalle 10.30 alle 14: laboratori a tema “Omino di Pan di Zenzero” presso la Stanza dei Canopi – a cura di Sara Arcobaleno ,Dalle 14.30 alle 17.30: laboratori per bambini a cura del Centro Famiglie Valsugana in Vicolo delle Garberie ,Ore 20: Mauro Borgogno live in piazza Municipio ,23 Dicembre: ,Dog Comedy Show ,Dalle 16 alle 18: il clown Molletta vestito da elfo ed il suo fedele cane Freccia in piazza municipio ,Babbo Natale sulla slitta con la renna Sven in piazza Municipio e consegna delle letterine ,Dalle 10.30 alle 14: laboratori a tema presso la Stanza dei Canopi – a cura di Sara Arcobaleno ,24 Dicembre: ,Lanternata magica di Natale, con Sara Arcobaleno, accompagnata da musicisti itineranti ,Dalle 14.15 alle 16.15: realizzazione lanterne. ,Partenza da piazza Gavazzi con i bambini, ore 16.30, vie del centro storico con le lanterne, visita alla mostra dei minerali, visita alla mini miniera e arrivo in piazza Municipio da Babbo Natale e la renna Sven ,Babbo Natale sulla slitta con la renna Sven in piazza Municipio e consegna delle letterine ,Laboratori a tema "lanternata magica di natale e decorazione lanternine presso la Stanza dei Canopi – a cura di Sara Arcobaleno ,26 Dicembre: ,Dalle 10 alle 12: il corno delle Alpi ,Dalle 15 alle 18: Fantasy Fest. Siete pronti per entrare in un magico mondo? Troverete personaggi di un universo fantastico e fantasy ,Dalle 14 alle 17: laboratori a tema presso la Stanza dei Canopi – a cura di Sara Arcobaleno ,27 Dicembre: ,Dalle 15 alle 18: Fantasy Fest. Siete pronti per entrare in un magico mondo? Troverete personaggi di un universo fantastico e fantasy ,Dalle 14 alle 17: laboratori a tema presso la Stanza dei Canopi – a cura di Sara Arcobaleno ,28 DICEMBRE: ,Dalle 10 alle 12: il corno delle Alpi ,Pomeriggio: la sfilata dei Canopi (minatori ) e racconti della vita in miniera ,Dalle 14 alle 17: laboratori a tema "Disegna lo gnomo" presso la Stanza dei Canopi – a cura di Sara Arcobaleno ,29 Dicembre: ,Dalle 10 alle 12: il corno delle Alpi ,Pomeriggio: la sfilata dei Canopi (minatori ) e racconti della vita in miniera ,Dalle 14 alle 17: laboratori a tema "Gnomo su molletta" presso la Stanza dei Canopi – a cura di Sara Arcobaleno ,30 Dicembre: ,Animazione per bambini a cura di "Oltre la festa" nella mini miniera ,31 Dicembre: ,Dalle 21 alle 01: il capodanno dei minatori a Pergine – con Dj Chris ,Dalle ore 17 in poi in piazza municipio: capodanno per i bambini, “il palloncino dei desideri”. Con sara arcobaleno esprimi un desiderio e fallo volare in cielo. ,Dalle 14 alle 16.30: laboratori a tema "Biglietti di auguri" presso la Stanza dei Canopi – a cura di Sara Arcobaleno ,1 Gennaio: ,Ore 17: degustazione in piazza del Rumtopf dei Canopi ,Dalle 14 alle 17: laboratori a tema "Biglietti di auguri" presso la Stanza dei Canopi – a cura di Sara Arcobaleno ,4 Gennaio: ,Dalle 10 alle 11.30 e dalle 15.30 alle 16.30: caccia allo gnomo, a cura di Sara Arcobaleno con partenza dalla Stanza dei Canopi. Siete pronti bambini per questa caccia al tesoro particolare? Sara Arcobaleno vi darà alcuni indizi…ma poi sarete voi a dover trovare lo gnomo! ,5 Gennaio: ,Dalle 14 alle 17: laboratori a tema presso la Stanza dei Canopi – a cura di Sara Arcobaleno ,6 Gennaio: ,Dalle ore 17: arriva la Befana! Un arrivo magico per tutti i bambini, da dove arriverà?? E chi avrà con sè? Scopritelo insieme a noi ,Pomeriggio: la polenta e formaggio degli alpini ,Consegna delle chiavi di Perzenland all’associazione “NOI oratori” per il carnevale 2020 ,Dalle 14 alle 17: laboratori a tema "Arriva la Befana" presso la Stanza dei Canopi – a cura di Sara Arcobaleno ,#DiconoDiNoi ,Leggi l'esperienza di viaggiologi.it ai Mercatini di Natale di Pergine e i racconti degli altri blogger ,Tutte le prossime manifestazioni a Pergine Valsugana (in continuo aggiornamento)</t>
   </si>
   <si>
     <t>[{"name": "+390461727700", "url": "tel:+390461727700"}, {"name": "+390461727799", "url": ""}, {"name": "Invia E-mail", "url": "https://www.visittrentino.info/it/guida/contatto?mailto=info@visitvalsugana.it&amp;originUrl=/it/guida/eventi/mercatino-di-natale-dei-canopi_e_2211814&amp;origin=Mercatino%20di%20Natale%20dei%20Canopi"}]</t>
@@ -5018,7 +4925,10 @@
     <t>Pergine Valsugana, dal 9 novembre 2019 al 6 gennaio 2020</t>
   </si>
   <si>
-    <t>https://www.visittrentino.info/it/guida/eventi/mercatino-di-natale-dei-canopi_e_2211814?destination=&amp;submitted=1&amp;startdate=29%2F11%2F2019&amp;category%5B0%5D=&amp;enddate=15%2F12%2F2019&amp;device=desktop&amp;mode=grid&amp;page=6&amp;ajax=1</t>
+    <t>https://www.visittrentino.info/it/guida/eventi/mercatino-di-natale-dei-canopi_e_2211814?destination=&amp;submitted=1&amp;startdate=03%2F12%2F2019&amp;category%5B0%5D=&amp;enddate=15%2F12%2F2019&amp;device=desktop&amp;mode=grid&amp;page=6&amp;ajax=1</t>
+  </si>
+  <si>
+    <t>Cultural--Mercati e mercatini, Altro</t>
   </si>
   <si>
     <t>Mercatino di Natale a Levico Terme</t>
@@ -5033,16 +4943,16 @@
     <t>Parco Asburgico, Dal 23 novembre al 6 gennaio</t>
   </si>
   <si>
-    <t>https://www.visittrentino.info/it/guida/eventi/mercatino-di-natale-a-levico-terme_e_2211822?destination=&amp;submitted=1&amp;startdate=29%2F11%2F2019&amp;category%5B0%5D=&amp;enddate=15%2F12%2F2019&amp;device=desktop&amp;mode=grid&amp;page=7&amp;ajax=1</t>
+    <t>https://www.visittrentino.info/it/guida/eventi/mercatino-di-natale-a-levico-terme_e_2211822?destination=&amp;submitted=1&amp;startdate=03%2F12%2F2019&amp;category%5B0%5D=&amp;enddate=15%2F12%2F2019&amp;device=desktop&amp;mode=grid&amp;page=6&amp;ajax=1</t>
   </si>
   <si>
     <t>I Paesi dei Presepi</t>
   </si>
   <si>
-    <t>Località ,Villa Lagarina, Nomi, Pomarolo</t>
-  </si>
-  <si>
-    <t>I Paesi dei Presepi ,Presepi nelle corti e nelle contrade, lungo le vie e nelle fontane. ,2 altre immagini ,Periodo ,01/12/2019 - 06/01/2020 ,Località ,Villa Lagarina, Nomi, Pomarolo ,Tipologia ,Mercati e mercatini ,Nomi, Pomarolo e Villa Lagarina si trasformano per oltre un mese nei paesi dei presepi. Una tradizione che racconta storie, identità e abilità artigiane. ,Opere d'arte di rara bellezza, da scoprire passeggiando nei centri storici dei borghi per imparare a cercare angoli nascosti e meravigliosi che fanno da cornice e accolgono le più belle rappresentazioni della Natività. Nomi, il Paese dei Presepi monumentali Dall’1 dicembre al 6 gennaio Due presepi monumentali in stile napoletano, con alti edifici e popolati da oltre ottanta personaggi; un presepe monumentale della Vallagarina; e un presepe monumentale trentino. Ospitati nello storico edificio del granaio, i presepi rappresentano il fulcro degli allestimenti natalizi nel caratteristico paese affacciato sull’Adige. Gli antichi portali, le finestre dalle grate in ferro e le soglie in pietra ospitano altri cento presepi realizzati nelle più svariare forme espressive, che le luci all’imbrunire avvolgono di un fascino indimenticabile. Ad accompagnare le esposizioni, concerti e lanternate tra le vie del Paese, il Mercatino della Solidarietà, spazi di “Arti già Nato” e tanti eventi per incantare grandi e piccini. Pomarolo, i Presepi nel paese Dall’1 dicembre al 6 gennaio Il paese di Pomarolo, assieme alle famiglie, alle scuole, alle associazioni, ai gruppi e ai movimenti cittadini festeggia il Natale omaggiando la tradizione. Un percorso alla scoperta dei luoghi più antichi e suggestivi del borgo: corti, avvolti, portici, finestre e fontane, decorati da trenta scene della Natività, che diventano cornice e illuminano le opere d'arte in juta, materiali naturali e di riciclo, frutto del lavoro e della passioni di artigiani e artisti locali. Villa Lagarina, i Presepi sulle fontane Dall’8 dicembre al 6 gennaio Una delle tradizioni popolari più sentite, il presepe e il mistero che avvolge la nascita di Gesù. Da molti anni associazioni, scuole materne, scuole elementari e semplici appassionati realizzano i loro presepi sulle fontane pubbliche che caratterizzano i borghi del fondovalle: Villa Lagarina, Piazzo, quello collinare di Pedersano e quello montano di Castellano. Tredici fontane con altrettanti presepi da scoprire in un suggestivo itinerario invernale di piazze, contrade, chiese, palazzi e scorci panoramici e naturali mozzafiato. Nogaredo, tra mostre e presepi Il paese della Destra Adige si riempie di presepi. Ad arricchire questa ,agica atmosfera natalizia, la mostra: Intrecci di donne. Un viaggio tra fotografia, scultura ed arte tessile, con le opere di Sabrina Bottura, Francesca Canapa, Maracanta e Mary Molinari.</t>
+    <t>Villa Lagarina, Nomi, Pomarolo</t>
+  </si>
+  <si>
+    <t>I Paesi dei Presepi ,Presepi nelle corti e nelle contrade, lungo le vie e nelle fontane. ,2 altre immagini ,Periodo ,01/12/2019 - 06/01/2020 ,Località ,Villa Lagarina, Nomi, Pomarolo ,Tipologia ,Mercati e mercatini ,Nomi, Pomarolo, Nogaredo e Villa Lagarina si trasformano per oltre un mese nei paesi dei presepi. Una tradizione che racconta storie, identità e abilità artigiane. ,Opere d'arte di rara bellezza, da scoprire passeggiando nei centri storici dei borghi per imparare a cercare angoli nascosti e meravigliosi che fanno da cornice e accolgono le più belle rappresentazioni della Natività. Nomi, il Paese dei Presepi monumentali Dall’1 dicembre al 6 gennaio Due presepi monumentali in stile napoletano, con alti edifici e popolati da oltre ottanta personaggi; un presepe monumentale della Vallagarina; e un presepe monumentale trentino. Ospitati nello storico edificio del granaio, i presepi rappresentano il fulcro degli allestimenti natalizi nel caratteristico paese affacciato sull’Adige. Gli antichi portali, le finestre dalle grate in ferro e le soglie in pietra ospitano altri cento presepi realizzati nelle più svariare forme espressive, che le luci all’imbrunire avvolgono di un fascino indimenticabile. Ad accompagnare le esposizioni, concerti e lanternate tra le vie del Paese, il Mercatino della Solidarietà, spazi di “Arti già Nato” e tanti eventi per incantare grandi e piccini. Pomarolo, i Presepi nel paese Dall’1 dicembre al 6 gennaio Il paese di Pomarolo, assieme alle famiglie, alle scuole, alle associazioni, ai gruppi e ai movimenti cittadini festeggia il Natale omaggiando la tradizione. Un percorso alla scoperta dei luoghi più antichi e suggestivi del borgo: corti, avvolti, portici, finestre e fontane, decorati da trenta scene della Natività, che diventano cornice e illuminano le opere d'arte in juta, materiali naturali e di riciclo, frutto del lavoro e della passioni di artigiani e artisti locali. Villa Lagarina, i Presepi sulle fontane Dall’8 dicembre al 6 gennaio Una delle tradizioni popolari più sentite, il presepe e il mistero che avvolge la nascita di Gesù. Da molti anni associazioni, scuole materne, scuole elementari e semplici appassionati realizzano i loro presepi sulle fontane pubbliche che caratterizzano i borghi del fondovalle: Villa Lagarina, Piazzo, quello collinare di Pedersano e quello montano di Castellano. Tredici fontane con altrettanti presepi da scoprire in un suggestivo itinerario invernale di piazze, contrade, chiese, palazzi e scorci panoramici e naturali mozzafiato. Nogaredo, tra mostre e presepi Sulle fontane e all'interno delle Chiese sarà possibile ammirare dei bellissimi e suggestivi presepi predisposti e realizzati da gruppi di volontari e dalle associazioni del territorio. Ad arricchire questa magica atmosfera natalizia, la mostra “Intrecci di donne”, un viaggio tra fotografia, scultura ed arte tessile. Con Sabrina Bottura – Pensieri (Arte tessile), Francesca Canapa – Tra sogno e realtà (Fotografia), Maracanta – Presentazione di Maracanta (Arte emozione), Mary Molinari – Tracce di memoria (Scultura). Nell'arco delle settimane di apertura della mostra, in collaborazione con la Commissione Cultura Comunale, verranno promosse numerose iniziative rivolte a tutte le fasce di età. Scopri il programma!</t>
   </si>
   <si>
     <t>[{"name": "0464430363", "url": "tel:0464430363"}, {"name": "0464435528", "url": ""}, {"name": "Invia E-mail", "url": "https://www.visittrentino.info/it/guida/contatto?mailto=info@visitrovereto.it&amp;originUrl=/it/guida/eventi/i-paesi-dei-presepi_e_2304701&amp;origin=I%20Paesi%20dei%20Presepi"}]</t>
@@ -5051,13 +4961,13 @@
     <t>Presepi nelle corti e nelle contrade, lungo le vie e nelle fontane.</t>
   </si>
   <si>
-    <t>https://www.visittrentino.info/it/guida/eventi/i-paesi-dei-presepi_e_2304701?destination=&amp;submitted=1&amp;startdate=29%2F11%2F2019&amp;category%5B0%5D=&amp;enddate=15%2F12%2F2019&amp;device=desktop&amp;mode=grid&amp;page=7&amp;ajax=1</t>
+    <t>https://www.visittrentino.info/it/guida/eventi/i-paesi-dei-presepi_e_2304701?destination=&amp;submitted=1&amp;startdate=03%2F12%2F2019&amp;category%5B0%5D=&amp;enddate=15%2F12%2F2019&amp;device=desktop&amp;mode=grid&amp;page=6&amp;ajax=1</t>
   </si>
   <si>
     <t>La Fiaba del Natale</t>
   </si>
   <si>
-    <t>Località ,Mori</t>
+    <t>Mori</t>
   </si>
   <si>
     <t>La Fiaba del Natale ,A Mori la magia del Natale con gli occhi dei bambini ,2 altre immagini ,Periodo ,01/12/2019 - 06/01/2020 ,Località ,Mori ,Tipologia ,Mercati e mercatini ,Un calendario ricco di attività e iniziative per i più piccoli: dalla pista di pattinaggio agli spettacoli, dalle tradizioni alle musiche natalizie. ,Intrattenimenti ed eventi all'insegna della convivialità, dell'amicizia e della riscoperta dei valori universali, raccontati attraverso il mondo della fiaba, ci attendono nel centro storico di Mori. Ad accompagnare i numerosi appuntamenti le proposte gastronomiche della tradizione. La Pista di Pattinaggio Piazza Cal di Ponte, Mori Il villaggio animato dove divertirsi con i pattini ai piedi e riscaldarsi con i piatti e le bevande trentini da gustare nei locali della città. L’ingresso alla pista di pattinaggio è comprensivo della consumazione di una bevanda calda nei seguenti bar: Ristorante-Pizzeria Vecchia Mori, Caffè Il Gelso, Bar Sani, Caffè Pasticceria Mory. Incontri di Tradizione e di Fiaba Se è soprattutto negli occhi e nei sorrisi dei bambini che rivive la gioia della festa, la città di Mori attende i più piccoli con tanti spettacoli: da San Nicolò con i krampus a Santa Lucia con il suo asinello, dalle musiche agli spettacoli natalizi. ,Domenica 1 dicembre, ore 16.30 – Teatro G. Modena Spettacolo del Teatro Ragazzi "SCUSA" a cura dell'Associazione Clochart ,Giovedì 5 dicembre, Piazza Cal di Ponte Arrivano San Nicolò e i Krampus – ore 18.30: Ritrovo in Piazza Cal di Ponte – ore 19.00: Sfilata per le vie del centro – ore 19.30: Distribuzione doni ai bambini Seguirà rinfresco offerto dalla "Schutzenkompanie Destra Ades". In caso di maltempo l'iniziativa si svolgerà il giorno 06 dicembre ,Sabato 7 dicembre, ore 20.45 – Teatro G. Modena Spettacolo teatrale "Le mie canzoni" di e con Neri Marcorè e la sua band. Pre spettacolo ore 19.00 a cura dell’Associazione “La Poderosa” con presentazione del libro Gleba di Tersite Rossi. ,Giovedì 12 dicembre, lungo le vie delle varie frazioni di Mori Arriva Santa Lucia a Tierno, Mori Vecchio, Molina, Nomesino, Besagno, Pannone/Varano ,Venerdì 13 dicembre, ore 20.45 – Teatro G.Modena Prima di Piazza Fontana. La prova Generale Presentazione del libro di P. Morando a cura di ARCI Mori ,Domenica 15 dicembre, ore 20.30 – Teatro G.Modena Concerto per la stella Scuola Musicale Operaprima ,Domenica 22 dicembre, ore 13.30 – 17.00 – Piazza Cal di Ponte ore 13.30 – 17.00 – Piazza Cal di Ponte Corsa su strada CSI a categorie "Aspettando il Natale" A cura dell'Atletica Team Loppio ,Domenica 22 dicembre, ore 20.45 – Teatro G.Moderna Circo a Natale: tre quarti. Comicità, equilibrismo e poesia Compagnia Samovar – Scuola di circo Bolla di Sapone ,Lunedì 23 dicembre, ore 20.45 – Teatro G. Modena Concerto di Natale A cura della Banda Sociale Mori Brentonico ,Martedì 24 dicembre, ore 16.00 – Piazza Cal di Ponte Arriva Babbo Natale! Il Natale dei bambini! Distribuzione doni ed intrattenimento ,Giovedì 26 dicembre, ore 20.30 – Chiesa Arcipretale S.Stefano Concerto di S. Stefano Coro Gospel &amp; Spiritual "Sing the Glory" ,Lunedì 30 dicembre, ore 20.45 – Teatro G.Moderna Concerto di Capodanno Associazione Labirinti Armonici</t>
@@ -5069,19 +4979,19 @@
     <t>A Mori la magia del Natale con gli occhi dei bambini</t>
   </si>
   <si>
-    <t>https://www.visittrentino.info/it/guida/eventi/la-fiaba-del-natale_e_2436505?destination=&amp;submitted=1&amp;startdate=29%2F11%2F2019&amp;category%5B0%5D=&amp;enddate=15%2F12%2F2019&amp;device=desktop&amp;mode=grid&amp;page=7&amp;ajax=1</t>
+    <t>https://www.visittrentino.info/it/guida/eventi/la-fiaba-del-natale_e_2436505?destination=&amp;submitted=1&amp;startdate=03%2F12%2F2019&amp;category%5B0%5D=&amp;enddate=15%2F12%2F2019&amp;device=desktop&amp;mode=grid&amp;page=6&amp;ajax=1</t>
   </si>
   <si>
     <t>Ossana, il borgo dei 1000 presepi</t>
   </si>
   <si>
-    <t>Periodo ,29/11/2019 - 06/01/2020</t>
-  </si>
-  <si>
-    <t>dalle 10.00 alle 22.00</t>
-  </si>
-  <si>
-    <t>Ossana, il borgo dei 1000 presepi ,Quasi 1000 presepi e un'unica grande emozione: mercatini, degustazioni, musica ,2 altre immagini ,Periodo ,29/11/2019 - 06/01/2020 ,Località ,Ossana ,Tipologia ,Feste e Sagre ,OSSANA, IL BORGO DEI 1000 PRESEPI ,DAL 29 NOVEMBRE 2019 AL 6 GENNAIO 2020 ,Il borgo di Ossana ti aspetta con un suggestivo percorso di quasi 1000 PRESEPI tutto da scoprire! E non finisce qui... Visita il MERCATINO DI NATALE, curiosa tra le bancarelle e acquista il meglio dei prodotti artigianali locali esposti in caratteristiche casette di legno. Potrai anche assaggiare dell'ottimo vin brulè e squisiti dolcetti natalizi nella speciale casetta degustazioni! ,Protagonista d'eccezione e vero cuore pulsante della rassegna è CASTELLO SAN MICHELE. Riaperto al pubblico nel 2014, il maniero medievale di Ossana è visitabile anche in inverno. Entra nel castello e scopri il particolare presepe realizzato all'interno delle sue mura: ti narrerà di soldati e trincee, ricordando episodi realmente accaduti in una notte di Natale durante la Prima Guerra Mondiale. Assolutamente da visitare il presepe appositamente realizzato in occasione dei 60 anni dal disastro aereo del Monte Giner, avvenuto il 22 dicembre 1956 in località Pale Perse a quota 2.600 metri nel territorio di Ossana. Il presepe è allestito nel «Mas dei Voltolini». ,IL RISULTATO È QUALCOSA DI DAVVERO SPECIALE... ,Decine e decine di presepi sistemati con cura qua e là, alcuni dei quali (i più belli) ripresentati di anno in anno, accomunati da un unico denominatore: suscitare emozioni e serenità nel cuore di tutti i visitatori. Troverai... ,IL PERCORSO DEI PRESEPI ,EDIZIONE RECORD: 1000! ,CASTEL SAN MICHELE ,TRA ARTE E STORIA ,IL MERCATINO DI NATALE ,ARTIGIANATO LOCALE ,LA CASA DI BABBO NATALE ,UN LUOGO INCANTATO ,CASETTE DEGUSTAZIONI ,SPECIALITÀ NATALIZIE ,CONCERTI E SPETTACOLI ,UN RICCO PROGRAMMA ,MUOVITI GREEN ,Lascia a casa l'auto e scegli la mobilità sostenibile. Da Trento fino a Mezzana con il treno Dolomiti Experess. Dal 22 dicembre al 6 gennaio: se sei già in Val di Sole prendi lo Ski Bus! ,SCARICA GLI ORARI SKI BUS SPECIALE PRESEPI (pdf - 238 KB) ,SEGUI IL FILO ROSSO! ,Nel 2019 l'intero borgo di Ossana festeggia la XX° edizione percorso dei presepi, divenuto ormai un appuntamento imperdibile per abitanti locali, turisti e visitatori di tutta la Val di Sole e delle valli limitrofe. Il percorso è segnalato da una CORDA ROSSA con decorazioni natalizie e illuminato da antiche LAMPADE AD OLIO. Lasciati guidare dalla luce, che come una stella cometa ti accompagnerà alla scoperta di quasi 1.000 caratteristici presepi! Tutte le opere sono state realizzate manualmente da associazioni di volontariato, gruppi, scuole, famiglie, artisti e singoli cittadini di Ossana e dell'intera Val di Sole. È questa un'occasione unica per ammirare tali manufatti costruiti con stupefacente creatività, utilizzando materiali inusuali e impensabili (ad es. stoffa, legno, sementi o foglie di granoturco). Obiettivo di ogni artista (improvvisato e non) è infatti quello di esprimere, attraverso il presepe, le proprie idee e i propri modi di «essere» e «vivere» il Natale, con la speranza di regalare ai visitatori sensazioni, sentimenti, emozioni. Gli angoli più nascosti del paese e le vecchie «cort» si animano, giochi di luce e suoni avvolgono gli ospiti nel lungo itinerare tra i presepi, confortandoli con un'atmosfera di serenità. ,MAGGIORI INFORMAZIONI ,AZIENDA TURISMO VAL DI SOLE ,Via Marconi 7 - 38027 Malè (TN) ,Tel. (+39) 0463 901280 ,info@valdisole.net</t>
+    <t>10.00-22.00</t>
+  </si>
+  <si>
+    <t>Ossana</t>
+  </si>
+  <si>
+    <t>Ossana, il borgo dei 1000 presepi ,Quasi 1000 presepi e un'unica grande emozione: mercatini, degustazioni, musica ,2 altre immagini ,Periodo ,29/11/2019 - 06/01/2020 ,Località ,Ossana ,Tipologia ,Feste e Sagre ,OSSANA, IL BORGO DEI 1000 PRESEPI ,DAL 29 NOVEMBRE 2019 AL 6 GENNAIO 2020 ,Il borgo di Ossana ti aspetta con un suggestivo percorso di quasi 1000 PRESEPI tutto da scoprire! E non finisce qui... Visita il MERCATINO DI NATALE, curiosa tra le bancarelle e acquista il meglio dei prodotti artigianali locali esposti in caratteristiche casette di legno. Potrai anche assaggiare dell'ottimo vin brulè e squisiti dolcetti natalizi nella speciale casetta degustazioni! ,Protagonista d'eccezione e vero cuore pulsante della rassegna è CASTELLO SAN MICHELE. Riaperto al pubblico nel 2014, il maniero medievale di Ossana è visitabile anche in inverno. Entra nel castello e scopri il particolare presepe realizzato all'interno delle sue mura: ti narrerà di soldati e trincee, ricordando episodi realmente accaduti in una notte di Natale durante la Prima Guerra Mondiale. Assolutamente da visitare il presepe appositamente realizzato in occasione dei 60 anni dal disastro aereo del Monte Giner, avvenuto il 22 dicembre 1956 in località Pale Perse a quota 2.600 metri nel territorio di Ossana. Il presepe è allestito nel «Mas dei Voltolini». ,SCARICA L'OPUSCOLO «OSSANA, IL BORGO DEI 1000 PRESEPI» (pdf - 2,7 MB) ,IL RISULTATO È QUALCOSA DI DAVVERO SPECIALE... ,Decine e decine di presepi sistemati con cura qua e là, alcuni dei quali (i più belli) ripresentati di anno in anno, accomunati da un unico denominatore: suscitare emozioni e serenità nel cuore di tutti i visitatori. Troverai... ,IL PERCORSO DEI PRESEPI ,EDIZIONE RECORD: 1000! ,CASTEL SAN MICHELE ,TRA ARTE E STORIA ,IL MERCATINO DI NATALE ,ARTIGIANATO LOCALE ,LA CASA DI BABBO NATALE ,UN LUOGO INCANTATO ,CASETTE DEGUSTAZIONI ,SPECIALITÀ NATALIZIE ,SPETTACOLI E MUSICA ,UN RICCO PROGRAMMA ,MUOVITI GREEN ,Lascia a casa l'auto e scegli la mobilità sostenibile. Da Trento fino a Mezzana con il treno Dolomiti Experess. Dal 22 dicembre al 6 gennaio: se sei già in Val di Sole prendi lo Ski Bus! ,SCARICA GLI ORARI SKI BUS SPECIALE PRESEPI (pdf - 238 KB) ,SEGUI IL FILO ROSSO! ,Nel 2019 l'intero borgo di Ossana festeggia la XX° edizione percorso dei presepi, divenuto ormai un appuntamento imperdibile per abitanti locali, turisti e visitatori di tutta la Val di Sole e delle valli limitrofe. Il percorso è segnalato da una CORDA ROSSA con decorazioni natalizie e illuminato da antiche LAMPADE AD OLIO. Lasciati guidare dalla luce, che come una stella cometa ti accompagnerà alla scoperta di quasi 1.000 caratteristici presepi! Tutte le opere sono state realizzate manualmente da associazioni di volontariato, gruppi, scuole, famiglie, artisti e singoli cittadini di Ossana e dell'intera Val di Sole. È questa un'occasione unica per ammirare tali manufatti costruiti con stupefacente creatività, utilizzando materiali inusuali e impensabili (ad es. stoffa, legno, sementi o foglie di granoturco). Obiettivo di ogni artista (improvvisato e non) è infatti quello di esprimere, attraverso il presepe, le proprie idee e i propri modi di «essere» e «vivere» il Natale, con la speranza di regalare ai visitatori sensazioni, sentimenti, emozioni. Gli angoli più nascosti del paese e le vecchie «cort» si animano, giochi di luce e suoni avvolgono gli ospiti nel lungo itinerare tra i presepi, confortandoli con un'atmosfera di serenità. ,MAGGIORI INFORMAZIONI ,AZIENDA TURISMO VAL DI SOLE ,Via Marconi 7 - 38027 Malè (TN) ,Tel. (+39) 0463 901280 ,info@valdisole.net</t>
   </si>
   <si>
     <t>[{"name": "+390463751301", "url": "tel:+390463751301"}, {"name": "Invia E-mail", "url": "https://www.visittrentino.info/it/guida/contatto?mailto=info_ossana@virgilio.it&amp;originUrl=/it/guida/eventi/ossana-il-borgo-dei-1000-presepi_e_3780124&amp;origin=Ossana,%20il%20borgo%20dei%201000%20presepi"}]</t>
@@ -5090,19 +5000,16 @@
     <t>Quasi 1000 presepi e un'unica grande emozione: mercatini, degustazioni, musica</t>
   </si>
   <si>
-    <t>https://www.visittrentino.info/it/guida/eventi/ossana-il-borgo-dei-1000-presepi_e_3780124?destination=&amp;submitted=1&amp;startdate=29%2F11%2F2019&amp;category%5B0%5D=&amp;enddate=15%2F12%2F2019&amp;device=desktop&amp;mode=grid&amp;page=7&amp;ajax=1</t>
+    <t>https://www.visittrentino.info/it/guida/eventi/ossana-il-borgo-dei-1000-presepi_e_3780124?destination=&amp;submitted=1&amp;startdate=03%2F12%2F2019&amp;category%5B0%5D=&amp;enddate=15%2F12%2F2019&amp;device=desktop&amp;mode=grid&amp;page=6&amp;ajax=1</t>
   </si>
   <si>
     <t>E’ Natale in Val di Fassa</t>
   </si>
   <si>
-    <t>Periodo ,05/12/2019 - 06/01/2020</t>
-  </si>
-  <si>
-    <t>vedi programma</t>
-  </si>
-  <si>
-    <t>Località ,Campitello di Fassa, Canazei, Mazzin ...</t>
+    <t>05/12/2019-06/01/2020</t>
+  </si>
+  <si>
+    <t>Campitello di Fassa, Canazei, Mazzin ...</t>
   </si>
   <si>
     <t>E’ Natale in Val di Fassa ,Val di Fassa, la cartolina perfetta del Natale: aria frizzante, vette immacolate, paesi addobbati a festa, dove trascorrere allegre giornate con parenti e amici ,1 altre immagini ,Periodo ,05/12/2019 - 06/01/2020 ,Località ,Campitello di Fassa, Canazei, Mazzin ... ,Tipologia ,Feste e Sagre ,L’atmosfera che si respira in Val di Fassa durante le Feste non ha eguali: vette incantate, aria pungente, grandi alberi addobbati nelle piazze, luci, presepi di legno e ghiaccio allestiti negli angoli più caratteristici dei paesi. ,La festa di San Nicolò è un vero evento per tutti i bambini, in particolare a Pozza, visto che è il suo patrono. Tra il 5 e il 6 dicembre il Santo, con la lunga barba bianca, splendidi abiti e la mitria sul capo, viene accompagnato a piedi, e quando possibile a bordo di una slitta, da alcuni angeli e dai terribili "krampus", creature diaboliche, vestite di pelli d’animali con maschere scure sul volto, corna in testa e lunghe catene che fanno risuonare, in modo sinistro, nel silenzio dell’oscurità. San Nicolò visita le case dei bimbi facendoli recitare preghiere - con la promessa d’esser buoni - prima di distribuire dolciumi e doni. ,Il 25 dicembre, Babbo Natale dà appuntamento ai bimbi nelle piazze con ceste piene di regali, mentre il 5 e il 6 gennaio arriva la Befana. Inoltre, dal 2 al 5 gennaio nei centri dei paesi piccoli e grandi cori, annunciati dai "Tre Re", propongono gli antichi "Canti della stella". ,Dall’8 dicembre al 6 gennaio tornano i mercatini a Moena, Sèn Jan di Fassa e Campitello che sulle bancarelle espongono i prodotti tipici delle Dolomiti, graziose idee regalo e souvenir della prima vacanza dell’inverno. ,Di legno, sughero, neve, stoffa, carta o cartapesta. Sono antiche e moderne e fatte dei materiali più diversi i tanti presepi che punteggiano i paesi della Val di Fassa dall’Immacolata (8 dicembre) al 6 gennaio. Sono accoccolati nei "festii" (fontane o lavatoi all’aperto, in ladino), nei giardini imbiancati dalla neve, tra le cataste di legna ben disposte vicino alle abitazioni, negli antichi fienili, accanto ai capitelli, nei lignei sottoscala, nelle chiesette gotiche, ma anche sulle finestre di case ed hotel e pure nelle vetrine dei negozi. Il simbolo per eccellenza del Natale, frutto spesso del lavoro di molti valligiani impegnati nella realizzazione di questi presepi che al termine delle festività vengono premiati, sono motivo per i turisti di inoltrarsi in suggestivi percorsi nei centri della vallata ladina e, a volte, pure di decretare i più belli. ,Musica classica, inni, canti, spirituals e zampogne. Gli amanti delle tradizioni natalizie, godono non solo dei paesaggi imbiancati, delle atmosfere particolarmente suggestive dei paesi della Val di Fassa e dei 210 km di piste da sci, ma anche di quelle melodie che, nei giorni di festa, riscaldano il cuore. Interessanti anche i luoghi delle esibizioni, prevalentemente le chiese più antiche della valle che custodiscono tesori dell’arte sacra locale. Si abbina, così, al piacere della musica quello della conoscenza dell’architettura gotica, dei dipinti di scuola germanica o veneta e degli arredi barocchi che, in genere, caratterizzano i luoghi di culto fassani. ,Passeggiate, scivolate a bordo di slitte e bob, piste per lo snow-tubing, snowpark, gite in carrozze trainate da cavalli, negozi alla moda, après ski, pub e discoteche di tendenza e tanto altro ancora. Un divertimento assicurato che esplode nell’ultima notte dell’anno, con cene eleganti negli hotel e nei ristoranti, serate d’autentica euforia nei locali più "cool" dell’arco dolomitico e feste di piazza per salutare il 2019 col botto. ,La Val di Fassa è la località ideale dove ritrovare tutto il calore delle vacanze natalizie in quell’atmosfera tipica delle fiabe che, qui, è realtà. ,Cerca e prenota la tua vacanza!</t>
@@ -5114,7 +5021,7 @@
     <t>Val di Fassa, la cartolina perfetta del Natale: aria frizzante, vette immacolate, paesi addobbati a festa, dove trascorrere allegre giornate con parenti e amici</t>
   </si>
   <si>
-    <t>https://www.visittrentino.info/it/guida/eventi/e-natale-in-val-di-fassa_e_3903615?destination=&amp;submitted=1&amp;startdate=29%2F11%2F2019&amp;category%5B0%5D=&amp;enddate=15%2F12%2F2019&amp;device=desktop&amp;mode=grid&amp;page=7&amp;ajax=1</t>
+    <t>https://www.visittrentino.info/it/guida/eventi/e-natale-in-val-di-fassa_e_3903615?destination=&amp;submitted=1&amp;startdate=03%2F12%2F2019&amp;category%5B0%5D=&amp;enddate=15%2F12%2F2019&amp;device=desktop&amp;mode=grid&amp;page=7&amp;ajax=1</t>
   </si>
   <si>
     <t>El Presepe vizin a cà</t>
@@ -5129,13 +5036,13 @@
     <t>Vie del centro</t>
   </si>
   <si>
-    <t>https://www.visittrentino.info/it/guida/eventi/el-presepe-vizin-a-ca_e_12221573?destination=&amp;submitted=1&amp;startdate=29%2F11%2F2019&amp;category%5B0%5D=&amp;enddate=15%2F12%2F2019&amp;device=desktop&amp;mode=grid&amp;page=7&amp;ajax=1</t>
+    <t>https://www.visittrentino.info/it/guida/eventi/el-presepe-vizin-a-ca_e_12221573?destination=&amp;submitted=1&amp;startdate=03%2F12%2F2019&amp;category%5B0%5D=&amp;enddate=15%2F12%2F2019&amp;device=desktop&amp;mode=grid&amp;page=7&amp;ajax=1</t>
   </si>
   <si>
     <t>Il Sacro e il Quotidiano. Il villaggio tardoantico a San Martino ai Campi</t>
   </si>
   <si>
-    <t>Periodo ,04/10/2019 - 06/01/2020</t>
+    <t>04/10/2019-06/01/2020</t>
   </si>
   <si>
     <t>Il Sacro e il Quotidiano. Il villaggio tardoantico a San Martino ai Campi ,Una nuova mostra al MAG a 50 anni dalla scoperta del sito archeologico ,Periodo ,04/10/2019 - 06/01/2020 ,Località ,Riva del Garda ,Tipologia ,Mostre ,A 50 anni dalla scoperta dell'area archeologica di San Martino ai Campi, sarà inaugurata venerdì 4 ottobre 2019 alle 18.30 al MAG la mostra Il Sacro e il Quotidiano. Il villaggio tardoantico a San Martino ai Campi, curata dalla Soprintendenza per i beni culturali – Ufficio beni archeologici de lla Provincia autonoma di Trento. Ingresso libero. ,In posizione strategica lungo quelle che in antichità erano importanti vie di comunicazione, frequentato fin dalla protostoria, il sito di San Martino ai Campi è caratterizzato da significative strutture di età romana e medievale. Nel periodo di passaggio fra queste due epoche, nel IV secolo d.C., sul versante meridionale del Monte viene costruito un villaggio, probabilmente con finalità militari. Circa duecento anni dopo un incendio distrugge la gran parte dell’abitato, che però continua a vivere, anche attraverso la devozione cristiana. ,Per celebrare i 50 anni dalla scoperta del sito avvenuta nel 1969, reperti e strutture di questo villaggio sono stati ricomposti in una narrazione del quotidiano che si scoprirà in frequente dialogo con il sacro. ,Il Sacro e il Quotidiano | Il villaggio tardoantico a San Martino ai Campi ,Monte San Martino, importante area archeologica nota come luogo sacro per i Reti e i Romani, mostra anche i resti di un villaggio del IV secolo d.C., distrutto in parte da un incendio due secoli dopo. Il villaggio di Monte San Martino era costituito da edifici ben distribuiti, con strade che li collegavano e un grande fabbricato che dominava la valle. ,La mostra, curata da Achillina Granata di Archeogeo e Cristina Dal Rì e Nicoletta Pisu della Soprintendenza per i beni culturali – Ufficio beni archeologici della PAT, si snoda come un primo racconto di questa fase della storia del Monte ancora in larga parte sconosciuta. ,ORARI DI APERTURA: ,Dicembre 2019 e gennaio 2020 ,ven 6, 13, 20 dicembre | 14.00 - 18.00 ,1, 7, 8, 14, 15, 21, 22, 27-30 dicembre e 2-6 gennaio | 10.00 - 18.00 ,31 dicembre | 10.00 - 17.00 ,Promo ticket € 2,50</t>
@@ -5147,13 +5054,13 @@
     <t>Una nuova mostra al MAG a 50 anni dalla scoperta del sito archeologico</t>
   </si>
   <si>
-    <t>https://www.visittrentino.info/it/guida/eventi/il-sacro-e-il-quotidiano.il-villaggio-tardoantico-a-san-martino-ai-campi_e_12221623?destination=&amp;submitted=1&amp;startdate=29%2F11%2F2019&amp;category%5B0%5D=&amp;enddate=15%2F12%2F2019&amp;device=desktop&amp;mode=grid&amp;page=7&amp;ajax=1</t>
+    <t>https://www.visittrentino.info/it/guida/eventi/il-sacro-e-il-quotidiano.il-villaggio-tardoantico-a-san-martino-ai-campi_e_12221623?destination=&amp;submitted=1&amp;startdate=03%2F12%2F2019&amp;category%5B0%5D=&amp;enddate=15%2F12%2F2019&amp;device=desktop&amp;mode=grid&amp;page=7&amp;ajax=1</t>
   </si>
   <si>
     <t>Den tra i Presepi</t>
   </si>
   <si>
-    <t>Località ,Denno</t>
+    <t>Denno</t>
   </si>
   <si>
     <t>Den tra i Presepi ,Mostra dei presepi nelle vie e nelle piazze di Denno ,Periodo ,05/12/2019 - 06/01/2020 ,Località ,Denno ,Tipologia ,Feste e Sagre, Mercati e mercatini ,Sono un centinaio i presepi allestiti nelle vie e nelle piazze di Denno, piccolo paese della Val di Non che a Natale offre ai tantissimi visitatori un’esperienza unica ed autentica per respirare il calore che solo la Natività riesce a trasmettere. Molte saranno le iniziative offerte dalla Pro Loco, che realizza l’evento con l’associazione Amici del Presepe: dalle visite guidate alle tre antiche chiese di Denno, ai concerti, al ricco programma per i bambini, con letture e laboratori didattici.</t>
@@ -5165,7 +5072,7 @@
     <t>Mostra dei presepi nelle vie e nelle piazze di Denno</t>
   </si>
   <si>
-    <t>https://www.visittrentino.info/it/guida/eventi/den-tra-i-presepi_e_12642229?destination=&amp;submitted=1&amp;startdate=29%2F11%2F2019&amp;category%5B0%5D=&amp;enddate=15%2F12%2F2019&amp;device=desktop&amp;mode=grid&amp;page=7&amp;ajax=1</t>
+    <t>https://www.visittrentino.info/it/guida/eventi/den-tra-i-presepi_e_12642229?destination=&amp;submitted=1&amp;startdate=03%2F12%2F2019&amp;category%5B0%5D=&amp;enddate=15%2F12%2F2019&amp;device=desktop&amp;mode=grid&amp;page=7&amp;ajax=1</t>
   </si>
   <si>
     <t>Fermoimmagine. L'evoluzione della Gardesana Occidentale da 22 a 2 ruote</t>
@@ -5180,16 +5087,13 @@
     <t>Mostra fotografica a cura dell'Associazione Araba Fenice</t>
   </si>
   <si>
-    <t>https://www.visittrentino.info/it/guida/eventi/fermoimmagine.l-evoluzione-della-gardesana-occidentale-da-22-a-2-ruote_e_12913625?destination=&amp;submitted=1&amp;startdate=29%2F11%2F2019&amp;category%5B0%5D=&amp;enddate=15%2F12%2F2019&amp;device=desktop&amp;mode=grid&amp;page=7&amp;ajax=1</t>
+    <t>https://www.visittrentino.info/it/guida/eventi/fermoimmagine.l-evoluzione-della-gardesana-occidentale-da-22-a-2-ruote_e_12913625?destination=&amp;submitted=1&amp;startdate=03%2F12%2F2019&amp;category%5B0%5D=&amp;enddate=15%2F12%2F2019&amp;device=desktop&amp;mode=grid&amp;page=7&amp;ajax=1</t>
   </si>
   <si>
     <t>Presepi sulle fontane</t>
   </si>
   <si>
-    <t>Periodo ,05/12/2019 - 11/01/2020</t>
-  </si>
-  <si>
-    <t>tutto il giorno</t>
+    <t>05/12/2019-11/01/2020</t>
   </si>
   <si>
     <t>Presepi sulle fontane ,Esposizione all’aperto di presepi esposti nel centro di Vigo e nelle frazioni ,2 altre immagini ,Periodo ,05/12/2019 - 11/01/2020 ,Località ,Vigo di Fassa ,Tipologia ,Mostre ,Vi invitiamo ad una passeggiata invernale per ammirare i presepi, realizzati artigianalmente con impegno e fantasia da privati ed associazioni del paese, esposti sulle fontane negli angoli più suggestivi del centro e delle frazioni di Vigo. ,I presepi rimarranno esposti dal 5 dicembre al 11 gennaio.</t>
@@ -5201,13 +5105,13 @@
     <t>Esposizione all’aperto di presepi esposti nel centro di Vigo e nelle frazioni</t>
   </si>
   <si>
-    <t>https://www.visittrentino.info/it/guida/eventi/presepi-sulle-fontane_e_390181?destination=&amp;submitted=1&amp;startdate=29%2F11%2F2019&amp;category%5B0%5D=&amp;enddate=15%2F12%2F2019&amp;device=desktop&amp;mode=grid&amp;page=7&amp;ajax=1</t>
+    <t>https://www.visittrentino.info/it/guida/eventi/presepi-sulle-fontane_e_390181?destination=&amp;submitted=1&amp;startdate=03%2F12%2F2019&amp;category%5B0%5D=&amp;enddate=15%2F12%2F2019&amp;device=desktop&amp;mode=grid&amp;page=7&amp;ajax=1</t>
   </si>
   <si>
     <t>La strada dei presepi</t>
   </si>
   <si>
-    <t>Periodo ,06/12/2019 - 11/01/2020</t>
+    <t>06/12/2019-11/01/2020</t>
   </si>
   <si>
     <t>La strada dei presepi ,Esposizione di presepi. Percorso itinerante di 6 km per le vie di Vigo, Pozza e Pera ,Periodo ,06/12/2019 - 11/01/2020 ,Località ,Vigo di Fassa ,Tipologia ,Mostre ,I Comitati Manifestazioni di Pozza e Vigo hanno il piacere di presentare un inedito percorso all’aperto di circa 6 km per godere dell’atmosfera natalizia e per immergersi nei luoghi più caratteristici di Pozza, Pera e Vigo. Le scene della Natività, realizzate da privati, negozianti, albergatori ed associazioni del paese, saranno visitabili dal 5 dicembre all’11 gennaio. La piantina dei presepi è disponibile presso gli uffici turistici. Il percorso è consigliato, in particolare, alle famiglie con bambini.</t>
@@ -5219,16 +5123,16 @@
     <t>Esposizione di presepi. Percorso itinerante di 6 km per le vie di Vigo, Pozza e Pera</t>
   </si>
   <si>
-    <t>https://www.visittrentino.info/it/guida/eventi/la-strada-dei-presepi_e_12304054?destination=&amp;submitted=1&amp;startdate=29%2F11%2F2019&amp;category%5B0%5D=&amp;enddate=15%2F12%2F2019&amp;device=desktop&amp;mode=grid&amp;page=7&amp;ajax=1</t>
+    <t>https://www.visittrentino.info/it/guida/eventi/la-strada-dei-presepi_e_12304054?destination=&amp;submitted=1&amp;startdate=03%2F12%2F2019&amp;category%5B0%5D=&amp;enddate=15%2F12%2F2019&amp;device=desktop&amp;mode=grid&amp;page=7&amp;ajax=1</t>
   </si>
   <si>
     <t>Due Passi tra i Presepi</t>
   </si>
   <si>
-    <t>Periodo ,15/12/2019 - 12/01/2020</t>
-  </si>
-  <si>
-    <t>h. 14.30 &gt; 20.30</t>
+    <t>15/12/2019-12/01/2020</t>
+  </si>
+  <si>
+    <t>14.30-20.30</t>
   </si>
   <si>
     <t>Due Passi tra i Presepi ,Una tranquilla passeggiata tra viuzze e vicoli per ammirare oltre 50 presepi nei vòlti e nelle corti delle case ,Periodo ,15/12/2019 - 12/01/2020 ,Località ,Arco ,Tipologia ,Intrattenimento della Località ,DUE PASSI TRA I PRESEPI ,XXII edizione ,Bolognano di Arco (TN) ,15 dicembre 2019 / 12 gennaio 2020 ,Domenica 15 dicembre 2019 a Bolognano (Arco) si inaugura la ventiduesima manifestazione natalizia DUE PASSI TRA I PRESEPI. ,A Natale si può ancora essere autentici? Sì, a Bolognano ci riescono. ,Infatti durante il periodo natalizio, da ventidue anni, le vie centrali del paese si addobbano di ben cinquanta presepi, o anche più. ,Una passeggiata di mezz'ora consente di rivivere la gioia vera, quella che scalda i cuori, all’insegna di una tradizione antica che qui è ancora radicata. ,L’organizzazione è totalmente volontaria e informale, ma efficace perché può contare sulla buona volontà dei residenti. Dal 15 dicembre al 12 gennaio 2020. ,I TRE APPUNTAMENTI NATALIZI DI BOLOGNANO 2019 ,Domenica 15 DICEMBRE 2019, ore 15.00, presso Oratorio ,“POESIE NATALIZIE” ,a cura del Gruppo Poesia 83 di Trentino Alto Adige e Veneto ,Ingresso libero. ,Domenica 22 DICEMBRE 2019, ore 17.00, Chiesa parrocchiale ,“CONCERTO DI NATALE” ,Orchestra "I Filarmonici" di Trento ,Ingresso libero. ,L’Orchestra “I Filarmonici” di Trento, fondata nel 1999 e oggi molto apprezzata anche fuori regione, è costituita da trenta musicisti non professionisti provenienti da vari centri del Trentino. ,Domenica 29 DICEMBRE 2019, ore 17.00, Chiesa parrocchiale ,“FRA NATALE E CAPODANNO” ,TRIO soprano, tenore e arpa, ,con Paola Sanguinetti, Domenico Menini, Davide Burani ,Ingresso libero.</t>
@@ -5240,16 +5144,16 @@
     <t>Una tranquilla passeggiata tra viuzze e vicoli per ammirare oltre 50 presepi nei vòlti e nelle corti delle case</t>
   </si>
   <si>
-    <t>https://www.visittrentino.info/it/guida/eventi/due-passi-tra-i-presepi_e_314756?destination=&amp;submitted=1&amp;startdate=29%2F11%2F2019&amp;category%5B0%5D=&amp;enddate=15%2F12%2F2019&amp;device=desktop&amp;mode=grid&amp;page=7&amp;ajax=1</t>
+    <t>https://www.visittrentino.info/it/guida/eventi/due-passi-tra-i-presepi_e_314756?destination=&amp;submitted=1&amp;startdate=03%2F12%2F2019&amp;category%5B0%5D=&amp;enddate=15%2F12%2F2019&amp;device=desktop&amp;mode=grid&amp;page=7&amp;ajax=1</t>
   </si>
   <si>
     <t>La Via di Betlemme</t>
   </si>
   <si>
-    <t>Periodo ,07/12/2019 - 12/01/2020</t>
-  </si>
-  <si>
-    <t>Località ,Varena</t>
+    <t>07/12/2019-12/01/2020</t>
+  </si>
+  <si>
+    <t>Varena</t>
   </si>
   <si>
     <t>La Via di Betlemme ,Di capanna in capanna, a spasso nella natività ,1 altre immagini ,Periodo ,07/12/2019 - 12/01/2020 ,Località ,Varena ,Tipologia ,Folklore, Mercati e mercatini ,Dal 7 dicembre 12 gennaio, il paese di Varena si trasforma in una piccola Betlemme con un grande presepio illuminato la sera. Un chilometro di sentieri conduce alla scoperta di novanta personaggi, alti un metro, e un centinaio di animali. La capanna di Gesù Bambino è circondata da un piccolo paese con la locanda, la stalla, il forno e le botteghe degli artigiani. ,“La via di Betlemme” rievoca mestieri antichi come la tosatura delle pecore, la filatura della lana, il recupero della legna, la battitura del grano. L’enorme Presepio viene sistemato sul prato innevato che costeggia via Alpini e occupa 2500 metri quadrati. Quando scende la notte, 200 punti luce illuminano la Natività creando un’atmosfera incantata. ,Gli appuntamenti da non perdere: ,7 dicembre ore 20:00, apertura al pubblico del presepio "Sulla via di Betlemme" ,26 dicembre ore 14:30, "Promesse che volano". Manifestazione per bambini con lancio di messaggi di pace con i palloncini ,29 dicembre ore 21:00, "Natale sotto le stelle". Concerto natalizio del coro di montagna Val Lubie di Varena, the, brulè e dolci ,12 gennaio ore 20:00, chiusura presepio "Sulla via di Betlemme", ci vediamo il prossimo anno!</t>
@@ -5261,13 +5165,13 @@
     <t>Di capanna in capanna, a spasso nella natività</t>
   </si>
   <si>
-    <t>https://www.visittrentino.info/it/guida/eventi/la-via-di-betlemme_e_3508435?destination=&amp;submitted=1&amp;startdate=29%2F11%2F2019&amp;category%5B0%5D=&amp;enddate=15%2F12%2F2019&amp;device=desktop&amp;mode=grid&amp;page=7&amp;ajax=1</t>
+    <t>https://www.visittrentino.info/it/guida/eventi/la-via-di-betlemme_e_3508435?destination=&amp;submitted=1&amp;startdate=03%2F12%2F2019&amp;category%5B0%5D=&amp;enddate=15%2F12%2F2019&amp;device=desktop&amp;mode=grid&amp;page=7&amp;ajax=1</t>
   </si>
   <si>
     <t>Presepi in Turchia</t>
   </si>
   <si>
-    <t>Periodo ,06/12/2019 - 13/01/2020</t>
+    <t>06/12/2019-13/01/2020</t>
   </si>
   <si>
     <t>Presepi in Turchia ,Esposizione di presepi artigianali e di alberi di Natale nel rione Turchia di Moena ,Periodo ,06/12/2019 - 13/01/2020 ,Località ,Moena ,Tipologia ,Mostre ,In occasione delle feste natalizie, l’associazione locale "Grop de Turchia" allestisce una ventina di presepi in ambientazioni suggestive negli angoli più caratteristici del rione di Moena. Il più grande viene preparato all’interno del fienile "Tabià del Copeto" (1693) con statue di legno a grandezza naturale, scolpite da artisti locali. Si consiglia la visita all’imbrunire. ,Dal 6 dicembre al 13 gennaio, camminando lungo la via che attraversa lo storico borgo, si potrà respirare l’atmosfera della leggenda di Turchia: dopo la sconfitta dei turchi a Vienna, nel 1663, un soldato, cercando di tornare in patria, attraversò il Passo San Pellegrino, ma cadde esausto vicino all’ultima casa della contrada moenese. L’infedele fu soccorso e sfamato. Il fatto fece tanto scalpore che gli abitanti del rione furono chiamati "turchi". Infatti, in Strada de Turchia, si trova la fontana del turco, realizzata nel 1922 con capitello formato da testa dalle arabe fattezze e decorata con mezzaluna e stella.</t>
@@ -5279,16 +5183,16 @@
     <t>Esposizione di presepi artigianali e di alberi di Natale nel rione Turchia di Moena</t>
   </si>
   <si>
-    <t>https://www.visittrentino.info/it/guida/eventi/presepi-in-turchia_e_390219?destination=&amp;submitted=1&amp;startdate=29%2F11%2F2019&amp;category%5B0%5D=&amp;enddate=15%2F12%2F2019&amp;device=desktop&amp;mode=grid&amp;page=7&amp;ajax=1</t>
+    <t>https://www.visittrentino.info/it/guida/eventi/presepi-in-turchia_e_390219?destination=&amp;submitted=1&amp;startdate=03%2F12%2F2019&amp;category%5B0%5D=&amp;enddate=15%2F12%2F2019&amp;device=desktop&amp;mode=grid&amp;page=7&amp;ajax=1</t>
   </si>
   <si>
     <t>Mai più senza storie</t>
   </si>
   <si>
-    <t>Periodo ,16/11/2019 - 18/01/2020</t>
-  </si>
-  <si>
-    <t>h. 10.30 &gt; 12.00</t>
+    <t>16/11/2019-18/01/2020</t>
+  </si>
+  <si>
+    <t>10.30-12.00</t>
   </si>
   <si>
     <t>Mai più senza storie ,Incontri di lettura ad alta voce dedicati ai bambini dai 3 anni con Elisabetta Parisi ,Periodo ,16/11/2019 - 18/01/2020 ,Località ,Riva del Garda ,Tipologia ,Altro ,Ciclo di letture a voce alta dedicate ai bambini dai 3 anni ,"Mai più senza storie" è condotto da Elisabetta Parisi. ,Riprendono in biblioteca gli incontri di lettura ad alta voce dedicati ai bambini dai 3 anni. Un momento magico di ascolto e divertimento da condividere in biblioteca guidati dalla voce e i laboratori di Elisabetta. ,Ogni incontro sarà seguito da un piccolo laboratorio manuale realizzato da Elisabetta Parisi.</t>
@@ -5300,16 +5204,13 @@
     <t>Incontri di lettura ad alta voce dedicati ai bambini dai 3 anni con Elisabetta Parisi</t>
   </si>
   <si>
-    <t>https://www.visittrentino.info/it/guida/eventi/mai-piu-senza-storie_e_314768?destination=&amp;submitted=1&amp;startdate=29%2F11%2F2019&amp;category%5B0%5D=&amp;enddate=15%2F12%2F2019&amp;device=desktop&amp;mode=grid&amp;page=7&amp;ajax=1</t>
+    <t>https://www.visittrentino.info/it/guida/eventi/mai-piu-senza-storie_e_314768?destination=&amp;submitted=1&amp;startdate=03%2F12%2F2019&amp;category%5B0%5D=&amp;enddate=15%2F12%2F2019&amp;device=desktop&amp;mode=grid&amp;page=7&amp;ajax=1</t>
   </si>
   <si>
     <t>Richard Artschwager</t>
   </si>
   <si>
-    <t>Periodo ,12/10/2019 - 02/02/2020</t>
-  </si>
-  <si>
-    <t>Apertura: dal martedì alla domenica dalle 10.00 alle 18.00. Il venerdì dalle 10.00 alle 21.00. ,La biglietteria chiude mezz'ora prima della chiusura del Museo. ,Aperture straordinarie: ,2019: 15 agosto, 1 novembre, 8 dicembre, 26 dicembre, 30 dicembre dalle 10.00 alle 18.00. ,2020: 1 gennaio dalle 15.00 alle 20.00, 6 gennaio dalle 10.00 alle 18.00. ,Chiusura: Lunedì (eccetto festivi), 25 dicembre.</t>
+    <t>12/10/2019-02/02/2020</t>
   </si>
   <si>
     <t>Richard Artschwager ,In mostra uno dei maggiori esponenti del minimalismo ,2 altre immagini ,Periodo ,12/10/2019 - 02/02/2020 ,Località ,Rovereto ,Tipologia ,Mostre ,Affidata al curatore Germano Celant, arriva al Mart la più grande esposizione mai presentata in Europa sull’artista, pittore e scultore americano Richard Artschwager (1923-2013). ,Affidata al curatore Germano Celant, e prodotta in collaborazione con il Guggenheim Museum di Bilbao, l’esposizione sarà prima in Italia, poi in Spagna. Volta alla comprensione dello spazio, degli oggetti quotidiani e della percezione, la poetica di Artschwager si è imposta come un unicum nell’arte del secolo passato. Le sue opere affrontano la rappresentazione di strumenti utilitari riprodotti con materiali industriali come la formica, il celotex, la pittura acrilica e l’alluminio. A questi aspetti fondanti si aggiunge l'attenzione alla forma geometrica pura e all’illusionismo pittorico. Il risultato sono pitture e sculture che sospendono le categorie dell’immagine e degli oggetti in un limbo fra lo spazio che fisicamente occupano, l’utilità a cui rimandano e la rappresentazione artistica.</t>
@@ -5321,15 +5222,12 @@
     <t>In mostra uno dei maggiori esponenti del minimalismo</t>
   </si>
   <si>
-    <t>https://www.visittrentino.info/it/guida/eventi/richard-artschwager_e_10552252?destination=&amp;submitted=1&amp;startdate=29%2F11%2F2019&amp;category%5B0%5D=&amp;enddate=15%2F12%2F2019&amp;device=desktop&amp;mode=grid&amp;page=7&amp;ajax=1</t>
+    <t>https://www.visittrentino.info/it/guida/eventi/richard-artschwager_e_10552252?destination=&amp;submitted=1&amp;startdate=03%2F12%2F2019&amp;category%5B0%5D=&amp;enddate=15%2F12%2F2019&amp;device=desktop&amp;mode=grid&amp;page=7&amp;ajax=1</t>
   </si>
   <si>
     <t>100 Marchi - Berlino 2019</t>
   </si>
   <si>
-    <t>Periodo ,09/11/2019 - 09/02/2020</t>
-  </si>
-  <si>
     <t>100 Marchi - Berlino 2019 ,a 30 anni dalla caduta del muro di Berlino (9 novembre 1989) un progetto artistico del fotografo Tommaso Bonaventura, in collaborazione con la curatrice Elisa Del Prete ,2 altre immagini ,Periodo ,09/11/2019 - 09/02/2020 ,Località ,Trento ,Tipologia ,Eventi Culturali, Mostre ,La mostra propone il racconto del Begrüssungsgeld, il denaro di benvenuto che dal 1970 al dicembre 1989 i cittadini della DDR ricevevano quando entravano nella Germania Ovest per la prima volta. Questa vicenda offre uno spunto per interrogarsi su un cambiamento epocale a partire da un punto di osservazione che privilegia le storie private e familiari, restituendole attraverso un duplice racconto: fotografico e video. ,La semplice domanda «Ricordi come hai speso il tuo Begrüssungsgeld?» posta a un campione di tedeschi della ex DDR di generazioni differenti, intervistati nel corso del 2018 e 2019, ha rappresentato il punto di partenza per un viaggio nella memoria, oggi ancora poco condivisa, di queste persone che hanno vissuto un cambiamento totale, sia da un punto di vista materiale, lavorativo, sociale ed economico, sia politico. ,Se la caduta del muro di Berlino ha posto le basi per un nuovo assetto politico e geografico mondiale segnando la fine della Guerra Fredda, la riunificazione tra Germania Est e Germania Ovest rimane ancora oggi un fenomeno complesso e poco discusso nei suoi aspetti più profondi. Spesso risolto in modo semplicistico come il coronamento di uno scontato desiderio di libertà, il superamento del confine fisico che simbolicamente coincide con l’abbattimento del muro porta inevitabilmente con sé la necessità di superare anche un confine ideologico. ,Il 9 novembre 1989 non cade soltanto il muro di Berlino ma cambia un intero paese: la parte che si ricongiunge alle sue origini subisce una inevitabile metamorfosi e svaniscono rapidamente un modo di vivere, di pensare, di comportarsi, di vestire, di spendere. In tempi brevissimi la Repubblica Democratica Tedesca è rimossa dall'immaginario e dalla memoria. Quasi 17 milioni di persone si trovano di colpo immerse in un nuovo stile di vita, dove non valgono più le regole apprese fino ad allora. La trasformazione è repentina. Nelle politiche governative e nella vita quotidiana delle persone si afferma il nuovo alfabeto dell'Ovest, i suoi colori, i suoi odori, le sue politiche economiche e sociali, e quelle che erano due comunità distinte si trovano a convivere. ,Il racconto fotografico di Tommaso Bonaventura, intrecciandosi alla narrazione di queste biografie, si propone di restituire una Berlino contemporanea fatta di volti, luoghi e storie non scontati, rimasta simbolo di uno degli eventi più significativi della storia recente, ancora viva e presente nel tessuto cittadino, urbano e sociale. La ricerca si è infatti focalizzata su Berlino quale emblema di questo cambiamento, ma anche città in cui la presenza fisica e "mentale" del muro, che ha segnato così fortemente l'esperienza delle persone, in qualche modo permane.</t>
   </si>
   <si>
@@ -5339,19 +5237,16 @@
     <t>a 30 anni dalla caduta del muro di Berlino (9 novembre 1989) un progetto artistico del fotografo Tommaso Bonaventura, in collaborazione con la curatrice Elisa Del Prete</t>
   </si>
   <si>
-    <t>https://www.visittrentino.info/it/guida/eventi/100-marchi-berlino-2019_e_12642196?destination=&amp;submitted=1&amp;startdate=29%2F11%2F2019&amp;category%5B0%5D=&amp;enddate=15%2F12%2F2019&amp;device=desktop&amp;mode=grid&amp;page=8&amp;ajax=1</t>
-  </si>
-  <si>
-    <t>Tipologia ,Teatro/Danza, Spettacoli, Enogastronomia</t>
+    <t>https://www.visittrentino.info/it/guida/eventi/100-marchi-berlino-2019_e_12642196?destination=&amp;submitted=1&amp;startdate=03%2F12%2F2019&amp;category%5B0%5D=&amp;enddate=15%2F12%2F2019&amp;device=desktop&amp;mode=grid&amp;page=7&amp;ajax=1</t>
+  </si>
+  <si>
+    <t>Teatro/Danza, Spettacoli, Enogastronomia</t>
   </si>
   <si>
     <t>Aperitivo InDanza</t>
   </si>
   <si>
-    <t>Periodo ,15/11/2019 - 01/03/2020</t>
-  </si>
-  <si>
-    <t>Venerdì 15 novembre ore 20.00 ,Venerdì 10 gennaio ore 20.00 ,Venerdì 7 febbraio ore 20.00 ,Venerdì 13 marzo ore 20.00</t>
+    <t>15/11/2019-01/03/2020</t>
   </si>
   <si>
     <t>Aperitivo InDanza ,Performance di danza, installazioni e bollicine al museo ,Periodo ,15/11/2019 - 01/03/2020 ,Località ,Rovereto ,Tipologia ,Teatro/Danza, Spettacoli, Enogastronomia ,In occasione degli spettacoli della rassegna inDanza presso l'Auditorium Melotti, il Mart collabora con il Centro Servizi Culturali S. Chiara alla presentazione di brevi performance di danza negli spazi museali. ,Una serata speciale al Mart, Museo di arte moderna e contemporanea di Trento e Rovereto, che nei suoi suggestivi spazi unisce il talento di noti performer alle inimitabili bollicine trentinedi Altemasi Trentodoc. Calendario ,Venerdì 15 novembre ore 20.00 ,Venerdì 10 gennaio ore 20.00 ,Venerdì 7 febbraio ore 20.00 ,Venerdì 13 marzo ore 20.00 ,Alle 21.00 presso l’Auditorium Melotti, spettacolo della rassegna inDanza.</t>
@@ -5363,16 +5258,16 @@
     <t>Performance di danza, installazioni e bollicine al museo</t>
   </si>
   <si>
-    <t>https://www.visittrentino.info/it/guida/eventi/aperitivo-indanza_e_7475771?destination=&amp;submitted=1&amp;startdate=29%2F11%2F2019&amp;category%5B0%5D=&amp;enddate=15%2F12%2F2019&amp;device=desktop&amp;mode=grid&amp;page=8&amp;ajax=1</t>
+    <t>https://www.visittrentino.info/it/guida/eventi/aperitivo-indanza_e_7475771?destination=&amp;submitted=1&amp;startdate=03%2F12%2F2019&amp;category%5B0%5D=&amp;enddate=15%2F12%2F2019&amp;device=desktop&amp;mode=grid&amp;page=7&amp;ajax=1</t>
+  </si>
+  <si>
+    <t>Cultural--Teatro/Danza, Spettacoli, Enogastronomia</t>
   </si>
   <si>
     <t>Danzare la rivoluzione</t>
   </si>
   <si>
-    <t>Periodo ,19/10/2019 - 01/03/2020</t>
-  </si>
-  <si>
-    <t>Martedì – Domenica dalle 10.00 alle 18.00 ,Venerdì dalle 10.00 alle 21.00 ,Lunedì chiuso</t>
+    <t>19/10/2019-01/03/2020</t>
   </si>
   <si>
     <t>Danzare la rivoluzione ,Isadora Duncan e le arti figurative in Italia tra Ottocento e avanguardia ,Periodo ,19/10/2019 - 01/03/2020 ,Località ,Rovereto ,Tipologia ,Mostre ,Arriva al Mart la prima mostra italiana dedicata alla danzatrice americana e icona culturale. Una vera e propria diva, ribelle e carismatica, che superò i canoni del balletto romantico in favore di un'autonomia di stili e tecniche. ,Centrali nel percorso espositivo sono il tema della liberazione del corpo femminile, l'influenza esercitata da Duncan nel contesto culturale del primo Novecento e il suo legame con l'Italia. Presenti in mostra le opere di numerosi grandi artisti che la rappresentarono o che ne furono profondamente ispirati: Rodin, Bourdelle, Stuck, Zandomeneghi, Sartorio, Bistolfi, Baccarini, De Carolis, Chini, Cambellotti, Nonni, Boccioni, Depero, Severini, Casorati, Campigli, Sironi, Raphaël, Gio Ponti. Una produzione a cura del Mart, della Fondazione CR Firenze, Maria Flora Giubilei e Carlo Sisi con Rossella Campana, Eleonora Barbara Nomellini e Patrizia Veroli.</t>
@@ -5384,16 +5279,16 @@
     <t>Isadora Duncan e le arti figurative in Italia tra Ottocento e avanguardia</t>
   </si>
   <si>
-    <t>https://www.visittrentino.info/it/guida/eventi/danzare-la-rivoluzione_e_12139969?destination=&amp;submitted=1&amp;startdate=29%2F11%2F2019&amp;category%5B0%5D=&amp;enddate=15%2F12%2F2019&amp;device=desktop&amp;mode=grid&amp;page=8&amp;ajax=1</t>
+    <t>https://www.visittrentino.info/it/guida/eventi/danzare-la-rivoluzione_e_12139969?destination=&amp;submitted=1&amp;startdate=03%2F12%2F2019&amp;category%5B0%5D=&amp;enddate=15%2F12%2F2019&amp;device=desktop&amp;mode=grid&amp;page=7&amp;ajax=1</t>
   </si>
   <si>
     <t>I presepi nel bosco di Zanolin</t>
   </si>
   <si>
-    <t>Periodo ,08/12/2019 - 15/03/2020</t>
-  </si>
-  <si>
-    <t>Località ,Ziano di Fiemme</t>
+    <t>08/12/2019-15/03/2020</t>
+  </si>
+  <si>
+    <t>Ziano di Fiemme</t>
   </si>
   <si>
     <t>I presepi nel bosco di Zanolin ,Una passeggiata nel bosco costellata di piccole opere d'arte ,3 altre immagini ,Periodo ,08/12/2019 - 15/03/2020 ,Località ,Ziano di Fiemme ,Tipologia ,Intrattenimento della Località ,Una passeggiata nel bosco dedicata al Natale. Una quarantina di presepi si affacciano su un sentiero ad anello sopra l’abitato di Ziano, nella frazione Zanolin. ,Sono stati creati dagli abitanti di questo paesino per invitare a respirare l’atmosfera natalizia a contatto con la natura. Lungo la passeggiata dei presepi i visitatori hanno la sensazione di camminare fra migliaia di “alberi di Natale”, visto che il sentiero parte da via Cavelonte e si inoltra in un bosco di abeti e larici. Le cartine del percorso sono disponibili negli uffici turistici della Valle. I presepi restano allestiti per tutto l’inverno, regalando così l’occasione di una bella passeggiata su un tracciato normalmente poco battuto. ,EVENTI SPECIALI ,14 Dicembre 2019, ore 14.00: inaugurazione del percorso con ritrovo presso la piazzetta di Zanolin. A seguire thè caldo e musica ,28 Dicembre 2019, ore 17.00: passeggiata serale accompagnata. Ritrovo presso la piazzetta di Zanolin con obbligo di frontalina o torcia. Bevande calde per tutti a fine passeggiata ,12 Gennaio 2020, ore 14.00: passeggiata accompagnata con arrivo alla baita "Busa Prima" per gustare uno spuntino in compagnia. Ritrovo presso la piazzetta di Zanolin ,Per scoprire i presepi nel bosco e per partecipare agli appuntamenti accompagnati sono sempre consigliati scarponcini e bastoncini da trekking</t>
@@ -5405,16 +5300,16 @@
     <t>Una passeggiata nel bosco costellata di piccole opere d'arte</t>
   </si>
   <si>
-    <t>https://www.visittrentino.info/it/guida/eventi/i-presepi-nel-bosco-di-zanolin_e_746594?destination=&amp;submitted=1&amp;startdate=29%2F11%2F2019&amp;category%5B0%5D=&amp;enddate=15%2F12%2F2019&amp;device=desktop&amp;mode=grid&amp;page=8&amp;ajax=1</t>
+    <t>https://www.visittrentino.info/it/guida/eventi/i-presepi-nel-bosco-di-zanolin_e_746594?destination=&amp;submitted=1&amp;startdate=03%2F12%2F2019&amp;category%5B0%5D=&amp;enddate=15%2F12%2F2019&amp;device=desktop&amp;mode=grid&amp;page=7&amp;ajax=1</t>
   </si>
   <si>
     <t>Lunedì Cinema Cineforum</t>
   </si>
   <si>
-    <t>Periodo ,14/10/2019 - 23/03/2020</t>
-  </si>
-  <si>
-    <t>Località ,Arco, Riva del Garda</t>
+    <t>14/10/2019-23/03/2020</t>
+  </si>
+  <si>
+    <t>Arco, Riva del Garda</t>
   </si>
   <si>
     <t>Lunedì Cinema Cineforum ,Cineforum ,Periodo ,14/10/2019 - 23/03/2020 ,Località ,Arco, Riva del Garda ,Tipologia ,Cinema ,Le proiezioni, che iniziano alle ore 21, a Riva del Garda si tengono all’auditorium del Conservatorio e ad Arco all’auditorium di Palazzo dei Panni. ,L’ingresso avviene con tessera FIC (sottoscrivibile la sera della proiezione), che costa 12 euro (5 euro per gli studenti fino ai 25 anni d’età) ed è valida per l’intera stagione. ,L’angelo azzurro e il suo creatore Riva del Garda ,14.10 L'angelo azzurro ,21.10 Marocco ,28.10 Shanghai Express ,4.11 L'imperatrice Caterina ,La Luna vista dalla Terra Arco ,11.11 Uomini veri ,18.11 Apollo 13 ,25.11 Moon ,2.12 Space cowboys ,100 anni con Fellini Riva del Garda ,13.01 I vitelloni ,20.01 Toby Dammit | Block notes di un regista ,27.01 Fellini - Satyricon ,3.02 Roma ,Road Movie: il genere americano per eccellenza Arco ,10.02 Easy Rider ,17.02 Punto zero ,24.02 Thelma e Louise ,2.03 Paper Moon ,50 anni senza Judy Garland Riva del Garda ,9.03 Il Mago di Oz ,16.03 Incontriamoci a Saint Louis ,23.03 Ti amavo senza saperlo</t>
@@ -5426,16 +5321,16 @@
     <t>Cineforum</t>
   </si>
   <si>
-    <t>https://www.visittrentino.info/it/guida/eventi/lunedi-cinema-cineforum_e_544608?destination=&amp;submitted=1&amp;startdate=29%2F11%2F2019&amp;category%5B0%5D=&amp;enddate=15%2F12%2F2019&amp;device=desktop&amp;mode=grid&amp;page=8&amp;ajax=1</t>
-  </si>
-  <si>
-    <t>Tipologia ,Sport, Altro</t>
+    <t>https://www.visittrentino.info/it/guida/eventi/lunedi-cinema-cineforum_e_544608?destination=&amp;submitted=1&amp;startdate=03%2F12%2F2019&amp;category%5B0%5D=&amp;enddate=15%2F12%2F2019&amp;device=desktop&amp;mode=grid&amp;page=8&amp;ajax=1</t>
+  </si>
+  <si>
+    <t>Sport, Altro</t>
   </si>
   <si>
     <t>Eventi a Baita Laghetto</t>
   </si>
   <si>
-    <t>Periodo ,06/12/2019 - 31/03/2020</t>
+    <t>06/12/2019-31/03/2020</t>
   </si>
   <si>
     <t>Eventi a Baita Laghetto ,Aprés Ski, Sunday in the chalet, cene a tema e tanta musica ,2 altre immagini ,Periodo ,06/12/2019 - 31/03/2020 ,Località ,Brentonico ,Tipologia ,Sport, Altro ,A Baita Laghetto, sulle piste di Polsa e San Valentino, è sempre l’ora di fare festa! Ti aspetta una baita dall'aspetto rustico ma ricercato con un ampio solarium per rilassarsi dopo una bella sciata. ,Da dicembre 2019 a marzo 2020 ,Tutti i sabato sera musica con dj ,Tutte le domeniche “Sunday in the Chalet“, le domeniche musicali sulla neve ,Tutti i giovedì di apertura notturna delle piste, cucina aperta con cene a tema ,Dicembre 2019 ,Sabato 28 dicembre serata di apertura della stagione invernale ,Domenica 29 dicembre apertura alle 7.00 per salutare l’alba con Trentino Ski Sunrise ,Martedì 31 dicembre un Capodanno sulla neve mai visto prima! ,Gennaio 2020 ,Venerdì 10 gennaio ciaspolata sotto la luna piena seguita da una cena in Baita ,Febbraio 2020 ,Sabato 1 febbraio tappa dolci e festa in occasione di Golosaneve ,Sabato 8 febbraio ciaspolata organizzata dall’Associazione Pernici della Piof ,Venerdì 14 febbraio San Valentino con cena romantica in Baita ,Sabato 15 febbraio Festa dedicata a tutti i single ,Martedì 25 febbraio Martedì grasso e grostoi per tutti ,Marzo 2020 ,Domenica 8 marzo Festa della donna con un piccolo omaggio per tutte le donne</t>
@@ -5447,19 +5342,22 @@
     <t>Aprés Ski, Sunday in the chalet, cene a tema e tanta musica</t>
   </si>
   <si>
-    <t>https://www.visittrentino.info/it/guida/eventi/eventi-a-baita-laghetto_e_12703904?destination=&amp;submitted=1&amp;startdate=29%2F11%2F2019&amp;category%5B0%5D=&amp;enddate=15%2F12%2F2019&amp;device=desktop&amp;mode=grid&amp;page=8&amp;ajax=1</t>
+    <t>https://www.visittrentino.info/it/guida/eventi/eventi-a-baita-laghetto_e_12703904?destination=&amp;submitted=1&amp;startdate=03%2F12%2F2019&amp;category%5B0%5D=&amp;enddate=15%2F12%2F2019&amp;device=desktop&amp;mode=grid&amp;page=8&amp;ajax=1</t>
+  </si>
+  <si>
+    <t>Cultural--Sport, Altro</t>
   </si>
   <si>
     <t>SkiEat</t>
   </si>
   <si>
-    <t>Periodo ,12/12/2019 - 09/04/2020</t>
-  </si>
-  <si>
-    <t>ore 10.00</t>
-  </si>
-  <si>
-    <t>Località ,Commezzadura</t>
+    <t>12/12/2019-09/04/2020</t>
+  </si>
+  <si>
+    <t>10.00</t>
+  </si>
+  <si>
+    <t>Commezzadura</t>
   </si>
   <si>
     <t>SkiEat ,Gourmet snowtour 6 ore di sci con maestro + degustazioni e merenda ,Periodo ,12/12/2019 - 09/04/2020 ,Località ,Commezzadura ,Tipologia ,Sport ,NEVE E BUON CIBO ,UN CONNUBIO IDEALE PER LA STAGIONE INVERNALE ,Vuoi imparare a sciare o a perfezionare la tua tecnica magari assaggiando il meglio dell'enogastronomia locale? Ecco la proposta che fa per te: uno vero e proprio «gourmet snowtour» con 6 ore di sci in compagnia di un esperto maestro, pranzo degustazione presso il RIFUGIO PATASCOSS a Madonna di Campiglio, merenda con bevande calde e dolci con prodotti tipici della tradizione trentina presso il RIFUGIO SOLANDER a Commezzadura. ,TUTTI I GIOVEDÌ ORE 10.00 con partenza dalla Scuola Italiana Sci Val di Sole ,ritrovo ore 9.50 alla stazione a monte della Telecabina Daolasa Val Mastellina ,ATTIVITÀ A PAGAMENTO € 80,00 ,tour garantito con un minimo di 5 partecipanti ,INFO &amp; PRENOTAZIONI ,SCUOLA ITALIANA SCI VAL DI SOLE ,Tel. 0463 970002 - info@scuolascivaldisole.com ,www.scuolascivaldisole.com</t>
@@ -5471,16 +5369,13 @@
     <t>Gourmet snowtour 6 ore di sci con maestro + degustazioni e merenda</t>
   </si>
   <si>
-    <t>https://www.visittrentino.info/it/guida/eventi/skieat_e_2542000?destination=&amp;submitted=1&amp;startdate=29%2F11%2F2019&amp;category%5B0%5D=&amp;enddate=15%2F12%2F2019&amp;device=desktop&amp;mode=grid&amp;page=8&amp;ajax=1</t>
+    <t>https://www.visittrentino.info/it/guida/eventi/skieat_e_2542000?destination=&amp;submitted=1&amp;startdate=03%2F12%2F2019&amp;category%5B0%5D=&amp;enddate=15%2F12%2F2019&amp;device=desktop&amp;mode=grid&amp;page=8&amp;ajax=1</t>
   </si>
   <si>
     <t>La pelle del soldato</t>
   </si>
   <si>
-    <t>Periodo ,25/04/2018 - 03/05/2020</t>
-  </si>
-  <si>
-    <t>Martedì – Domenica 10:00 – 18:00</t>
+    <t>25/04/2018-03/05/2020</t>
   </si>
   <si>
     <t>La pelle del soldato ,Uniformi, corazze, elmi e maschere antigas dalla Prima guerra mondiale al Duemila ,1 altre immagini ,Periodo ,25/04/2018 - 03/05/2020 ,Località ,Rovereto ,Tipologia ,Mostre ,Nei conflitti del Novecento, i soldati hanno dovuto affrontare l'enorme potenziale distruttivo degli armamenti con ben pochi dispositivi di difesa e di protezione. A questo tema il Museo della Guerra dedica la mostra allestita negli spazi del Castello di Rovereto, riaperti al pubblico dopo un importante restauro. L'esposizione avrà un ampio riferimento alla Grande Guerra ma si proietterà fino agli anni Duemila, con materiali relativi alla storia più recente: dalle corazze agli elmi, dagli scudi alle maschere antigas, dalle uniformi mimetiche alle protezioni contro la minaccia nucleare, batteriologica e chimica. L'esposizione illustrerà attraverso una grande quantità di oggetti l'efficacia e i limiti delle strategie e dei dispositivi adottati dagli eserciti, rispetto alla trasformazione delle armi, alle forme e al contesto dei combattimenti, al mutare stesso delle guerre. Senza dimenticare il soggetto più indifeso delle guerre: la popolazione civile. Dove dormire #visitrovereto consiglia ,B&amp;B Vista Castello per una vista privilegiata sul Castello di Rovereto ,Ostello di Rovereto per un break nel centro storico di Rovereto</t>
@@ -5492,16 +5387,16 @@
     <t>Uniformi, corazze, elmi e maschere antigas dalla Prima guerra mondiale al Duemila</t>
   </si>
   <si>
-    <t>https://www.visittrentino.info/it/guida/eventi/la-pelle-del-soldato_e_2758648?destination=&amp;submitted=1&amp;startdate=29%2F11%2F2019&amp;category%5B0%5D=&amp;enddate=15%2F12%2F2019&amp;device=desktop&amp;mode=grid&amp;page=8&amp;ajax=1</t>
+    <t>https://www.visittrentino.info/it/guida/eventi/la-pelle-del-soldato_e_2758648?destination=&amp;submitted=1&amp;startdate=03%2F12%2F2019&amp;category%5B0%5D=&amp;enddate=15%2F12%2F2019&amp;device=desktop&amp;mode=grid&amp;page=8&amp;ajax=1</t>
   </si>
   <si>
     <t>Es war einmal...Hört zu und macht mit!</t>
   </si>
   <si>
-    <t>Periodo ,05/10/2019 - 16/05/2020</t>
-  </si>
-  <si>
-    <t>h. 10.30 &gt; 11.30</t>
+    <t>05/10/2019-16/05/2020</t>
+  </si>
+  <si>
+    <t>10.30-11.30</t>
   </si>
   <si>
     <t>Es war einmal...Hört zu und macht mit! ,Ciclo di letture in tedesco dedicate ai bambini con Christine Rofner ,Periodo ,05/10/2019 - 16/05/2020 ,Località ,Riva del Garda ,Tipologia ,Altro ,Ritornano in biblioteca le letture in tedesco dedicate ai bambini dai tre anni. Un'occasione per entrare in contatto con una nuova lingua tramite l'ascolto di bellissime storie. ,Ogni incontro sarà seguito da un piccolo laboratorio manuale realizzato da Christine. ,Con la collaborazione dell'Associazione Amici di Bensheim</t>
@@ -5513,13 +5408,13 @@
     <t>Ciclo di letture in tedesco dedicate ai bambini con Christine Rofner</t>
   </si>
   <si>
-    <t>https://www.visittrentino.info/it/guida/eventi/es-war-einmal.hort-zu-und-macht-mit_e_12201609?destination=&amp;submitted=1&amp;startdate=29%2F11%2F2019&amp;category%5B0%5D=&amp;enddate=15%2F12%2F2019&amp;device=desktop&amp;mode=grid&amp;page=8&amp;ajax=1</t>
+    <t>https://www.visittrentino.info/it/guida/eventi/es-war-einmal.hort-zu-und-macht-mit_e_12201609?destination=&amp;submitted=1&amp;startdate=03%2F12%2F2019&amp;category%5B0%5D=&amp;enddate=15%2F12%2F2019&amp;device=desktop&amp;mode=grid&amp;page=8&amp;ajax=1</t>
   </si>
   <si>
     <t>Storylab</t>
   </si>
   <si>
-    <t>Periodo ,26/10/2019 - 23/05/2020</t>
+    <t>26/10/2019-23/05/2020</t>
   </si>
   <si>
     <t>Storylab ,Letture in lingua inglese per bambini dai 3 anni con Alessandra Prandi ,Periodo ,26/10/2019 - 23/05/2020 ,Località ,Riva del Garda ,Tipologia ,Altro ,"Storylab" è condotto da Alessandra Prandi. ,Si riparte con l'attività per avvicinare i più piccoli alla lingua inglese attraverso la lettura animata di brevi racconti con l'utilizzo di piccoli oggetti e pupazzi. ,Un momento di ascolto e gioco da vivere in biblioteca guidati da Alessandra. ,Ogni incontro sarà seguito da un piccolo laboratorio manuale realizzato da Alessandra Prandi. ,CALENDARIO ,Sabato 26 ottobre 2019 ,Ore 10.30 Sala Ragazzi ,Sabato 23 novembre 2019 ,Ore 10.30 Sala Ragazzi ,Sabato 14 dicembre 2019 ,Ore 10.30 Sala Ragazzi ,Sabato 25 gennaio 2020 ,Ore 10.30 Sala Ragazzi ,Sabato 29 febbraio 2020 ,Ore 10.30 Sala Ragazzi ,Sabato 21 marzo 2020 ,Ore 10.30 Sala Ragazzi ,Sabato 2 maggio 2020 ,Ore 10.30 Sala Ragazzi ,Sabato 23 maggio 2020 ,Ore 10.30 Sala Ragazzi</t>
@@ -5531,16 +5426,13 @@
     <t>Letture in lingua inglese per bambini dai 3 anni con Alessandra Prandi</t>
   </si>
   <si>
-    <t>https://www.visittrentino.info/it/guida/eventi/storylab_e_859938?destination=&amp;submitted=1&amp;startdate=29%2F11%2F2019&amp;category%5B0%5D=&amp;enddate=15%2F12%2F2019&amp;device=desktop&amp;mode=grid&amp;page=8&amp;ajax=1</t>
+    <t>https://www.visittrentino.info/it/guida/eventi/storylab_e_859938?destination=&amp;submitted=1&amp;startdate=03%2F12%2F2019&amp;category%5B0%5D=&amp;enddate=15%2F12%2F2019&amp;device=desktop&amp;mode=grid&amp;page=8&amp;ajax=1</t>
   </si>
   <si>
     <t>Corde resonanti - Omaggio a Beethoven</t>
   </si>
   <si>
-    <t>Periodo ,27/11/2019 - 27/05/2020</t>
-  </si>
-  <si>
-    <t>h. 20.45 &gt; 22.30</t>
+    <t>27/11/2019-27/05/2020</t>
   </si>
   <si>
     <t>Corde resonanti - Omaggio a Beethoven ,Concerti per pianoforte, ma non solo, con presentazione critica nell'ultimo mercoledì del mese ,Periodo ,27/11/2019 - 27/05/2020 ,Località ,Arco ,Tipologia ,Altro ,Corde Resonanti ,omaggio nel 250° anniversario della nascita di L. VAN BEETHOVEN ,PROGETTO DEL PROF. MARCO TONIATTI ,Concerti per pianoforte, ma non solo, con presentazione critica nell'ultimo mercoledì del mese ,I concerti della stagione STAGIONE 2019/2020: ,27 novembre 2019 ,29 gennaio 2020 ,26 febbraio 2020 ,25 marzo 2020 ,27 maggio 2020 ,Tutti i concerti iniziano ad ore 20.45 ,INGRESSO LIBERO</t>
@@ -5552,13 +5444,13 @@
     <t>Concerti per pianoforte, ma non solo, con presentazione critica nell'ultimo mercoledì del mese</t>
   </si>
   <si>
-    <t>https://www.visittrentino.info/it/guida/eventi/corde-resonanti-omaggio-a-beethoven_e_2302339?destination=&amp;submitted=1&amp;startdate=29%2F11%2F2019&amp;category%5B0%5D=&amp;enddate=15%2F12%2F2019&amp;device=desktop&amp;mode=grid&amp;page=8&amp;ajax=1</t>
+    <t>https://www.visittrentino.info/it/guida/eventi/corde-resonanti-omaggio-a-beethoven_e_2302339?destination=&amp;submitted=1&amp;startdate=03%2F12%2F2019&amp;category%5B0%5D=&amp;enddate=15%2F12%2F2019&amp;device=desktop&amp;mode=grid&amp;page=8&amp;ajax=1</t>
   </si>
   <si>
     <t>1914-1918 La Gran Vera - La Grande Guerra: Galizia, Dolomiti</t>
   </si>
   <si>
-    <t>Periodo ,07/12/2019 - 02/06/2020</t>
+    <t>07/12/2019-02/06/2020</t>
   </si>
   <si>
     <t>1914-1918 La Gran Vera - La Grande Guerra: Galizia, Dolomiti ,Mostra-evento sulla Grande Guerra in Val di Fassa al Teatro Cinema Navalge di Moena ,Periodo ,07/12/2019 - 02/06/2020 ,Località ,Moena ,Tipologia ,Mostre ,L’importante esposizione, promossa da Comune di Moena, Istituto Culturale Ladino, l’associazione "Sul fronte dei ricordi" e curata da Michele Simonetti e Mauro Caimi, è un tesoro di documenti e cimeli divisi in quattro sezioni tematiche: ,"Galizia 1914", rivissuta attraverso gli straordinari quadri dei pittori di guerra austriaci, i Kriegsmaler. ,"La trincea", con accurate ricostruzioni di camminamenti, postazioni, grotte e diorami che rappresentano la vita vera della trincea e fanno rivivere l’atmosfera dell’epoca. Bambini e adulti hanno la possibilità di toccare alcuni oggetti, indossare elmetti, ascoltare suoni e testimonianze. ,"Dolomiti 1915". Le Dolomiti costituiscono ancora oggi un unico, incredibile campo di battaglia, in gran parte recuperato e visitabile: le Alte Vie Bepi Zac e Federspiel, Fango e Cima Bocche, il Lagorai, sono gioielli unici in Europa. Questi luoghi hanno restituito testimonianze straordinarie della tragica epopea che, per oltre due anni, ha visto fronteggiarsi in alta quota i combattenti di opposti eserciti. Nella sala dedicata alla Grande Guerra sul fronte dolomitico sono esposte una ventina di uniformi d’epoca, sia di parte austriaca, sia di parte italiana, illuminate in modo scenico, affiancate da vetrine tematiche con reperti della guerra in montagna, pannelli illustrativi con le testimonianze dei combattenti, foto d’epoca e testi didascalici su eventi e situazioni del fronte e delle retrovie. Nella stessa sala è possibile accedere alla "exhibition shop", con varia oggettistica e un’ampia esposizione di libri e pubblicazioni, utili per un approfondimento della tematica. ,"Guerra alla Guerra". La grande balconata sul foyer del Teatro ospita una sezione speciale sull’orrore della guerra così come appare dalle durissime immagini originali raccolte da Ernst Friedrich. ,Per maggiori info: pagina Facebook Mostra La Gran Vera Moena ,Scarica la brochure della Mostra La Gran Vera in formato PDF [6,7 MB]</t>
@@ -5570,16 +5462,13 @@
     <t>Mostra-evento sulla Grande Guerra in Val di Fassa al Teatro Cinema Navalge di Moena</t>
   </si>
   <si>
-    <t>https://www.visittrentino.info/it/guida/eventi/1914-1918-la-gran-vera-la-grande-guerra-galizia-dolomiti_e_13579?destination=&amp;submitted=1&amp;startdate=29%2F11%2F2019&amp;category%5B0%5D=&amp;enddate=15%2F12%2F2019&amp;device=desktop&amp;mode=grid&amp;page=8&amp;ajax=1</t>
+    <t>https://www.visittrentino.info/it/guida/eventi/1914-1918-la-gran-vera-la-grande-guerra-galizia-dolomiti_e_13579?destination=&amp;submitted=1&amp;startdate=03%2F12%2F2019&amp;category%5B0%5D=&amp;enddate=15%2F12%2F2019&amp;device=desktop&amp;mode=grid&amp;page=8&amp;ajax=1</t>
   </si>
   <si>
     <t>Ci vuole un fiore</t>
   </si>
   <si>
-    <t>Periodo ,14/12/2019 - 23/08/2020</t>
-  </si>
-  <si>
-    <t>Apertura: dal martedì alla domenica dalle 10.00 alle 18.00 ,Chiusura: lunedì non festivi, 1 novembre, 25 dicembre e 1 gennaio</t>
+    <t>14/12/2019-23/08/2020</t>
   </si>
   <si>
     <t>Ci vuole un fiore ,La flora del Trentino: ieri, oggi e domani ,2 altre immagini ,Periodo ,14/12/2019 - 23/08/2020 ,Località ,Rovereto ,Tipologia ,Mostre ,Uno spettacolare tour virtuale del Trentino dalla città alle vette dolomitiche per scoprirne i principali ecosistemi vegetali e porre l'attenzione sulla salvaguardia delle specie rare e protette. ,Un viaggio in Trentino alla scoperta di piante e fiori, focalizzando l’attenzione su tematiche quali la perdita di biodiversità o il cambiamento climatico e le modifiche del paesaggio. Una mostra dove grande spazio è dato ai contenuti digitali e interattivi che accompagnano il visitatore in un vero e proprio tour virtuale del nostro territorio, attraverso strumenti touch screen e visori 3D, per conoscere le piante più rare e belle del Trentino e i loro principali ambienti di crescita. Inaugurazione della mostra venerdì 13 dicembre alle 18.00 a Palazzo Parolari.</t>
@@ -5591,10 +5480,10 @@
     <t>La flora del Trentino: ieri, oggi e domani</t>
   </si>
   <si>
-    <t>https://www.visittrentino.info/it/guida/eventi/ci-vuole-un-fiore_e_13071630?destination=&amp;submitted=1&amp;startdate=29%2F11%2F2019&amp;category%5B0%5D=&amp;enddate=15%2F12%2F2019&amp;device=desktop&amp;mode=grid&amp;page=8&amp;ajax=1</t>
-  </si>
-  <si>
-    <t>Periodo ,07/12/2019 - 07/12/2020</t>
+    <t>https://www.visittrentino.info/it/guida/eventi/ci-vuole-un-fiore_e_13071630?destination=&amp;submitted=1&amp;startdate=03%2F12%2F2019&amp;category%5B0%5D=&amp;enddate=15%2F12%2F2019&amp;device=desktop&amp;mode=grid&amp;page=8&amp;ajax=1</t>
+  </si>
+  <si>
+    <t>07/12/2019-07/12/2020</t>
   </si>
   <si>
     <t>Spettacolo di fuochi d'artificio ,Parco Asburgico di Levico - ore 21.30 ,Periodo ,07/12/2019 - 07/12/2020 ,Località ,Levico Terme ,Tipologia ,Mercati e mercatini, Intrattenimento della Località, Altro ,Sabato 7 dicembre 2019, alle 21.30 si terranno nel secolare Parco Asburgico di Levico Terme: ,SPETTACOLI DI FUOCHI D'ARTIFICIO ,Parco delle Terme di Levico, ore 21.30 ,Il Mercatino di Natale di Levico Terme ha il sapore di una favola antica che prende vita nel Parco secolare degli Asburgo, un luogo incantato dove si può ancora godere dell’autentico spirito del Natale. ,Un’oasi naturale che nel periodo natalizio abbraccia con calore le tradizionali casette di legno nascoste tra gli alberi secolari tinti di bianco dai fiocchi di neve. Le luci soffuse che ricoprono come un mantello gli alberi del parco vi faranno da guida lungo i vialetti che vi condurranno a scoprire questo luogo incantato. ,Per ulteriori informazioni: ,Consorzio Levico Terme in Centro | www.visitlevicoterme.it | info@levicotermeincontra.com ,Azienda per il Turismo Valsugana | +39 0461 727700 |</t>
@@ -5603,7 +5492,7 @@
     <t>[{"name": "+390461727700", "url": "tel:+390461727700"}, {"name": "+390461727799", "url": ""}, {"name": "Invia E-mail", "url": "https://www.visittrentino.info/it/guida/contatto?mailto=info@visitvalsugana.it&amp;originUrl=/it/guida/eventi/spettacolo-di-fuochi-d-artificio_e_768648&amp;origin=Spettacolo%20di%20fuochi%20d%27artificio"}]</t>
   </si>
   <si>
-    <t>https://www.visittrentino.info/it/guida/eventi/spettacolo-di-fuochi-d-artificio_e_768648?destination=&amp;submitted=1&amp;startdate=29%2F11%2F2019&amp;category%5B0%5D=&amp;enddate=15%2F12%2F2019&amp;device=desktop&amp;mode=grid&amp;page=8&amp;ajax=1</t>
+    <t>https://www.visittrentino.info/it/guida/eventi/spettacolo-di-fuochi-d-artificio_e_768648?destination=&amp;submitted=1&amp;startdate=03%2F12%2F2019&amp;category%5B0%5D=&amp;enddate=15%2F12%2F2019&amp;device=desktop&amp;mode=grid&amp;page=8&amp;ajax=1</t>
   </si>
 </sst>
 </file>
@@ -44085,7 +43974,7 @@
         <v>1029</v>
       </c>
       <c r="P901" s="4" t="s">
-        <v>173</v>
+        <v>1030</v>
       </c>
     </row>
     <row r="902">
@@ -44096,7 +43985,7 @@
         <v>163</v>
       </c>
       <c r="C902" s="4" t="s">
-        <v>1030</v>
+        <v>1031</v>
       </c>
       <c r="D902"/>
       <c r="E902"/>
@@ -44104,28 +43993,28 @@
         <v>216</v>
       </c>
       <c r="G902" s="4" t="s">
-        <v>1031</v>
+        <v>1032</v>
       </c>
       <c r="H902"/>
       <c r="I902" s="4" t="s">
-        <v>1032</v>
+        <v>1033</v>
       </c>
       <c r="J902"/>
       <c r="K902" s="4" t="s">
-        <v>1033</v>
+        <v>1034</v>
       </c>
       <c r="L902" s="4" t="s">
-        <v>1034</v>
+        <v>1035</v>
       </c>
       <c r="M902"/>
       <c r="N902" s="4" t="s">
-        <v>1035</v>
+        <v>1036</v>
       </c>
       <c r="O902" s="4" t="s">
-        <v>1036</v>
+        <v>1037</v>
       </c>
       <c r="P902" s="4" t="s">
-        <v>282</v>
+        <v>1038</v>
       </c>
     </row>
     <row r="903">
@@ -44136,7 +44025,7 @@
         <v>163</v>
       </c>
       <c r="C903" s="4" t="s">
-        <v>1037</v>
+        <v>1039</v>
       </c>
       <c r="D903"/>
       <c r="E903"/>
@@ -44144,28 +44033,28 @@
         <v>927</v>
       </c>
       <c r="G903" s="4" t="s">
-        <v>1038</v>
+        <v>928</v>
       </c>
       <c r="H903"/>
       <c r="I903" s="4" t="s">
-        <v>1039</v>
+        <v>1040</v>
       </c>
       <c r="J903"/>
       <c r="K903" s="4" t="s">
-        <v>1040</v>
+        <v>1041</v>
       </c>
       <c r="L903" s="4" t="s">
-        <v>1041</v>
+        <v>1042</v>
       </c>
       <c r="M903"/>
       <c r="N903" s="4" t="s">
-        <v>1042</v>
+        <v>1043</v>
       </c>
       <c r="O903" s="4" t="s">
-        <v>1043</v>
+        <v>1044</v>
       </c>
       <c r="P903" s="4" t="s">
-        <v>173</v>
+        <v>1045</v>
       </c>
     </row>
     <row r="904">
@@ -44176,7 +44065,7 @@
         <v>163</v>
       </c>
       <c r="C904" s="4" t="s">
-        <v>1044</v>
+        <v>1046</v>
       </c>
       <c r="D904"/>
       <c r="E904"/>
@@ -44184,28 +44073,28 @@
         <v>779</v>
       </c>
       <c r="G904" s="4" t="s">
-        <v>1045</v>
+        <v>780</v>
       </c>
       <c r="H904"/>
       <c r="I904" s="4" t="s">
-        <v>1032</v>
+        <v>1033</v>
       </c>
       <c r="J904"/>
       <c r="K904" s="4" t="s">
-        <v>1046</v>
+        <v>1047</v>
       </c>
       <c r="L904" s="4" t="s">
-        <v>1047</v>
+        <v>1048</v>
       </c>
       <c r="M904"/>
       <c r="N904" s="4" t="s">
-        <v>1048</v>
+        <v>1049</v>
       </c>
       <c r="O904" s="4" t="s">
-        <v>1049</v>
+        <v>1050</v>
       </c>
       <c r="P904" s="4" t="s">
-        <v>173</v>
+        <v>1051</v>
       </c>
     </row>
     <row r="905">
@@ -44216,36 +44105,36 @@
         <v>163</v>
       </c>
       <c r="C905" s="4" t="s">
-        <v>1050</v>
+        <v>1052</v>
       </c>
       <c r="D905"/>
       <c r="E905"/>
       <c r="F905" s="4" t="s">
-        <v>1051</v>
+        <v>1053</v>
       </c>
       <c r="G905" s="4" t="s">
-        <v>1052</v>
+        <v>1054</v>
       </c>
       <c r="H905"/>
       <c r="I905" s="4" t="s">
-        <v>1053</v>
+        <v>1055</v>
       </c>
       <c r="J905"/>
       <c r="K905" s="4" t="s">
-        <v>1054</v>
+        <v>1056</v>
       </c>
       <c r="L905" s="4" t="s">
-        <v>1055</v>
+        <v>1057</v>
       </c>
       <c r="M905"/>
       <c r="N905" s="4" t="s">
-        <v>1056</v>
+        <v>1058</v>
       </c>
       <c r="O905" s="4" t="s">
-        <v>1057</v>
+        <v>1059</v>
       </c>
       <c r="P905" s="4" t="s">
-        <v>173</v>
+        <v>1060</v>
       </c>
     </row>
     <row r="906">
@@ -44256,38 +44145,34 @@
         <v>163</v>
       </c>
       <c r="C906" s="4" t="s">
-        <v>1058</v>
+        <v>1061</v>
       </c>
       <c r="D906"/>
       <c r="E906"/>
       <c r="F906" s="4" t="s">
-        <v>1059</v>
-      </c>
-      <c r="G906" s="4" t="s">
-        <v>1060</v>
-      </c>
-      <c r="H906" s="4" t="s">
-        <v>666</v>
-      </c>
+        <v>1062</v>
+      </c>
+      <c r="G906"/>
+      <c r="H906"/>
       <c r="I906" s="4" t="s">
-        <v>1061</v>
+        <v>1063</v>
       </c>
       <c r="J906"/>
       <c r="K906" s="4" t="s">
-        <v>1062</v>
+        <v>1064</v>
       </c>
       <c r="L906" s="4" t="s">
-        <v>1063</v>
+        <v>1065</v>
       </c>
       <c r="M906"/>
       <c r="N906" s="4" t="s">
-        <v>1064</v>
+        <v>1066</v>
       </c>
       <c r="O906" s="4" t="s">
-        <v>1065</v>
+        <v>1067</v>
       </c>
       <c r="P906" s="4" t="s">
-        <v>17</v>
+        <v>1068</v>
       </c>
     </row>
     <row r="907">
@@ -44298,38 +44183,36 @@
         <v>163</v>
       </c>
       <c r="C907" s="4" t="s">
-        <v>1066</v>
+        <v>1069</v>
       </c>
       <c r="D907"/>
       <c r="E907"/>
       <c r="F907" s="4" t="s">
-        <v>1067</v>
+        <v>1070</v>
       </c>
       <c r="G907" s="4" t="s">
-        <v>1068</v>
-      </c>
-      <c r="H907" s="4" t="s">
-        <v>1069</v>
-      </c>
+        <v>1071</v>
+      </c>
+      <c r="H907"/>
       <c r="I907" s="4" t="s">
-        <v>1070</v>
+        <v>1072</v>
       </c>
       <c r="J907"/>
       <c r="K907" s="4" t="s">
-        <v>1071</v>
+        <v>1073</v>
       </c>
       <c r="L907" s="4" t="s">
-        <v>1072</v>
+        <v>1074</v>
       </c>
       <c r="M907"/>
       <c r="N907" s="4" t="s">
-        <v>1073</v>
+        <v>1075</v>
       </c>
       <c r="O907" s="4" t="s">
-        <v>1074</v>
+        <v>1076</v>
       </c>
       <c r="P907" s="4" t="s">
-        <v>173</v>
+        <v>1077</v>
       </c>
     </row>
     <row r="908">
@@ -44340,38 +44223,36 @@
         <v>163</v>
       </c>
       <c r="C908" s="4" t="s">
-        <v>1075</v>
+        <v>1078</v>
       </c>
       <c r="D908"/>
       <c r="E908"/>
       <c r="F908" s="4" t="s">
-        <v>1076</v>
+        <v>1079</v>
       </c>
       <c r="G908" s="4" t="s">
-        <v>1077</v>
-      </c>
-      <c r="H908" s="4" t="s">
-        <v>1078</v>
-      </c>
+        <v>1071</v>
+      </c>
+      <c r="H908"/>
       <c r="I908" s="4" t="s">
-        <v>1070</v>
+        <v>1080</v>
       </c>
       <c r="J908"/>
       <c r="K908" s="4" t="s">
-        <v>1079</v>
+        <v>1081</v>
       </c>
       <c r="L908" s="4" t="s">
-        <v>1080</v>
+        <v>1082</v>
       </c>
       <c r="M908"/>
       <c r="N908" s="4" t="s">
-        <v>1081</v>
+        <v>1083</v>
       </c>
       <c r="O908" s="4" t="s">
-        <v>1082</v>
+        <v>1084</v>
       </c>
       <c r="P908" s="4" t="s">
-        <v>324</v>
+        <v>1085</v>
       </c>
     </row>
     <row r="909">
@@ -44382,36 +44263,38 @@
         <v>163</v>
       </c>
       <c r="C909" s="4" t="s">
-        <v>1083</v>
+        <v>1069</v>
       </c>
       <c r="D909"/>
       <c r="E909"/>
       <c r="F909" s="4" t="s">
-        <v>1084</v>
+        <v>1086</v>
       </c>
       <c r="G909" s="4" t="s">
-        <v>1085</v>
-      </c>
-      <c r="H909"/>
+        <v>1071</v>
+      </c>
+      <c r="H909" s="4" t="s">
+        <v>1087</v>
+      </c>
       <c r="I909" s="4" t="s">
-        <v>1086</v>
+        <v>1088</v>
       </c>
       <c r="J909"/>
       <c r="K909" s="4" t="s">
-        <v>1087</v>
+        <v>1089</v>
       </c>
       <c r="L909" s="4" t="s">
-        <v>1088</v>
+        <v>1090</v>
       </c>
       <c r="M909"/>
       <c r="N909" s="4" t="s">
-        <v>1089</v>
+        <v>1091</v>
       </c>
       <c r="O909" s="4" t="s">
-        <v>1090</v>
+        <v>1092</v>
       </c>
       <c r="P909" s="4" t="s">
-        <v>173</v>
+        <v>1077</v>
       </c>
     </row>
     <row r="910">
@@ -44422,36 +44305,36 @@
         <v>163</v>
       </c>
       <c r="C910" s="4" t="s">
-        <v>1091</v>
+        <v>1093</v>
       </c>
       <c r="D910"/>
       <c r="E910"/>
       <c r="F910" s="4" t="s">
-        <v>1092</v>
+        <v>1094</v>
       </c>
       <c r="G910" s="4" t="s">
-        <v>1093</v>
+        <v>1071</v>
       </c>
       <c r="H910"/>
       <c r="I910" s="4" t="s">
-        <v>1094</v>
+        <v>1095</v>
       </c>
       <c r="J910"/>
       <c r="K910" s="4" t="s">
-        <v>1095</v>
+        <v>1096</v>
       </c>
       <c r="L910" s="4" t="s">
-        <v>1096</v>
+        <v>1097</v>
       </c>
       <c r="M910"/>
       <c r="N910" s="4" t="s">
-        <v>1097</v>
+        <v>1098</v>
       </c>
       <c r="O910" s="4" t="s">
-        <v>1098</v>
+        <v>1099</v>
       </c>
       <c r="P910" s="4" t="s">
-        <v>173</v>
+        <v>1100</v>
       </c>
     </row>
     <row r="911">
@@ -44462,36 +44345,38 @@
         <v>163</v>
       </c>
       <c r="C911" s="4" t="s">
-        <v>1099</v>
+        <v>1101</v>
       </c>
       <c r="D911"/>
       <c r="E911"/>
       <c r="F911" s="4" t="s">
-        <v>1100</v>
+        <v>1102</v>
       </c>
       <c r="G911" s="4" t="s">
-        <v>1093</v>
-      </c>
-      <c r="H911"/>
+        <v>1103</v>
+      </c>
+      <c r="H911" s="4" t="s">
+        <v>1104</v>
+      </c>
       <c r="I911" s="4" t="s">
-        <v>1101</v>
+        <v>1105</v>
       </c>
       <c r="J911"/>
       <c r="K911" s="4" t="s">
-        <v>1102</v>
+        <v>1106</v>
       </c>
       <c r="L911" s="4" t="s">
-        <v>1103</v>
+        <v>1107</v>
       </c>
       <c r="M911"/>
       <c r="N911" s="4" t="s">
-        <v>1104</v>
+        <v>1108</v>
       </c>
       <c r="O911" s="4" t="s">
-        <v>1105</v>
+        <v>1109</v>
       </c>
       <c r="P911" s="4" t="s">
-        <v>173</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="912">
@@ -44502,38 +44387,36 @@
         <v>163</v>
       </c>
       <c r="C912" s="4" t="s">
-        <v>1106</v>
+        <v>1021</v>
       </c>
       <c r="D912"/>
       <c r="E912"/>
       <c r="F912" s="4" t="s">
-        <v>1107</v>
+        <v>1111</v>
       </c>
       <c r="G912" s="4" t="s">
-        <v>1108</v>
-      </c>
-      <c r="H912" s="4" t="s">
-        <v>1109</v>
-      </c>
+        <v>1103</v>
+      </c>
+      <c r="H912"/>
       <c r="I912" s="4" t="s">
-        <v>1110</v>
+        <v>1088</v>
       </c>
       <c r="J912"/>
       <c r="K912" s="4" t="s">
-        <v>1111</v>
+        <v>1112</v>
       </c>
       <c r="L912" s="4" t="s">
-        <v>1112</v>
+        <v>1113</v>
       </c>
       <c r="M912"/>
       <c r="N912" s="4" t="s">
-        <v>1113</v>
+        <v>1114</v>
       </c>
       <c r="O912" s="4" t="s">
-        <v>1114</v>
+        <v>1115</v>
       </c>
       <c r="P912" s="4" t="s">
-        <v>173</v>
+        <v>1030</v>
       </c>
     </row>
     <row r="913">
@@ -44544,36 +44427,38 @@
         <v>163</v>
       </c>
       <c r="C913" s="4" t="s">
-        <v>1066</v>
+        <v>1116</v>
       </c>
       <c r="D913"/>
       <c r="E913"/>
       <c r="F913" s="4" t="s">
-        <v>1115</v>
+        <v>1117</v>
       </c>
       <c r="G913" s="4" t="s">
-        <v>1093</v>
-      </c>
-      <c r="H913"/>
+        <v>1103</v>
+      </c>
+      <c r="H913" s="4" t="s">
+        <v>1118</v>
+      </c>
       <c r="I913" s="4" t="s">
-        <v>1101</v>
+        <v>1105</v>
       </c>
       <c r="J913"/>
       <c r="K913" s="4" t="s">
-        <v>1116</v>
+        <v>1119</v>
       </c>
       <c r="L913" s="4" t="s">
-        <v>1117</v>
+        <v>1120</v>
       </c>
       <c r="M913"/>
       <c r="N913" s="4" t="s">
-        <v>1118</v>
+        <v>1121</v>
       </c>
       <c r="O913" s="4" t="s">
-        <v>1119</v>
+        <v>1122</v>
       </c>
       <c r="P913" s="4" t="s">
-        <v>173</v>
+        <v>1123</v>
       </c>
     </row>
     <row r="914">
@@ -44584,36 +44469,36 @@
         <v>163</v>
       </c>
       <c r="C914" s="4" t="s">
-        <v>1120</v>
+        <v>708</v>
       </c>
       <c r="D914"/>
       <c r="E914"/>
       <c r="F914" s="4" t="s">
-        <v>1121</v>
+        <v>1124</v>
       </c>
       <c r="G914" s="4" t="s">
-        <v>1093</v>
+        <v>1125</v>
       </c>
       <c r="H914"/>
       <c r="I914" s="4" t="s">
-        <v>1122</v>
+        <v>1105</v>
       </c>
       <c r="J914"/>
       <c r="K914" s="4" t="s">
-        <v>1123</v>
+        <v>1126</v>
       </c>
       <c r="L914" s="4" t="s">
-        <v>1124</v>
+        <v>1127</v>
       </c>
       <c r="M914"/>
       <c r="N914" s="4" t="s">
-        <v>1125</v>
+        <v>1128</v>
       </c>
       <c r="O914" s="4" t="s">
-        <v>1126</v>
+        <v>1129</v>
       </c>
       <c r="P914" s="4" t="s">
-        <v>267</v>
+        <v>173</v>
       </c>
     </row>
     <row r="915">
@@ -44624,21 +44509,19 @@
         <v>163</v>
       </c>
       <c r="C915" s="4" t="s">
-        <v>1066</v>
+        <v>1078</v>
       </c>
       <c r="D915"/>
       <c r="E915"/>
       <c r="F915" s="4" t="s">
-        <v>1127</v>
+        <v>1130</v>
       </c>
       <c r="G915" s="4" t="s">
-        <v>1128</v>
-      </c>
-      <c r="H915" s="4" t="s">
-        <v>1129</v>
-      </c>
+        <v>990</v>
+      </c>
+      <c r="H915"/>
       <c r="I915" s="4" t="s">
-        <v>1130</v>
+        <v>1080</v>
       </c>
       <c r="J915"/>
       <c r="K915" s="4" t="s">
@@ -44655,7 +44538,7 @@
         <v>1134</v>
       </c>
       <c r="P915" s="4" t="s">
-        <v>173</v>
+        <v>1085</v>
       </c>
     </row>
     <row r="916">
@@ -44674,28 +44557,28 @@
         <v>1136</v>
       </c>
       <c r="G916" s="4" t="s">
-        <v>1137</v>
+        <v>933</v>
       </c>
       <c r="H916"/>
       <c r="I916" s="4" t="s">
-        <v>1138</v>
+        <v>1137</v>
       </c>
       <c r="J916"/>
       <c r="K916" s="4" t="s">
+        <v>1138</v>
+      </c>
+      <c r="L916" s="4" t="s">
         <v>1139</v>
-      </c>
-      <c r="L916" s="4" t="s">
-        <v>1140</v>
       </c>
       <c r="M916"/>
       <c r="N916" s="4" t="s">
+        <v>1140</v>
+      </c>
+      <c r="O916" s="4" t="s">
         <v>1141</v>
       </c>
-      <c r="O916" s="4" t="s">
+      <c r="P916" s="4" t="s">
         <v>1142</v>
-      </c>
-      <c r="P916" s="4" t="s">
-        <v>173</v>
       </c>
     </row>
     <row r="917">
@@ -44706,7 +44589,7 @@
         <v>163</v>
       </c>
       <c r="C917" s="4" t="s">
-        <v>1075</v>
+        <v>1116</v>
       </c>
       <c r="D917"/>
       <c r="E917"/>
@@ -44714,7 +44597,7 @@
         <v>1143</v>
       </c>
       <c r="G917" s="4" t="s">
-        <v>1137</v>
+        <v>990</v>
       </c>
       <c r="H917" s="4" t="s">
         <v>1144</v>
@@ -44737,7 +44620,7 @@
         <v>1149</v>
       </c>
       <c r="P917" s="4" t="s">
-        <v>324</v>
+        <v>1123</v>
       </c>
     </row>
     <row r="918">
@@ -44748,7 +44631,7 @@
         <v>163</v>
       </c>
       <c r="C918" s="4" t="s">
-        <v>1066</v>
+        <v>1101</v>
       </c>
       <c r="D918"/>
       <c r="E918"/>
@@ -44756,28 +44639,30 @@
         <v>1150</v>
       </c>
       <c r="G918" s="4" t="s">
+        <v>990</v>
+      </c>
+      <c r="H918" s="4" t="s">
         <v>1151</v>
       </c>
-      <c r="H918"/>
       <c r="I918" s="4" t="s">
-        <v>1152</v>
+        <v>1145</v>
       </c>
       <c r="J918"/>
       <c r="K918" s="4" t="s">
+        <v>1152</v>
+      </c>
+      <c r="L918" s="4" t="s">
         <v>1153</v>
-      </c>
-      <c r="L918" s="4" t="s">
-        <v>1154</v>
       </c>
       <c r="M918"/>
       <c r="N918" s="4" t="s">
+        <v>1154</v>
+      </c>
+      <c r="O918" s="4" t="s">
         <v>1155</v>
       </c>
-      <c r="O918" s="4" t="s">
-        <v>1156</v>
-      </c>
       <c r="P918" s="4" t="s">
-        <v>173</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="919">
@@ -44788,7 +44673,7 @@
         <v>163</v>
       </c>
       <c r="C919" s="4" t="s">
-        <v>1091</v>
+        <v>1156</v>
       </c>
       <c r="D919"/>
       <c r="E919"/>
@@ -44796,28 +44681,28 @@
         <v>1157</v>
       </c>
       <c r="G919" s="4" t="s">
-        <v>1151</v>
+        <v>990</v>
       </c>
       <c r="H919"/>
       <c r="I919" s="4" t="s">
-        <v>1094</v>
+        <v>1158</v>
       </c>
       <c r="J919"/>
       <c r="K919" s="4" t="s">
-        <v>1158</v>
+        <v>1159</v>
       </c>
       <c r="L919" s="4" t="s">
-        <v>1159</v>
+        <v>1160</v>
       </c>
       <c r="M919"/>
       <c r="N919" s="4" t="s">
-        <v>1097</v>
+        <v>1161</v>
       </c>
       <c r="O919" s="4" t="s">
-        <v>1160</v>
+        <v>1162</v>
       </c>
       <c r="P919" s="4" t="s">
-        <v>173</v>
+        <v>1163</v>
       </c>
     </row>
     <row r="920">
@@ -44828,38 +44713,36 @@
         <v>163</v>
       </c>
       <c r="C920" s="4" t="s">
-        <v>1066</v>
+        <v>1069</v>
       </c>
       <c r="D920"/>
       <c r="E920"/>
       <c r="F920" s="4" t="s">
-        <v>1161</v>
+        <v>1164</v>
       </c>
       <c r="G920" s="4" t="s">
-        <v>1151</v>
-      </c>
-      <c r="H920" s="4" t="s">
-        <v>1162</v>
-      </c>
+        <v>990</v>
+      </c>
+      <c r="H920"/>
       <c r="I920" s="4" t="s">
-        <v>1110</v>
+        <v>1165</v>
       </c>
       <c r="J920"/>
       <c r="K920" s="4" t="s">
-        <v>1163</v>
+        <v>1166</v>
       </c>
       <c r="L920" s="4" t="s">
-        <v>1164</v>
+        <v>1167</v>
       </c>
       <c r="M920"/>
       <c r="N920" s="4" t="s">
-        <v>1165</v>
+        <v>1168</v>
       </c>
       <c r="O920" s="4" t="s">
-        <v>1166</v>
+        <v>1169</v>
       </c>
       <c r="P920" s="4" t="s">
-        <v>173</v>
+        <v>1077</v>
       </c>
     </row>
     <row r="921">
@@ -44870,38 +44753,34 @@
         <v>163</v>
       </c>
       <c r="C921" s="4" t="s">
-        <v>1167</v>
+        <v>1170</v>
       </c>
       <c r="D921"/>
       <c r="E921"/>
       <c r="F921" s="4" t="s">
-        <v>1168</v>
+        <v>1171</v>
       </c>
       <c r="G921" s="4" t="s">
-        <v>1169</v>
-      </c>
-      <c r="H921" s="4" t="s">
-        <v>1170</v>
-      </c>
-      <c r="I921" s="4" t="s">
-        <v>1130</v>
-      </c>
+        <v>1010</v>
+      </c>
+      <c r="H921"/>
+      <c r="I921"/>
       <c r="J921"/>
       <c r="K921" s="4" t="s">
-        <v>1171</v>
+        <v>1172</v>
       </c>
       <c r="L921" s="4" t="s">
-        <v>1172</v>
+        <v>1173</v>
       </c>
       <c r="M921"/>
       <c r="N921" s="4" t="s">
-        <v>1173</v>
+        <v>1174</v>
       </c>
       <c r="O921" s="4" t="s">
-        <v>1174</v>
+        <v>1175</v>
       </c>
       <c r="P921" s="4" t="s">
-        <v>173</v>
+        <v>1176</v>
       </c>
     </row>
     <row r="922">
@@ -44912,36 +44791,38 @@
         <v>163</v>
       </c>
       <c r="C922" s="4" t="s">
-        <v>1021</v>
+        <v>1177</v>
       </c>
       <c r="D922"/>
       <c r="E922"/>
       <c r="F922" s="4" t="s">
-        <v>1175</v>
+        <v>1178</v>
       </c>
       <c r="G922" s="4" t="s">
-        <v>1169</v>
-      </c>
-      <c r="H922"/>
+        <v>990</v>
+      </c>
+      <c r="H922" s="4" t="s">
+        <v>475</v>
+      </c>
       <c r="I922" s="4" t="s">
-        <v>1110</v>
+        <v>1179</v>
       </c>
       <c r="J922"/>
       <c r="K922" s="4" t="s">
-        <v>1176</v>
+        <v>1180</v>
       </c>
       <c r="L922" s="4" t="s">
-        <v>1177</v>
+        <v>1181</v>
       </c>
       <c r="M922"/>
       <c r="N922" s="4" t="s">
-        <v>1178</v>
+        <v>1182</v>
       </c>
       <c r="O922" s="4" t="s">
-        <v>1179</v>
+        <v>1183</v>
       </c>
       <c r="P922" s="4" t="s">
-        <v>173</v>
+        <v>1184</v>
       </c>
     </row>
     <row r="923">
@@ -44952,38 +44833,38 @@
         <v>163</v>
       </c>
       <c r="C923" s="4" t="s">
-        <v>1120</v>
+        <v>1101</v>
       </c>
       <c r="D923"/>
       <c r="E923"/>
       <c r="F923" s="4" t="s">
-        <v>1180</v>
+        <v>1185</v>
       </c>
       <c r="G923" s="4" t="s">
-        <v>1169</v>
+        <v>990</v>
       </c>
       <c r="H923" s="4" t="s">
-        <v>1181</v>
+        <v>1186</v>
       </c>
       <c r="I923" s="4" t="s">
-        <v>1130</v>
+        <v>1105</v>
       </c>
       <c r="J923"/>
       <c r="K923" s="4" t="s">
-        <v>1182</v>
+        <v>1187</v>
       </c>
       <c r="L923" s="4" t="s">
-        <v>1183</v>
+        <v>1188</v>
       </c>
       <c r="M923"/>
       <c r="N923" s="4" t="s">
-        <v>1184</v>
+        <v>1189</v>
       </c>
       <c r="O923" s="4" t="s">
-        <v>1185</v>
+        <v>1190</v>
       </c>
       <c r="P923" s="4" t="s">
-        <v>267</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="924">
@@ -44994,38 +44875,38 @@
         <v>163</v>
       </c>
       <c r="C924" s="4" t="s">
-        <v>1186</v>
+        <v>1101</v>
       </c>
       <c r="D924"/>
       <c r="E924"/>
       <c r="F924" s="4" t="s">
-        <v>1187</v>
+        <v>1191</v>
       </c>
       <c r="G924" s="4" t="s">
-        <v>1188</v>
+        <v>990</v>
       </c>
       <c r="H924" s="4" t="s">
-        <v>1189</v>
+        <v>1192</v>
       </c>
       <c r="I924" s="4" t="s">
-        <v>1130</v>
+        <v>1145</v>
       </c>
       <c r="J924"/>
       <c r="K924" s="4" t="s">
-        <v>1190</v>
+        <v>1193</v>
       </c>
       <c r="L924" s="4" t="s">
-        <v>1191</v>
+        <v>1194</v>
       </c>
       <c r="M924"/>
       <c r="N924" s="4" t="s">
-        <v>1192</v>
+        <v>1195</v>
       </c>
       <c r="O924" s="4" t="s">
-        <v>1193</v>
+        <v>1196</v>
       </c>
       <c r="P924" s="4" t="s">
-        <v>282</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="925">
@@ -45036,36 +44917,36 @@
         <v>163</v>
       </c>
       <c r="C925" s="4" t="s">
-        <v>1091</v>
+        <v>1116</v>
       </c>
       <c r="D925"/>
       <c r="E925"/>
       <c r="F925" s="4" t="s">
-        <v>1194</v>
+        <v>1197</v>
       </c>
       <c r="G925" s="4" t="s">
-        <v>1195</v>
+        <v>990</v>
       </c>
       <c r="H925"/>
       <c r="I925" s="4" t="s">
-        <v>1094</v>
+        <v>1095</v>
       </c>
       <c r="J925"/>
       <c r="K925" s="4" t="s">
-        <v>1196</v>
+        <v>1198</v>
       </c>
       <c r="L925" s="4" t="s">
-        <v>1197</v>
+        <v>1199</v>
       </c>
       <c r="M925"/>
       <c r="N925" s="4" t="s">
-        <v>1198</v>
+        <v>1200</v>
       </c>
       <c r="O925" s="4" t="s">
-        <v>1199</v>
+        <v>1201</v>
       </c>
       <c r="P925" s="4" t="s">
-        <v>173</v>
+        <v>1123</v>
       </c>
     </row>
     <row r="926">
@@ -45076,38 +44957,36 @@
         <v>163</v>
       </c>
       <c r="C926" s="4" t="s">
-        <v>1120</v>
+        <v>1116</v>
       </c>
       <c r="D926"/>
       <c r="E926"/>
       <c r="F926" s="4" t="s">
-        <v>1200</v>
+        <v>1202</v>
       </c>
       <c r="G926" s="4" t="s">
-        <v>1195</v>
-      </c>
-      <c r="H926" s="4" t="s">
-        <v>1201</v>
-      </c>
+        <v>1203</v>
+      </c>
+      <c r="H926"/>
       <c r="I926" s="4" t="s">
-        <v>1070</v>
+        <v>1204</v>
       </c>
       <c r="J926"/>
       <c r="K926" s="4" t="s">
-        <v>1202</v>
+        <v>1205</v>
       </c>
       <c r="L926" s="4" t="s">
-        <v>1203</v>
+        <v>1206</v>
       </c>
       <c r="M926"/>
       <c r="N926" s="4" t="s">
-        <v>1204</v>
+        <v>1207</v>
       </c>
       <c r="O926" s="4" t="s">
-        <v>1205</v>
+        <v>1208</v>
       </c>
       <c r="P926" s="4" t="s">
-        <v>267</v>
+        <v>1123</v>
       </c>
     </row>
     <row r="927">
@@ -45118,38 +44997,36 @@
         <v>163</v>
       </c>
       <c r="C927" s="4" t="s">
-        <v>1167</v>
+        <v>1209</v>
       </c>
       <c r="D927"/>
       <c r="E927"/>
       <c r="F927" s="4" t="s">
-        <v>1206</v>
+        <v>994</v>
       </c>
       <c r="G927" s="4" t="s">
-        <v>1195</v>
-      </c>
-      <c r="H927" s="4" t="s">
-        <v>1207</v>
-      </c>
+        <v>1210</v>
+      </c>
+      <c r="H927"/>
       <c r="I927" s="4" t="s">
-        <v>1070</v>
+        <v>1137</v>
       </c>
       <c r="J927"/>
       <c r="K927" s="4" t="s">
-        <v>1208</v>
+        <v>1211</v>
       </c>
       <c r="L927" s="4" t="s">
-        <v>1209</v>
+        <v>1212</v>
       </c>
       <c r="M927"/>
       <c r="N927" s="4" t="s">
-        <v>1210</v>
+        <v>1213</v>
       </c>
       <c r="O927" s="4" t="s">
-        <v>1211</v>
+        <v>1214</v>
       </c>
       <c r="P927" s="4" t="s">
-        <v>173</v>
+        <v>1215</v>
       </c>
     </row>
     <row r="928">
@@ -45160,36 +45037,36 @@
         <v>163</v>
       </c>
       <c r="C928" s="4" t="s">
-        <v>1212</v>
+        <v>1216</v>
       </c>
       <c r="D928"/>
       <c r="E928"/>
       <c r="F928" s="4" t="s">
-        <v>1213</v>
+        <v>1217</v>
       </c>
       <c r="G928" s="4" t="s">
-        <v>1195</v>
+        <v>962</v>
       </c>
       <c r="H928"/>
       <c r="I928" s="4" t="s">
-        <v>1214</v>
+        <v>1033</v>
       </c>
       <c r="J928"/>
       <c r="K928" s="4" t="s">
-        <v>1215</v>
+        <v>1218</v>
       </c>
       <c r="L928" s="4" t="s">
-        <v>1216</v>
+        <v>1219</v>
       </c>
       <c r="M928"/>
       <c r="N928" s="4" t="s">
-        <v>1217</v>
+        <v>1220</v>
       </c>
       <c r="O928" s="4" t="s">
-        <v>1218</v>
+        <v>1221</v>
       </c>
       <c r="P928" s="4" t="s">
-        <v>267</v>
+        <v>1222</v>
       </c>
     </row>
     <row r="929">
@@ -45200,36 +45077,36 @@
         <v>163</v>
       </c>
       <c r="C929" s="4" t="s">
-        <v>1066</v>
+        <v>1209</v>
       </c>
       <c r="D929"/>
       <c r="E929"/>
       <c r="F929" s="4" t="s">
-        <v>1219</v>
+        <v>1223</v>
       </c>
       <c r="G929" s="4" t="s">
-        <v>1195</v>
+        <v>962</v>
       </c>
       <c r="H929"/>
       <c r="I929" s="4" t="s">
-        <v>1101</v>
+        <v>1033</v>
       </c>
       <c r="J929"/>
       <c r="K929" s="4" t="s">
-        <v>1220</v>
+        <v>1224</v>
       </c>
       <c r="L929" s="4" t="s">
-        <v>1221</v>
+        <v>1225</v>
       </c>
       <c r="M929"/>
       <c r="N929" s="4" t="s">
-        <v>1222</v>
+        <v>1226</v>
       </c>
       <c r="O929" s="4" t="s">
-        <v>1223</v>
+        <v>1227</v>
       </c>
       <c r="P929" s="4" t="s">
-        <v>173</v>
+        <v>1215</v>
       </c>
     </row>
     <row r="930">
@@ -45240,34 +45117,36 @@
         <v>163</v>
       </c>
       <c r="C930" s="4" t="s">
-        <v>1224</v>
+        <v>1228</v>
       </c>
       <c r="D930"/>
       <c r="E930"/>
       <c r="F930" s="4" t="s">
-        <v>1225</v>
+        <v>1229</v>
       </c>
       <c r="G930" s="4" t="s">
-        <v>1226</v>
+        <v>1230</v>
       </c>
       <c r="H930"/>
-      <c r="I930"/>
+      <c r="I930" s="4" t="s">
+        <v>1231</v>
+      </c>
       <c r="J930"/>
       <c r="K930" s="4" t="s">
-        <v>1227</v>
+        <v>1232</v>
       </c>
       <c r="L930" s="4" t="s">
-        <v>1228</v>
+        <v>1233</v>
       </c>
       <c r="M930"/>
       <c r="N930" s="4" t="s">
-        <v>1229</v>
+        <v>1234</v>
       </c>
       <c r="O930" s="4" t="s">
-        <v>1230</v>
+        <v>1235</v>
       </c>
       <c r="P930" s="4" t="s">
-        <v>173</v>
+        <v>1236</v>
       </c>
     </row>
     <row r="931">
@@ -45278,38 +45157,38 @@
         <v>163</v>
       </c>
       <c r="C931" s="4" t="s">
-        <v>1231</v>
+        <v>1069</v>
       </c>
       <c r="D931"/>
       <c r="E931"/>
       <c r="F931" s="4" t="s">
-        <v>1232</v>
+        <v>1237</v>
       </c>
       <c r="G931" s="4" t="s">
-        <v>1195</v>
+        <v>995</v>
       </c>
       <c r="H931" s="4" t="s">
-        <v>475</v>
+        <v>1238</v>
       </c>
       <c r="I931" s="4" t="s">
-        <v>1233</v>
+        <v>1072</v>
       </c>
       <c r="J931"/>
       <c r="K931" s="4" t="s">
-        <v>1234</v>
+        <v>1239</v>
       </c>
       <c r="L931" s="4" t="s">
-        <v>1235</v>
+        <v>1240</v>
       </c>
       <c r="M931"/>
       <c r="N931" s="4" t="s">
-        <v>1236</v>
+        <v>1241</v>
       </c>
       <c r="O931" s="4" t="s">
-        <v>1237</v>
+        <v>1242</v>
       </c>
       <c r="P931" s="4" t="s">
-        <v>267</v>
+        <v>1077</v>
       </c>
     </row>
     <row r="932">
@@ -45320,38 +45199,38 @@
         <v>163</v>
       </c>
       <c r="C932" s="4" t="s">
-        <v>1167</v>
+        <v>1135</v>
       </c>
       <c r="D932"/>
       <c r="E932"/>
       <c r="F932" s="4" t="s">
-        <v>1238</v>
+        <v>1243</v>
       </c>
       <c r="G932" s="4" t="s">
-        <v>1195</v>
+        <v>1244</v>
       </c>
       <c r="H932" s="4" t="s">
-        <v>1078</v>
+        <v>1245</v>
       </c>
       <c r="I932" s="4" t="s">
-        <v>1130</v>
+        <v>1145</v>
       </c>
       <c r="J932"/>
       <c r="K932" s="4" t="s">
-        <v>1239</v>
+        <v>1246</v>
       </c>
       <c r="L932" s="4" t="s">
-        <v>1240</v>
+        <v>1247</v>
       </c>
       <c r="M932"/>
       <c r="N932" s="4" t="s">
-        <v>1241</v>
+        <v>1248</v>
       </c>
       <c r="O932" s="4" t="s">
-        <v>1242</v>
+        <v>1249</v>
       </c>
       <c r="P932" s="4" t="s">
-        <v>173</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="933">
@@ -45362,36 +45241,38 @@
         <v>163</v>
       </c>
       <c r="C933" s="4" t="s">
-        <v>1120</v>
+        <v>1135</v>
       </c>
       <c r="D933"/>
       <c r="E933"/>
       <c r="F933" s="4" t="s">
-        <v>1243</v>
+        <v>1250</v>
       </c>
       <c r="G933" s="4" t="s">
-        <v>1244</v>
-      </c>
-      <c r="H933"/>
+        <v>1251</v>
+      </c>
+      <c r="H933" s="4" t="s">
+        <v>1252</v>
+      </c>
       <c r="I933" s="4" t="s">
-        <v>1245</v>
+        <v>1105</v>
       </c>
       <c r="J933"/>
       <c r="K933" s="4" t="s">
-        <v>1246</v>
+        <v>1253</v>
       </c>
       <c r="L933" s="4" t="s">
-        <v>1247</v>
+        <v>1254</v>
       </c>
       <c r="M933"/>
       <c r="N933" s="4" t="s">
-        <v>1248</v>
+        <v>1255</v>
       </c>
       <c r="O933" s="4" t="s">
-        <v>1249</v>
+        <v>1256</v>
       </c>
       <c r="P933" s="4" t="s">
-        <v>267</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="934">
@@ -45402,36 +45283,38 @@
         <v>163</v>
       </c>
       <c r="C934" s="4" t="s">
-        <v>1250</v>
+        <v>1069</v>
       </c>
       <c r="D934"/>
       <c r="E934"/>
       <c r="F934" s="4" t="s">
-        <v>994</v>
+        <v>1257</v>
       </c>
       <c r="G934" s="4" t="s">
-        <v>1251</v>
-      </c>
-      <c r="H934"/>
+        <v>1258</v>
+      </c>
+      <c r="H934" s="4" t="s">
+        <v>1144</v>
+      </c>
       <c r="I934" s="4" t="s">
-        <v>1086</v>
+        <v>1145</v>
       </c>
       <c r="J934"/>
       <c r="K934" s="4" t="s">
-        <v>1252</v>
+        <v>1259</v>
       </c>
       <c r="L934" s="4" t="s">
-        <v>1253</v>
+        <v>1260</v>
       </c>
       <c r="M934"/>
       <c r="N934" s="4" t="s">
-        <v>1254</v>
+        <v>1261</v>
       </c>
       <c r="O934" s="4" t="s">
-        <v>1255</v>
+        <v>1262</v>
       </c>
       <c r="P934" s="4" t="s">
-        <v>173</v>
+        <v>1077</v>
       </c>
     </row>
     <row r="935">
@@ -45442,36 +45325,38 @@
         <v>163</v>
       </c>
       <c r="C935" s="4" t="s">
-        <v>1256</v>
+        <v>1116</v>
       </c>
       <c r="D935"/>
       <c r="E935"/>
       <c r="F935" s="4" t="s">
-        <v>1257</v>
+        <v>1263</v>
       </c>
       <c r="G935" s="4" t="s">
-        <v>1258</v>
-      </c>
-      <c r="H935"/>
+        <v>1264</v>
+      </c>
+      <c r="H935" s="4" t="s">
+        <v>1265</v>
+      </c>
       <c r="I935" s="4" t="s">
-        <v>1032</v>
+        <v>1145</v>
       </c>
       <c r="J935"/>
       <c r="K935" s="4" t="s">
-        <v>1259</v>
+        <v>1266</v>
       </c>
       <c r="L935" s="4" t="s">
-        <v>1260</v>
+        <v>1267</v>
       </c>
       <c r="M935"/>
       <c r="N935" s="4" t="s">
-        <v>1261</v>
+        <v>1268</v>
       </c>
       <c r="O935" s="4" t="s">
-        <v>1262</v>
+        <v>1269</v>
       </c>
       <c r="P935" s="4" t="s">
-        <v>173</v>
+        <v>1123</v>
       </c>
     </row>
     <row r="936">
@@ -45482,36 +45367,38 @@
         <v>163</v>
       </c>
       <c r="C936" s="4" t="s">
-        <v>1250</v>
+        <v>1101</v>
       </c>
       <c r="D936"/>
       <c r="E936"/>
       <c r="F936" s="4" t="s">
-        <v>1263</v>
+        <v>1270</v>
       </c>
       <c r="G936" s="4" t="s">
-        <v>1258</v>
-      </c>
-      <c r="H936"/>
+        <v>1264</v>
+      </c>
+      <c r="H936" s="4" t="s">
+        <v>1271</v>
+      </c>
       <c r="I936" s="4" t="s">
-        <v>1032</v>
+        <v>1272</v>
       </c>
       <c r="J936"/>
       <c r="K936" s="4" t="s">
-        <v>1264</v>
+        <v>1273</v>
       </c>
       <c r="L936" s="4" t="s">
-        <v>1265</v>
+        <v>1274</v>
       </c>
       <c r="M936"/>
       <c r="N936" s="4" t="s">
-        <v>1266</v>
+        <v>1275</v>
       </c>
       <c r="O936" s="4" t="s">
-        <v>1267</v>
+        <v>1276</v>
       </c>
       <c r="P936" s="4" t="s">
-        <v>173</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="937">
@@ -45522,36 +45409,36 @@
         <v>163</v>
       </c>
       <c r="C937" s="4" t="s">
-        <v>1268</v>
+        <v>1277</v>
       </c>
       <c r="D937"/>
       <c r="E937"/>
       <c r="F937" s="4" t="s">
-        <v>1269</v>
+        <v>1278</v>
       </c>
       <c r="G937" s="4" t="s">
-        <v>1270</v>
+        <v>1264</v>
       </c>
       <c r="H937"/>
       <c r="I937" s="4" t="s">
-        <v>1271</v>
+        <v>1165</v>
       </c>
       <c r="J937"/>
       <c r="K937" s="4" t="s">
-        <v>1272</v>
+        <v>1279</v>
       </c>
       <c r="L937" s="4" t="s">
-        <v>1273</v>
+        <v>1280</v>
       </c>
       <c r="M937"/>
       <c r="N937" s="4" t="s">
-        <v>1274</v>
+        <v>1281</v>
       </c>
       <c r="O937" s="4" t="s">
-        <v>1275</v>
+        <v>1282</v>
       </c>
       <c r="P937" s="4" t="s">
-        <v>173</v>
+        <v>1283</v>
       </c>
     </row>
     <row r="938">
@@ -45562,38 +45449,38 @@
         <v>163</v>
       </c>
       <c r="C938" s="4" t="s">
-        <v>1066</v>
+        <v>1101</v>
       </c>
       <c r="D938"/>
       <c r="E938"/>
       <c r="F938" s="4" t="s">
-        <v>1276</v>
+        <v>1284</v>
       </c>
       <c r="G938" s="4" t="s">
-        <v>1277</v>
+        <v>1264</v>
       </c>
       <c r="H938" s="4" t="s">
-        <v>1278</v>
+        <v>1285</v>
       </c>
       <c r="I938" s="4" t="s">
-        <v>1152</v>
+        <v>1286</v>
       </c>
       <c r="J938"/>
       <c r="K938" s="4" t="s">
-        <v>1279</v>
+        <v>1287</v>
       </c>
       <c r="L938" s="4" t="s">
-        <v>1280</v>
+        <v>1288</v>
       </c>
       <c r="M938"/>
       <c r="N938" s="4" t="s">
-        <v>1281</v>
+        <v>1289</v>
       </c>
       <c r="O938" s="4" t="s">
-        <v>1282</v>
+        <v>1290</v>
       </c>
       <c r="P938" s="4" t="s">
-        <v>173</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="939">
@@ -45604,35 +45491,35 @@
         <v>163</v>
       </c>
       <c r="C939" s="4" t="s">
-        <v>1083</v>
+        <v>708</v>
       </c>
       <c r="D939"/>
       <c r="E939"/>
       <c r="F939" s="4" t="s">
-        <v>1283</v>
+        <v>1291</v>
       </c>
       <c r="G939" s="4" t="s">
-        <v>1284</v>
+        <v>1292</v>
       </c>
       <c r="H939" s="4" t="s">
-        <v>1285</v>
+        <v>1293</v>
       </c>
       <c r="I939" s="4" t="s">
-        <v>1070</v>
+        <v>1145</v>
       </c>
       <c r="J939"/>
       <c r="K939" s="4" t="s">
-        <v>1286</v>
+        <v>1294</v>
       </c>
       <c r="L939" s="4" t="s">
-        <v>1287</v>
+        <v>1295</v>
       </c>
       <c r="M939"/>
       <c r="N939" s="4" t="s">
-        <v>1288</v>
+        <v>1296</v>
       </c>
       <c r="O939" s="4" t="s">
-        <v>1289</v>
+        <v>1297</v>
       </c>
       <c r="P939" s="4" t="s">
         <v>173</v>
@@ -45646,38 +45533,36 @@
         <v>163</v>
       </c>
       <c r="C940" s="4" t="s">
-        <v>1083</v>
+        <v>1298</v>
       </c>
       <c r="D940"/>
       <c r="E940"/>
       <c r="F940" s="4" t="s">
-        <v>1290</v>
+        <v>1299</v>
       </c>
       <c r="G940" s="4" t="s">
-        <v>1291</v>
-      </c>
-      <c r="H940" s="4" t="s">
-        <v>1292</v>
-      </c>
+        <v>1300</v>
+      </c>
+      <c r="H940"/>
       <c r="I940" s="4" t="s">
-        <v>1130</v>
+        <v>1165</v>
       </c>
       <c r="J940"/>
       <c r="K940" s="4" t="s">
-        <v>1293</v>
+        <v>1301</v>
       </c>
       <c r="L940" s="4" t="s">
-        <v>1294</v>
+        <v>1302</v>
       </c>
       <c r="M940"/>
       <c r="N940" s="4" t="s">
-        <v>1295</v>
+        <v>1303</v>
       </c>
       <c r="O940" s="4" t="s">
-        <v>1296</v>
+        <v>1304</v>
       </c>
       <c r="P940" s="4" t="s">
-        <v>173</v>
+        <v>1305</v>
       </c>
     </row>
     <row r="941">
@@ -45688,38 +45573,38 @@
         <v>163</v>
       </c>
       <c r="C941" s="4" t="s">
-        <v>1167</v>
+        <v>1078</v>
       </c>
       <c r="D941"/>
       <c r="E941"/>
       <c r="F941" s="4" t="s">
-        <v>1297</v>
+        <v>1306</v>
       </c>
       <c r="G941" s="4" t="s">
-        <v>1298</v>
+        <v>1300</v>
       </c>
       <c r="H941" s="4" t="s">
-        <v>1299</v>
+        <v>711</v>
       </c>
       <c r="I941" s="4" t="s">
-        <v>1300</v>
+        <v>1307</v>
       </c>
       <c r="J941"/>
       <c r="K941" s="4" t="s">
-        <v>1301</v>
+        <v>1308</v>
       </c>
       <c r="L941" s="4" t="s">
-        <v>1302</v>
+        <v>1309</v>
       </c>
       <c r="M941"/>
       <c r="N941" s="4" t="s">
-        <v>1303</v>
+        <v>1310</v>
       </c>
       <c r="O941" s="4" t="s">
-        <v>1304</v>
+        <v>1311</v>
       </c>
       <c r="P941" s="4" t="s">
-        <v>173</v>
+        <v>1085</v>
       </c>
     </row>
     <row r="942">
@@ -45730,36 +45615,36 @@
         <v>163</v>
       </c>
       <c r="C942" s="4" t="s">
-        <v>1099</v>
+        <v>1078</v>
       </c>
       <c r="D942"/>
       <c r="E942"/>
       <c r="F942" s="4" t="s">
-        <v>1305</v>
+        <v>1312</v>
       </c>
       <c r="G942" s="4" t="s">
-        <v>1298</v>
+        <v>1300</v>
       </c>
       <c r="H942"/>
       <c r="I942" s="4" t="s">
-        <v>1101</v>
+        <v>1313</v>
       </c>
       <c r="J942"/>
       <c r="K942" s="4" t="s">
-        <v>1306</v>
+        <v>1314</v>
       </c>
       <c r="L942" s="4" t="s">
-        <v>1307</v>
+        <v>1315</v>
       </c>
       <c r="M942"/>
       <c r="N942" s="4" t="s">
-        <v>1308</v>
+        <v>1316</v>
       </c>
       <c r="O942" s="4" t="s">
-        <v>1309</v>
+        <v>1317</v>
       </c>
       <c r="P942" s="4" t="s">
-        <v>173</v>
+        <v>1085</v>
       </c>
     </row>
     <row r="943">
@@ -45770,38 +45655,36 @@
         <v>163</v>
       </c>
       <c r="C943" s="4" t="s">
-        <v>1167</v>
+        <v>1078</v>
       </c>
       <c r="D943"/>
       <c r="E943"/>
       <c r="F943" s="4" t="s">
-        <v>1310</v>
+        <v>1312</v>
       </c>
       <c r="G943" s="4" t="s">
-        <v>1298</v>
-      </c>
-      <c r="H943" s="4" t="s">
-        <v>1311</v>
-      </c>
+        <v>1300</v>
+      </c>
+      <c r="H943"/>
       <c r="I943" s="4" t="s">
-        <v>1312</v>
+        <v>1318</v>
       </c>
       <c r="J943"/>
       <c r="K943" s="4" t="s">
-        <v>1313</v>
+        <v>1319</v>
       </c>
       <c r="L943" s="4" t="s">
-        <v>1314</v>
+        <v>1320</v>
       </c>
       <c r="M943"/>
       <c r="N943" s="4" t="s">
-        <v>1315</v>
+        <v>1321</v>
       </c>
       <c r="O943" s="4" t="s">
-        <v>1316</v>
+        <v>1322</v>
       </c>
       <c r="P943" s="4" t="s">
-        <v>173</v>
+        <v>1085</v>
       </c>
     </row>
     <row r="944">
@@ -45812,38 +45695,38 @@
         <v>163</v>
       </c>
       <c r="C944" s="4" t="s">
-        <v>1186</v>
+        <v>1078</v>
       </c>
       <c r="D944"/>
       <c r="E944"/>
       <c r="F944" s="4" t="s">
-        <v>1317</v>
+        <v>1323</v>
       </c>
       <c r="G944" s="4" t="s">
-        <v>1318</v>
+        <v>1300</v>
       </c>
       <c r="H944" s="4" t="s">
-        <v>1319</v>
+        <v>864</v>
       </c>
       <c r="I944" s="4" t="s">
-        <v>1070</v>
+        <v>1286</v>
       </c>
       <c r="J944"/>
       <c r="K944" s="4" t="s">
-        <v>1320</v>
+        <v>1324</v>
       </c>
       <c r="L944" s="4" t="s">
-        <v>1321</v>
+        <v>1325</v>
       </c>
       <c r="M944"/>
       <c r="N944" s="4" t="s">
-        <v>1322</v>
+        <v>1326</v>
       </c>
       <c r="O944" s="4" t="s">
-        <v>1323</v>
+        <v>1327</v>
       </c>
       <c r="P944" s="4" t="s">
-        <v>282</v>
+        <v>1085</v>
       </c>
     </row>
     <row r="945">
@@ -45854,36 +45737,38 @@
         <v>163</v>
       </c>
       <c r="C945" s="4" t="s">
-        <v>1324</v>
+        <v>1101</v>
       </c>
       <c r="D945"/>
       <c r="E945"/>
       <c r="F945" s="4" t="s">
-        <v>1100</v>
+        <v>1328</v>
       </c>
       <c r="G945" s="4" t="s">
-        <v>1325</v>
-      </c>
-      <c r="H945"/>
+        <v>1300</v>
+      </c>
+      <c r="H945" s="4" t="s">
+        <v>1329</v>
+      </c>
       <c r="I945" s="4" t="s">
-        <v>1101</v>
+        <v>1105</v>
       </c>
       <c r="J945"/>
       <c r="K945" s="4" t="s">
-        <v>1326</v>
+        <v>1330</v>
       </c>
       <c r="L945" s="4" t="s">
-        <v>1327</v>
+        <v>1331</v>
       </c>
       <c r="M945"/>
       <c r="N945" s="4" t="s">
-        <v>1104</v>
+        <v>1332</v>
       </c>
       <c r="O945" s="4" t="s">
-        <v>1328</v>
+        <v>1333</v>
       </c>
       <c r="P945" s="4" t="s">
-        <v>173</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="946">
@@ -45894,38 +45779,38 @@
         <v>163</v>
       </c>
       <c r="C946" s="4" t="s">
-        <v>1091</v>
+        <v>1078</v>
       </c>
       <c r="D946"/>
       <c r="E946"/>
       <c r="F946" s="4" t="s">
-        <v>1329</v>
+        <v>1334</v>
       </c>
       <c r="G946" s="4" t="s">
-        <v>1325</v>
+        <v>1300</v>
       </c>
       <c r="H946" s="4" t="s">
-        <v>1330</v>
+        <v>1335</v>
       </c>
       <c r="I946" s="4" t="s">
-        <v>1331</v>
+        <v>1336</v>
       </c>
       <c r="J946"/>
       <c r="K946" s="4" t="s">
-        <v>1332</v>
+        <v>1337</v>
       </c>
       <c r="L946" s="4" t="s">
-        <v>1333</v>
+        <v>1338</v>
       </c>
       <c r="M946"/>
       <c r="N946" s="4" t="s">
-        <v>1334</v>
+        <v>1339</v>
       </c>
       <c r="O946" s="4" t="s">
-        <v>1335</v>
+        <v>1340</v>
       </c>
       <c r="P946" s="4" t="s">
-        <v>173</v>
+        <v>1085</v>
       </c>
     </row>
     <row r="947">
@@ -45936,36 +45821,38 @@
         <v>163</v>
       </c>
       <c r="C947" s="4" t="s">
-        <v>1091</v>
+        <v>1078</v>
       </c>
       <c r="D947"/>
       <c r="E947"/>
       <c r="F947" s="4" t="s">
-        <v>1336</v>
+        <v>1341</v>
       </c>
       <c r="G947" s="4" t="s">
-        <v>1325</v>
-      </c>
-      <c r="H947"/>
+        <v>1300</v>
+      </c>
+      <c r="H947" s="4" t="s">
+        <v>1342</v>
+      </c>
       <c r="I947" s="4" t="s">
-        <v>1337</v>
+        <v>1343</v>
       </c>
       <c r="J947"/>
       <c r="K947" s="4" t="s">
-        <v>1338</v>
+        <v>1344</v>
       </c>
       <c r="L947" s="4" t="s">
-        <v>1339</v>
+        <v>1345</v>
       </c>
       <c r="M947"/>
       <c r="N947" s="4" t="s">
-        <v>1340</v>
+        <v>1346</v>
       </c>
       <c r="O947" s="4" t="s">
-        <v>1341</v>
+        <v>1347</v>
       </c>
       <c r="P947" s="4" t="s">
-        <v>173</v>
+        <v>1085</v>
       </c>
     </row>
     <row r="948">
@@ -45976,36 +45863,38 @@
         <v>163</v>
       </c>
       <c r="C948" s="4" t="s">
-        <v>1091</v>
+        <v>1116</v>
       </c>
       <c r="D948"/>
       <c r="E948"/>
       <c r="F948" s="4" t="s">
-        <v>1336</v>
+        <v>1328</v>
       </c>
       <c r="G948" s="4" t="s">
-        <v>1325</v>
-      </c>
-      <c r="H948"/>
+        <v>1300</v>
+      </c>
+      <c r="H948" s="4" t="s">
+        <v>1348</v>
+      </c>
       <c r="I948" s="4" t="s">
-        <v>1342</v>
+        <v>1349</v>
       </c>
       <c r="J948"/>
       <c r="K948" s="4" t="s">
-        <v>1343</v>
+        <v>1350</v>
       </c>
       <c r="L948" s="4" t="s">
-        <v>1344</v>
+        <v>1351</v>
       </c>
       <c r="M948"/>
       <c r="N948" s="4" t="s">
-        <v>1345</v>
+        <v>1352</v>
       </c>
       <c r="O948" s="4" t="s">
-        <v>1346</v>
+        <v>1353</v>
       </c>
       <c r="P948" s="4" t="s">
-        <v>173</v>
+        <v>1123</v>
       </c>
     </row>
     <row r="949">
@@ -46016,38 +45905,36 @@
         <v>163</v>
       </c>
       <c r="C949" s="4" t="s">
-        <v>1091</v>
+        <v>1354</v>
       </c>
       <c r="D949"/>
       <c r="E949"/>
       <c r="F949" s="4" t="s">
-        <v>1347</v>
+        <v>1355</v>
       </c>
       <c r="G949" s="4" t="s">
-        <v>1325</v>
-      </c>
-      <c r="H949" s="4" t="s">
-        <v>1348</v>
-      </c>
+        <v>1300</v>
+      </c>
+      <c r="H949"/>
       <c r="I949" s="4" t="s">
-        <v>1312</v>
+        <v>1231</v>
       </c>
       <c r="J949"/>
       <c r="K949" s="4" t="s">
-        <v>1349</v>
+        <v>1356</v>
       </c>
       <c r="L949" s="4" t="s">
-        <v>1350</v>
+        <v>1357</v>
       </c>
       <c r="M949"/>
       <c r="N949" s="4" t="s">
-        <v>1351</v>
+        <v>1358</v>
       </c>
       <c r="O949" s="4" t="s">
-        <v>1352</v>
+        <v>1359</v>
       </c>
       <c r="P949" s="4" t="s">
-        <v>173</v>
+        <v>1360</v>
       </c>
     </row>
     <row r="950">
@@ -46058,38 +45945,38 @@
         <v>163</v>
       </c>
       <c r="C950" s="4" t="s">
-        <v>1167</v>
+        <v>1101</v>
       </c>
       <c r="D950"/>
       <c r="E950"/>
       <c r="F950" s="4" t="s">
-        <v>1353</v>
+        <v>1361</v>
       </c>
       <c r="G950" s="4" t="s">
-        <v>1325</v>
+        <v>1362</v>
       </c>
       <c r="H950" s="4" t="s">
-        <v>1354</v>
+        <v>1363</v>
       </c>
       <c r="I950" s="4" t="s">
-        <v>1130</v>
+        <v>1364</v>
       </c>
       <c r="J950"/>
       <c r="K950" s="4" t="s">
-        <v>1355</v>
+        <v>1365</v>
       </c>
       <c r="L950" s="4" t="s">
-        <v>1356</v>
+        <v>1366</v>
       </c>
       <c r="M950"/>
       <c r="N950" s="4" t="s">
-        <v>1357</v>
+        <v>1367</v>
       </c>
       <c r="O950" s="4" t="s">
-        <v>1358</v>
+        <v>1368</v>
       </c>
       <c r="P950" s="4" t="s">
-        <v>173</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="951">
@@ -46100,38 +45987,36 @@
         <v>163</v>
       </c>
       <c r="C951" s="4" t="s">
-        <v>1091</v>
+        <v>1116</v>
       </c>
       <c r="D951"/>
       <c r="E951"/>
       <c r="F951" s="4" t="s">
-        <v>1359</v>
+        <v>1369</v>
       </c>
       <c r="G951" s="4" t="s">
-        <v>1325</v>
-      </c>
-      <c r="H951" s="4" t="s">
-        <v>1360</v>
-      </c>
+        <v>1370</v>
+      </c>
+      <c r="H951"/>
       <c r="I951" s="4" t="s">
-        <v>1361</v>
+        <v>1371</v>
       </c>
       <c r="J951"/>
       <c r="K951" s="4" t="s">
-        <v>1362</v>
+        <v>1372</v>
       </c>
       <c r="L951" s="4" t="s">
-        <v>1363</v>
+        <v>1373</v>
       </c>
       <c r="M951"/>
       <c r="N951" s="4" t="s">
-        <v>1364</v>
+        <v>1374</v>
       </c>
       <c r="O951" s="4" t="s">
-        <v>1365</v>
+        <v>1375</v>
       </c>
       <c r="P951" s="4" t="s">
-        <v>173</v>
+        <v>1123</v>
       </c>
     </row>
     <row r="952">
@@ -46142,38 +46027,36 @@
         <v>163</v>
       </c>
       <c r="C952" s="4" t="s">
-        <v>1091</v>
+        <v>1376</v>
       </c>
       <c r="D952"/>
       <c r="E952"/>
       <c r="F952" s="4" t="s">
-        <v>1366</v>
+        <v>1377</v>
       </c>
       <c r="G952" s="4" t="s">
-        <v>1325</v>
-      </c>
-      <c r="H952" s="4" t="s">
-        <v>1367</v>
-      </c>
+        <v>1016</v>
+      </c>
+      <c r="H952"/>
       <c r="I952" s="4" t="s">
-        <v>1368</v>
+        <v>1378</v>
       </c>
       <c r="J952"/>
       <c r="K952" s="4" t="s">
-        <v>1369</v>
+        <v>1379</v>
       </c>
       <c r="L952" s="4" t="s">
-        <v>1370</v>
+        <v>1380</v>
       </c>
       <c r="M952"/>
       <c r="N952" s="4" t="s">
-        <v>1371</v>
+        <v>1381</v>
       </c>
       <c r="O952" s="4" t="s">
-        <v>1372</v>
+        <v>1382</v>
       </c>
       <c r="P952" s="4" t="s">
-        <v>173</v>
+        <v>1383</v>
       </c>
     </row>
     <row r="953">
@@ -46184,38 +46067,36 @@
         <v>163</v>
       </c>
       <c r="C953" s="4" t="s">
-        <v>1120</v>
+        <v>1135</v>
       </c>
       <c r="D953"/>
       <c r="E953"/>
       <c r="F953" s="4" t="s">
-        <v>1353</v>
+        <v>922</v>
       </c>
       <c r="G953" s="4" t="s">
-        <v>1325</v>
-      </c>
-      <c r="H953" s="4" t="s">
-        <v>1373</v>
-      </c>
+        <v>923</v>
+      </c>
+      <c r="H953"/>
       <c r="I953" s="4" t="s">
-        <v>1374</v>
+        <v>1384</v>
       </c>
       <c r="J953"/>
       <c r="K953" s="4" t="s">
-        <v>1375</v>
+        <v>1385</v>
       </c>
       <c r="L953" s="4" t="s">
-        <v>1376</v>
+        <v>1386</v>
       </c>
       <c r="M953"/>
       <c r="N953" s="4" t="s">
-        <v>1377</v>
+        <v>1387</v>
       </c>
       <c r="O953" s="4" t="s">
-        <v>1378</v>
+        <v>1388</v>
       </c>
       <c r="P953" s="4" t="s">
-        <v>267</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="954">
@@ -46226,36 +46107,38 @@
         <v>163</v>
       </c>
       <c r="C954" s="4" t="s">
-        <v>1075</v>
+        <v>1389</v>
       </c>
       <c r="D954"/>
       <c r="E954"/>
       <c r="F954" s="4" t="s">
-        <v>1379</v>
+        <v>1390</v>
       </c>
       <c r="G954" s="4" t="s">
-        <v>1325</v>
-      </c>
-      <c r="H954"/>
+        <v>1391</v>
+      </c>
+      <c r="H954" s="4" t="s">
+        <v>730</v>
+      </c>
       <c r="I954" s="4" t="s">
-        <v>1271</v>
+        <v>1392</v>
       </c>
       <c r="J954"/>
       <c r="K954" s="4" t="s">
-        <v>1380</v>
+        <v>1393</v>
       </c>
       <c r="L954" s="4" t="s">
-        <v>1381</v>
+        <v>1394</v>
       </c>
       <c r="M954"/>
       <c r="N954" s="4" t="s">
-        <v>1382</v>
+        <v>1395</v>
       </c>
       <c r="O954" s="4" t="s">
-        <v>1383</v>
+        <v>1396</v>
       </c>
       <c r="P954" s="4" t="s">
-        <v>324</v>
+        <v>1397</v>
       </c>
     </row>
     <row r="955">
@@ -46266,38 +46149,36 @@
         <v>163</v>
       </c>
       <c r="C955" s="4" t="s">
-        <v>1167</v>
+        <v>1116</v>
       </c>
       <c r="D955"/>
       <c r="E955"/>
       <c r="F955" s="4" t="s">
-        <v>1384</v>
+        <v>1398</v>
       </c>
       <c r="G955" s="4" t="s">
-        <v>1385</v>
-      </c>
-      <c r="H955" s="4" t="s">
-        <v>1386</v>
-      </c>
+        <v>1399</v>
+      </c>
+      <c r="H955"/>
       <c r="I955" s="4" t="s">
-        <v>1145</v>
+        <v>1095</v>
       </c>
       <c r="J955"/>
       <c r="K955" s="4" t="s">
-        <v>1387</v>
+        <v>1400</v>
       </c>
       <c r="L955" s="4" t="s">
-        <v>1388</v>
+        <v>1401</v>
       </c>
       <c r="M955"/>
       <c r="N955" s="4" t="s">
-        <v>1389</v>
+        <v>1402</v>
       </c>
       <c r="O955" s="4" t="s">
-        <v>1390</v>
+        <v>1403</v>
       </c>
       <c r="P955" s="4" t="s">
-        <v>173</v>
+        <v>1123</v>
       </c>
     </row>
     <row r="956">
@@ -46308,36 +46189,38 @@
         <v>163</v>
       </c>
       <c r="C956" s="4" t="s">
-        <v>1120</v>
+        <v>1101</v>
       </c>
       <c r="D956"/>
       <c r="E956"/>
       <c r="F956" s="4" t="s">
+        <v>1404</v>
+      </c>
+      <c r="G956" s="4" t="s">
         <v>1391</v>
       </c>
-      <c r="G956" s="4" t="s">
-        <v>1392</v>
-      </c>
-      <c r="H956"/>
+      <c r="H956" s="4" t="s">
+        <v>1405</v>
+      </c>
       <c r="I956" s="4" t="s">
-        <v>1393</v>
+        <v>1145</v>
       </c>
       <c r="J956"/>
       <c r="K956" s="4" t="s">
-        <v>1394</v>
+        <v>1406</v>
       </c>
       <c r="L956" s="4" t="s">
-        <v>1395</v>
+        <v>1407</v>
       </c>
       <c r="M956"/>
       <c r="N956" s="4" t="s">
-        <v>1396</v>
+        <v>1408</v>
       </c>
       <c r="O956" s="4" t="s">
-        <v>1397</v>
+        <v>1409</v>
       </c>
       <c r="P956" s="4" t="s">
-        <v>267</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="957">
@@ -46348,38 +46231,38 @@
         <v>163</v>
       </c>
       <c r="C957" s="4" t="s">
-        <v>1398</v>
+        <v>1069</v>
       </c>
       <c r="D957"/>
       <c r="E957"/>
       <c r="F957" s="4" t="s">
-        <v>1399</v>
+        <v>1410</v>
       </c>
       <c r="G957" s="4" t="s">
-        <v>1400</v>
+        <v>1411</v>
       </c>
       <c r="H957" s="4" t="s">
-        <v>1401</v>
+        <v>1144</v>
       </c>
       <c r="I957" s="4" t="s">
-        <v>1402</v>
+        <v>1145</v>
       </c>
       <c r="J957"/>
       <c r="K957" s="4" t="s">
-        <v>1403</v>
+        <v>1412</v>
       </c>
       <c r="L957" s="4" t="s">
-        <v>1404</v>
+        <v>1413</v>
       </c>
       <c r="M957"/>
       <c r="N957" s="4" t="s">
-        <v>1405</v>
+        <v>1414</v>
       </c>
       <c r="O957" s="4" t="s">
-        <v>1406</v>
+        <v>1415</v>
       </c>
       <c r="P957" s="4" t="s">
-        <v>173</v>
+        <v>1077</v>
       </c>
     </row>
     <row r="958">
@@ -46390,35 +46273,33 @@
         <v>163</v>
       </c>
       <c r="C958" s="4" t="s">
-        <v>1083</v>
+        <v>708</v>
       </c>
       <c r="D958"/>
       <c r="E958"/>
       <c r="F958" s="4" t="s">
-        <v>922</v>
+        <v>1416</v>
       </c>
       <c r="G958" s="4" t="s">
-        <v>1407</v>
-      </c>
-      <c r="H958" s="4" t="s">
-        <v>1408</v>
-      </c>
+        <v>1417</v>
+      </c>
+      <c r="H958"/>
       <c r="I958" s="4" t="s">
-        <v>1409</v>
+        <v>1105</v>
       </c>
       <c r="J958"/>
       <c r="K958" s="4" t="s">
-        <v>1410</v>
+        <v>1418</v>
       </c>
       <c r="L958" s="4" t="s">
-        <v>1411</v>
+        <v>1419</v>
       </c>
       <c r="M958"/>
       <c r="N958" s="4" t="s">
-        <v>1412</v>
+        <v>1420</v>
       </c>
       <c r="O958" s="4" t="s">
-        <v>1413</v>
+        <v>1421</v>
       </c>
       <c r="P958" s="4" t="s">
         <v>173</v>
@@ -46432,38 +46313,38 @@
         <v>163</v>
       </c>
       <c r="C959" s="4" t="s">
-        <v>1414</v>
+        <v>1135</v>
       </c>
       <c r="D959"/>
       <c r="E959"/>
       <c r="F959" s="4" t="s">
-        <v>1415</v>
+        <v>1422</v>
       </c>
       <c r="G959" s="4" t="s">
-        <v>1416</v>
+        <v>933</v>
       </c>
       <c r="H959" s="4" t="s">
-        <v>1417</v>
+        <v>1423</v>
       </c>
       <c r="I959" s="4" t="s">
-        <v>1418</v>
+        <v>1088</v>
       </c>
       <c r="J959"/>
       <c r="K959" s="4" t="s">
-        <v>1419</v>
+        <v>1424</v>
       </c>
       <c r="L959" s="4" t="s">
-        <v>1420</v>
+        <v>1425</v>
       </c>
       <c r="M959"/>
       <c r="N959" s="4" t="s">
-        <v>1421</v>
+        <v>1426</v>
       </c>
       <c r="O959" s="4" t="s">
-        <v>1422</v>
+        <v>1427</v>
       </c>
       <c r="P959" s="4" t="s">
-        <v>173</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="960">
@@ -46474,36 +46355,36 @@
         <v>163</v>
       </c>
       <c r="C960" s="4" t="s">
-        <v>1120</v>
+        <v>1135</v>
       </c>
       <c r="D960"/>
       <c r="E960"/>
       <c r="F960" s="4" t="s">
-        <v>1423</v>
+        <v>1428</v>
       </c>
       <c r="G960" s="4" t="s">
-        <v>1424</v>
+        <v>1429</v>
       </c>
       <c r="H960"/>
       <c r="I960" s="4" t="s">
-        <v>1425</v>
+        <v>1430</v>
       </c>
       <c r="J960"/>
       <c r="K960" s="4" t="s">
-        <v>1426</v>
+        <v>1431</v>
       </c>
       <c r="L960" s="4" t="s">
-        <v>1427</v>
+        <v>1432</v>
       </c>
       <c r="M960"/>
       <c r="N960" s="4" t="s">
-        <v>1428</v>
+        <v>1433</v>
       </c>
       <c r="O960" s="4" t="s">
-        <v>1429</v>
+        <v>1434</v>
       </c>
       <c r="P960" s="4" t="s">
-        <v>267</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="961">
@@ -46514,38 +46395,36 @@
         <v>163</v>
       </c>
       <c r="C961" s="4" t="s">
-        <v>1167</v>
+        <v>1101</v>
       </c>
       <c r="D961"/>
       <c r="E961"/>
       <c r="F961" s="4" t="s">
-        <v>1430</v>
+        <v>1435</v>
       </c>
       <c r="G961" s="4" t="s">
-        <v>1416</v>
-      </c>
-      <c r="H961" s="4" t="s">
-        <v>1431</v>
-      </c>
+        <v>1436</v>
+      </c>
+      <c r="H961"/>
       <c r="I961" s="4" t="s">
-        <v>1070</v>
+        <v>1437</v>
       </c>
       <c r="J961"/>
       <c r="K961" s="4" t="s">
-        <v>1432</v>
+        <v>1438</v>
       </c>
       <c r="L961" s="4" t="s">
-        <v>1433</v>
+        <v>1439</v>
       </c>
       <c r="M961"/>
       <c r="N961" s="4" t="s">
-        <v>1434</v>
+        <v>1440</v>
       </c>
       <c r="O961" s="4" t="s">
-        <v>1435</v>
+        <v>1441</v>
       </c>
       <c r="P961" s="4" t="s">
-        <v>173</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="962">
@@ -46556,38 +46435,36 @@
         <v>163</v>
       </c>
       <c r="C962" s="4" t="s">
-        <v>1066</v>
+        <v>1135</v>
       </c>
       <c r="D962"/>
       <c r="E962"/>
       <c r="F962" s="4" t="s">
+        <v>1442</v>
+      </c>
+      <c r="G962" s="4" t="s">
         <v>1436</v>
       </c>
-      <c r="G962" s="4" t="s">
-        <v>1437</v>
-      </c>
-      <c r="H962" s="4" t="s">
-        <v>1201</v>
-      </c>
+      <c r="H962"/>
       <c r="I962" s="4" t="s">
-        <v>1070</v>
+        <v>1443</v>
       </c>
       <c r="J962"/>
       <c r="K962" s="4" t="s">
-        <v>1438</v>
+        <v>1444</v>
       </c>
       <c r="L962" s="4" t="s">
-        <v>1439</v>
+        <v>1445</v>
       </c>
       <c r="M962"/>
       <c r="N962" s="4" t="s">
-        <v>1440</v>
+        <v>1446</v>
       </c>
       <c r="O962" s="4" t="s">
-        <v>1441</v>
+        <v>1447</v>
       </c>
       <c r="P962" s="4" t="s">
-        <v>173</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="963">
@@ -46598,38 +46475,36 @@
         <v>163</v>
       </c>
       <c r="C963" s="4" t="s">
-        <v>1186</v>
+        <v>1101</v>
       </c>
       <c r="D963"/>
       <c r="E963"/>
       <c r="F963" s="4" t="s">
-        <v>1442</v>
+        <v>1448</v>
       </c>
       <c r="G963" s="4" t="s">
-        <v>1443</v>
-      </c>
-      <c r="H963" s="4" t="s">
-        <v>1189</v>
-      </c>
+        <v>1449</v>
+      </c>
+      <c r="H963"/>
       <c r="I963" s="4" t="s">
-        <v>1130</v>
+        <v>1286</v>
       </c>
       <c r="J963"/>
       <c r="K963" s="4" t="s">
-        <v>1444</v>
+        <v>1450</v>
       </c>
       <c r="L963" s="4" t="s">
-        <v>1445</v>
+        <v>1451</v>
       </c>
       <c r="M963"/>
       <c r="N963" s="4" t="s">
-        <v>1446</v>
+        <v>1452</v>
       </c>
       <c r="O963" s="4" t="s">
-        <v>1447</v>
+        <v>1453</v>
       </c>
       <c r="P963" s="4" t="s">
-        <v>282</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="964">
@@ -46640,38 +46515,36 @@
         <v>163</v>
       </c>
       <c r="C964" s="4" t="s">
-        <v>1167</v>
+        <v>1101</v>
       </c>
       <c r="D964"/>
       <c r="E964"/>
       <c r="F964" s="4" t="s">
-        <v>1448</v>
+        <v>1454</v>
       </c>
       <c r="G964" s="4" t="s">
-        <v>1449</v>
-      </c>
-      <c r="H964" s="4" t="s">
-        <v>1450</v>
-      </c>
+        <v>1455</v>
+      </c>
+      <c r="H964"/>
       <c r="I964" s="4" t="s">
-        <v>1312</v>
+        <v>1088</v>
       </c>
       <c r="J964"/>
       <c r="K964" s="4" t="s">
-        <v>1451</v>
+        <v>1456</v>
       </c>
       <c r="L964" s="4" t="s">
-        <v>1452</v>
+        <v>1457</v>
       </c>
       <c r="M964"/>
       <c r="N964" s="4" t="s">
-        <v>1453</v>
+        <v>1458</v>
       </c>
       <c r="O964" s="4" t="s">
-        <v>1454</v>
+        <v>1459</v>
       </c>
       <c r="P964" s="4" t="s">
-        <v>173</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="965">
@@ -46682,38 +46555,36 @@
         <v>163</v>
       </c>
       <c r="C965" s="4" t="s">
-        <v>1083</v>
+        <v>1101</v>
       </c>
       <c r="D965"/>
       <c r="E965"/>
       <c r="F965" s="4" t="s">
-        <v>1455</v>
+        <v>1460</v>
       </c>
       <c r="G965" s="4" t="s">
-        <v>1085</v>
-      </c>
-      <c r="H965" s="4" t="s">
-        <v>1456</v>
-      </c>
+        <v>1461</v>
+      </c>
+      <c r="H965"/>
       <c r="I965" s="4" t="s">
-        <v>1110</v>
+        <v>1462</v>
       </c>
       <c r="J965"/>
       <c r="K965" s="4" t="s">
-        <v>1457</v>
+        <v>1463</v>
       </c>
       <c r="L965" s="4" t="s">
-        <v>1458</v>
+        <v>1464</v>
       </c>
       <c r="M965"/>
       <c r="N965" s="4" t="s">
-        <v>1459</v>
+        <v>1465</v>
       </c>
       <c r="O965" s="4" t="s">
-        <v>1460</v>
+        <v>1466</v>
       </c>
       <c r="P965" s="4" t="s">
-        <v>173</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="966">
@@ -46724,38 +46595,36 @@
         <v>163</v>
       </c>
       <c r="C966" s="4" t="s">
-        <v>1083</v>
+        <v>1135</v>
       </c>
       <c r="D966"/>
       <c r="E966"/>
       <c r="F966" s="4" t="s">
-        <v>1461</v>
+        <v>868</v>
       </c>
       <c r="G966" s="4" t="s">
-        <v>1462</v>
-      </c>
-      <c r="H966" s="4" t="s">
-        <v>1463</v>
-      </c>
+        <v>869</v>
+      </c>
+      <c r="H966"/>
       <c r="I966" s="4" t="s">
-        <v>1464</v>
+        <v>1072</v>
       </c>
       <c r="J966"/>
       <c r="K966" s="4" t="s">
-        <v>1465</v>
+        <v>1467</v>
       </c>
       <c r="L966" s="4" t="s">
-        <v>1466</v>
+        <v>1468</v>
       </c>
       <c r="M966"/>
       <c r="N966" s="4" t="s">
-        <v>1467</v>
+        <v>1469</v>
       </c>
       <c r="O966" s="4" t="s">
-        <v>1468</v>
+        <v>1470</v>
       </c>
       <c r="P966" s="4" t="s">
-        <v>173</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="967">
@@ -46766,38 +46635,36 @@
         <v>163</v>
       </c>
       <c r="C967" s="4" t="s">
-        <v>1167</v>
+        <v>1471</v>
       </c>
       <c r="D967"/>
       <c r="E967"/>
       <c r="F967" s="4" t="s">
-        <v>1469</v>
+        <v>1472</v>
       </c>
       <c r="G967" s="4" t="s">
-        <v>1470</v>
-      </c>
-      <c r="H967" s="4" t="s">
-        <v>1471</v>
-      </c>
+        <v>1473</v>
+      </c>
+      <c r="H967"/>
       <c r="I967" s="4" t="s">
-        <v>1472</v>
+        <v>1474</v>
       </c>
       <c r="J967"/>
       <c r="K967" s="4" t="s">
-        <v>1473</v>
+        <v>1475</v>
       </c>
       <c r="L967" s="4" t="s">
-        <v>1474</v>
+        <v>1476</v>
       </c>
       <c r="M967"/>
       <c r="N967" s="4" t="s">
-        <v>1475</v>
+        <v>1477</v>
       </c>
       <c r="O967" s="4" t="s">
-        <v>1476</v>
+        <v>1478</v>
       </c>
       <c r="P967" s="4" t="s">
-        <v>173</v>
+        <v>1479</v>
       </c>
     </row>
     <row r="968">
@@ -46808,36 +46675,38 @@
         <v>163</v>
       </c>
       <c r="C968" s="4" t="s">
-        <v>1083</v>
+        <v>1135</v>
       </c>
       <c r="D968"/>
       <c r="E968"/>
       <c r="F968" s="4" t="s">
-        <v>1477</v>
+        <v>1480</v>
       </c>
       <c r="G968" s="4" t="s">
-        <v>1470</v>
-      </c>
-      <c r="H968"/>
+        <v>1481</v>
+      </c>
+      <c r="H968" s="4" t="s">
+        <v>1482</v>
+      </c>
       <c r="I968" s="4" t="s">
-        <v>1478</v>
+        <v>1105</v>
       </c>
       <c r="J968"/>
       <c r="K968" s="4" t="s">
-        <v>1479</v>
+        <v>1483</v>
       </c>
       <c r="L968" s="4" t="s">
-        <v>1480</v>
+        <v>1484</v>
       </c>
       <c r="M968"/>
       <c r="N968" s="4" t="s">
-        <v>1481</v>
+        <v>1248</v>
       </c>
       <c r="O968" s="4" t="s">
-        <v>1482</v>
+        <v>1485</v>
       </c>
       <c r="P968" s="4" t="s">
-        <v>173</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="969">
@@ -46848,36 +46717,38 @@
         <v>163</v>
       </c>
       <c r="C969" s="4" t="s">
-        <v>1167</v>
+        <v>1046</v>
       </c>
       <c r="D969"/>
       <c r="E969"/>
       <c r="F969" s="4" t="s">
-        <v>1483</v>
+        <v>908</v>
       </c>
       <c r="G969" s="4" t="s">
-        <v>1484</v>
-      </c>
-      <c r="H969"/>
+        <v>909</v>
+      </c>
+      <c r="H969" s="4" t="s">
+        <v>1363</v>
+      </c>
       <c r="I969" s="4" t="s">
-        <v>1110</v>
+        <v>1486</v>
       </c>
       <c r="J969"/>
       <c r="K969" s="4" t="s">
-        <v>1485</v>
+        <v>1487</v>
       </c>
       <c r="L969" s="4" t="s">
-        <v>1486</v>
+        <v>1488</v>
       </c>
       <c r="M969"/>
       <c r="N969" s="4" t="s">
-        <v>1487</v>
+        <v>1489</v>
       </c>
       <c r="O969" s="4" t="s">
-        <v>1488</v>
+        <v>1490</v>
       </c>
       <c r="P969" s="4" t="s">
-        <v>173</v>
+        <v>1051</v>
       </c>
     </row>
     <row r="970">
@@ -46888,21 +46759,21 @@
         <v>163</v>
       </c>
       <c r="C970" s="4" t="s">
-        <v>1167</v>
+        <v>1069</v>
       </c>
       <c r="D970"/>
       <c r="E970"/>
       <c r="F970" s="4" t="s">
-        <v>1489</v>
+        <v>1491</v>
       </c>
       <c r="G970" s="4" t="s">
-        <v>1490</v>
+        <v>793</v>
       </c>
       <c r="H970" s="4" t="s">
-        <v>1491</v>
+        <v>1492</v>
       </c>
       <c r="I970" s="4" t="s">
-        <v>1492</v>
+        <v>1105</v>
       </c>
       <c r="J970"/>
       <c r="K970" s="4" t="s">
@@ -46919,7 +46790,7 @@
         <v>1496</v>
       </c>
       <c r="P970" s="4" t="s">
-        <v>173</v>
+        <v>1077</v>
       </c>
     </row>
     <row r="971">
@@ -46930,38 +46801,38 @@
         <v>163</v>
       </c>
       <c r="C971" s="4" t="s">
-        <v>1083</v>
+        <v>1101</v>
       </c>
       <c r="D971"/>
       <c r="E971"/>
       <c r="F971" s="4" t="s">
-        <v>868</v>
+        <v>1497</v>
       </c>
       <c r="G971" s="4" t="s">
-        <v>1497</v>
+        <v>1498</v>
       </c>
       <c r="H971" s="4" t="s">
-        <v>1498</v>
+        <v>1499</v>
       </c>
       <c r="I971" s="4" t="s">
-        <v>1152</v>
+        <v>1145</v>
       </c>
       <c r="J971"/>
       <c r="K971" s="4" t="s">
-        <v>1499</v>
+        <v>1500</v>
       </c>
       <c r="L971" s="4" t="s">
-        <v>1500</v>
+        <v>1501</v>
       </c>
       <c r="M971"/>
       <c r="N971" s="4" t="s">
-        <v>1501</v>
+        <v>1502</v>
       </c>
       <c r="O971" s="4" t="s">
-        <v>1502</v>
+        <v>1503</v>
       </c>
       <c r="P971" s="4" t="s">
-        <v>173</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="972">
@@ -46972,7 +46843,7 @@
         <v>163</v>
       </c>
       <c r="C972" s="4" t="s">
-        <v>1503</v>
+        <v>1101</v>
       </c>
       <c r="D972"/>
       <c r="E972"/>
@@ -46984,24 +46855,24 @@
       </c>
       <c r="H972"/>
       <c r="I972" s="4" t="s">
-        <v>1506</v>
+        <v>1105</v>
       </c>
       <c r="J972"/>
       <c r="K972" s="4" t="s">
+        <v>1506</v>
+      </c>
+      <c r="L972" s="4" t="s">
         <v>1507</v>
-      </c>
-      <c r="L972" s="4" t="s">
-        <v>1508</v>
       </c>
       <c r="M972"/>
       <c r="N972" s="4" t="s">
+        <v>1508</v>
+      </c>
+      <c r="O972" s="4" t="s">
         <v>1509</v>
       </c>
-      <c r="O972" s="4" t="s">
-        <v>1510</v>
-      </c>
       <c r="P972" s="4" t="s">
-        <v>267</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="973">
@@ -47012,7 +46883,7 @@
         <v>163</v>
       </c>
       <c r="C973" s="4" t="s">
-        <v>1083</v>
+        <v>1510</v>
       </c>
       <c r="D973"/>
       <c r="E973"/>
@@ -47026,7 +46897,7 @@
         <v>1513</v>
       </c>
       <c r="I973" s="4" t="s">
-        <v>1130</v>
+        <v>1095</v>
       </c>
       <c r="J973"/>
       <c r="K973" s="4" t="s">
@@ -47037,13 +46908,13 @@
       </c>
       <c r="M973"/>
       <c r="N973" s="4" t="s">
-        <v>1288</v>
+        <v>1516</v>
       </c>
       <c r="O973" s="4" t="s">
-        <v>1516</v>
+        <v>1517</v>
       </c>
       <c r="P973" s="4" t="s">
-        <v>173</v>
+        <v>1518</v>
       </c>
     </row>
     <row r="974">
@@ -47054,38 +46925,38 @@
         <v>163</v>
       </c>
       <c r="C974" s="4" t="s">
-        <v>1044</v>
+        <v>1101</v>
       </c>
       <c r="D974"/>
       <c r="E974"/>
       <c r="F974" s="4" t="s">
-        <v>908</v>
+        <v>1519</v>
       </c>
       <c r="G974" s="4" t="s">
-        <v>1517</v>
+        <v>1520</v>
       </c>
       <c r="H974" s="4" t="s">
-        <v>1518</v>
+        <v>1521</v>
       </c>
       <c r="I974" s="4" t="s">
-        <v>1519</v>
+        <v>1286</v>
       </c>
       <c r="J974"/>
       <c r="K974" s="4" t="s">
-        <v>1520</v>
+        <v>1522</v>
       </c>
       <c r="L974" s="4" t="s">
-        <v>1521</v>
+        <v>1523</v>
       </c>
       <c r="M974"/>
       <c r="N974" s="4" t="s">
-        <v>1522</v>
+        <v>1524</v>
       </c>
       <c r="O974" s="4" t="s">
-        <v>1523</v>
+        <v>1525</v>
       </c>
       <c r="P974" s="4" t="s">
-        <v>173</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="975">
@@ -47096,38 +46967,36 @@
         <v>163</v>
       </c>
       <c r="C975" s="4" t="s">
-        <v>1066</v>
+        <v>1526</v>
       </c>
       <c r="D975"/>
       <c r="E975"/>
       <c r="F975" s="4" t="s">
-        <v>1524</v>
+        <v>1527</v>
       </c>
       <c r="G975" s="4" t="s">
-        <v>1525</v>
-      </c>
-      <c r="H975" s="4" t="s">
-        <v>1129</v>
-      </c>
+        <v>1010</v>
+      </c>
+      <c r="H975"/>
       <c r="I975" s="4" t="s">
-        <v>1130</v>
+        <v>1528</v>
       </c>
       <c r="J975"/>
       <c r="K975" s="4" t="s">
-        <v>1526</v>
+        <v>1529</v>
       </c>
       <c r="L975" s="4" t="s">
-        <v>1527</v>
+        <v>1530</v>
       </c>
       <c r="M975"/>
       <c r="N975" s="4" t="s">
-        <v>1528</v>
+        <v>1531</v>
       </c>
       <c r="O975" s="4" t="s">
-        <v>1529</v>
+        <v>1532</v>
       </c>
       <c r="P975" s="4" t="s">
-        <v>173</v>
+        <v>1533</v>
       </c>
     </row>
     <row r="976">
@@ -47138,38 +47007,38 @@
         <v>163</v>
       </c>
       <c r="C976" s="4" t="s">
-        <v>1167</v>
+        <v>1135</v>
       </c>
       <c r="D976"/>
       <c r="E976"/>
       <c r="F976" s="4" t="s">
-        <v>1530</v>
+        <v>1534</v>
       </c>
       <c r="G976" s="4" t="s">
-        <v>1531</v>
+        <v>1010</v>
       </c>
       <c r="H976" s="4" t="s">
-        <v>1532</v>
+        <v>1293</v>
       </c>
       <c r="I976" s="4" t="s">
-        <v>1070</v>
+        <v>1535</v>
       </c>
       <c r="J976"/>
       <c r="K976" s="4" t="s">
-        <v>1533</v>
+        <v>1536</v>
       </c>
       <c r="L976" s="4" t="s">
-        <v>1534</v>
+        <v>1537</v>
       </c>
       <c r="M976"/>
       <c r="N976" s="4" t="s">
-        <v>1535</v>
+        <v>1538</v>
       </c>
       <c r="O976" s="4" t="s">
-        <v>1536</v>
+        <v>1539</v>
       </c>
       <c r="P976" s="4" t="s">
-        <v>173</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="977">
@@ -47180,38 +47049,36 @@
         <v>163</v>
       </c>
       <c r="C977" s="4" t="s">
-        <v>1167</v>
+        <v>1540</v>
       </c>
       <c r="D977"/>
       <c r="E977"/>
       <c r="F977" s="4" t="s">
-        <v>1537</v>
+        <v>1541</v>
       </c>
       <c r="G977" s="4" t="s">
-        <v>1538</v>
-      </c>
-      <c r="H977" s="4" t="s">
-        <v>1539</v>
-      </c>
+        <v>1542</v>
+      </c>
+      <c r="H977"/>
       <c r="I977" s="4" t="s">
-        <v>1130</v>
+        <v>1543</v>
       </c>
       <c r="J977"/>
       <c r="K977" s="4" t="s">
-        <v>1540</v>
+        <v>1544</v>
       </c>
       <c r="L977" s="4" t="s">
-        <v>1541</v>
+        <v>1545</v>
       </c>
       <c r="M977"/>
       <c r="N977" s="4" t="s">
-        <v>1542</v>
+        <v>1546</v>
       </c>
       <c r="O977" s="4" t="s">
-        <v>1543</v>
+        <v>1547</v>
       </c>
       <c r="P977" s="4" t="s">
-        <v>173</v>
+        <v>1548</v>
       </c>
     </row>
     <row r="978">
@@ -47222,38 +47089,36 @@
         <v>163</v>
       </c>
       <c r="C978" s="4" t="s">
-        <v>1544</v>
+        <v>1135</v>
       </c>
       <c r="D978"/>
       <c r="E978"/>
       <c r="F978" s="4" t="s">
-        <v>1545</v>
+        <v>1549</v>
       </c>
       <c r="G978" s="4" t="s">
-        <v>1546</v>
-      </c>
-      <c r="H978" s="4" t="s">
-        <v>1547</v>
-      </c>
+        <v>1010</v>
+      </c>
+      <c r="H978"/>
       <c r="I978" s="4" t="s">
-        <v>1425</v>
+        <v>1528</v>
       </c>
       <c r="J978"/>
       <c r="K978" s="4" t="s">
-        <v>1548</v>
+        <v>1550</v>
       </c>
       <c r="L978" s="4" t="s">
-        <v>1549</v>
+        <v>1551</v>
       </c>
       <c r="M978"/>
       <c r="N978" s="4" t="s">
-        <v>1550</v>
+        <v>1552</v>
       </c>
       <c r="O978" s="4" t="s">
-        <v>1551</v>
+        <v>1553</v>
       </c>
       <c r="P978" s="4" t="s">
-        <v>173</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="979">
@@ -47264,38 +47129,38 @@
         <v>163</v>
       </c>
       <c r="C979" s="4" t="s">
-        <v>1167</v>
+        <v>1135</v>
       </c>
       <c r="D979"/>
       <c r="E979"/>
       <c r="F979" s="4" t="s">
-        <v>1552</v>
+        <v>1554</v>
       </c>
       <c r="G979" s="4" t="s">
-        <v>1553</v>
+        <v>1555</v>
       </c>
       <c r="H979" s="4" t="s">
-        <v>1554</v>
+        <v>1556</v>
       </c>
       <c r="I979" s="4" t="s">
-        <v>1312</v>
+        <v>1088</v>
       </c>
       <c r="J979"/>
       <c r="K979" s="4" t="s">
-        <v>1555</v>
+        <v>1557</v>
       </c>
       <c r="L979" s="4" t="s">
-        <v>1556</v>
+        <v>1558</v>
       </c>
       <c r="M979"/>
       <c r="N979" s="4" t="s">
-        <v>1557</v>
+        <v>1559</v>
       </c>
       <c r="O979" s="4" t="s">
-        <v>1558</v>
+        <v>1560</v>
       </c>
       <c r="P979" s="4" t="s">
-        <v>173</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="980">
@@ -47306,19 +47171,19 @@
         <v>163</v>
       </c>
       <c r="C980" s="4" t="s">
-        <v>1559</v>
+        <v>1135</v>
       </c>
       <c r="D980"/>
       <c r="E980"/>
       <c r="F980" s="4" t="s">
-        <v>1560</v>
+        <v>1561</v>
       </c>
       <c r="G980" s="4" t="s">
-        <v>1226</v>
+        <v>879</v>
       </c>
       <c r="H980"/>
       <c r="I980" s="4" t="s">
-        <v>1561</v>
+        <v>1095</v>
       </c>
       <c r="J980"/>
       <c r="K980" s="4" t="s">
@@ -47335,7 +47200,7 @@
         <v>1565</v>
       </c>
       <c r="P980" s="4" t="s">
-        <v>173</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="981">
@@ -47346,7 +47211,7 @@
         <v>163</v>
       </c>
       <c r="C981" s="4" t="s">
-        <v>1083</v>
+        <v>708</v>
       </c>
       <c r="D981"/>
       <c r="E981"/>
@@ -47354,27 +47219,25 @@
         <v>1566</v>
       </c>
       <c r="G981" s="4" t="s">
-        <v>1226</v>
-      </c>
-      <c r="H981" s="4" t="s">
         <v>1567</v>
       </c>
+      <c r="H981"/>
       <c r="I981" s="4" t="s">
-        <v>1568</v>
+        <v>1105</v>
       </c>
       <c r="J981"/>
       <c r="K981" s="4" t="s">
+        <v>1568</v>
+      </c>
+      <c r="L981" s="4" t="s">
         <v>1569</v>
-      </c>
-      <c r="L981" s="4" t="s">
-        <v>1570</v>
       </c>
       <c r="M981"/>
       <c r="N981" s="4" t="s">
+        <v>1570</v>
+      </c>
+      <c r="O981" s="4" t="s">
         <v>1571</v>
-      </c>
-      <c r="O981" s="4" t="s">
-        <v>1572</v>
       </c>
       <c r="P981" s="4" t="s">
         <v>173</v>
@@ -47388,36 +47251,36 @@
         <v>163</v>
       </c>
       <c r="C982" s="4" t="s">
-        <v>1573</v>
+        <v>1046</v>
       </c>
       <c r="D982"/>
       <c r="E982"/>
       <c r="F982" s="4" t="s">
-        <v>1574</v>
+        <v>1572</v>
       </c>
       <c r="G982" s="4" t="s">
-        <v>1575</v>
+        <v>1573</v>
       </c>
       <c r="H982"/>
       <c r="I982" s="4" t="s">
-        <v>1576</v>
+        <v>1574</v>
       </c>
       <c r="J982"/>
       <c r="K982" s="4" t="s">
-        <v>1577</v>
+        <v>1575</v>
       </c>
       <c r="L982" s="4" t="s">
-        <v>1578</v>
+        <v>1576</v>
       </c>
       <c r="M982"/>
       <c r="N982" s="4" t="s">
-        <v>1579</v>
+        <v>1577</v>
       </c>
       <c r="O982" s="4" t="s">
-        <v>1580</v>
+        <v>1578</v>
       </c>
       <c r="P982" s="4" t="s">
-        <v>173</v>
+        <v>1051</v>
       </c>
     </row>
     <row r="983">
@@ -47428,36 +47291,36 @@
         <v>163</v>
       </c>
       <c r="C983" s="4" t="s">
-        <v>1083</v>
+        <v>1101</v>
       </c>
       <c r="D983"/>
       <c r="E983"/>
       <c r="F983" s="4" t="s">
-        <v>1581</v>
+        <v>1579</v>
       </c>
       <c r="G983" s="4" t="s">
-        <v>1226</v>
+        <v>1580</v>
       </c>
       <c r="H983"/>
       <c r="I983" s="4" t="s">
-        <v>1561</v>
+        <v>1105</v>
       </c>
       <c r="J983"/>
       <c r="K983" s="4" t="s">
+        <v>1581</v>
+      </c>
+      <c r="L983" s="4" t="s">
         <v>1582</v>
-      </c>
-      <c r="L983" s="4" t="s">
-        <v>1583</v>
       </c>
       <c r="M983"/>
       <c r="N983" s="4" t="s">
+        <v>1583</v>
+      </c>
+      <c r="O983" s="4" t="s">
         <v>1584</v>
       </c>
-      <c r="O983" s="4" t="s">
-        <v>1585</v>
-      </c>
       <c r="P983" s="4" t="s">
-        <v>173</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="984">
@@ -47468,38 +47331,36 @@
         <v>163</v>
       </c>
       <c r="C984" s="4" t="s">
-        <v>1083</v>
+        <v>1021</v>
       </c>
       <c r="D984"/>
       <c r="E984"/>
       <c r="F984" s="4" t="s">
+        <v>1585</v>
+      </c>
+      <c r="G984" s="4" t="s">
+        <v>1580</v>
+      </c>
+      <c r="H984"/>
+      <c r="I984" s="4" t="s">
         <v>1586</v>
-      </c>
-      <c r="G984" s="4" t="s">
-        <v>1587</v>
-      </c>
-      <c r="H984" s="4" t="s">
-        <v>1588</v>
-      </c>
-      <c r="I984" s="4" t="s">
-        <v>1110</v>
       </c>
       <c r="J984"/>
       <c r="K984" s="4" t="s">
-        <v>1589</v>
+        <v>1587</v>
       </c>
       <c r="L984" s="4" t="s">
-        <v>1590</v>
+        <v>1588</v>
       </c>
       <c r="M984"/>
       <c r="N984" s="4" t="s">
-        <v>1591</v>
+        <v>1589</v>
       </c>
       <c r="O984" s="4" t="s">
-        <v>1592</v>
+        <v>1590</v>
       </c>
       <c r="P984" s="4" t="s">
-        <v>173</v>
+        <v>1030</v>
       </c>
     </row>
     <row r="985">
@@ -47510,38 +47371,36 @@
         <v>163</v>
       </c>
       <c r="C985" s="4" t="s">
-        <v>1083</v>
+        <v>1591</v>
       </c>
       <c r="D985"/>
       <c r="E985"/>
       <c r="F985" s="4" t="s">
+        <v>1592</v>
+      </c>
+      <c r="G985" s="4" t="s">
         <v>1593</v>
       </c>
-      <c r="G985" s="4" t="s">
+      <c r="H985"/>
+      <c r="I985" s="4" t="s">
         <v>1594</v>
-      </c>
-      <c r="H985" s="4" t="s">
-        <v>1595</v>
-      </c>
-      <c r="I985" s="4" t="s">
-        <v>1425</v>
       </c>
       <c r="J985"/>
       <c r="K985" s="4" t="s">
+        <v>1595</v>
+      </c>
+      <c r="L985" s="4" t="s">
         <v>1596</v>
-      </c>
-      <c r="L985" s="4" t="s">
-        <v>1597</v>
       </c>
       <c r="M985"/>
       <c r="N985" s="4" t="s">
+        <v>1597</v>
+      </c>
+      <c r="O985" s="4" t="s">
         <v>1598</v>
       </c>
-      <c r="O985" s="4" t="s">
+      <c r="P985" s="4" t="s">
         <v>1599</v>
-      </c>
-      <c r="P985" s="4" t="s">
-        <v>173</v>
       </c>
     </row>
     <row r="986">
@@ -47552,7 +47411,7 @@
         <v>163</v>
       </c>
       <c r="C986" s="4" t="s">
-        <v>1186</v>
+        <v>1101</v>
       </c>
       <c r="D986"/>
       <c r="E986"/>
@@ -47560,30 +47419,28 @@
         <v>1600</v>
       </c>
       <c r="G986" s="4" t="s">
-        <v>1601</v>
-      </c>
-      <c r="H986" s="4" t="s">
-        <v>1602</v>
-      </c>
+        <v>786</v>
+      </c>
+      <c r="H986"/>
       <c r="I986" s="4" t="s">
-        <v>1130</v>
+        <v>1105</v>
       </c>
       <c r="J986"/>
       <c r="K986" s="4" t="s">
-        <v>1603</v>
+        <v>1601</v>
       </c>
       <c r="L986" s="4" t="s">
-        <v>1604</v>
+        <v>1602</v>
       </c>
       <c r="M986"/>
       <c r="N986" s="4" t="s">
-        <v>1605</v>
+        <v>1603</v>
       </c>
       <c r="O986" s="4" t="s">
-        <v>1606</v>
+        <v>1604</v>
       </c>
       <c r="P986" s="4" t="s">
-        <v>282</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="987">
@@ -47594,36 +47451,38 @@
         <v>163</v>
       </c>
       <c r="C987" s="4" t="s">
-        <v>1044</v>
+        <v>1101</v>
       </c>
       <c r="D987"/>
       <c r="E987"/>
       <c r="F987" s="4" t="s">
+        <v>1605</v>
+      </c>
+      <c r="G987" s="4" t="s">
+        <v>1606</v>
+      </c>
+      <c r="H987" s="4" t="s">
         <v>1607</v>
       </c>
-      <c r="G987" s="4" t="s">
-        <v>1608</v>
-      </c>
-      <c r="H987"/>
       <c r="I987" s="4" t="s">
-        <v>1609</v>
+        <v>1145</v>
       </c>
       <c r="J987"/>
       <c r="K987" s="4" t="s">
-        <v>1610</v>
+        <v>1608</v>
       </c>
       <c r="L987" s="4" t="s">
-        <v>1611</v>
+        <v>1609</v>
       </c>
       <c r="M987"/>
       <c r="N987" s="4" t="s">
-        <v>1612</v>
+        <v>1610</v>
       </c>
       <c r="O987" s="4" t="s">
-        <v>1613</v>
+        <v>1611</v>
       </c>
       <c r="P987" s="4" t="s">
-        <v>173</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="988">
@@ -47634,38 +47493,36 @@
         <v>163</v>
       </c>
       <c r="C988" s="4" t="s">
-        <v>1167</v>
+        <v>1101</v>
       </c>
       <c r="D988"/>
       <c r="E988"/>
       <c r="F988" s="4" t="s">
-        <v>1614</v>
+        <v>1612</v>
       </c>
       <c r="G988" s="4" t="s">
-        <v>1615</v>
-      </c>
-      <c r="H988" s="4" t="s">
-        <v>1616</v>
-      </c>
+        <v>786</v>
+      </c>
+      <c r="H988"/>
       <c r="I988" s="4" t="s">
-        <v>1130</v>
+        <v>1145</v>
       </c>
       <c r="J988"/>
       <c r="K988" s="4" t="s">
-        <v>1617</v>
+        <v>1613</v>
       </c>
       <c r="L988" s="4" t="s">
-        <v>1618</v>
+        <v>1614</v>
       </c>
       <c r="M988"/>
       <c r="N988" s="4" t="s">
-        <v>1619</v>
+        <v>1615</v>
       </c>
       <c r="O988" s="4" t="s">
-        <v>1620</v>
+        <v>1616</v>
       </c>
       <c r="P988" s="4" t="s">
-        <v>173</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="989">
@@ -47676,36 +47533,38 @@
         <v>163</v>
       </c>
       <c r="C989" s="4" t="s">
-        <v>1021</v>
+        <v>1101</v>
       </c>
       <c r="D989"/>
       <c r="E989"/>
       <c r="F989" s="4" t="s">
-        <v>1621</v>
+        <v>1617</v>
       </c>
       <c r="G989" s="4" t="s">
-        <v>1615</v>
-      </c>
-      <c r="H989"/>
+        <v>786</v>
+      </c>
+      <c r="H989" s="4" t="s">
+        <v>1618</v>
+      </c>
       <c r="I989" s="4" t="s">
-        <v>1622</v>
+        <v>1145</v>
       </c>
       <c r="J989"/>
       <c r="K989" s="4" t="s">
-        <v>1623</v>
+        <v>1619</v>
       </c>
       <c r="L989" s="4" t="s">
-        <v>1624</v>
+        <v>1620</v>
       </c>
       <c r="M989"/>
       <c r="N989" s="4" t="s">
-        <v>1625</v>
+        <v>1621</v>
       </c>
       <c r="O989" s="4" t="s">
-        <v>1626</v>
+        <v>1622</v>
       </c>
       <c r="P989" s="4" t="s">
-        <v>173</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="990">
@@ -47716,36 +47575,36 @@
         <v>163</v>
       </c>
       <c r="C990" s="4" t="s">
-        <v>1627</v>
+        <v>1623</v>
       </c>
       <c r="D990"/>
       <c r="E990"/>
       <c r="F990" s="4" t="s">
-        <v>1628</v>
+        <v>1624</v>
       </c>
       <c r="G990" s="4" t="s">
-        <v>1629</v>
+        <v>1054</v>
       </c>
       <c r="H990"/>
       <c r="I990" s="4" t="s">
-        <v>1630</v>
+        <v>1625</v>
       </c>
       <c r="J990"/>
       <c r="K990" s="4" t="s">
-        <v>1631</v>
+        <v>1626</v>
       </c>
       <c r="L990" s="4" t="s">
-        <v>1632</v>
+        <v>1627</v>
       </c>
       <c r="M990"/>
       <c r="N990" s="4" t="s">
-        <v>1633</v>
+        <v>1628</v>
       </c>
       <c r="O990" s="4" t="s">
-        <v>1634</v>
+        <v>1629</v>
       </c>
       <c r="P990" s="4" t="s">
-        <v>173</v>
+        <v>1630</v>
       </c>
     </row>
     <row r="991">
@@ -47756,38 +47615,36 @@
         <v>163</v>
       </c>
       <c r="C991" s="4" t="s">
-        <v>1167</v>
+        <v>1631</v>
       </c>
       <c r="D991"/>
       <c r="E991"/>
       <c r="F991" s="4" t="s">
-        <v>1635</v>
+        <v>1632</v>
       </c>
       <c r="G991" s="4" t="s">
-        <v>1636</v>
-      </c>
-      <c r="H991" s="4" t="s">
-        <v>1637</v>
-      </c>
+        <v>819</v>
+      </c>
+      <c r="H991"/>
       <c r="I991" s="4" t="s">
-        <v>1130</v>
+        <v>1633</v>
       </c>
       <c r="J991"/>
       <c r="K991" s="4" t="s">
-        <v>1638</v>
+        <v>1634</v>
       </c>
       <c r="L991" s="4" t="s">
-        <v>1639</v>
+        <v>1635</v>
       </c>
       <c r="M991"/>
       <c r="N991" s="4" t="s">
-        <v>1640</v>
+        <v>1636</v>
       </c>
       <c r="O991" s="4" t="s">
-        <v>1641</v>
+        <v>1637</v>
       </c>
       <c r="P991" s="4" t="s">
-        <v>173</v>
+        <v>1638</v>
       </c>
     </row>
     <row r="992">
@@ -47798,38 +47655,36 @@
         <v>163</v>
       </c>
       <c r="C992" s="4" t="s">
-        <v>1167</v>
+        <v>1631</v>
       </c>
       <c r="D992"/>
       <c r="E992"/>
       <c r="F992" s="4" t="s">
-        <v>1642</v>
+        <v>1639</v>
       </c>
       <c r="G992" s="4" t="s">
-        <v>1643</v>
-      </c>
-      <c r="H992" s="4" t="s">
-        <v>1644</v>
-      </c>
+        <v>780</v>
+      </c>
+      <c r="H992"/>
       <c r="I992" s="4" t="s">
-        <v>1070</v>
+        <v>1165</v>
       </c>
       <c r="J992"/>
       <c r="K992" s="4" t="s">
-        <v>1645</v>
+        <v>1640</v>
       </c>
       <c r="L992" s="4" t="s">
-        <v>1646</v>
+        <v>1641</v>
       </c>
       <c r="M992"/>
       <c r="N992" s="4" t="s">
-        <v>1647</v>
+        <v>1642</v>
       </c>
       <c r="O992" s="4" t="s">
-        <v>1648</v>
+        <v>1643</v>
       </c>
       <c r="P992" s="4" t="s">
-        <v>173</v>
+        <v>1638</v>
       </c>
     </row>
     <row r="993">
@@ -47840,38 +47695,36 @@
         <v>163</v>
       </c>
       <c r="C993" s="4" t="s">
-        <v>1167</v>
+        <v>1135</v>
       </c>
       <c r="D993"/>
       <c r="E993"/>
       <c r="F993" s="4" t="s">
-        <v>1649</v>
+        <v>1644</v>
       </c>
       <c r="G993" s="4" t="s">
-        <v>1636</v>
-      </c>
-      <c r="H993" s="4" t="s">
-        <v>1650</v>
-      </c>
+        <v>1573</v>
+      </c>
+      <c r="H993"/>
       <c r="I993" s="4" t="s">
-        <v>1070</v>
+        <v>1645</v>
       </c>
       <c r="J993"/>
       <c r="K993" s="4" t="s">
-        <v>1651</v>
+        <v>1646</v>
       </c>
       <c r="L993" s="4" t="s">
-        <v>1652</v>
+        <v>1647</v>
       </c>
       <c r="M993"/>
       <c r="N993" s="4" t="s">
-        <v>1653</v>
+        <v>1648</v>
       </c>
       <c r="O993" s="4" t="s">
-        <v>1654</v>
+        <v>1649</v>
       </c>
       <c r="P993" s="4" t="s">
-        <v>173</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="994">
@@ -47882,38 +47735,36 @@
         <v>163</v>
       </c>
       <c r="C994" s="4" t="s">
-        <v>1167</v>
+        <v>1135</v>
       </c>
       <c r="D994"/>
       <c r="E994"/>
       <c r="F994" s="4" t="s">
-        <v>1655</v>
+        <v>1650</v>
       </c>
       <c r="G994" s="4" t="s">
-        <v>1636</v>
-      </c>
-      <c r="H994" s="4" t="s">
-        <v>1656</v>
-      </c>
+        <v>1573</v>
+      </c>
+      <c r="H994"/>
       <c r="I994" s="4" t="s">
-        <v>1070</v>
+        <v>1651</v>
       </c>
       <c r="J994"/>
       <c r="K994" s="4" t="s">
-        <v>1657</v>
+        <v>1652</v>
       </c>
       <c r="L994" s="4" t="s">
-        <v>1658</v>
+        <v>1653</v>
       </c>
       <c r="M994"/>
       <c r="N994" s="4" t="s">
-        <v>1659</v>
+        <v>1654</v>
       </c>
       <c r="O994" s="4" t="s">
-        <v>1660</v>
+        <v>1655</v>
       </c>
       <c r="P994" s="4" t="s">
-        <v>173</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="995">
@@ -47924,36 +47775,38 @@
         <v>163</v>
       </c>
       <c r="C995" s="4" t="s">
-        <v>1661</v>
+        <v>1021</v>
       </c>
       <c r="D995"/>
       <c r="E995"/>
       <c r="F995" s="4" t="s">
-        <v>1662</v>
+        <v>1656</v>
       </c>
       <c r="G995" s="4" t="s">
-        <v>1663</v>
-      </c>
-      <c r="H995"/>
+        <v>798</v>
+      </c>
+      <c r="H995" s="4" t="s">
+        <v>1657</v>
+      </c>
       <c r="I995" s="4" t="s">
-        <v>1664</v>
+        <v>1658</v>
       </c>
       <c r="J995"/>
       <c r="K995" s="4" t="s">
-        <v>1665</v>
+        <v>1659</v>
       </c>
       <c r="L995" s="4" t="s">
-        <v>1666</v>
+        <v>1660</v>
       </c>
       <c r="M995"/>
       <c r="N995" s="4" t="s">
-        <v>1667</v>
+        <v>1661</v>
       </c>
       <c r="O995" s="4" t="s">
-        <v>1668</v>
+        <v>1662</v>
       </c>
       <c r="P995" s="4" t="s">
-        <v>173</v>
+        <v>1030</v>
       </c>
     </row>
     <row r="996">
@@ -47964,36 +47817,36 @@
         <v>163</v>
       </c>
       <c r="C996" s="4" t="s">
-        <v>1661</v>
+        <v>1021</v>
       </c>
       <c r="D996"/>
       <c r="E996"/>
       <c r="F996" s="4" t="s">
-        <v>1669</v>
+        <v>1663</v>
       </c>
       <c r="G996" s="4" t="s">
-        <v>1045</v>
+        <v>1664</v>
       </c>
       <c r="H996"/>
       <c r="I996" s="4" t="s">
-        <v>1101</v>
+        <v>1665</v>
       </c>
       <c r="J996"/>
       <c r="K996" s="4" t="s">
-        <v>1670</v>
+        <v>1666</v>
       </c>
       <c r="L996" s="4" t="s">
-        <v>1671</v>
+        <v>1667</v>
       </c>
       <c r="M996"/>
       <c r="N996" s="4" t="s">
-        <v>1672</v>
+        <v>1668</v>
       </c>
       <c r="O996" s="4" t="s">
-        <v>1673</v>
+        <v>1669</v>
       </c>
       <c r="P996" s="4" t="s">
-        <v>173</v>
+        <v>1030</v>
       </c>
     </row>
     <row r="997">
@@ -48004,36 +47857,36 @@
         <v>163</v>
       </c>
       <c r="C997" s="4" t="s">
-        <v>1083</v>
+        <v>1069</v>
       </c>
       <c r="D997"/>
       <c r="E997"/>
       <c r="F997" s="4" t="s">
-        <v>1674</v>
+        <v>1670</v>
       </c>
       <c r="G997" s="4" t="s">
-        <v>1608</v>
+        <v>780</v>
       </c>
       <c r="H997"/>
       <c r="I997" s="4" t="s">
-        <v>1675</v>
+        <v>1165</v>
       </c>
       <c r="J997"/>
       <c r="K997" s="4" t="s">
-        <v>1676</v>
+        <v>1671</v>
       </c>
       <c r="L997" s="4" t="s">
-        <v>1677</v>
+        <v>1672</v>
       </c>
       <c r="M997"/>
       <c r="N997" s="4" t="s">
-        <v>1678</v>
+        <v>1673</v>
       </c>
       <c r="O997" s="4" t="s">
-        <v>1679</v>
+        <v>1674</v>
       </c>
       <c r="P997" s="4" t="s">
-        <v>173</v>
+        <v>1077</v>
       </c>
     </row>
     <row r="998">
@@ -48044,33 +47897,33 @@
         <v>163</v>
       </c>
       <c r="C998" s="4" t="s">
-        <v>1083</v>
+        <v>708</v>
       </c>
       <c r="D998"/>
       <c r="E998"/>
       <c r="F998" s="4" t="s">
-        <v>1680</v>
+        <v>1675</v>
       </c>
       <c r="G998" s="4" t="s">
-        <v>1608</v>
+        <v>1676</v>
       </c>
       <c r="H998"/>
       <c r="I998" s="4" t="s">
-        <v>1681</v>
+        <v>1105</v>
       </c>
       <c r="J998"/>
       <c r="K998" s="4" t="s">
-        <v>1682</v>
+        <v>1677</v>
       </c>
       <c r="L998" s="4" t="s">
-        <v>1683</v>
+        <v>1678</v>
       </c>
       <c r="M998"/>
       <c r="N998" s="4" t="s">
-        <v>1684</v>
+        <v>1679</v>
       </c>
       <c r="O998" s="4" t="s">
-        <v>1685</v>
+        <v>1680</v>
       </c>
       <c r="P998" s="4" t="s">
         <v>173</v>
@@ -48084,38 +47937,36 @@
         <v>163</v>
       </c>
       <c r="C999" s="4" t="s">
-        <v>1021</v>
+        <v>1376</v>
       </c>
       <c r="D999"/>
       <c r="E999"/>
       <c r="F999" s="4" t="s">
-        <v>1686</v>
+        <v>1681</v>
       </c>
       <c r="G999" s="4" t="s">
-        <v>1687</v>
-      </c>
-      <c r="H999" s="4" t="s">
-        <v>1688</v>
-      </c>
+        <v>1664</v>
+      </c>
+      <c r="H999"/>
       <c r="I999" s="4" t="s">
-        <v>1061</v>
+        <v>1682</v>
       </c>
       <c r="J999"/>
       <c r="K999" s="4" t="s">
-        <v>1689</v>
+        <v>1683</v>
       </c>
       <c r="L999" s="4" t="s">
-        <v>1690</v>
+        <v>1684</v>
       </c>
       <c r="M999"/>
       <c r="N999" s="4" t="s">
-        <v>1691</v>
+        <v>1685</v>
       </c>
       <c r="O999" s="4" t="s">
-        <v>1692</v>
+        <v>1686</v>
       </c>
       <c r="P999" s="4" t="s">
-        <v>173</v>
+        <v>1383</v>
       </c>
     </row>
     <row r="1000">
@@ -48126,35 +47977,33 @@
         <v>163</v>
       </c>
       <c r="C1000" s="4" t="s">
-        <v>1021</v>
+        <v>708</v>
       </c>
       <c r="D1000"/>
       <c r="E1000"/>
       <c r="F1000" s="4" t="s">
-        <v>1693</v>
+        <v>1687</v>
       </c>
       <c r="G1000" s="4" t="s">
-        <v>1694</v>
-      </c>
-      <c r="H1000" s="4" t="s">
-        <v>1695</v>
-      </c>
+        <v>1573</v>
+      </c>
+      <c r="H1000"/>
       <c r="I1000" s="4" t="s">
-        <v>1696</v>
+        <v>1105</v>
       </c>
       <c r="J1000"/>
       <c r="K1000" s="4" t="s">
-        <v>1697</v>
+        <v>1688</v>
       </c>
       <c r="L1000" s="4" t="s">
-        <v>1698</v>
+        <v>1689</v>
       </c>
       <c r="M1000"/>
       <c r="N1000" s="4" t="s">
-        <v>1699</v>
+        <v>1690</v>
       </c>
       <c r="O1000" s="4" t="s">
-        <v>1700</v>
+        <v>1691</v>
       </c>
       <c r="P1000" s="4" t="s">
         <v>173</v>
@@ -48168,33 +48017,35 @@
         <v>163</v>
       </c>
       <c r="C1001" s="4" t="s">
-        <v>1066</v>
+        <v>708</v>
       </c>
       <c r="D1001"/>
       <c r="E1001"/>
       <c r="F1001" s="4" t="s">
-        <v>1701</v>
+        <v>1692</v>
       </c>
       <c r="G1001" s="4" t="s">
-        <v>1045</v>
-      </c>
-      <c r="H1001"/>
+        <v>1693</v>
+      </c>
+      <c r="H1001" s="4" t="s">
+        <v>711</v>
+      </c>
       <c r="I1001" s="4" t="s">
-        <v>1101</v>
+        <v>1088</v>
       </c>
       <c r="J1001"/>
       <c r="K1001" s="4" t="s">
-        <v>1702</v>
+        <v>1694</v>
       </c>
       <c r="L1001" s="4" t="s">
-        <v>1703</v>
+        <v>1695</v>
       </c>
       <c r="M1001"/>
       <c r="N1001" s="4" t="s">
-        <v>1704</v>
+        <v>1696</v>
       </c>
       <c r="O1001" s="4" t="s">
-        <v>1705</v>
+        <v>1697</v>
       </c>
       <c r="P1001" s="4" t="s">
         <v>173</v>
@@ -48208,38 +48059,38 @@
         <v>163</v>
       </c>
       <c r="C1002" s="4" t="s">
-        <v>1186</v>
+        <v>708</v>
       </c>
       <c r="D1002"/>
       <c r="E1002"/>
       <c r="F1002" s="4" t="s">
-        <v>1706</v>
+        <v>1698</v>
       </c>
       <c r="G1002" s="4" t="s">
-        <v>1707</v>
+        <v>1699</v>
       </c>
       <c r="H1002" s="4" t="s">
-        <v>1602</v>
+        <v>711</v>
       </c>
       <c r="I1002" s="4" t="s">
-        <v>1130</v>
+        <v>1088</v>
       </c>
       <c r="J1002"/>
       <c r="K1002" s="4" t="s">
-        <v>1708</v>
+        <v>1700</v>
       </c>
       <c r="L1002" s="4" t="s">
-        <v>1709</v>
+        <v>1701</v>
       </c>
       <c r="M1002"/>
       <c r="N1002" s="4" t="s">
-        <v>1710</v>
+        <v>1702</v>
       </c>
       <c r="O1002" s="4" t="s">
-        <v>1711</v>
+        <v>1703</v>
       </c>
       <c r="P1002" s="4" t="s">
-        <v>282</v>
+        <v>173</v>
       </c>
     </row>
     <row r="1003">
@@ -48250,36 +48101,38 @@
         <v>163</v>
       </c>
       <c r="C1003" s="4" t="s">
-        <v>1398</v>
+        <v>1101</v>
       </c>
       <c r="D1003"/>
       <c r="E1003"/>
       <c r="F1003" s="4" t="s">
-        <v>1712</v>
+        <v>1704</v>
       </c>
       <c r="G1003" s="4" t="s">
-        <v>1694</v>
-      </c>
-      <c r="H1003"/>
+        <v>1705</v>
+      </c>
+      <c r="H1003" s="4" t="s">
+        <v>1706</v>
+      </c>
       <c r="I1003" s="4" t="s">
-        <v>1713</v>
+        <v>1145</v>
       </c>
       <c r="J1003"/>
       <c r="K1003" s="4" t="s">
-        <v>1714</v>
+        <v>1707</v>
       </c>
       <c r="L1003" s="4" t="s">
-        <v>1715</v>
+        <v>1708</v>
       </c>
       <c r="M1003"/>
       <c r="N1003" s="4" t="s">
-        <v>1716</v>
+        <v>1709</v>
       </c>
       <c r="O1003" s="4" t="s">
-        <v>1717</v>
+        <v>1710</v>
       </c>
       <c r="P1003" s="4" t="s">
-        <v>173</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="1004">
@@ -48290,38 +48143,36 @@
         <v>163</v>
       </c>
       <c r="C1004" s="4" t="s">
-        <v>1186</v>
+        <v>1526</v>
       </c>
       <c r="D1004"/>
       <c r="E1004"/>
       <c r="F1004" s="4" t="s">
-        <v>1718</v>
+        <v>1711</v>
       </c>
       <c r="G1004" s="4" t="s">
-        <v>1608</v>
-      </c>
-      <c r="H1004" s="4" t="s">
-        <v>1602</v>
-      </c>
+        <v>1712</v>
+      </c>
+      <c r="H1004"/>
       <c r="I1004" s="4" t="s">
-        <v>1130</v>
+        <v>1713</v>
       </c>
       <c r="J1004"/>
       <c r="K1004" s="4" t="s">
-        <v>1719</v>
+        <v>1714</v>
       </c>
       <c r="L1004" s="4" t="s">
-        <v>1720</v>
+        <v>1715</v>
       </c>
       <c r="M1004"/>
       <c r="N1004" s="4" t="s">
-        <v>1721</v>
+        <v>1716</v>
       </c>
       <c r="O1004" s="4" t="s">
-        <v>1722</v>
+        <v>1717</v>
       </c>
       <c r="P1004" s="4" t="s">
-        <v>282</v>
+        <v>1533</v>
       </c>
     </row>
     <row r="1005">
@@ -48332,38 +48183,38 @@
         <v>163</v>
       </c>
       <c r="C1005" s="4" t="s">
-        <v>1186</v>
+        <v>708</v>
       </c>
       <c r="D1005"/>
       <c r="E1005"/>
       <c r="F1005" s="4" t="s">
-        <v>1723</v>
+        <v>1718</v>
       </c>
       <c r="G1005" s="4" t="s">
-        <v>1724</v>
+        <v>1719</v>
       </c>
       <c r="H1005" s="4" t="s">
-        <v>1725</v>
+        <v>711</v>
       </c>
       <c r="I1005" s="4" t="s">
-        <v>1110</v>
+        <v>1072</v>
       </c>
       <c r="J1005"/>
       <c r="K1005" s="4" t="s">
-        <v>1726</v>
+        <v>1720</v>
       </c>
       <c r="L1005" s="4" t="s">
-        <v>1727</v>
+        <v>1721</v>
       </c>
       <c r="M1005"/>
       <c r="N1005" s="4" t="s">
-        <v>1728</v>
+        <v>1722</v>
       </c>
       <c r="O1005" s="4" t="s">
-        <v>1729</v>
+        <v>1723</v>
       </c>
       <c r="P1005" s="4" t="s">
-        <v>282</v>
+        <v>173</v>
       </c>
     </row>
     <row r="1006">
@@ -48374,38 +48225,38 @@
         <v>163</v>
       </c>
       <c r="C1006" s="4" t="s">
-        <v>1186</v>
+        <v>1069</v>
       </c>
       <c r="D1006"/>
       <c r="E1006"/>
       <c r="F1006" s="4" t="s">
-        <v>1730</v>
+        <v>1724</v>
       </c>
       <c r="G1006" s="4" t="s">
-        <v>1731</v>
+        <v>1725</v>
       </c>
       <c r="H1006" s="4" t="s">
-        <v>1725</v>
+        <v>1726</v>
       </c>
       <c r="I1006" s="4" t="s">
-        <v>1110</v>
+        <v>1105</v>
       </c>
       <c r="J1006"/>
       <c r="K1006" s="4" t="s">
-        <v>1732</v>
+        <v>1727</v>
       </c>
       <c r="L1006" s="4" t="s">
-        <v>1733</v>
+        <v>1728</v>
       </c>
       <c r="M1006"/>
       <c r="N1006" s="4" t="s">
-        <v>1734</v>
+        <v>1729</v>
       </c>
       <c r="O1006" s="4" t="s">
-        <v>1735</v>
+        <v>1730</v>
       </c>
       <c r="P1006" s="4" t="s">
-        <v>282</v>
+        <v>1077</v>
       </c>
     </row>
     <row r="1007">
@@ -48416,35 +48267,33 @@
         <v>163</v>
       </c>
       <c r="C1007" s="4" t="s">
-        <v>1167</v>
+        <v>708</v>
       </c>
       <c r="D1007"/>
       <c r="E1007"/>
       <c r="F1007" s="4" t="s">
-        <v>1736</v>
+        <v>1731</v>
       </c>
       <c r="G1007" s="4" t="s">
-        <v>1737</v>
-      </c>
-      <c r="H1007" s="4" t="s">
-        <v>1738</v>
-      </c>
+        <v>1732</v>
+      </c>
+      <c r="H1007"/>
       <c r="I1007" s="4" t="s">
-        <v>1070</v>
+        <v>1095</v>
       </c>
       <c r="J1007"/>
       <c r="K1007" s="4" t="s">
-        <v>1739</v>
+        <v>1733</v>
       </c>
       <c r="L1007" s="4" t="s">
-        <v>1740</v>
+        <v>1734</v>
       </c>
       <c r="M1007"/>
       <c r="N1007" s="4" t="s">
-        <v>1741</v>
+        <v>1735</v>
       </c>
       <c r="O1007" s="4" t="s">
-        <v>1742</v>
+        <v>1736</v>
       </c>
       <c r="P1007" s="4" t="s">
         <v>173</v>
@@ -48458,36 +48307,36 @@
         <v>163</v>
       </c>
       <c r="C1008" s="4" t="s">
-        <v>1559</v>
+        <v>1031</v>
       </c>
       <c r="D1008"/>
       <c r="E1008"/>
       <c r="F1008" s="4" t="s">
-        <v>1743</v>
+        <v>1737</v>
       </c>
       <c r="G1008" s="4" t="s">
-        <v>1744</v>
+        <v>863</v>
       </c>
       <c r="H1008"/>
       <c r="I1008" s="4" t="s">
-        <v>1745</v>
+        <v>1033</v>
       </c>
       <c r="J1008"/>
       <c r="K1008" s="4" t="s">
-        <v>1746</v>
+        <v>1738</v>
       </c>
       <c r="L1008" s="4" t="s">
-        <v>1747</v>
+        <v>1739</v>
       </c>
       <c r="M1008"/>
       <c r="N1008" s="4" t="s">
-        <v>1748</v>
+        <v>1740</v>
       </c>
       <c r="O1008" s="4" t="s">
-        <v>1749</v>
+        <v>1741</v>
       </c>
       <c r="P1008" s="4" t="s">
-        <v>173</v>
+        <v>1038</v>
       </c>
     </row>
     <row r="1009">
@@ -48498,38 +48347,36 @@
         <v>163</v>
       </c>
       <c r="C1009" s="4" t="s">
-        <v>1186</v>
+        <v>1742</v>
       </c>
       <c r="D1009"/>
       <c r="E1009"/>
       <c r="F1009" s="4" t="s">
-        <v>1750</v>
+        <v>1743</v>
       </c>
       <c r="G1009" s="4" t="s">
-        <v>1751</v>
-      </c>
-      <c r="H1009" s="4" t="s">
-        <v>1725</v>
-      </c>
+        <v>1744</v>
+      </c>
+      <c r="H1009"/>
       <c r="I1009" s="4" t="s">
-        <v>1152</v>
+        <v>1095</v>
       </c>
       <c r="J1009"/>
       <c r="K1009" s="4" t="s">
-        <v>1752</v>
+        <v>1745</v>
       </c>
       <c r="L1009" s="4" t="s">
-        <v>1753</v>
+        <v>1746</v>
       </c>
       <c r="M1009"/>
       <c r="N1009" s="4" t="s">
-        <v>1754</v>
+        <v>1747</v>
       </c>
       <c r="O1009" s="4" t="s">
-        <v>1755</v>
+        <v>1748</v>
       </c>
       <c r="P1009" s="4" t="s">
-        <v>282</v>
+        <v>1749</v>
       </c>
     </row>
     <row r="1010">
@@ -48540,35 +48387,33 @@
         <v>163</v>
       </c>
       <c r="C1010" s="4" t="s">
-        <v>1066</v>
+        <v>708</v>
       </c>
       <c r="D1010"/>
       <c r="E1010"/>
       <c r="F1010" s="4" t="s">
-        <v>1756</v>
+        <v>1750</v>
       </c>
       <c r="G1010" s="4" t="s">
-        <v>1757</v>
-      </c>
-      <c r="H1010" s="4" t="s">
-        <v>1758</v>
-      </c>
+        <v>1751</v>
+      </c>
+      <c r="H1010"/>
       <c r="I1010" s="4" t="s">
-        <v>1130</v>
+        <v>1095</v>
       </c>
       <c r="J1010"/>
       <c r="K1010" s="4" t="s">
-        <v>1759</v>
+        <v>1752</v>
       </c>
       <c r="L1010" s="4" t="s">
-        <v>1760</v>
+        <v>1753</v>
       </c>
       <c r="M1010"/>
       <c r="N1010" s="4" t="s">
-        <v>1761</v>
+        <v>1754</v>
       </c>
       <c r="O1010" s="4" t="s">
-        <v>1762</v>
+        <v>1755</v>
       </c>
       <c r="P1010" s="4" t="s">
         <v>173</v>
@@ -48582,38 +48427,36 @@
         <v>163</v>
       </c>
       <c r="C1011" s="4" t="s">
-        <v>1186</v>
+        <v>1101</v>
       </c>
       <c r="D1011"/>
       <c r="E1011"/>
       <c r="F1011" s="4" t="s">
-        <v>1763</v>
+        <v>1756</v>
       </c>
       <c r="G1011" s="4" t="s">
-        <v>1764</v>
-      </c>
-      <c r="H1011" s="4" t="s">
-        <v>1765</v>
-      </c>
+        <v>1757</v>
+      </c>
+      <c r="H1011"/>
       <c r="I1011" s="4" t="s">
-        <v>1425</v>
+        <v>1758</v>
       </c>
       <c r="J1011"/>
       <c r="K1011" s="4" t="s">
-        <v>1766</v>
+        <v>1759</v>
       </c>
       <c r="L1011" s="4" t="s">
-        <v>1767</v>
+        <v>1760</v>
       </c>
       <c r="M1011"/>
       <c r="N1011" s="4" t="s">
-        <v>1768</v>
+        <v>1761</v>
       </c>
       <c r="O1011" s="4" t="s">
-        <v>1769</v>
+        <v>1762</v>
       </c>
       <c r="P1011" s="4" t="s">
-        <v>282</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="1012">
@@ -48624,36 +48467,38 @@
         <v>163</v>
       </c>
       <c r="C1012" s="4" t="s">
-        <v>1030</v>
+        <v>855</v>
       </c>
       <c r="D1012"/>
       <c r="E1012"/>
       <c r="F1012" s="4" t="s">
-        <v>1770</v>
+        <v>1763</v>
       </c>
       <c r="G1012" s="4" t="s">
-        <v>1771</v>
-      </c>
-      <c r="H1012"/>
+        <v>1764</v>
+      </c>
+      <c r="H1012" s="4" t="s">
+        <v>1186</v>
+      </c>
       <c r="I1012" s="4" t="s">
-        <v>1032</v>
+        <v>1765</v>
       </c>
       <c r="J1012"/>
       <c r="K1012" s="4" t="s">
-        <v>1772</v>
+        <v>1766</v>
       </c>
       <c r="L1012" s="4" t="s">
-        <v>1773</v>
+        <v>1767</v>
       </c>
       <c r="M1012"/>
       <c r="N1012" s="4" t="s">
-        <v>1774</v>
+        <v>1768</v>
       </c>
       <c r="O1012" s="4" t="s">
-        <v>1775</v>
+        <v>1769</v>
       </c>
       <c r="P1012" s="4" t="s">
-        <v>282</v>
+        <v>17</v>
       </c>
     </row>
     <row r="1013">
@@ -48664,38 +48509,36 @@
         <v>163</v>
       </c>
       <c r="C1013" s="4" t="s">
-        <v>1776</v>
+        <v>1770</v>
       </c>
       <c r="D1013"/>
       <c r="E1013"/>
       <c r="F1013" s="4" t="s">
-        <v>1777</v>
+        <v>1771</v>
       </c>
       <c r="G1013" s="4" t="s">
-        <v>1778</v>
-      </c>
-      <c r="H1013" s="4" t="s">
-        <v>1779</v>
-      </c>
+        <v>1772</v>
+      </c>
+      <c r="H1013"/>
       <c r="I1013" s="4" t="s">
-        <v>1425</v>
+        <v>1430</v>
       </c>
       <c r="J1013"/>
       <c r="K1013" s="4" t="s">
-        <v>1780</v>
+        <v>1773</v>
       </c>
       <c r="L1013" s="4" t="s">
-        <v>1781</v>
+        <v>1774</v>
       </c>
       <c r="M1013"/>
       <c r="N1013" s="4" t="s">
-        <v>1782</v>
+        <v>1775</v>
       </c>
       <c r="O1013" s="4" t="s">
-        <v>1783</v>
+        <v>1776</v>
       </c>
       <c r="P1013" s="4" t="s">
-        <v>324</v>
+        <v>1777</v>
       </c>
     </row>
     <row r="1014">
@@ -48706,38 +48549,38 @@
         <v>163</v>
       </c>
       <c r="C1014" s="4" t="s">
-        <v>1186</v>
+        <v>1078</v>
       </c>
       <c r="D1014"/>
       <c r="E1014"/>
       <c r="F1014" s="4" t="s">
-        <v>1784</v>
+        <v>1778</v>
       </c>
       <c r="G1014" s="4" t="s">
-        <v>1785</v>
+        <v>1779</v>
       </c>
       <c r="H1014" s="4" t="s">
-        <v>1786</v>
+        <v>1780</v>
       </c>
       <c r="I1014" s="4" t="s">
-        <v>1425</v>
+        <v>1781</v>
       </c>
       <c r="J1014"/>
       <c r="K1014" s="4" t="s">
-        <v>1787</v>
+        <v>1782</v>
       </c>
       <c r="L1014" s="4" t="s">
-        <v>1788</v>
+        <v>1783</v>
       </c>
       <c r="M1014"/>
       <c r="N1014" s="4" t="s">
-        <v>1789</v>
+        <v>1784</v>
       </c>
       <c r="O1014" s="4" t="s">
-        <v>1790</v>
+        <v>1785</v>
       </c>
       <c r="P1014" s="4" t="s">
-        <v>282</v>
+        <v>1085</v>
       </c>
     </row>
     <row r="1015">
@@ -48748,33 +48591,35 @@
         <v>163</v>
       </c>
       <c r="C1015" s="4" t="s">
-        <v>1167</v>
+        <v>708</v>
       </c>
       <c r="D1015"/>
       <c r="E1015"/>
       <c r="F1015" s="4" t="s">
-        <v>1791</v>
+        <v>1786</v>
       </c>
       <c r="G1015" s="4" t="s">
-        <v>1792</v>
-      </c>
-      <c r="H1015"/>
+        <v>1787</v>
+      </c>
+      <c r="H1015" s="4" t="s">
+        <v>976</v>
+      </c>
       <c r="I1015" s="4" t="s">
-        <v>1793</v>
+        <v>1095</v>
       </c>
       <c r="J1015"/>
       <c r="K1015" s="4" t="s">
-        <v>1794</v>
+        <v>1788</v>
       </c>
       <c r="L1015" s="4" t="s">
-        <v>1795</v>
+        <v>1789</v>
       </c>
       <c r="M1015"/>
       <c r="N1015" s="4" t="s">
-        <v>1796</v>
+        <v>1790</v>
       </c>
       <c r="O1015" s="4" t="s">
-        <v>1797</v>
+        <v>1791</v>
       </c>
       <c r="P1015" s="4" t="s">
         <v>173</v>
@@ -48788,38 +48633,38 @@
         <v>163</v>
       </c>
       <c r="C1016" s="4" t="s">
-        <v>1058</v>
+        <v>1069</v>
       </c>
       <c r="D1016"/>
       <c r="E1016"/>
       <c r="F1016" s="4" t="s">
-        <v>1798</v>
+        <v>1792</v>
       </c>
       <c r="G1016" s="4" t="s">
-        <v>1799</v>
+        <v>1793</v>
       </c>
       <c r="H1016" s="4" t="s">
-        <v>1078</v>
+        <v>1794</v>
       </c>
       <c r="I1016" s="4" t="s">
-        <v>1800</v>
+        <v>1105</v>
       </c>
       <c r="J1016"/>
       <c r="K1016" s="4" t="s">
-        <v>1801</v>
+        <v>1795</v>
       </c>
       <c r="L1016" s="4" t="s">
-        <v>1802</v>
+        <v>1796</v>
       </c>
       <c r="M1016"/>
       <c r="N1016" s="4" t="s">
-        <v>1803</v>
+        <v>1797</v>
       </c>
       <c r="O1016" s="4" t="s">
-        <v>1804</v>
+        <v>1798</v>
       </c>
       <c r="P1016" s="4" t="s">
-        <v>17</v>
+        <v>1077</v>
       </c>
     </row>
     <row r="1017">
@@ -48830,36 +48675,38 @@
         <v>163</v>
       </c>
       <c r="C1017" s="4" t="s">
-        <v>1805</v>
+        <v>1069</v>
       </c>
       <c r="D1017"/>
       <c r="E1017"/>
       <c r="F1017" s="4" t="s">
-        <v>1806</v>
+        <v>1799</v>
       </c>
       <c r="G1017" s="4" t="s">
-        <v>1807</v>
-      </c>
-      <c r="H1017"/>
+        <v>1800</v>
+      </c>
+      <c r="H1017" s="4" t="s">
+        <v>1794</v>
+      </c>
       <c r="I1017" s="4" t="s">
-        <v>1464</v>
+        <v>1105</v>
       </c>
       <c r="J1017"/>
       <c r="K1017" s="4" t="s">
-        <v>1808</v>
+        <v>1801</v>
       </c>
       <c r="L1017" s="4" t="s">
-        <v>1809</v>
+        <v>1802</v>
       </c>
       <c r="M1017"/>
       <c r="N1017" s="4" t="s">
-        <v>1810</v>
+        <v>1803</v>
       </c>
       <c r="O1017" s="4" t="s">
-        <v>1811</v>
+        <v>1804</v>
       </c>
       <c r="P1017" s="4" t="s">
-        <v>173</v>
+        <v>1077</v>
       </c>
     </row>
     <row r="1018">
@@ -48870,38 +48717,38 @@
         <v>163</v>
       </c>
       <c r="C1018" s="4" t="s">
-        <v>1091</v>
+        <v>1069</v>
       </c>
       <c r="D1018"/>
       <c r="E1018"/>
       <c r="F1018" s="4" t="s">
-        <v>1812</v>
+        <v>1805</v>
       </c>
       <c r="G1018" s="4" t="s">
-        <v>1813</v>
+        <v>1806</v>
       </c>
       <c r="H1018" s="4" t="s">
-        <v>1814</v>
+        <v>1265</v>
       </c>
       <c r="I1018" s="4" t="s">
-        <v>1815</v>
+        <v>1145</v>
       </c>
       <c r="J1018"/>
       <c r="K1018" s="4" t="s">
-        <v>1816</v>
+        <v>1807</v>
       </c>
       <c r="L1018" s="4" t="s">
-        <v>1817</v>
+        <v>1808</v>
       </c>
       <c r="M1018"/>
       <c r="N1018" s="4" t="s">
-        <v>1818</v>
+        <v>1809</v>
       </c>
       <c r="O1018" s="4" t="s">
-        <v>1819</v>
+        <v>1810</v>
       </c>
       <c r="P1018" s="4" t="s">
-        <v>173</v>
+        <v>1077</v>
       </c>
     </row>
     <row r="1019">
@@ -48912,38 +48759,36 @@
         <v>163</v>
       </c>
       <c r="C1019" s="4" t="s">
-        <v>1186</v>
+        <v>708</v>
       </c>
       <c r="D1019"/>
       <c r="E1019"/>
       <c r="F1019" s="4" t="s">
-        <v>1820</v>
+        <v>1811</v>
       </c>
       <c r="G1019" s="4" t="s">
-        <v>1821</v>
-      </c>
-      <c r="H1019" s="4" t="s">
-        <v>1822</v>
-      </c>
+        <v>1812</v>
+      </c>
+      <c r="H1019"/>
       <c r="I1019" s="4" t="s">
-        <v>1425</v>
+        <v>1072</v>
       </c>
       <c r="J1019"/>
       <c r="K1019" s="4" t="s">
-        <v>1823</v>
+        <v>1813</v>
       </c>
       <c r="L1019" s="4" t="s">
-        <v>1824</v>
+        <v>1814</v>
       </c>
       <c r="M1019"/>
       <c r="N1019" s="4" t="s">
-        <v>1825</v>
+        <v>1815</v>
       </c>
       <c r="O1019" s="4" t="s">
-        <v>1826</v>
+        <v>1816</v>
       </c>
       <c r="P1019" s="4" t="s">
-        <v>282</v>
+        <v>173</v>
       </c>
     </row>
     <row r="1020">
@@ -48954,35 +48799,33 @@
         <v>163</v>
       </c>
       <c r="C1020" s="4" t="s">
-        <v>1066</v>
+        <v>708</v>
       </c>
       <c r="D1020"/>
       <c r="E1020"/>
       <c r="F1020" s="4" t="s">
-        <v>1827</v>
+        <v>1817</v>
       </c>
       <c r="G1020" s="4" t="s">
-        <v>1828</v>
-      </c>
-      <c r="H1020" s="4" t="s">
-        <v>1829</v>
-      </c>
+        <v>1818</v>
+      </c>
+      <c r="H1020"/>
       <c r="I1020" s="4" t="s">
-        <v>1130</v>
+        <v>1095</v>
       </c>
       <c r="J1020"/>
       <c r="K1020" s="4" t="s">
-        <v>1830</v>
+        <v>1819</v>
       </c>
       <c r="L1020" s="4" t="s">
-        <v>1831</v>
+        <v>1820</v>
       </c>
       <c r="M1020"/>
       <c r="N1020" s="4" t="s">
-        <v>1832</v>
+        <v>1821</v>
       </c>
       <c r="O1020" s="4" t="s">
-        <v>1833</v>
+        <v>1822</v>
       </c>
       <c r="P1020" s="4" t="s">
         <v>173</v>
@@ -48996,204 +48839,36 @@
         <v>163</v>
       </c>
       <c r="C1021" s="4" t="s">
-        <v>1066</v>
+        <v>1298</v>
       </c>
       <c r="D1021"/>
       <c r="E1021"/>
       <c r="F1021" s="4" t="s">
-        <v>1834</v>
+        <v>1299</v>
       </c>
       <c r="G1021" s="4" t="s">
-        <v>1835</v>
-      </c>
-      <c r="H1021" s="4" t="s">
-        <v>1829</v>
-      </c>
+        <v>1823</v>
+      </c>
+      <c r="H1021"/>
       <c r="I1021" s="4" t="s">
-        <v>1130</v>
+        <v>1165</v>
       </c>
       <c r="J1021"/>
       <c r="K1021" s="4" t="s">
-        <v>1836</v>
+        <v>1824</v>
       </c>
       <c r="L1021" s="4" t="s">
-        <v>1837</v>
+        <v>1825</v>
       </c>
       <c r="M1021"/>
       <c r="N1021" s="4" t="s">
-        <v>1838</v>
+        <v>1303</v>
       </c>
       <c r="O1021" s="4" t="s">
-        <v>1839</v>
+        <v>1826</v>
       </c>
       <c r="P1021" s="4" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="1022">
-      <c r="A1022" s="4" t="s">
-        <v>1020</v>
-      </c>
-      <c r="B1022" s="4" t="s">
-        <v>163</v>
-      </c>
-      <c r="C1022" s="4" t="s">
-        <v>1066</v>
-      </c>
-      <c r="D1022"/>
-      <c r="E1022"/>
-      <c r="F1022" s="4" t="s">
-        <v>1840</v>
-      </c>
-      <c r="G1022" s="4" t="s">
-        <v>1841</v>
-      </c>
-      <c r="H1022" s="4" t="s">
-        <v>1842</v>
-      </c>
-      <c r="I1022" s="4" t="s">
-        <v>1070</v>
-      </c>
-      <c r="J1022"/>
-      <c r="K1022" s="4" t="s">
-        <v>1843</v>
-      </c>
-      <c r="L1022" s="4" t="s">
-        <v>1844</v>
-      </c>
-      <c r="M1022"/>
-      <c r="N1022" s="4" t="s">
-        <v>1845</v>
-      </c>
-      <c r="O1022" s="4" t="s">
-        <v>1846</v>
-      </c>
-      <c r="P1022" s="4" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="1023">
-      <c r="A1023" s="4" t="s">
-        <v>1020</v>
-      </c>
-      <c r="B1023" s="4" t="s">
-        <v>163</v>
-      </c>
-      <c r="C1023" s="4" t="s">
-        <v>1186</v>
-      </c>
-      <c r="D1023"/>
-      <c r="E1023"/>
-      <c r="F1023" s="4" t="s">
-        <v>1847</v>
-      </c>
-      <c r="G1023" s="4" t="s">
-        <v>1848</v>
-      </c>
-      <c r="H1023" s="4" t="s">
-        <v>1498</v>
-      </c>
-      <c r="I1023" s="4" t="s">
-        <v>1152</v>
-      </c>
-      <c r="J1023"/>
-      <c r="K1023" s="4" t="s">
-        <v>1849</v>
-      </c>
-      <c r="L1023" s="4" t="s">
-        <v>1850</v>
-      </c>
-      <c r="M1023"/>
-      <c r="N1023" s="4" t="s">
-        <v>1851</v>
-      </c>
-      <c r="O1023" s="4" t="s">
-        <v>1852</v>
-      </c>
-      <c r="P1023" s="4" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="1024">
-      <c r="A1024" s="4" t="s">
-        <v>1020</v>
-      </c>
-      <c r="B1024" s="4" t="s">
-        <v>163</v>
-      </c>
-      <c r="C1024" s="4" t="s">
-        <v>1186</v>
-      </c>
-      <c r="D1024"/>
-      <c r="E1024"/>
-      <c r="F1024" s="4" t="s">
-        <v>1853</v>
-      </c>
-      <c r="G1024" s="4" t="s">
-        <v>1854</v>
-      </c>
-      <c r="H1024" s="4" t="s">
-        <v>1855</v>
-      </c>
-      <c r="I1024" s="4" t="s">
-        <v>1425</v>
-      </c>
-      <c r="J1024"/>
-      <c r="K1024" s="4" t="s">
-        <v>1856</v>
-      </c>
-      <c r="L1024" s="4" t="s">
-        <v>1857</v>
-      </c>
-      <c r="M1024"/>
-      <c r="N1024" s="4" t="s">
-        <v>1858</v>
-      </c>
-      <c r="O1024" s="4" t="s">
-        <v>1859</v>
-      </c>
-      <c r="P1024" s="4" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="1025">
-      <c r="A1025" s="4" t="s">
-        <v>1020</v>
-      </c>
-      <c r="B1025" s="4" t="s">
-        <v>163</v>
-      </c>
-      <c r="C1025" s="4" t="s">
-        <v>1324</v>
-      </c>
-      <c r="D1025"/>
-      <c r="E1025"/>
-      <c r="F1025" s="4" t="s">
-        <v>1100</v>
-      </c>
-      <c r="G1025" s="4" t="s">
-        <v>1860</v>
-      </c>
-      <c r="H1025"/>
-      <c r="I1025" s="4" t="s">
-        <v>1101</v>
-      </c>
-      <c r="J1025"/>
-      <c r="K1025" s="4" t="s">
-        <v>1861</v>
-      </c>
-      <c r="L1025" s="4" t="s">
-        <v>1862</v>
-      </c>
-      <c r="M1025"/>
-      <c r="N1025" s="4" t="s">
-        <v>1104</v>
-      </c>
-      <c r="O1025" s="4" t="s">
-        <v>1863</v>
-      </c>
-      <c r="P1025" s="4" t="s">
-        <v>173</v>
+        <v>1305</v>
       </c>
     </row>
   </sheetData>

--- a/Dataset_CAT.xlsx
+++ b/Dataset_CAT.xlsx
@@ -6,7 +6,7 @@
     <workbookView activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Multiply" r:id="rId3" sheetId="1"/>
+    <sheet name="Multiply events" r:id="rId3" sheetId="1"/>
   </sheets>
 </workbook>
 </file>
